--- a/firebase_data_from_spyEnsembleVSMO_v2.xlsx
+++ b/firebase_data_from_spyEnsembleVSMO_v2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="755">
   <si>
     <t>date</t>
   </si>
@@ -1660,6 +1660,18 @@
     <t>2025-07-28</t>
   </si>
   <si>
+    <t>2025-07-29</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-07-31</t>
+  </si>
+  <si>
+    <t>2025-08-01</t>
+  </si>
+  <si>
     <t>0.00</t>
   </si>
   <si>
@@ -2261,6 +2273,12 @@
   </si>
   <si>
     <t>54.27</t>
+  </si>
+  <si>
+    <t>83.50</t>
+  </si>
+  <si>
+    <t>75.49</t>
   </si>
 </sst>
 </file>
@@ -2618,7 +2636,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H542"/>
+  <dimension ref="A1:H546"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2670,7 +2688,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2696,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2722,7 +2740,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2748,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2774,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2800,7 +2818,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2826,7 +2844,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2852,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2878,7 +2896,7 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2904,7 +2922,7 @@
         <v>0.04303446040071349</v>
       </c>
       <c r="H11" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2930,7 +2948,7 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2956,7 +2974,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2982,7 +3000,7 @@
         <v>0.915256809318685</v>
       </c>
       <c r="H14" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3008,7 +3026,7 @@
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -3034,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -3060,7 +3078,7 @@
         <v>0.6184143588780344</v>
       </c>
       <c r="H17" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -3086,7 +3104,7 @@
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -3112,7 +3130,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -3138,7 +3156,7 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3164,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3190,7 +3208,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -3216,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3242,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3268,7 +3286,7 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -3294,7 +3312,7 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3320,7 +3338,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3346,7 +3364,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3372,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3398,7 +3416,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3424,7 +3442,7 @@
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3450,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3476,7 +3494,7 @@
         <v>0.745393260242324</v>
       </c>
       <c r="H33" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3502,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3528,7 +3546,7 @@
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3554,7 +3572,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3580,7 +3598,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3606,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3632,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3658,7 +3676,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3684,7 +3702,7 @@
         <v>0.683079705692312</v>
       </c>
       <c r="H41" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3710,7 +3728,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3736,7 +3754,7 @@
         <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3762,7 +3780,7 @@
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3788,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3814,7 +3832,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3840,7 +3858,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3866,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3892,7 +3910,7 @@
         <v>0.4307420609211915</v>
       </c>
       <c r="H49" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3918,7 +3936,7 @@
         <v>0.4817317520945901</v>
       </c>
       <c r="H50" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3944,7 +3962,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3970,7 +3988,7 @@
         <v>0.5570981908629731</v>
       </c>
       <c r="H52" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3996,7 +4014,7 @@
         <v>0.7872019792055407</v>
       </c>
       <c r="H53" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -4022,7 +4040,7 @@
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -4048,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -4074,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -4100,7 +4118,7 @@
         <v>0.215245798636519</v>
       </c>
       <c r="H57" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -4126,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -4152,7 +4170,7 @@
         <v>0.3135669763477688</v>
       </c>
       <c r="H59" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -4178,7 +4196,7 @@
         <v>0.1529716371439602</v>
       </c>
       <c r="H60" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -4204,7 +4222,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -4230,7 +4248,7 @@
         <v>0.3106901159644614</v>
       </c>
       <c r="H62" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -4256,7 +4274,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -4282,7 +4300,7 @@
         <v>0.2867490636277352</v>
       </c>
       <c r="H64" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -4308,7 +4326,7 @@
         <v>0.9498742410172212</v>
       </c>
       <c r="H65" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -4334,7 +4352,7 @@
         <v>1</v>
       </c>
       <c r="H66" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -4360,7 +4378,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -4386,7 +4404,7 @@
         <v>1</v>
       </c>
       <c r="H68" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4412,7 +4430,7 @@
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4438,7 +4456,7 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4464,7 +4482,7 @@
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4490,7 +4508,7 @@
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4516,7 +4534,7 @@
         <v>0.1304718106398864</v>
       </c>
       <c r="H73" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4542,7 +4560,7 @@
         <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4568,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4594,7 +4612,7 @@
         <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4620,7 +4638,7 @@
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4646,7 +4664,7 @@
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4672,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4698,7 +4716,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4724,7 +4742,7 @@
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4750,7 +4768,7 @@
         <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4776,7 +4794,7 @@
         <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4802,7 +4820,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4828,7 +4846,7 @@
         <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4854,7 +4872,7 @@
         <v>0.414032993753131</v>
       </c>
       <c r="H86" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4880,7 +4898,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4906,7 +4924,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4932,7 +4950,7 @@
         <v>1</v>
       </c>
       <c r="H89" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4958,7 +4976,7 @@
         <v>1</v>
       </c>
       <c r="H90" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4984,7 +5002,7 @@
         <v>1</v>
       </c>
       <c r="H91" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -5010,7 +5028,7 @@
         <v>0.9279948866595563</v>
       </c>
       <c r="H92" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -5036,7 +5054,7 @@
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -5062,7 +5080,7 @@
         <v>1</v>
       </c>
       <c r="H94" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -5088,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -5114,7 +5132,7 @@
         <v>0.1871628344782118</v>
       </c>
       <c r="H96" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -5140,7 +5158,7 @@
         <v>1</v>
       </c>
       <c r="H97" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -5166,7 +5184,7 @@
         <v>1</v>
       </c>
       <c r="H98" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -5192,7 +5210,7 @@
         <v>0.8771001701943608</v>
       </c>
       <c r="H99" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -5218,7 +5236,7 @@
         <v>0.2146591320888346</v>
       </c>
       <c r="H100" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -5244,7 +5262,7 @@
         <v>1</v>
       </c>
       <c r="H101" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -5270,7 +5288,7 @@
         <v>1</v>
       </c>
       <c r="H102" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -5296,7 +5314,7 @@
         <v>1</v>
       </c>
       <c r="H103" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -5322,7 +5340,7 @@
         <v>1</v>
       </c>
       <c r="H104" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -5348,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5374,7 +5392,7 @@
         <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5400,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="H107" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5426,7 +5444,7 @@
         <v>1</v>
       </c>
       <c r="H108" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5452,7 +5470,7 @@
         <v>1</v>
       </c>
       <c r="H109" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5478,7 +5496,7 @@
         <v>1</v>
       </c>
       <c r="H110" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5504,7 +5522,7 @@
         <v>1</v>
       </c>
       <c r="H111" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5530,7 +5548,7 @@
         <v>0.2055505200809835</v>
       </c>
       <c r="H112" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5556,7 +5574,7 @@
         <v>1</v>
       </c>
       <c r="H113" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5582,7 +5600,7 @@
         <v>0.2995528011053107</v>
       </c>
       <c r="H114" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5608,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5634,7 +5652,7 @@
         <v>0.4699445027580825</v>
       </c>
       <c r="H116" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5660,7 +5678,7 @@
         <v>0.770937588646547</v>
       </c>
       <c r="H117" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5686,7 +5704,7 @@
         <v>0.7826457521192932</v>
       </c>
       <c r="H118" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5712,7 +5730,7 @@
         <v>0.4304704948469578</v>
       </c>
       <c r="H119" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5738,7 +5756,7 @@
         <v>1</v>
       </c>
       <c r="H120" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5764,7 +5782,7 @@
         <v>0.6719963442506929</v>
       </c>
       <c r="H121" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5790,7 +5808,7 @@
         <v>1</v>
       </c>
       <c r="H122" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5816,7 +5834,7 @@
         <v>0.5375310953297759</v>
       </c>
       <c r="H123" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5842,7 +5860,7 @@
         <v>0.6497318652602996</v>
       </c>
       <c r="H124" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5868,7 +5886,7 @@
         <v>0.4013470357796504</v>
       </c>
       <c r="H125" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5894,7 +5912,7 @@
         <v>0.4404307186051412</v>
       </c>
       <c r="H126" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5920,7 +5938,7 @@
         <v>0.7535410487481622</v>
       </c>
       <c r="H127" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5946,7 +5964,7 @@
         <v>0.1968264148093589</v>
       </c>
       <c r="H128" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5972,7 +5990,7 @@
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5998,7 +6016,7 @@
         <v>0.5903062422634243</v>
       </c>
       <c r="H130" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -6024,7 +6042,7 @@
         <v>0.3143863952226104</v>
       </c>
       <c r="H131" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -6050,7 +6068,7 @@
         <v>0.5251513973196068</v>
       </c>
       <c r="H132" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -6076,7 +6094,7 @@
         <v>0.26776714123178</v>
       </c>
       <c r="H133" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -6102,7 +6120,7 @@
         <v>0.2026359533431654</v>
       </c>
       <c r="H134" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -6128,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="H135" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -6154,7 +6172,7 @@
         <v>1</v>
       </c>
       <c r="H136" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -6180,7 +6198,7 @@
         <v>0.5557953472408601</v>
       </c>
       <c r="H137" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -6206,7 +6224,7 @@
         <v>1</v>
       </c>
       <c r="H138" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -6232,7 +6250,7 @@
         <v>1</v>
       </c>
       <c r="H139" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -6258,7 +6276,7 @@
         <v>0.8945463189254167</v>
       </c>
       <c r="H140" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -6284,7 +6302,7 @@
         <v>0.6772450649528653</v>
       </c>
       <c r="H141" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -6310,7 +6328,7 @@
         <v>0.9188898615772668</v>
       </c>
       <c r="H142" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -6336,7 +6354,7 @@
         <v>0.6808222412559765</v>
       </c>
       <c r="H143" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -6362,7 +6380,7 @@
         <v>0.7236705146772729</v>
       </c>
       <c r="H144" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -6388,7 +6406,7 @@
         <v>1</v>
       </c>
       <c r="H145" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -6414,7 +6432,7 @@
         <v>1</v>
       </c>
       <c r="H146" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -6440,7 +6458,7 @@
         <v>0.4083837438899106</v>
       </c>
       <c r="H147" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6466,7 +6484,7 @@
         <v>1</v>
       </c>
       <c r="H148" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6492,7 +6510,7 @@
         <v>0</v>
       </c>
       <c r="H149" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6518,7 +6536,7 @@
         <v>0.6711645860416422</v>
       </c>
       <c r="H150" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6544,7 +6562,7 @@
         <v>0.2715172141387561</v>
       </c>
       <c r="H151" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6570,7 +6588,7 @@
         <v>0.2398762302450229</v>
       </c>
       <c r="H152" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6596,7 +6614,7 @@
         <v>0.5664737805177642</v>
       </c>
       <c r="H153" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6622,7 +6640,7 @@
         <v>0.4223113145194125</v>
       </c>
       <c r="H154" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6648,7 +6666,7 @@
         <v>0.3667629390545308</v>
       </c>
       <c r="H155" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6674,7 +6692,7 @@
         <v>0.9231722118787783</v>
       </c>
       <c r="H156" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6700,7 +6718,7 @@
         <v>0.9851787420357059</v>
       </c>
       <c r="H157" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6726,7 +6744,7 @@
         <v>0.4518542194729144</v>
       </c>
       <c r="H158" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6752,7 +6770,7 @@
         <v>0.4964868798335714</v>
       </c>
       <c r="H159" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6778,7 +6796,7 @@
         <v>1</v>
       </c>
       <c r="H160" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6804,7 +6822,7 @@
         <v>1</v>
       </c>
       <c r="H161" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6830,7 +6848,7 @@
         <v>1</v>
       </c>
       <c r="H162" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6856,7 +6874,7 @@
         <v>0.6766899544020667</v>
       </c>
       <c r="H163" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6882,7 +6900,7 @@
         <v>1</v>
       </c>
       <c r="H164" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6908,7 +6926,7 @@
         <v>0</v>
       </c>
       <c r="H165" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6934,7 +6952,7 @@
         <v>0.6910065861261394</v>
       </c>
       <c r="H166" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6960,7 +6978,7 @@
         <v>1</v>
       </c>
       <c r="H167" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6986,7 +7004,7 @@
         <v>1</v>
       </c>
       <c r="H168" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -7012,7 +7030,7 @@
         <v>1</v>
       </c>
       <c r="H169" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -7038,7 +7056,7 @@
         <v>0.3087324093735406</v>
       </c>
       <c r="H170" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -7064,7 +7082,7 @@
         <v>0.6040906971093285</v>
       </c>
       <c r="H171" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -7090,7 +7108,7 @@
         <v>1</v>
       </c>
       <c r="H172" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -7116,7 +7134,7 @@
         <v>1</v>
       </c>
       <c r="H173" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -7142,7 +7160,7 @@
         <v>0.5411987563813702</v>
       </c>
       <c r="H174" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -7168,7 +7186,7 @@
         <v>1</v>
       </c>
       <c r="H175" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -7194,7 +7212,7 @@
         <v>0.5366275239822063</v>
       </c>
       <c r="H176" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -7220,7 +7238,7 @@
         <v>0.7616464524958171</v>
       </c>
       <c r="H177" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -7246,7 +7264,7 @@
         <v>0.778584820565025</v>
       </c>
       <c r="H178" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -7272,7 +7290,7 @@
         <v>1</v>
       </c>
       <c r="H179" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -7298,7 +7316,7 @@
         <v>0.779814372339514</v>
       </c>
       <c r="H180" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -7324,7 +7342,7 @@
         <v>1</v>
       </c>
       <c r="H181" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -7350,7 +7368,7 @@
         <v>1</v>
       </c>
       <c r="H182" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -7376,7 +7394,7 @@
         <v>1</v>
       </c>
       <c r="H183" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -7402,7 +7420,7 @@
         <v>1</v>
       </c>
       <c r="H184" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -7428,7 +7446,7 @@
         <v>1</v>
       </c>
       <c r="H185" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -7454,7 +7472,7 @@
         <v>1</v>
       </c>
       <c r="H186" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7480,7 +7498,7 @@
         <v>0.3910910264558739</v>
       </c>
       <c r="H187" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7506,7 +7524,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7532,7 +7550,7 @@
         <v>0.3782183282254096</v>
       </c>
       <c r="H189" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7558,7 +7576,7 @@
         <v>1</v>
       </c>
       <c r="H190" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7584,7 +7602,7 @@
         <v>1</v>
       </c>
       <c r="H191" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7610,7 +7628,7 @@
         <v>0.5022217334415366</v>
       </c>
       <c r="H192" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7636,7 +7654,7 @@
         <v>0.5141989063837532</v>
       </c>
       <c r="H193" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7662,7 +7680,7 @@
         <v>0.3056884663520373</v>
       </c>
       <c r="H194" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7688,7 +7706,7 @@
         <v>0.9738865825460928</v>
       </c>
       <c r="H195" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7714,7 +7732,7 @@
         <v>0.3670780584150713</v>
       </c>
       <c r="H196" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7740,7 +7758,7 @@
         <v>0</v>
       </c>
       <c r="H197" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7766,7 +7784,7 @@
         <v>0</v>
       </c>
       <c r="H198" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7792,7 +7810,7 @@
         <v>0</v>
       </c>
       <c r="H199" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7818,7 +7836,7 @@
         <v>0.2629434170052546</v>
       </c>
       <c r="H200" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7844,7 +7862,7 @@
         <v>0</v>
       </c>
       <c r="H201" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7870,7 +7888,7 @@
         <v>0.3643661297271093</v>
       </c>
       <c r="H202" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7896,7 +7914,7 @@
         <v>1</v>
       </c>
       <c r="H203" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7922,7 +7940,7 @@
         <v>0.2007309629135912</v>
       </c>
       <c r="H204" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7948,7 +7966,7 @@
         <v>0.3622835247576352</v>
       </c>
       <c r="H205" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7974,7 +7992,7 @@
         <v>0.2580942394651852</v>
       </c>
       <c r="H206" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -8000,7 +8018,7 @@
         <v>0.2272896410009056</v>
       </c>
       <c r="H207" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -8026,7 +8044,7 @@
         <v>0.02259656952943894</v>
       </c>
       <c r="H208" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -8052,7 +8070,7 @@
         <v>1</v>
       </c>
       <c r="H209" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -8078,7 +8096,7 @@
         <v>0.316699835553751</v>
       </c>
       <c r="H210" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -8104,7 +8122,7 @@
         <v>0.2917756618279652</v>
       </c>
       <c r="H211" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -8130,7 +8148,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -8156,7 +8174,7 @@
         <v>1</v>
       </c>
       <c r="H213" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -8182,7 +8200,7 @@
         <v>1</v>
       </c>
       <c r="H214" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -8208,7 +8226,7 @@
         <v>1</v>
       </c>
       <c r="H215" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -8234,7 +8252,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -8260,7 +8278,7 @@
         <v>1</v>
       </c>
       <c r="H217" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -8286,7 +8304,7 @@
         <v>1</v>
       </c>
       <c r="H218" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -8312,7 +8330,7 @@
         <v>0</v>
       </c>
       <c r="H219" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -8338,7 +8356,7 @@
         <v>1</v>
       </c>
       <c r="H220" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -8364,7 +8382,7 @@
         <v>0.0621306534788825</v>
       </c>
       <c r="H221" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -8390,7 +8408,7 @@
         <v>0.9197124253853388</v>
       </c>
       <c r="H222" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -8416,7 +8434,7 @@
         <v>0.1534574198678031</v>
       </c>
       <c r="H223" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -8442,7 +8460,7 @@
         <v>0.0432766620547291</v>
       </c>
       <c r="H224" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -8468,7 +8486,7 @@
         <v>0</v>
       </c>
       <c r="H225" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8494,7 +8512,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8520,7 +8538,7 @@
         <v>1</v>
       </c>
       <c r="H227" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8546,7 +8564,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8572,7 +8590,7 @@
         <v>1</v>
       </c>
       <c r="H229" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8598,7 +8616,7 @@
         <v>1</v>
       </c>
       <c r="H230" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8624,7 +8642,7 @@
         <v>1</v>
       </c>
       <c r="H231" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8650,7 +8668,7 @@
         <v>1</v>
       </c>
       <c r="H232" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8676,7 +8694,7 @@
         <v>0</v>
       </c>
       <c r="H233" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8702,7 +8720,7 @@
         <v>1</v>
       </c>
       <c r="H234" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8728,7 +8746,7 @@
         <v>1</v>
       </c>
       <c r="H235" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8754,7 +8772,7 @@
         <v>1</v>
       </c>
       <c r="H236" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8780,7 +8798,7 @@
         <v>0</v>
       </c>
       <c r="H237" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8806,7 +8824,7 @@
         <v>1</v>
       </c>
       <c r="H238" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8832,7 +8850,7 @@
         <v>0.8495492332177974</v>
       </c>
       <c r="H239" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8858,7 +8876,7 @@
         <v>0.6287165807955644</v>
       </c>
       <c r="H240" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8884,7 +8902,7 @@
         <v>0.6590199742859937</v>
       </c>
       <c r="H241" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8910,7 +8928,7 @@
         <v>1</v>
       </c>
       <c r="H242" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8936,7 +8954,7 @@
         <v>1</v>
       </c>
       <c r="H243" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8962,7 +8980,7 @@
         <v>0</v>
       </c>
       <c r="H244" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8988,7 +9006,7 @@
         <v>0</v>
       </c>
       <c r="H245" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -9014,7 +9032,7 @@
         <v>1</v>
       </c>
       <c r="H246" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -9040,7 +9058,7 @@
         <v>0.009874081767952174</v>
       </c>
       <c r="H247" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -9066,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -9092,7 +9110,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -9118,7 +9136,7 @@
         <v>0.7771680614627153</v>
       </c>
       <c r="H250" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -9144,7 +9162,7 @@
         <v>0.684092991361349</v>
       </c>
       <c r="H251" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -9170,7 +9188,7 @@
         <v>0.6190568656417142</v>
       </c>
       <c r="H252" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -9196,7 +9214,7 @@
         <v>0.6179968680850856</v>
       </c>
       <c r="H253" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -9222,7 +9240,7 @@
         <v>0.5456188990663409</v>
       </c>
       <c r="H254" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -9248,7 +9266,7 @@
         <v>1</v>
       </c>
       <c r="H255" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -9274,7 +9292,7 @@
         <v>0.5074108996205345</v>
       </c>
       <c r="H256" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -9300,7 +9318,7 @@
         <v>0.3570787145669819</v>
       </c>
       <c r="H257" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -9326,7 +9344,7 @@
         <v>0.3430474956288668</v>
       </c>
       <c r="H258" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -9352,7 +9370,7 @@
         <v>0.3780916182620047</v>
       </c>
       <c r="H259" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -9378,7 +9396,7 @@
         <v>1</v>
       </c>
       <c r="H260" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -9404,7 +9422,7 @@
         <v>1</v>
       </c>
       <c r="H261" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -9430,7 +9448,7 @@
         <v>0.2400217296095157</v>
       </c>
       <c r="H262" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -9456,7 +9474,7 @@
         <v>0.3026477102582492</v>
       </c>
       <c r="H263" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -9482,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9508,7 +9526,7 @@
         <v>0.5824288330939381</v>
       </c>
       <c r="H265" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9534,7 +9552,7 @@
         <v>1</v>
       </c>
       <c r="H266" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9560,7 +9578,7 @@
         <v>1</v>
       </c>
       <c r="H267" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9586,7 +9604,7 @@
         <v>1</v>
       </c>
       <c r="H268" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9612,7 +9630,7 @@
         <v>0.4860554446028704</v>
       </c>
       <c r="H269" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9638,7 +9656,7 @@
         <v>0.5485218530910564</v>
       </c>
       <c r="H270" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9664,7 +9682,7 @@
         <v>0.5687845911126622</v>
       </c>
       <c r="H271" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9690,7 +9708,7 @@
         <v>1</v>
       </c>
       <c r="H272" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9716,7 +9734,7 @@
         <v>1</v>
       </c>
       <c r="H273" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9742,7 +9760,7 @@
         <v>1</v>
       </c>
       <c r="H274" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9768,7 +9786,7 @@
         <v>1</v>
       </c>
       <c r="H275" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9794,7 +9812,7 @@
         <v>0.5347201194974325</v>
       </c>
       <c r="H276" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9820,7 +9838,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9846,7 +9864,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9872,7 +9890,7 @@
         <v>0</v>
       </c>
       <c r="H279" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9898,7 +9916,7 @@
         <v>0</v>
       </c>
       <c r="H280" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9924,7 +9942,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9950,7 +9968,7 @@
         <v>0</v>
       </c>
       <c r="H282" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9976,7 +9994,7 @@
         <v>0</v>
       </c>
       <c r="H283" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -10002,7 +10020,7 @@
         <v>1</v>
       </c>
       <c r="H284" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -10028,7 +10046,7 @@
         <v>1</v>
       </c>
       <c r="H285" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -10054,7 +10072,7 @@
         <v>0</v>
       </c>
       <c r="H286" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -10080,7 +10098,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -10106,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -10132,7 +10150,7 @@
         <v>0.1387512764613225</v>
       </c>
       <c r="H289" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -10158,7 +10176,7 @@
         <v>0.09876212659905496</v>
       </c>
       <c r="H290" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -10184,7 +10202,7 @@
         <v>0</v>
       </c>
       <c r="H291" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -10210,7 +10228,7 @@
         <v>0</v>
       </c>
       <c r="H292" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -10236,7 +10254,7 @@
         <v>0</v>
       </c>
       <c r="H293" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -10262,7 +10280,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -10288,7 +10306,7 @@
         <v>0</v>
       </c>
       <c r="H295" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -10314,7 +10332,7 @@
         <v>0</v>
       </c>
       <c r="H296" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -10340,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="H297" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -10366,7 +10384,7 @@
         <v>0</v>
       </c>
       <c r="H298" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -10392,7 +10410,7 @@
         <v>1</v>
       </c>
       <c r="H299" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -10418,7 +10436,7 @@
         <v>0.8392691107314288</v>
       </c>
       <c r="H300" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -10444,7 +10462,7 @@
         <v>1</v>
       </c>
       <c r="H301" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -10470,7 +10488,7 @@
         <v>0.5725104927894985</v>
       </c>
       <c r="H302" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -10496,7 +10514,7 @@
         <v>0.6452248196870423</v>
       </c>
       <c r="H303" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10522,7 +10540,7 @@
         <v>0</v>
       </c>
       <c r="H304" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10548,7 +10566,7 @@
         <v>1</v>
       </c>
       <c r="H305" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10574,7 +10592,7 @@
         <v>0.6176258382287111</v>
       </c>
       <c r="H306" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10600,7 +10618,7 @@
         <v>0.1402908509712884</v>
       </c>
       <c r="H307" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10626,7 +10644,7 @@
         <v>0.2470817519305337</v>
       </c>
       <c r="H308" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10652,7 +10670,7 @@
         <v>0</v>
       </c>
       <c r="H309" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10678,7 +10696,7 @@
         <v>0</v>
       </c>
       <c r="H310" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10704,7 +10722,7 @@
         <v>0</v>
       </c>
       <c r="H311" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10730,7 +10748,7 @@
         <v>0</v>
       </c>
       <c r="H312" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10756,7 +10774,7 @@
         <v>0</v>
       </c>
       <c r="H313" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10782,7 +10800,7 @@
         <v>0</v>
       </c>
       <c r="H314" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10808,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10834,7 +10852,7 @@
         <v>0</v>
       </c>
       <c r="H316" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10860,7 +10878,7 @@
         <v>0</v>
       </c>
       <c r="H317" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10886,7 +10904,7 @@
         <v>0.9408311744300493</v>
       </c>
       <c r="H318" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10912,7 +10930,7 @@
         <v>0.2281076034476917</v>
       </c>
       <c r="H319" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10938,7 +10956,7 @@
         <v>0.2584835532146987</v>
       </c>
       <c r="H320" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10964,7 +10982,7 @@
         <v>0</v>
       </c>
       <c r="H321" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10990,7 +11008,7 @@
         <v>0.49663247087312</v>
       </c>
       <c r="H322" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -11016,7 +11034,7 @@
         <v>0.7142898090287908</v>
       </c>
       <c r="H323" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -11042,7 +11060,7 @@
         <v>0.6838526371805752</v>
       </c>
       <c r="H324" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -11068,7 +11086,7 @@
         <v>1</v>
       </c>
       <c r="H325" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -11094,7 +11112,7 @@
         <v>0.8669334352785576</v>
       </c>
       <c r="H326" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -11120,7 +11138,7 @@
         <v>1</v>
       </c>
       <c r="H327" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -11146,7 +11164,7 @@
         <v>0.1987863872524352</v>
       </c>
       <c r="H328" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -11172,7 +11190,7 @@
         <v>0</v>
       </c>
       <c r="H329" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -11198,7 +11216,7 @@
         <v>0.2962742518059081</v>
       </c>
       <c r="H330" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -11224,7 +11242,7 @@
         <v>0.8764820442189873</v>
       </c>
       <c r="H331" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -11250,7 +11268,7 @@
         <v>1</v>
       </c>
       <c r="H332" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -11276,7 +11294,7 @@
         <v>1</v>
       </c>
       <c r="H333" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -11302,7 +11320,7 @@
         <v>0.1209662521283257</v>
       </c>
       <c r="H334" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -11328,7 +11346,7 @@
         <v>0.1691055214091461</v>
       </c>
       <c r="H335" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -11354,7 +11372,7 @@
         <v>1</v>
       </c>
       <c r="H336" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -11380,7 +11398,7 @@
         <v>0.2094118740417113</v>
       </c>
       <c r="H337" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -11406,7 +11424,7 @@
         <v>0</v>
       </c>
       <c r="H338" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -11432,7 +11450,7 @@
         <v>0.5156827272568333</v>
       </c>
       <c r="H339" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -11458,7 +11476,7 @@
         <v>0.9070222351886812</v>
       </c>
       <c r="H340" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -11484,7 +11502,7 @@
         <v>1</v>
       </c>
       <c r="H341" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -11510,7 +11528,7 @@
         <v>0</v>
       </c>
       <c r="H342" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11536,7 +11554,7 @@
         <v>1</v>
       </c>
       <c r="H343" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11562,7 +11580,7 @@
         <v>1</v>
       </c>
       <c r="H344" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11588,7 +11606,7 @@
         <v>0.3535956611716411</v>
       </c>
       <c r="H345" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11614,7 +11632,7 @@
         <v>0.3446389756593827</v>
       </c>
       <c r="H346" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11640,7 +11658,7 @@
         <v>1</v>
       </c>
       <c r="H347" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11666,7 +11684,7 @@
         <v>1</v>
       </c>
       <c r="H348" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11692,7 +11710,7 @@
         <v>0.5328032329248698</v>
       </c>
       <c r="H349" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11718,7 +11736,7 @@
         <v>0.4185556812752281</v>
       </c>
       <c r="H350" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11744,7 +11762,7 @@
         <v>1</v>
       </c>
       <c r="H351" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11770,7 +11788,7 @@
         <v>0</v>
       </c>
       <c r="H352" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11796,7 +11814,7 @@
         <v>0</v>
       </c>
       <c r="H353" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11822,7 +11840,7 @@
         <v>0</v>
       </c>
       <c r="H354" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11848,7 +11866,7 @@
         <v>1</v>
       </c>
       <c r="H355" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11874,7 +11892,7 @@
         <v>0.4671289773253784</v>
       </c>
       <c r="H356" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11900,7 +11918,7 @@
         <v>0.620001927632466</v>
       </c>
       <c r="H357" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11926,7 +11944,7 @@
         <v>0.6957105060667875</v>
       </c>
       <c r="H358" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11952,7 +11970,7 @@
         <v>0</v>
       </c>
       <c r="H359" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11978,7 +11996,7 @@
         <v>0.4905456411905179</v>
       </c>
       <c r="H360" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -12004,7 +12022,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -12030,7 +12048,7 @@
         <v>0</v>
       </c>
       <c r="H362" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -12056,7 +12074,7 @@
         <v>0</v>
       </c>
       <c r="H363" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -12082,7 +12100,7 @@
         <v>0</v>
       </c>
       <c r="H364" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -12108,7 +12126,7 @@
         <v>0</v>
       </c>
       <c r="H365" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -12134,7 +12152,7 @@
         <v>1</v>
       </c>
       <c r="H366" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -12160,7 +12178,7 @@
         <v>0</v>
       </c>
       <c r="H367" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -12186,7 +12204,7 @@
         <v>0</v>
       </c>
       <c r="H368" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -12212,7 +12230,7 @@
         <v>1</v>
       </c>
       <c r="H369" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -12238,7 +12256,7 @@
         <v>0.6127664785798932</v>
       </c>
       <c r="H370" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -12264,7 +12282,7 @@
         <v>1</v>
       </c>
       <c r="H371" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -12290,7 +12308,7 @@
         <v>1</v>
       </c>
       <c r="H372" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -12316,7 +12334,7 @@
         <v>0</v>
       </c>
       <c r="H373" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -12342,7 +12360,7 @@
         <v>1</v>
       </c>
       <c r="H374" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -12368,7 +12386,7 @@
         <v>0</v>
       </c>
       <c r="H375" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -12394,7 +12412,7 @@
         <v>1</v>
       </c>
       <c r="H376" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -12420,7 +12438,7 @@
         <v>0</v>
       </c>
       <c r="H377" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -12446,7 +12464,7 @@
         <v>0</v>
       </c>
       <c r="H378" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -12472,7 +12490,7 @@
         <v>0</v>
       </c>
       <c r="H379" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -12498,7 +12516,7 @@
         <v>0.2247282290278291</v>
       </c>
       <c r="H380" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -12524,7 +12542,7 @@
         <v>1</v>
       </c>
       <c r="H381" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12550,7 +12568,7 @@
         <v>1</v>
       </c>
       <c r="H382" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12576,7 +12594,7 @@
         <v>1</v>
       </c>
       <c r="H383" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12602,7 +12620,7 @@
         <v>1</v>
       </c>
       <c r="H384" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12628,7 +12646,7 @@
         <v>1</v>
       </c>
       <c r="H385" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12654,7 +12672,7 @@
         <v>0.5175780030761412</v>
       </c>
       <c r="H386" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12680,7 +12698,7 @@
         <v>0.407629165987654</v>
       </c>
       <c r="H387" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12706,7 +12724,7 @@
         <v>0.5917118171892221</v>
       </c>
       <c r="H388" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12732,7 +12750,7 @@
         <v>0</v>
       </c>
       <c r="H389" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12758,7 +12776,7 @@
         <v>0</v>
       </c>
       <c r="H390" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12784,7 +12802,7 @@
         <v>0.1210744071449007</v>
       </c>
       <c r="H391" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12810,7 +12828,7 @@
         <v>0</v>
       </c>
       <c r="H392" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12836,7 +12854,7 @@
         <v>0.4730991435488794</v>
       </c>
       <c r="H393" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12862,7 +12880,7 @@
         <v>1</v>
       </c>
       <c r="H394" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12888,7 +12906,7 @@
         <v>0</v>
       </c>
       <c r="H395" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12914,7 +12932,7 @@
         <v>1</v>
       </c>
       <c r="H396" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12940,7 +12958,7 @@
         <v>1</v>
       </c>
       <c r="H397" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12966,7 +12984,7 @@
         <v>1</v>
       </c>
       <c r="H398" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12992,7 +13010,7 @@
         <v>1</v>
       </c>
       <c r="H399" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -13018,7 +13036,7 @@
         <v>0</v>
       </c>
       <c r="H400" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -13044,7 +13062,7 @@
         <v>1</v>
       </c>
       <c r="H401" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -13070,7 +13088,7 @@
         <v>1</v>
       </c>
       <c r="H402" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -13096,7 +13114,7 @@
         <v>0</v>
       </c>
       <c r="H403" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -13122,7 +13140,7 @@
         <v>1</v>
       </c>
       <c r="H404" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -13148,7 +13166,7 @@
         <v>0</v>
       </c>
       <c r="H405" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -13174,7 +13192,7 @@
         <v>0.7209622620919816</v>
       </c>
       <c r="H406" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -13200,7 +13218,7 @@
         <v>1</v>
       </c>
       <c r="H407" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -13226,7 +13244,7 @@
         <v>1</v>
       </c>
       <c r="H408" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -13252,7 +13270,7 @@
         <v>1</v>
       </c>
       <c r="H409" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -13278,7 +13296,7 @@
         <v>1</v>
       </c>
       <c r="H410" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -13304,7 +13322,7 @@
         <v>0</v>
       </c>
       <c r="H411" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -13330,7 +13348,7 @@
         <v>1</v>
       </c>
       <c r="H412" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -13356,7 +13374,7 @@
         <v>0</v>
       </c>
       <c r="H413" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -13382,7 +13400,7 @@
         <v>1</v>
       </c>
       <c r="H414" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -13408,7 +13426,7 @@
         <v>1</v>
       </c>
       <c r="H415" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -13434,7 +13452,7 @@
         <v>1</v>
       </c>
       <c r="H416" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -13460,7 +13478,7 @@
         <v>0.7565382919417687</v>
       </c>
       <c r="H417" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -13486,7 +13504,7 @@
         <v>1</v>
       </c>
       <c r="H418" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -13512,7 +13530,7 @@
         <v>0.58958180434202</v>
       </c>
       <c r="H419" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13538,7 +13556,7 @@
         <v>0.4342165329712733</v>
       </c>
       <c r="H420" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13564,7 +13582,7 @@
         <v>1</v>
       </c>
       <c r="H421" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13590,7 +13608,7 @@
         <v>0.6575336465873136</v>
       </c>
       <c r="H422" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13616,7 +13634,7 @@
         <v>1</v>
       </c>
       <c r="H423" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13642,7 +13660,7 @@
         <v>1</v>
       </c>
       <c r="H424" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13668,7 +13686,7 @@
         <v>1</v>
       </c>
       <c r="H425" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13694,7 +13712,7 @@
         <v>1</v>
       </c>
       <c r="H426" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13720,7 +13738,7 @@
         <v>0.1931729729332681</v>
       </c>
       <c r="H427" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13746,7 +13764,7 @@
         <v>1</v>
       </c>
       <c r="H428" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13772,7 +13790,7 @@
         <v>0.838787845031057</v>
       </c>
       <c r="H429" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13798,7 +13816,7 @@
         <v>0</v>
       </c>
       <c r="H430" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13824,7 +13842,7 @@
         <v>0.1022396663436237</v>
       </c>
       <c r="H431" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13850,7 +13868,7 @@
         <v>0</v>
       </c>
       <c r="H432" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13876,7 +13894,7 @@
         <v>1</v>
       </c>
       <c r="H433" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13902,7 +13920,7 @@
         <v>0.4540250855516209</v>
       </c>
       <c r="H434" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13928,7 +13946,7 @@
         <v>0.2896165830953565</v>
       </c>
       <c r="H435" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13954,7 +13972,7 @@
         <v>0.7917401509339994</v>
       </c>
       <c r="H436" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13980,7 +13998,7 @@
         <v>0</v>
       </c>
       <c r="H437" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -14006,7 +14024,7 @@
         <v>1</v>
       </c>
       <c r="H438" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -14032,7 +14050,7 @@
         <v>0.7067178088732917</v>
       </c>
       <c r="H439" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -14058,7 +14076,7 @@
         <v>1</v>
       </c>
       <c r="H440" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -14084,7 +14102,7 @@
         <v>1</v>
       </c>
       <c r="H441" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -14110,7 +14128,7 @@
         <v>0</v>
       </c>
       <c r="H442" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -14136,7 +14154,7 @@
         <v>1</v>
       </c>
       <c r="H443" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -14162,7 +14180,7 @@
         <v>1</v>
       </c>
       <c r="H444" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -14188,7 +14206,7 @@
         <v>1</v>
       </c>
       <c r="H445" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -14214,7 +14232,7 @@
         <v>0.3206802237079347</v>
       </c>
       <c r="H446" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -14240,7 +14258,7 @@
         <v>0</v>
       </c>
       <c r="H447" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -14266,7 +14284,7 @@
         <v>0.2166572947957321</v>
       </c>
       <c r="H448" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -14292,7 +14310,7 @@
         <v>0.09220139004312224</v>
       </c>
       <c r="H449" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -14318,7 +14336,7 @@
         <v>0</v>
       </c>
       <c r="H450" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -14344,7 +14362,7 @@
         <v>0</v>
       </c>
       <c r="H451" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -14370,7 +14388,7 @@
         <v>1</v>
       </c>
       <c r="H452" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -14396,7 +14414,7 @@
         <v>1</v>
       </c>
       <c r="H453" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -14422,7 +14440,7 @@
         <v>1</v>
       </c>
       <c r="H454" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -14448,7 +14466,7 @@
         <v>1</v>
       </c>
       <c r="H455" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -14474,7 +14492,7 @@
         <v>1</v>
       </c>
       <c r="H456" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -14500,7 +14518,7 @@
         <v>0.5355349910433382</v>
       </c>
       <c r="H457" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14526,7 +14544,7 @@
         <v>1</v>
       </c>
       <c r="H458" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14552,7 +14570,7 @@
         <v>1</v>
       </c>
       <c r="H459" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14578,7 +14596,7 @@
         <v>0</v>
       </c>
       <c r="H460" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14604,7 +14622,7 @@
         <v>0.7362068598138494</v>
       </c>
       <c r="H461" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14630,7 +14648,7 @@
         <v>1</v>
       </c>
       <c r="H462" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14656,7 +14674,7 @@
         <v>1</v>
       </c>
       <c r="H463" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14682,7 +14700,7 @@
         <v>0.8290442293029383</v>
       </c>
       <c r="H464" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14708,7 +14726,7 @@
         <v>1</v>
       </c>
       <c r="H465" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14734,7 +14752,7 @@
         <v>1</v>
       </c>
       <c r="H466" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14760,7 +14778,7 @@
         <v>0.2972172914877398</v>
       </c>
       <c r="H467" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14786,7 +14804,7 @@
         <v>1</v>
       </c>
       <c r="H468" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14812,7 +14830,7 @@
         <v>0.3828030816675656</v>
       </c>
       <c r="H469" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14838,7 +14856,7 @@
         <v>1</v>
       </c>
       <c r="H470" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14864,7 +14882,7 @@
         <v>1</v>
       </c>
       <c r="H471" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14890,7 +14908,7 @@
         <v>0.7072751504056575</v>
       </c>
       <c r="H472" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14916,7 +14934,7 @@
         <v>0.6887345743487142</v>
       </c>
       <c r="H473" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14942,7 +14960,7 @@
         <v>0.1067305209771346</v>
       </c>
       <c r="H474" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14968,7 +14986,7 @@
         <v>0</v>
       </c>
       <c r="H475" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14994,7 +15012,7 @@
         <v>0.6057977033084144</v>
       </c>
       <c r="H476" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -15020,7 +15038,7 @@
         <v>0.6091777797350002</v>
       </c>
       <c r="H477" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -15046,7 +15064,7 @@
         <v>0.5694759431987656</v>
       </c>
       <c r="H478" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -15072,7 +15090,7 @@
         <v>0.6207146575699412</v>
       </c>
       <c r="H479" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -15098,7 +15116,7 @@
         <v>0.283376215899611</v>
       </c>
       <c r="H480" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -15124,7 +15142,7 @@
         <v>0.2427067649021355</v>
       </c>
       <c r="H481" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -15150,7 +15168,7 @@
         <v>1</v>
       </c>
       <c r="H482" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -15176,7 +15194,7 @@
         <v>0.5104176137220019</v>
       </c>
       <c r="H483" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -15202,7 +15220,7 @@
         <v>1</v>
       </c>
       <c r="H484" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -15228,7 +15246,7 @@
         <v>1</v>
       </c>
       <c r="H485" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -15254,7 +15272,7 @@
         <v>1</v>
       </c>
       <c r="H486" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -15280,7 +15298,7 @@
         <v>1</v>
       </c>
       <c r="H487" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -15306,7 +15324,7 @@
         <v>0.4677260579614761</v>
       </c>
       <c r="H488" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -15332,7 +15350,7 @@
         <v>1</v>
       </c>
       <c r="H489" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -15358,7 +15376,7 @@
         <v>0.476242461576072</v>
       </c>
       <c r="H490" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -15384,7 +15402,7 @@
         <v>1</v>
       </c>
       <c r="H491" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -15410,7 +15428,7 @@
         <v>0.4885601466764756</v>
       </c>
       <c r="H492" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -15436,7 +15454,7 @@
         <v>1</v>
       </c>
       <c r="H493" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -15462,7 +15480,7 @@
         <v>0.1892964267045682</v>
       </c>
       <c r="H494" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -15488,7 +15506,7 @@
         <v>1</v>
       </c>
       <c r="H495" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -15514,7 +15532,7 @@
         <v>1</v>
       </c>
       <c r="H496" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -15540,7 +15558,7 @@
         <v>0.562429454701116</v>
       </c>
       <c r="H497" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -15566,7 +15584,7 @@
         <v>0.5893467746014928</v>
       </c>
       <c r="H498" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -15592,7 +15610,7 @@
         <v>0.2453840526620205</v>
       </c>
       <c r="H499" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -15618,7 +15636,7 @@
         <v>1</v>
       </c>
       <c r="H500" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15644,7 +15662,7 @@
         <v>0.4919547742740523</v>
       </c>
       <c r="H501" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -15670,7 +15688,7 @@
         <v>1</v>
       </c>
       <c r="H502" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15696,7 +15714,7 @@
         <v>1</v>
       </c>
       <c r="H503" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -15722,7 +15740,7 @@
         <v>1</v>
       </c>
       <c r="H504" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -15748,7 +15766,7 @@
         <v>0.5332096778046151</v>
       </c>
       <c r="H505" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -15774,7 +15792,7 @@
         <v>1</v>
       </c>
       <c r="H506" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15800,7 +15818,7 @@
         <v>0.4095043245568133</v>
       </c>
       <c r="H507" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15826,7 +15844,7 @@
         <v>0.9563556993906542</v>
       </c>
       <c r="H508" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15852,7 +15870,7 @@
         <v>1</v>
       </c>
       <c r="H509" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15878,7 +15896,7 @@
         <v>0.3151420077674845</v>
       </c>
       <c r="H510" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15904,7 +15922,7 @@
         <v>1</v>
       </c>
       <c r="H511" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -15930,7 +15948,7 @@
         <v>0</v>
       </c>
       <c r="H512" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -15956,7 +15974,7 @@
         <v>0.1226144815616208</v>
       </c>
       <c r="H513" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -15982,7 +16000,7 @@
         <v>0.348937876188559</v>
       </c>
       <c r="H514" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -16008,7 +16026,7 @@
         <v>1</v>
       </c>
       <c r="H515" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -16034,7 +16052,7 @@
         <v>1</v>
       </c>
       <c r="H516" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -16060,7 +16078,7 @@
         <v>1</v>
       </c>
       <c r="H517" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -16086,7 +16104,7 @@
         <v>0.8236312239487298</v>
       </c>
       <c r="H518" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -16112,7 +16130,7 @@
         <v>1</v>
       </c>
       <c r="H519" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -16138,7 +16156,7 @@
         <v>0.4553771692067081</v>
       </c>
       <c r="H520" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -16164,7 +16182,7 @@
         <v>1</v>
       </c>
       <c r="H521" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -16190,7 +16208,7 @@
         <v>0.7309927778789053</v>
       </c>
       <c r="H522" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -16216,7 +16234,7 @@
         <v>1</v>
       </c>
       <c r="H523" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -16242,7 +16260,7 @@
         <v>0.5966838048782487</v>
       </c>
       <c r="H524" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -16268,7 +16286,7 @@
         <v>1</v>
       </c>
       <c r="H525" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -16294,7 +16312,7 @@
         <v>0.5392000628733806</v>
       </c>
       <c r="H526" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -16320,7 +16338,7 @@
         <v>0.2752626559507874</v>
       </c>
       <c r="H527" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -16346,7 +16364,7 @@
         <v>0.6423944529437058</v>
       </c>
       <c r="H528" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -16372,7 +16390,7 @@
         <v>0.7096367257969294</v>
       </c>
       <c r="H529" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -16398,7 +16416,7 @@
         <v>0.266</v>
       </c>
       <c r="H530" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -16424,7 +16442,7 @@
         <v>0.2872</v>
       </c>
       <c r="H531" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -16450,7 +16468,7 @@
         <v>0.6227</v>
       </c>
       <c r="H532" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -16476,7 +16494,7 @@
         <v>1</v>
       </c>
       <c r="H533" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -16502,7 +16520,7 @@
         <v>0</v>
       </c>
       <c r="H534" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -16528,7 +16546,7 @@
         <v>1</v>
       </c>
       <c r="H535" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -16554,7 +16572,7 @@
         <v>1</v>
       </c>
       <c r="H536" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -16580,7 +16598,7 @@
         <v>0</v>
       </c>
       <c r="H537" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -16606,7 +16624,7 @@
         <v>0</v>
       </c>
       <c r="H538" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -16632,7 +16650,7 @@
         <v>0</v>
       </c>
       <c r="H539" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -16658,7 +16676,7 @@
         <v>0.6155</v>
       </c>
       <c r="H540" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -16684,7 +16702,7 @@
         <v>0.4573</v>
       </c>
       <c r="H541" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -16694,9 +16712,15 @@
       <c r="B542" t="s">
         <v>547</v>
       </c>
+      <c r="C542">
+        <v>0</v>
+      </c>
       <c r="D542">
         <v>1</v>
       </c>
+      <c r="E542">
+        <v>0</v>
+      </c>
       <c r="F542">
         <v>0</v>
       </c>
@@ -16704,7 +16728,105 @@
         <v>1</v>
       </c>
       <c r="H542" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="543" spans="1:8">
+      <c r="A543" s="1">
+        <v>541</v>
+      </c>
+      <c r="B543" t="s">
+        <v>548</v>
+      </c>
+      <c r="C543">
+        <v>0</v>
+      </c>
+      <c r="D543">
+        <v>1</v>
+      </c>
+      <c r="E543">
+        <v>0</v>
+      </c>
+      <c r="F543">
+        <v>0.165</v>
+      </c>
+      <c r="G543">
+        <v>0.835</v>
+      </c>
+      <c r="H543" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="544" spans="1:8">
+      <c r="A544" s="1">
+        <v>542</v>
+      </c>
+      <c r="B544" t="s">
         <v>549</v>
+      </c>
+      <c r="C544">
+        <v>0</v>
+      </c>
+      <c r="D544">
+        <v>1</v>
+      </c>
+      <c r="E544">
+        <v>0</v>
+      </c>
+      <c r="F544">
+        <v>0.2451</v>
+      </c>
+      <c r="G544">
+        <v>0.7548999999999999</v>
+      </c>
+      <c r="H544" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="545" spans="1:8">
+      <c r="A545" s="1">
+        <v>543</v>
+      </c>
+      <c r="B545" t="s">
+        <v>550</v>
+      </c>
+      <c r="C545">
+        <v>0</v>
+      </c>
+      <c r="D545">
+        <v>1</v>
+      </c>
+      <c r="E545">
+        <v>0</v>
+      </c>
+      <c r="F545">
+        <v>0</v>
+      </c>
+      <c r="G545">
+        <v>1</v>
+      </c>
+      <c r="H545" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="546" spans="1:8">
+      <c r="A546" s="1">
+        <v>544</v>
+      </c>
+      <c r="B546" t="s">
+        <v>551</v>
+      </c>
+      <c r="D546">
+        <v>0</v>
+      </c>
+      <c r="F546">
+        <v>1</v>
+      </c>
+      <c r="G546">
+        <v>0</v>
+      </c>
+      <c r="H546" t="s">
+        <v>553</v>
       </c>
     </row>
   </sheetData>

--- a/firebase_data_from_spyEnsembleVSMO_v2.xlsx
+++ b/firebase_data_from_spyEnsembleVSMO_v2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="763">
   <si>
     <t>date</t>
   </si>
@@ -1672,6 +1672,24 @@
     <t>2025-08-01</t>
   </si>
   <si>
+    <t>2025-08-04</t>
+  </si>
+  <si>
+    <t>2025-08-05</t>
+  </si>
+  <si>
+    <t>2025-08-06</t>
+  </si>
+  <si>
+    <t>2025-08-07</t>
+  </si>
+  <si>
+    <t>2025-08-08</t>
+  </si>
+  <si>
+    <t>2025-08-11</t>
+  </si>
+  <si>
     <t>0.00</t>
   </si>
   <si>
@@ -2279,6 +2297,12 @@
   </si>
   <si>
     <t>75.49</t>
+  </si>
+  <si>
+    <t>97.19</t>
+  </si>
+  <si>
+    <t>70.27</t>
   </si>
 </sst>
 </file>
@@ -2636,7 +2660,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H546"/>
+  <dimension ref="A1:H552"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2688,7 +2712,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2714,7 +2738,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2740,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2766,7 +2790,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2792,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2818,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2844,7 +2868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2870,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2896,7 +2920,7 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2922,7 +2946,7 @@
         <v>0.04303446040071349</v>
       </c>
       <c r="H11" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2948,7 +2972,7 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2974,7 +2998,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3000,7 +3024,7 @@
         <v>0.915256809318685</v>
       </c>
       <c r="H14" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3026,7 +3050,7 @@
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -3052,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -3078,7 +3102,7 @@
         <v>0.6184143588780344</v>
       </c>
       <c r="H17" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -3104,7 +3128,7 @@
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -3130,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -3156,7 +3180,7 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3182,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3208,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -3234,7 +3258,7 @@
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3260,7 +3284,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3286,7 +3310,7 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -3312,7 +3336,7 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3338,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3364,7 +3388,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3390,7 +3414,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3416,7 +3440,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3442,7 +3466,7 @@
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3468,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3494,7 +3518,7 @@
         <v>0.745393260242324</v>
       </c>
       <c r="H33" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3520,7 +3544,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3546,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3572,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3598,7 +3622,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3624,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3650,7 +3674,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3676,7 +3700,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3702,7 +3726,7 @@
         <v>0.683079705692312</v>
       </c>
       <c r="H41" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3728,7 +3752,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3754,7 +3778,7 @@
         <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3780,7 +3804,7 @@
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3806,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3832,7 +3856,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3858,7 +3882,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3884,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3910,7 +3934,7 @@
         <v>0.4307420609211915</v>
       </c>
       <c r="H49" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3936,7 +3960,7 @@
         <v>0.4817317520945901</v>
       </c>
       <c r="H50" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3962,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3988,7 +4012,7 @@
         <v>0.5570981908629731</v>
       </c>
       <c r="H52" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -4014,7 +4038,7 @@
         <v>0.7872019792055407</v>
       </c>
       <c r="H53" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -4040,7 +4064,7 @@
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -4066,7 +4090,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -4092,7 +4116,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -4118,7 +4142,7 @@
         <v>0.215245798636519</v>
       </c>
       <c r="H57" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -4144,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -4170,7 +4194,7 @@
         <v>0.3135669763477688</v>
       </c>
       <c r="H59" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -4196,7 +4220,7 @@
         <v>0.1529716371439602</v>
       </c>
       <c r="H60" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -4222,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -4248,7 +4272,7 @@
         <v>0.3106901159644614</v>
       </c>
       <c r="H62" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -4274,7 +4298,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -4300,7 +4324,7 @@
         <v>0.2867490636277352</v>
       </c>
       <c r="H64" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -4326,7 +4350,7 @@
         <v>0.9498742410172212</v>
       </c>
       <c r="H65" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -4352,7 +4376,7 @@
         <v>1</v>
       </c>
       <c r="H66" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -4378,7 +4402,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -4404,7 +4428,7 @@
         <v>1</v>
       </c>
       <c r="H68" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4430,7 +4454,7 @@
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4456,7 +4480,7 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4482,7 +4506,7 @@
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4508,7 +4532,7 @@
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4534,7 +4558,7 @@
         <v>0.1304718106398864</v>
       </c>
       <c r="H73" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4560,7 +4584,7 @@
         <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4586,7 +4610,7 @@
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4612,7 +4636,7 @@
         <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4638,7 +4662,7 @@
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4664,7 +4688,7 @@
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4690,7 +4714,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4716,7 +4740,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4742,7 +4766,7 @@
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4768,7 +4792,7 @@
         <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4794,7 +4818,7 @@
         <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4820,7 +4844,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4846,7 +4870,7 @@
         <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4872,7 +4896,7 @@
         <v>0.414032993753131</v>
       </c>
       <c r="H86" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4898,7 +4922,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4924,7 +4948,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4950,7 +4974,7 @@
         <v>1</v>
       </c>
       <c r="H89" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4976,7 +5000,7 @@
         <v>1</v>
       </c>
       <c r="H90" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -5002,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="H91" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -5028,7 +5052,7 @@
         <v>0.9279948866595563</v>
       </c>
       <c r="H92" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -5054,7 +5078,7 @@
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -5080,7 +5104,7 @@
         <v>1</v>
       </c>
       <c r="H94" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -5106,7 +5130,7 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -5132,7 +5156,7 @@
         <v>0.1871628344782118</v>
       </c>
       <c r="H96" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -5158,7 +5182,7 @@
         <v>1</v>
       </c>
       <c r="H97" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -5184,7 +5208,7 @@
         <v>1</v>
       </c>
       <c r="H98" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -5210,7 +5234,7 @@
         <v>0.8771001701943608</v>
       </c>
       <c r="H99" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -5236,7 +5260,7 @@
         <v>0.2146591320888346</v>
       </c>
       <c r="H100" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -5262,7 +5286,7 @@
         <v>1</v>
       </c>
       <c r="H101" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -5288,7 +5312,7 @@
         <v>1</v>
       </c>
       <c r="H102" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -5314,7 +5338,7 @@
         <v>1</v>
       </c>
       <c r="H103" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -5340,7 +5364,7 @@
         <v>1</v>
       </c>
       <c r="H104" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -5366,7 +5390,7 @@
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5392,7 +5416,7 @@
         <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5418,7 +5442,7 @@
         <v>1</v>
       </c>
       <c r="H107" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5444,7 +5468,7 @@
         <v>1</v>
       </c>
       <c r="H108" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5470,7 +5494,7 @@
         <v>1</v>
       </c>
       <c r="H109" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5496,7 +5520,7 @@
         <v>1</v>
       </c>
       <c r="H110" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5522,7 +5546,7 @@
         <v>1</v>
       </c>
       <c r="H111" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5548,7 +5572,7 @@
         <v>0.2055505200809835</v>
       </c>
       <c r="H112" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5574,7 +5598,7 @@
         <v>1</v>
       </c>
       <c r="H113" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5600,7 +5624,7 @@
         <v>0.2995528011053107</v>
       </c>
       <c r="H114" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5626,7 +5650,7 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5652,7 +5676,7 @@
         <v>0.4699445027580825</v>
       </c>
       <c r="H116" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5678,7 +5702,7 @@
         <v>0.770937588646547</v>
       </c>
       <c r="H117" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5704,7 +5728,7 @@
         <v>0.7826457521192932</v>
       </c>
       <c r="H118" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5730,7 +5754,7 @@
         <v>0.4304704948469578</v>
       </c>
       <c r="H119" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5756,7 +5780,7 @@
         <v>1</v>
       </c>
       <c r="H120" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5782,7 +5806,7 @@
         <v>0.6719963442506929</v>
       </c>
       <c r="H121" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5808,7 +5832,7 @@
         <v>1</v>
       </c>
       <c r="H122" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5834,7 +5858,7 @@
         <v>0.5375310953297759</v>
       </c>
       <c r="H123" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5860,7 +5884,7 @@
         <v>0.6497318652602996</v>
       </c>
       <c r="H124" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5886,7 +5910,7 @@
         <v>0.4013470357796504</v>
       </c>
       <c r="H125" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5912,7 +5936,7 @@
         <v>0.4404307186051412</v>
       </c>
       <c r="H126" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5938,7 +5962,7 @@
         <v>0.7535410487481622</v>
       </c>
       <c r="H127" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5964,7 +5988,7 @@
         <v>0.1968264148093589</v>
       </c>
       <c r="H128" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5990,7 +6014,7 @@
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -6016,7 +6040,7 @@
         <v>0.5903062422634243</v>
       </c>
       <c r="H130" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -6042,7 +6066,7 @@
         <v>0.3143863952226104</v>
       </c>
       <c r="H131" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -6068,7 +6092,7 @@
         <v>0.5251513973196068</v>
       </c>
       <c r="H132" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -6094,7 +6118,7 @@
         <v>0.26776714123178</v>
       </c>
       <c r="H133" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -6120,7 +6144,7 @@
         <v>0.2026359533431654</v>
       </c>
       <c r="H134" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -6146,7 +6170,7 @@
         <v>1</v>
       </c>
       <c r="H135" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -6172,7 +6196,7 @@
         <v>1</v>
       </c>
       <c r="H136" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -6198,7 +6222,7 @@
         <v>0.5557953472408601</v>
       </c>
       <c r="H137" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -6224,7 +6248,7 @@
         <v>1</v>
       </c>
       <c r="H138" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -6250,7 +6274,7 @@
         <v>1</v>
       </c>
       <c r="H139" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -6276,7 +6300,7 @@
         <v>0.8945463189254167</v>
       </c>
       <c r="H140" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -6302,7 +6326,7 @@
         <v>0.6772450649528653</v>
       </c>
       <c r="H141" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -6328,7 +6352,7 @@
         <v>0.9188898615772668</v>
       </c>
       <c r="H142" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -6354,7 +6378,7 @@
         <v>0.6808222412559765</v>
       </c>
       <c r="H143" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -6380,7 +6404,7 @@
         <v>0.7236705146772729</v>
       </c>
       <c r="H144" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -6406,7 +6430,7 @@
         <v>1</v>
       </c>
       <c r="H145" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -6432,7 +6456,7 @@
         <v>1</v>
       </c>
       <c r="H146" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -6458,7 +6482,7 @@
         <v>0.4083837438899106</v>
       </c>
       <c r="H147" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6484,7 +6508,7 @@
         <v>1</v>
       </c>
       <c r="H148" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6510,7 +6534,7 @@
         <v>0</v>
       </c>
       <c r="H149" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6536,7 +6560,7 @@
         <v>0.6711645860416422</v>
       </c>
       <c r="H150" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6562,7 +6586,7 @@
         <v>0.2715172141387561</v>
       </c>
       <c r="H151" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6588,7 +6612,7 @@
         <v>0.2398762302450229</v>
       </c>
       <c r="H152" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6614,7 +6638,7 @@
         <v>0.5664737805177642</v>
       </c>
       <c r="H153" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6640,7 +6664,7 @@
         <v>0.4223113145194125</v>
       </c>
       <c r="H154" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6666,7 +6690,7 @@
         <v>0.3667629390545308</v>
       </c>
       <c r="H155" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6692,7 +6716,7 @@
         <v>0.9231722118787783</v>
       </c>
       <c r="H156" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6718,7 +6742,7 @@
         <v>0.9851787420357059</v>
       </c>
       <c r="H157" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6744,7 +6768,7 @@
         <v>0.4518542194729144</v>
       </c>
       <c r="H158" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6770,7 +6794,7 @@
         <v>0.4964868798335714</v>
       </c>
       <c r="H159" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6796,7 +6820,7 @@
         <v>1</v>
       </c>
       <c r="H160" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6822,7 +6846,7 @@
         <v>1</v>
       </c>
       <c r="H161" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6848,7 +6872,7 @@
         <v>1</v>
       </c>
       <c r="H162" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6874,7 +6898,7 @@
         <v>0.6766899544020667</v>
       </c>
       <c r="H163" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6900,7 +6924,7 @@
         <v>1</v>
       </c>
       <c r="H164" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6926,7 +6950,7 @@
         <v>0</v>
       </c>
       <c r="H165" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6952,7 +6976,7 @@
         <v>0.6910065861261394</v>
       </c>
       <c r="H166" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6978,7 +7002,7 @@
         <v>1</v>
       </c>
       <c r="H167" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -7004,7 +7028,7 @@
         <v>1</v>
       </c>
       <c r="H168" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -7030,7 +7054,7 @@
         <v>1</v>
       </c>
       <c r="H169" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -7056,7 +7080,7 @@
         <v>0.3087324093735406</v>
       </c>
       <c r="H170" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -7082,7 +7106,7 @@
         <v>0.6040906971093285</v>
       </c>
       <c r="H171" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -7108,7 +7132,7 @@
         <v>1</v>
       </c>
       <c r="H172" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -7134,7 +7158,7 @@
         <v>1</v>
       </c>
       <c r="H173" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -7160,7 +7184,7 @@
         <v>0.5411987563813702</v>
       </c>
       <c r="H174" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -7186,7 +7210,7 @@
         <v>1</v>
       </c>
       <c r="H175" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -7212,7 +7236,7 @@
         <v>0.5366275239822063</v>
       </c>
       <c r="H176" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -7238,7 +7262,7 @@
         <v>0.7616464524958171</v>
       </c>
       <c r="H177" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -7264,7 +7288,7 @@
         <v>0.778584820565025</v>
       </c>
       <c r="H178" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -7290,7 +7314,7 @@
         <v>1</v>
       </c>
       <c r="H179" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -7316,7 +7340,7 @@
         <v>0.779814372339514</v>
       </c>
       <c r="H180" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -7342,7 +7366,7 @@
         <v>1</v>
       </c>
       <c r="H181" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -7368,7 +7392,7 @@
         <v>1</v>
       </c>
       <c r="H182" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -7394,7 +7418,7 @@
         <v>1</v>
       </c>
       <c r="H183" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -7420,7 +7444,7 @@
         <v>1</v>
       </c>
       <c r="H184" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -7446,7 +7470,7 @@
         <v>1</v>
       </c>
       <c r="H185" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -7472,7 +7496,7 @@
         <v>1</v>
       </c>
       <c r="H186" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7498,7 +7522,7 @@
         <v>0.3910910264558739</v>
       </c>
       <c r="H187" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7524,7 +7548,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7550,7 +7574,7 @@
         <v>0.3782183282254096</v>
       </c>
       <c r="H189" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7576,7 +7600,7 @@
         <v>1</v>
       </c>
       <c r="H190" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7602,7 +7626,7 @@
         <v>1</v>
       </c>
       <c r="H191" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7628,7 +7652,7 @@
         <v>0.5022217334415366</v>
       </c>
       <c r="H192" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7654,7 +7678,7 @@
         <v>0.5141989063837532</v>
       </c>
       <c r="H193" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7680,7 +7704,7 @@
         <v>0.3056884663520373</v>
       </c>
       <c r="H194" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7706,7 +7730,7 @@
         <v>0.9738865825460928</v>
       </c>
       <c r="H195" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7732,7 +7756,7 @@
         <v>0.3670780584150713</v>
       </c>
       <c r="H196" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7758,7 +7782,7 @@
         <v>0</v>
       </c>
       <c r="H197" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7784,7 +7808,7 @@
         <v>0</v>
       </c>
       <c r="H198" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7810,7 +7834,7 @@
         <v>0</v>
       </c>
       <c r="H199" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7836,7 +7860,7 @@
         <v>0.2629434170052546</v>
       </c>
       <c r="H200" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7862,7 +7886,7 @@
         <v>0</v>
       </c>
       <c r="H201" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7888,7 +7912,7 @@
         <v>0.3643661297271093</v>
       </c>
       <c r="H202" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7914,7 +7938,7 @@
         <v>1</v>
       </c>
       <c r="H203" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7940,7 +7964,7 @@
         <v>0.2007309629135912</v>
       </c>
       <c r="H204" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7966,7 +7990,7 @@
         <v>0.3622835247576352</v>
       </c>
       <c r="H205" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7992,7 +8016,7 @@
         <v>0.2580942394651852</v>
       </c>
       <c r="H206" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -8018,7 +8042,7 @@
         <v>0.2272896410009056</v>
       </c>
       <c r="H207" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -8044,7 +8068,7 @@
         <v>0.02259656952943894</v>
       </c>
       <c r="H208" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -8070,7 +8094,7 @@
         <v>1</v>
       </c>
       <c r="H209" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -8096,7 +8120,7 @@
         <v>0.316699835553751</v>
       </c>
       <c r="H210" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -8122,7 +8146,7 @@
         <v>0.2917756618279652</v>
       </c>
       <c r="H211" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -8148,7 +8172,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -8174,7 +8198,7 @@
         <v>1</v>
       </c>
       <c r="H213" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -8200,7 +8224,7 @@
         <v>1</v>
       </c>
       <c r="H214" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -8226,7 +8250,7 @@
         <v>1</v>
       </c>
       <c r="H215" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -8252,7 +8276,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -8278,7 +8302,7 @@
         <v>1</v>
       </c>
       <c r="H217" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -8304,7 +8328,7 @@
         <v>1</v>
       </c>
       <c r="H218" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -8330,7 +8354,7 @@
         <v>0</v>
       </c>
       <c r="H219" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -8356,7 +8380,7 @@
         <v>1</v>
       </c>
       <c r="H220" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -8382,7 +8406,7 @@
         <v>0.0621306534788825</v>
       </c>
       <c r="H221" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -8408,7 +8432,7 @@
         <v>0.9197124253853388</v>
       </c>
       <c r="H222" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -8434,7 +8458,7 @@
         <v>0.1534574198678031</v>
       </c>
       <c r="H223" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -8460,7 +8484,7 @@
         <v>0.0432766620547291</v>
       </c>
       <c r="H224" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -8486,7 +8510,7 @@
         <v>0</v>
       </c>
       <c r="H225" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8512,7 +8536,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8538,7 +8562,7 @@
         <v>1</v>
       </c>
       <c r="H227" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8564,7 +8588,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8590,7 +8614,7 @@
         <v>1</v>
       </c>
       <c r="H229" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8616,7 +8640,7 @@
         <v>1</v>
       </c>
       <c r="H230" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8642,7 +8666,7 @@
         <v>1</v>
       </c>
       <c r="H231" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8668,7 +8692,7 @@
         <v>1</v>
       </c>
       <c r="H232" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8694,7 +8718,7 @@
         <v>0</v>
       </c>
       <c r="H233" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8720,7 +8744,7 @@
         <v>1</v>
       </c>
       <c r="H234" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8746,7 +8770,7 @@
         <v>1</v>
       </c>
       <c r="H235" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8772,7 +8796,7 @@
         <v>1</v>
       </c>
       <c r="H236" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8798,7 +8822,7 @@
         <v>0</v>
       </c>
       <c r="H237" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8824,7 +8848,7 @@
         <v>1</v>
       </c>
       <c r="H238" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8850,7 +8874,7 @@
         <v>0.8495492332177974</v>
       </c>
       <c r="H239" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8876,7 +8900,7 @@
         <v>0.6287165807955644</v>
       </c>
       <c r="H240" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8902,7 +8926,7 @@
         <v>0.6590199742859937</v>
       </c>
       <c r="H241" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8928,7 +8952,7 @@
         <v>1</v>
       </c>
       <c r="H242" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8954,7 +8978,7 @@
         <v>1</v>
       </c>
       <c r="H243" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8980,7 +9004,7 @@
         <v>0</v>
       </c>
       <c r="H244" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -9006,7 +9030,7 @@
         <v>0</v>
       </c>
       <c r="H245" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -9032,7 +9056,7 @@
         <v>1</v>
       </c>
       <c r="H246" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -9058,7 +9082,7 @@
         <v>0.009874081767952174</v>
       </c>
       <c r="H247" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -9084,7 +9108,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -9110,7 +9134,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -9136,7 +9160,7 @@
         <v>0.7771680614627153</v>
       </c>
       <c r="H250" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -9162,7 +9186,7 @@
         <v>0.684092991361349</v>
       </c>
       <c r="H251" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -9188,7 +9212,7 @@
         <v>0.6190568656417142</v>
       </c>
       <c r="H252" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -9214,7 +9238,7 @@
         <v>0.6179968680850856</v>
       </c>
       <c r="H253" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -9240,7 +9264,7 @@
         <v>0.5456188990663409</v>
       </c>
       <c r="H254" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -9266,7 +9290,7 @@
         <v>1</v>
       </c>
       <c r="H255" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -9292,7 +9316,7 @@
         <v>0.5074108996205345</v>
       </c>
       <c r="H256" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -9318,7 +9342,7 @@
         <v>0.3570787145669819</v>
       </c>
       <c r="H257" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -9344,7 +9368,7 @@
         <v>0.3430474956288668</v>
       </c>
       <c r="H258" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -9370,7 +9394,7 @@
         <v>0.3780916182620047</v>
       </c>
       <c r="H259" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -9396,7 +9420,7 @@
         <v>1</v>
       </c>
       <c r="H260" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -9422,7 +9446,7 @@
         <v>1</v>
       </c>
       <c r="H261" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -9448,7 +9472,7 @@
         <v>0.2400217296095157</v>
       </c>
       <c r="H262" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -9474,7 +9498,7 @@
         <v>0.3026477102582492</v>
       </c>
       <c r="H263" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -9500,7 +9524,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9526,7 +9550,7 @@
         <v>0.5824288330939381</v>
       </c>
       <c r="H265" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9552,7 +9576,7 @@
         <v>1</v>
       </c>
       <c r="H266" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9578,7 +9602,7 @@
         <v>1</v>
       </c>
       <c r="H267" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9604,7 +9628,7 @@
         <v>1</v>
       </c>
       <c r="H268" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9630,7 +9654,7 @@
         <v>0.4860554446028704</v>
       </c>
       <c r="H269" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9656,7 +9680,7 @@
         <v>0.5485218530910564</v>
       </c>
       <c r="H270" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9682,7 +9706,7 @@
         <v>0.5687845911126622</v>
       </c>
       <c r="H271" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9708,7 +9732,7 @@
         <v>1</v>
       </c>
       <c r="H272" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9734,7 +9758,7 @@
         <v>1</v>
       </c>
       <c r="H273" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9760,7 +9784,7 @@
         <v>1</v>
       </c>
       <c r="H274" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9786,7 +9810,7 @@
         <v>1</v>
       </c>
       <c r="H275" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9812,7 +9836,7 @@
         <v>0.5347201194974325</v>
       </c>
       <c r="H276" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9838,7 +9862,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9864,7 +9888,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9890,7 +9914,7 @@
         <v>0</v>
       </c>
       <c r="H279" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9916,7 +9940,7 @@
         <v>0</v>
       </c>
       <c r="H280" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9942,7 +9966,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9968,7 +9992,7 @@
         <v>0</v>
       </c>
       <c r="H282" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9994,7 +10018,7 @@
         <v>0</v>
       </c>
       <c r="H283" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -10020,7 +10044,7 @@
         <v>1</v>
       </c>
       <c r="H284" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -10046,7 +10070,7 @@
         <v>1</v>
       </c>
       <c r="H285" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -10072,7 +10096,7 @@
         <v>0</v>
       </c>
       <c r="H286" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -10098,7 +10122,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -10124,7 +10148,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -10150,7 +10174,7 @@
         <v>0.1387512764613225</v>
       </c>
       <c r="H289" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -10176,7 +10200,7 @@
         <v>0.09876212659905496</v>
       </c>
       <c r="H290" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -10202,7 +10226,7 @@
         <v>0</v>
       </c>
       <c r="H291" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -10228,7 +10252,7 @@
         <v>0</v>
       </c>
       <c r="H292" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -10254,7 +10278,7 @@
         <v>0</v>
       </c>
       <c r="H293" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -10280,7 +10304,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -10306,7 +10330,7 @@
         <v>0</v>
       </c>
       <c r="H295" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -10332,7 +10356,7 @@
         <v>0</v>
       </c>
       <c r="H296" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -10358,7 +10382,7 @@
         <v>0</v>
       </c>
       <c r="H297" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -10384,7 +10408,7 @@
         <v>0</v>
       </c>
       <c r="H298" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -10410,7 +10434,7 @@
         <v>1</v>
       </c>
       <c r="H299" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -10436,7 +10460,7 @@
         <v>0.8392691107314288</v>
       </c>
       <c r="H300" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -10462,7 +10486,7 @@
         <v>1</v>
       </c>
       <c r="H301" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -10488,7 +10512,7 @@
         <v>0.5725104927894985</v>
       </c>
       <c r="H302" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -10514,7 +10538,7 @@
         <v>0.6452248196870423</v>
       </c>
       <c r="H303" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10540,7 +10564,7 @@
         <v>0</v>
       </c>
       <c r="H304" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10566,7 +10590,7 @@
         <v>1</v>
       </c>
       <c r="H305" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10592,7 +10616,7 @@
         <v>0.6176258382287111</v>
       </c>
       <c r="H306" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10618,7 +10642,7 @@
         <v>0.1402908509712884</v>
       </c>
       <c r="H307" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10644,7 +10668,7 @@
         <v>0.2470817519305337</v>
       </c>
       <c r="H308" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10670,7 +10694,7 @@
         <v>0</v>
       </c>
       <c r="H309" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10696,7 +10720,7 @@
         <v>0</v>
       </c>
       <c r="H310" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10722,7 +10746,7 @@
         <v>0</v>
       </c>
       <c r="H311" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10748,7 +10772,7 @@
         <v>0</v>
       </c>
       <c r="H312" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10774,7 +10798,7 @@
         <v>0</v>
       </c>
       <c r="H313" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10800,7 +10824,7 @@
         <v>0</v>
       </c>
       <c r="H314" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10826,7 +10850,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10852,7 +10876,7 @@
         <v>0</v>
       </c>
       <c r="H316" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10878,7 +10902,7 @@
         <v>0</v>
       </c>
       <c r="H317" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10904,7 +10928,7 @@
         <v>0.9408311744300493</v>
       </c>
       <c r="H318" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10930,7 +10954,7 @@
         <v>0.2281076034476917</v>
       </c>
       <c r="H319" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10956,7 +10980,7 @@
         <v>0.2584835532146987</v>
       </c>
       <c r="H320" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10982,7 +11006,7 @@
         <v>0</v>
       </c>
       <c r="H321" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -11008,7 +11032,7 @@
         <v>0.49663247087312</v>
       </c>
       <c r="H322" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -11034,7 +11058,7 @@
         <v>0.7142898090287908</v>
       </c>
       <c r="H323" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -11060,7 +11084,7 @@
         <v>0.6838526371805752</v>
       </c>
       <c r="H324" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -11086,7 +11110,7 @@
         <v>1</v>
       </c>
       <c r="H325" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -11112,7 +11136,7 @@
         <v>0.8669334352785576</v>
       </c>
       <c r="H326" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -11138,7 +11162,7 @@
         <v>1</v>
       </c>
       <c r="H327" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -11164,7 +11188,7 @@
         <v>0.1987863872524352</v>
       </c>
       <c r="H328" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -11190,7 +11214,7 @@
         <v>0</v>
       </c>
       <c r="H329" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -11216,7 +11240,7 @@
         <v>0.2962742518059081</v>
       </c>
       <c r="H330" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -11242,7 +11266,7 @@
         <v>0.8764820442189873</v>
       </c>
       <c r="H331" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -11268,7 +11292,7 @@
         <v>1</v>
       </c>
       <c r="H332" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -11294,7 +11318,7 @@
         <v>1</v>
       </c>
       <c r="H333" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -11320,7 +11344,7 @@
         <v>0.1209662521283257</v>
       </c>
       <c r="H334" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -11346,7 +11370,7 @@
         <v>0.1691055214091461</v>
       </c>
       <c r="H335" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -11372,7 +11396,7 @@
         <v>1</v>
       </c>
       <c r="H336" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -11398,7 +11422,7 @@
         <v>0.2094118740417113</v>
       </c>
       <c r="H337" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -11424,7 +11448,7 @@
         <v>0</v>
       </c>
       <c r="H338" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -11450,7 +11474,7 @@
         <v>0.5156827272568333</v>
       </c>
       <c r="H339" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -11476,7 +11500,7 @@
         <v>0.9070222351886812</v>
       </c>
       <c r="H340" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -11502,7 +11526,7 @@
         <v>1</v>
       </c>
       <c r="H341" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -11528,7 +11552,7 @@
         <v>0</v>
       </c>
       <c r="H342" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11554,7 +11578,7 @@
         <v>1</v>
       </c>
       <c r="H343" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11580,7 +11604,7 @@
         <v>1</v>
       </c>
       <c r="H344" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11606,7 +11630,7 @@
         <v>0.3535956611716411</v>
       </c>
       <c r="H345" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11632,7 +11656,7 @@
         <v>0.3446389756593827</v>
       </c>
       <c r="H346" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11658,7 +11682,7 @@
         <v>1</v>
       </c>
       <c r="H347" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11684,7 +11708,7 @@
         <v>1</v>
       </c>
       <c r="H348" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11710,7 +11734,7 @@
         <v>0.5328032329248698</v>
       </c>
       <c r="H349" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11736,7 +11760,7 @@
         <v>0.4185556812752281</v>
       </c>
       <c r="H350" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11762,7 +11786,7 @@
         <v>1</v>
       </c>
       <c r="H351" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11788,7 +11812,7 @@
         <v>0</v>
       </c>
       <c r="H352" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11814,7 +11838,7 @@
         <v>0</v>
       </c>
       <c r="H353" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11840,7 +11864,7 @@
         <v>0</v>
       </c>
       <c r="H354" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11866,7 +11890,7 @@
         <v>1</v>
       </c>
       <c r="H355" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11892,7 +11916,7 @@
         <v>0.4671289773253784</v>
       </c>
       <c r="H356" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11918,7 +11942,7 @@
         <v>0.620001927632466</v>
       </c>
       <c r="H357" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11944,7 +11968,7 @@
         <v>0.6957105060667875</v>
       </c>
       <c r="H358" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11970,7 +11994,7 @@
         <v>0</v>
       </c>
       <c r="H359" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11996,7 +12020,7 @@
         <v>0.4905456411905179</v>
       </c>
       <c r="H360" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -12022,7 +12046,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -12048,7 +12072,7 @@
         <v>0</v>
       </c>
       <c r="H362" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -12074,7 +12098,7 @@
         <v>0</v>
       </c>
       <c r="H363" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -12100,7 +12124,7 @@
         <v>0</v>
       </c>
       <c r="H364" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -12126,7 +12150,7 @@
         <v>0</v>
       </c>
       <c r="H365" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -12152,7 +12176,7 @@
         <v>1</v>
       </c>
       <c r="H366" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -12178,7 +12202,7 @@
         <v>0</v>
       </c>
       <c r="H367" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -12204,7 +12228,7 @@
         <v>0</v>
       </c>
       <c r="H368" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -12230,7 +12254,7 @@
         <v>1</v>
       </c>
       <c r="H369" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -12256,7 +12280,7 @@
         <v>0.6127664785798932</v>
       </c>
       <c r="H370" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -12282,7 +12306,7 @@
         <v>1</v>
       </c>
       <c r="H371" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -12308,7 +12332,7 @@
         <v>1</v>
       </c>
       <c r="H372" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -12334,7 +12358,7 @@
         <v>0</v>
       </c>
       <c r="H373" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -12360,7 +12384,7 @@
         <v>1</v>
       </c>
       <c r="H374" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -12386,7 +12410,7 @@
         <v>0</v>
       </c>
       <c r="H375" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -12412,7 +12436,7 @@
         <v>1</v>
       </c>
       <c r="H376" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -12438,7 +12462,7 @@
         <v>0</v>
       </c>
       <c r="H377" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -12464,7 +12488,7 @@
         <v>0</v>
       </c>
       <c r="H378" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -12490,7 +12514,7 @@
         <v>0</v>
       </c>
       <c r="H379" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -12516,7 +12540,7 @@
         <v>0.2247282290278291</v>
       </c>
       <c r="H380" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -12542,7 +12566,7 @@
         <v>1</v>
       </c>
       <c r="H381" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12568,7 +12592,7 @@
         <v>1</v>
       </c>
       <c r="H382" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12594,7 +12618,7 @@
         <v>1</v>
       </c>
       <c r="H383" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12620,7 +12644,7 @@
         <v>1</v>
       </c>
       <c r="H384" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12646,7 +12670,7 @@
         <v>1</v>
       </c>
       <c r="H385" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12672,7 +12696,7 @@
         <v>0.5175780030761412</v>
       </c>
       <c r="H386" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12698,7 +12722,7 @@
         <v>0.407629165987654</v>
       </c>
       <c r="H387" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12724,7 +12748,7 @@
         <v>0.5917118171892221</v>
       </c>
       <c r="H388" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12750,7 +12774,7 @@
         <v>0</v>
       </c>
       <c r="H389" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12776,7 +12800,7 @@
         <v>0</v>
       </c>
       <c r="H390" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12802,7 +12826,7 @@
         <v>0.1210744071449007</v>
       </c>
       <c r="H391" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12828,7 +12852,7 @@
         <v>0</v>
       </c>
       <c r="H392" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12854,7 +12878,7 @@
         <v>0.4730991435488794</v>
       </c>
       <c r="H393" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12880,7 +12904,7 @@
         <v>1</v>
       </c>
       <c r="H394" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12906,7 +12930,7 @@
         <v>0</v>
       </c>
       <c r="H395" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12932,7 +12956,7 @@
         <v>1</v>
       </c>
       <c r="H396" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12958,7 +12982,7 @@
         <v>1</v>
       </c>
       <c r="H397" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12984,7 +13008,7 @@
         <v>1</v>
       </c>
       <c r="H398" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -13010,7 +13034,7 @@
         <v>1</v>
       </c>
       <c r="H399" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -13036,7 +13060,7 @@
         <v>0</v>
       </c>
       <c r="H400" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -13062,7 +13086,7 @@
         <v>1</v>
       </c>
       <c r="H401" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -13088,7 +13112,7 @@
         <v>1</v>
       </c>
       <c r="H402" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -13114,7 +13138,7 @@
         <v>0</v>
       </c>
       <c r="H403" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -13140,7 +13164,7 @@
         <v>1</v>
       </c>
       <c r="H404" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -13166,7 +13190,7 @@
         <v>0</v>
       </c>
       <c r="H405" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -13192,7 +13216,7 @@
         <v>0.7209622620919816</v>
       </c>
       <c r="H406" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -13218,7 +13242,7 @@
         <v>1</v>
       </c>
       <c r="H407" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -13244,7 +13268,7 @@
         <v>1</v>
       </c>
       <c r="H408" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -13270,7 +13294,7 @@
         <v>1</v>
       </c>
       <c r="H409" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -13296,7 +13320,7 @@
         <v>1</v>
       </c>
       <c r="H410" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -13322,7 +13346,7 @@
         <v>0</v>
       </c>
       <c r="H411" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -13348,7 +13372,7 @@
         <v>1</v>
       </c>
       <c r="H412" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -13374,7 +13398,7 @@
         <v>0</v>
       </c>
       <c r="H413" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -13400,7 +13424,7 @@
         <v>1</v>
       </c>
       <c r="H414" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -13426,7 +13450,7 @@
         <v>1</v>
       </c>
       <c r="H415" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -13452,7 +13476,7 @@
         <v>1</v>
       </c>
       <c r="H416" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -13478,7 +13502,7 @@
         <v>0.7565382919417687</v>
       </c>
       <c r="H417" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -13504,7 +13528,7 @@
         <v>1</v>
       </c>
       <c r="H418" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -13530,7 +13554,7 @@
         <v>0.58958180434202</v>
       </c>
       <c r="H419" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13556,7 +13580,7 @@
         <v>0.4342165329712733</v>
       </c>
       <c r="H420" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13582,7 +13606,7 @@
         <v>1</v>
       </c>
       <c r="H421" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13608,7 +13632,7 @@
         <v>0.6575336465873136</v>
       </c>
       <c r="H422" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13634,7 +13658,7 @@
         <v>1</v>
       </c>
       <c r="H423" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13660,7 +13684,7 @@
         <v>1</v>
       </c>
       <c r="H424" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13686,7 +13710,7 @@
         <v>1</v>
       </c>
       <c r="H425" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13712,7 +13736,7 @@
         <v>1</v>
       </c>
       <c r="H426" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13738,7 +13762,7 @@
         <v>0.1931729729332681</v>
       </c>
       <c r="H427" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13764,7 +13788,7 @@
         <v>1</v>
       </c>
       <c r="H428" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13790,7 +13814,7 @@
         <v>0.838787845031057</v>
       </c>
       <c r="H429" t="s">
-        <v>703</v>
+        <v>709</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13816,7 +13840,7 @@
         <v>0</v>
       </c>
       <c r="H430" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13842,7 +13866,7 @@
         <v>0.1022396663436237</v>
       </c>
       <c r="H431" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13868,7 +13892,7 @@
         <v>0</v>
       </c>
       <c r="H432" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13894,7 +13918,7 @@
         <v>1</v>
       </c>
       <c r="H433" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13920,7 +13944,7 @@
         <v>0.4540250855516209</v>
       </c>
       <c r="H434" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13946,7 +13970,7 @@
         <v>0.2896165830953565</v>
       </c>
       <c r="H435" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13972,7 +13996,7 @@
         <v>0.7917401509339994</v>
       </c>
       <c r="H436" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13998,7 +14022,7 @@
         <v>0</v>
       </c>
       <c r="H437" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -14024,7 +14048,7 @@
         <v>1</v>
       </c>
       <c r="H438" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -14050,7 +14074,7 @@
         <v>0.7067178088732917</v>
       </c>
       <c r="H439" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -14076,7 +14100,7 @@
         <v>1</v>
       </c>
       <c r="H440" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -14102,7 +14126,7 @@
         <v>1</v>
       </c>
       <c r="H441" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -14128,7 +14152,7 @@
         <v>0</v>
       </c>
       <c r="H442" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -14154,7 +14178,7 @@
         <v>1</v>
       </c>
       <c r="H443" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -14180,7 +14204,7 @@
         <v>1</v>
       </c>
       <c r="H444" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -14206,7 +14230,7 @@
         <v>1</v>
       </c>
       <c r="H445" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -14232,7 +14256,7 @@
         <v>0.3206802237079347</v>
       </c>
       <c r="H446" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -14258,7 +14282,7 @@
         <v>0</v>
       </c>
       <c r="H447" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -14284,7 +14308,7 @@
         <v>0.2166572947957321</v>
       </c>
       <c r="H448" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -14310,7 +14334,7 @@
         <v>0.09220139004312224</v>
       </c>
       <c r="H449" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -14336,7 +14360,7 @@
         <v>0</v>
       </c>
       <c r="H450" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -14362,7 +14386,7 @@
         <v>0</v>
       </c>
       <c r="H451" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -14388,7 +14412,7 @@
         <v>1</v>
       </c>
       <c r="H452" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -14414,7 +14438,7 @@
         <v>1</v>
       </c>
       <c r="H453" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -14440,7 +14464,7 @@
         <v>1</v>
       </c>
       <c r="H454" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -14466,7 +14490,7 @@
         <v>1</v>
       </c>
       <c r="H455" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -14492,7 +14516,7 @@
         <v>1</v>
       </c>
       <c r="H456" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -14518,7 +14542,7 @@
         <v>0.5355349910433382</v>
       </c>
       <c r="H457" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14544,7 +14568,7 @@
         <v>1</v>
       </c>
       <c r="H458" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14570,7 +14594,7 @@
         <v>1</v>
       </c>
       <c r="H459" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14596,7 +14620,7 @@
         <v>0</v>
       </c>
       <c r="H460" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14622,7 +14646,7 @@
         <v>0.7362068598138494</v>
       </c>
       <c r="H461" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14648,7 +14672,7 @@
         <v>1</v>
       </c>
       <c r="H462" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14674,7 +14698,7 @@
         <v>1</v>
       </c>
       <c r="H463" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14700,7 +14724,7 @@
         <v>0.8290442293029383</v>
       </c>
       <c r="H464" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14726,7 +14750,7 @@
         <v>1</v>
       </c>
       <c r="H465" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14752,7 +14776,7 @@
         <v>1</v>
       </c>
       <c r="H466" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14778,7 +14802,7 @@
         <v>0.2972172914877398</v>
       </c>
       <c r="H467" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14804,7 +14828,7 @@
         <v>1</v>
       </c>
       <c r="H468" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14830,7 +14854,7 @@
         <v>0.3828030816675656</v>
       </c>
       <c r="H469" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14856,7 +14880,7 @@
         <v>1</v>
       </c>
       <c r="H470" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14882,7 +14906,7 @@
         <v>1</v>
       </c>
       <c r="H471" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14908,7 +14932,7 @@
         <v>0.7072751504056575</v>
       </c>
       <c r="H472" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14934,7 +14958,7 @@
         <v>0.6887345743487142</v>
       </c>
       <c r="H473" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14960,7 +14984,7 @@
         <v>0.1067305209771346</v>
       </c>
       <c r="H474" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14986,7 +15010,7 @@
         <v>0</v>
       </c>
       <c r="H475" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -15012,7 +15036,7 @@
         <v>0.6057977033084144</v>
       </c>
       <c r="H476" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -15038,7 +15062,7 @@
         <v>0.6091777797350002</v>
       </c>
       <c r="H477" t="s">
-        <v>721</v>
+        <v>727</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -15064,7 +15088,7 @@
         <v>0.5694759431987656</v>
       </c>
       <c r="H478" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -15090,7 +15114,7 @@
         <v>0.6207146575699412</v>
       </c>
       <c r="H479" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -15116,7 +15140,7 @@
         <v>0.283376215899611</v>
       </c>
       <c r="H480" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -15142,7 +15166,7 @@
         <v>0.2427067649021355</v>
       </c>
       <c r="H481" t="s">
-        <v>724</v>
+        <v>730</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -15168,7 +15192,7 @@
         <v>1</v>
       </c>
       <c r="H482" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -15194,7 +15218,7 @@
         <v>0.5104176137220019</v>
       </c>
       <c r="H483" t="s">
-        <v>725</v>
+        <v>731</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -15220,7 +15244,7 @@
         <v>1</v>
       </c>
       <c r="H484" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -15246,7 +15270,7 @@
         <v>1</v>
       </c>
       <c r="H485" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -15272,7 +15296,7 @@
         <v>1</v>
       </c>
       <c r="H486" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -15298,7 +15322,7 @@
         <v>1</v>
       </c>
       <c r="H487" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -15324,7 +15348,7 @@
         <v>0.4677260579614761</v>
       </c>
       <c r="H488" t="s">
-        <v>726</v>
+        <v>732</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -15350,7 +15374,7 @@
         <v>1</v>
       </c>
       <c r="H489" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -15376,7 +15400,7 @@
         <v>0.476242461576072</v>
       </c>
       <c r="H490" t="s">
-        <v>727</v>
+        <v>733</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -15402,7 +15426,7 @@
         <v>1</v>
       </c>
       <c r="H491" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -15428,7 +15452,7 @@
         <v>0.4885601466764756</v>
       </c>
       <c r="H492" t="s">
-        <v>728</v>
+        <v>734</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -15454,7 +15478,7 @@
         <v>1</v>
       </c>
       <c r="H493" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -15480,7 +15504,7 @@
         <v>0.1892964267045682</v>
       </c>
       <c r="H494" t="s">
-        <v>729</v>
+        <v>735</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -15506,7 +15530,7 @@
         <v>1</v>
       </c>
       <c r="H495" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -15532,7 +15556,7 @@
         <v>1</v>
       </c>
       <c r="H496" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -15558,7 +15582,7 @@
         <v>0.562429454701116</v>
       </c>
       <c r="H497" t="s">
-        <v>730</v>
+        <v>736</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -15584,7 +15608,7 @@
         <v>0.5893467746014928</v>
       </c>
       <c r="H498" t="s">
-        <v>731</v>
+        <v>737</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -15610,7 +15634,7 @@
         <v>0.2453840526620205</v>
       </c>
       <c r="H499" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -15636,7 +15660,7 @@
         <v>1</v>
       </c>
       <c r="H500" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15662,7 +15686,7 @@
         <v>0.4919547742740523</v>
       </c>
       <c r="H501" t="s">
-        <v>733</v>
+        <v>739</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -15688,7 +15712,7 @@
         <v>1</v>
       </c>
       <c r="H502" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15714,7 +15738,7 @@
         <v>1</v>
       </c>
       <c r="H503" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -15740,7 +15764,7 @@
         <v>1</v>
       </c>
       <c r="H504" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -15766,7 +15790,7 @@
         <v>0.5332096778046151</v>
       </c>
       <c r="H505" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -15792,7 +15816,7 @@
         <v>1</v>
       </c>
       <c r="H506" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15818,7 +15842,7 @@
         <v>0.4095043245568133</v>
       </c>
       <c r="H507" t="s">
-        <v>735</v>
+        <v>741</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15844,7 +15868,7 @@
         <v>0.9563556993906542</v>
       </c>
       <c r="H508" t="s">
-        <v>736</v>
+        <v>742</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15870,7 +15894,7 @@
         <v>1</v>
       </c>
       <c r="H509" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15896,7 +15920,7 @@
         <v>0.3151420077674845</v>
       </c>
       <c r="H510" t="s">
-        <v>737</v>
+        <v>743</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15922,7 +15946,7 @@
         <v>1</v>
       </c>
       <c r="H511" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -15948,7 +15972,7 @@
         <v>0</v>
       </c>
       <c r="H512" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -15974,7 +15998,7 @@
         <v>0.1226144815616208</v>
       </c>
       <c r="H513" t="s">
-        <v>738</v>
+        <v>744</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -16000,7 +16024,7 @@
         <v>0.348937876188559</v>
       </c>
       <c r="H514" t="s">
-        <v>739</v>
+        <v>745</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -16026,7 +16050,7 @@
         <v>1</v>
       </c>
       <c r="H515" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -16052,7 +16076,7 @@
         <v>1</v>
       </c>
       <c r="H516" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -16078,7 +16102,7 @@
         <v>1</v>
       </c>
       <c r="H517" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -16104,7 +16128,7 @@
         <v>0.8236312239487298</v>
       </c>
       <c r="H518" t="s">
-        <v>740</v>
+        <v>746</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -16130,7 +16154,7 @@
         <v>1</v>
       </c>
       <c r="H519" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -16156,7 +16180,7 @@
         <v>0.4553771692067081</v>
       </c>
       <c r="H520" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -16182,7 +16206,7 @@
         <v>1</v>
       </c>
       <c r="H521" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -16208,7 +16232,7 @@
         <v>0.7309927778789053</v>
       </c>
       <c r="H522" t="s">
-        <v>742</v>
+        <v>748</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -16234,7 +16258,7 @@
         <v>1</v>
       </c>
       <c r="H523" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -16260,7 +16284,7 @@
         <v>0.5966838048782487</v>
       </c>
       <c r="H524" t="s">
-        <v>743</v>
+        <v>749</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -16286,7 +16310,7 @@
         <v>1</v>
       </c>
       <c r="H525" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -16312,7 +16336,7 @@
         <v>0.5392000628733806</v>
       </c>
       <c r="H526" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -16338,7 +16362,7 @@
         <v>0.2752626559507874</v>
       </c>
       <c r="H527" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -16364,7 +16388,7 @@
         <v>0.6423944529437058</v>
       </c>
       <c r="H528" t="s">
-        <v>746</v>
+        <v>752</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -16390,7 +16414,7 @@
         <v>0.7096367257969294</v>
       </c>
       <c r="H529" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -16416,7 +16440,7 @@
         <v>0.266</v>
       </c>
       <c r="H530" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -16442,7 +16466,7 @@
         <v>0.2872</v>
       </c>
       <c r="H531" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -16468,7 +16492,7 @@
         <v>0.6227</v>
       </c>
       <c r="H532" t="s">
-        <v>750</v>
+        <v>756</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -16494,7 +16518,7 @@
         <v>1</v>
       </c>
       <c r="H533" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -16520,7 +16544,7 @@
         <v>0</v>
       </c>
       <c r="H534" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -16546,7 +16570,7 @@
         <v>1</v>
       </c>
       <c r="H535" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -16572,7 +16596,7 @@
         <v>1</v>
       </c>
       <c r="H536" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -16598,7 +16622,7 @@
         <v>0</v>
       </c>
       <c r="H537" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -16624,7 +16648,7 @@
         <v>0</v>
       </c>
       <c r="H538" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -16650,7 +16674,7 @@
         <v>0</v>
       </c>
       <c r="H539" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -16676,7 +16700,7 @@
         <v>0.6155</v>
       </c>
       <c r="H540" t="s">
-        <v>751</v>
+        <v>757</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -16702,7 +16726,7 @@
         <v>0.4573</v>
       </c>
       <c r="H541" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -16728,7 +16752,7 @@
         <v>1</v>
       </c>
       <c r="H542" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -16754,7 +16778,7 @@
         <v>0.835</v>
       </c>
       <c r="H543" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -16780,7 +16804,7 @@
         <v>0.7548999999999999</v>
       </c>
       <c r="H544" t="s">
-        <v>754</v>
+        <v>760</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -16806,7 +16830,7 @@
         <v>1</v>
       </c>
       <c r="H545" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -16816,9 +16840,15 @@
       <c r="B546" t="s">
         <v>551</v>
       </c>
+      <c r="C546">
+        <v>0</v>
+      </c>
       <c r="D546">
         <v>0</v>
       </c>
+      <c r="E546">
+        <v>1</v>
+      </c>
       <c r="F546">
         <v>1</v>
       </c>
@@ -16826,7 +16856,157 @@
         <v>0</v>
       </c>
       <c r="H546" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="547" spans="1:8">
+      <c r="A547" s="1">
+        <v>545</v>
+      </c>
+      <c r="B547" t="s">
+        <v>552</v>
+      </c>
+      <c r="C547">
+        <v>1</v>
+      </c>
+      <c r="D547">
+        <v>0</v>
+      </c>
+      <c r="E547">
+        <v>0</v>
+      </c>
+      <c r="F547">
+        <v>1</v>
+      </c>
+      <c r="G547">
+        <v>0</v>
+      </c>
+      <c r="H547" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="548" spans="1:8">
+      <c r="A548" s="1">
+        <v>546</v>
+      </c>
+      <c r="B548" t="s">
         <v>553</v>
+      </c>
+      <c r="C548">
+        <v>0</v>
+      </c>
+      <c r="D548">
+        <v>1</v>
+      </c>
+      <c r="E548">
+        <v>0</v>
+      </c>
+      <c r="F548">
+        <v>0.0281</v>
+      </c>
+      <c r="G548">
+        <v>0.9719</v>
+      </c>
+      <c r="H548" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="549" spans="1:8">
+      <c r="A549" s="1">
+        <v>547</v>
+      </c>
+      <c r="B549" t="s">
+        <v>554</v>
+      </c>
+      <c r="C549">
+        <v>1</v>
+      </c>
+      <c r="D549">
+        <v>0</v>
+      </c>
+      <c r="E549">
+        <v>0</v>
+      </c>
+      <c r="F549">
+        <v>1</v>
+      </c>
+      <c r="G549">
+        <v>0</v>
+      </c>
+      <c r="H549" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="550" spans="1:8">
+      <c r="A550" s="1">
+        <v>548</v>
+      </c>
+      <c r="B550" t="s">
+        <v>555</v>
+      </c>
+      <c r="C550">
+        <v>0</v>
+      </c>
+      <c r="D550">
+        <v>0</v>
+      </c>
+      <c r="E550">
+        <v>1</v>
+      </c>
+      <c r="F550">
+        <v>1</v>
+      </c>
+      <c r="G550">
+        <v>0</v>
+      </c>
+      <c r="H550" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="551" spans="1:8">
+      <c r="A551" s="1">
+        <v>549</v>
+      </c>
+      <c r="B551" t="s">
+        <v>556</v>
+      </c>
+      <c r="C551">
+        <v>1</v>
+      </c>
+      <c r="D551">
+        <v>0</v>
+      </c>
+      <c r="E551">
+        <v>0</v>
+      </c>
+      <c r="F551">
+        <v>1</v>
+      </c>
+      <c r="G551">
+        <v>0</v>
+      </c>
+      <c r="H551" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="552" spans="1:8">
+      <c r="A552" s="1">
+        <v>550</v>
+      </c>
+      <c r="B552" t="s">
+        <v>557</v>
+      </c>
+      <c r="D552">
+        <v>0</v>
+      </c>
+      <c r="F552">
+        <v>0.7027</v>
+      </c>
+      <c r="G552">
+        <v>0.2973</v>
+      </c>
+      <c r="H552" t="s">
+        <v>762</v>
       </c>
     </row>
   </sheetData>

--- a/firebase_data_from_spyEnsembleVSMO_v2.xlsx
+++ b/firebase_data_from_spyEnsembleVSMO_v2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="766">
   <si>
     <t>date</t>
   </si>
@@ -1688,6 +1688,15 @@
   </si>
   <si>
     <t>2025-08-11</t>
+  </si>
+  <si>
+    <t>2025-08-12</t>
+  </si>
+  <si>
+    <t>2025-08-13</t>
+  </si>
+  <si>
+    <t>2025-08-14</t>
   </si>
   <si>
     <t>0.00</t>
@@ -2660,7 +2669,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H552"/>
+  <dimension ref="A1:H555"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2712,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2738,7 +2747,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2764,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2790,7 +2799,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2816,7 +2825,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2842,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2868,7 +2877,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2894,7 +2903,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2920,7 +2929,7 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2946,7 +2955,7 @@
         <v>0.04303446040071349</v>
       </c>
       <c r="H11" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2972,7 +2981,7 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2998,7 +3007,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3024,7 +3033,7 @@
         <v>0.915256809318685</v>
       </c>
       <c r="H14" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3050,7 +3059,7 @@
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -3076,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -3102,7 +3111,7 @@
         <v>0.6184143588780344</v>
       </c>
       <c r="H17" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -3128,7 +3137,7 @@
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -3154,7 +3163,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -3180,7 +3189,7 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3206,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3232,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -3258,7 +3267,7 @@
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3284,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3310,7 +3319,7 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -3336,7 +3345,7 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3362,7 +3371,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3388,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3414,7 +3423,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3440,7 +3449,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3466,7 +3475,7 @@
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3492,7 +3501,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3518,7 +3527,7 @@
         <v>0.745393260242324</v>
       </c>
       <c r="H33" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3544,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3570,7 +3579,7 @@
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3596,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3622,7 +3631,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3648,7 +3657,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3674,7 +3683,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3700,7 +3709,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3726,7 +3735,7 @@
         <v>0.683079705692312</v>
       </c>
       <c r="H41" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3752,7 +3761,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3778,7 +3787,7 @@
         <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3804,7 +3813,7 @@
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3830,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3856,7 +3865,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3882,7 +3891,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3908,7 +3917,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3934,7 +3943,7 @@
         <v>0.4307420609211915</v>
       </c>
       <c r="H49" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3960,7 +3969,7 @@
         <v>0.4817317520945901</v>
       </c>
       <c r="H50" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3986,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -4012,7 +4021,7 @@
         <v>0.5570981908629731</v>
       </c>
       <c r="H52" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -4038,7 +4047,7 @@
         <v>0.7872019792055407</v>
       </c>
       <c r="H53" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -4064,7 +4073,7 @@
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -4090,7 +4099,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -4116,7 +4125,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -4142,7 +4151,7 @@
         <v>0.215245798636519</v>
       </c>
       <c r="H57" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -4168,7 +4177,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -4194,7 +4203,7 @@
         <v>0.3135669763477688</v>
       </c>
       <c r="H59" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -4220,7 +4229,7 @@
         <v>0.1529716371439602</v>
       </c>
       <c r="H60" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -4246,7 +4255,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -4272,7 +4281,7 @@
         <v>0.3106901159644614</v>
       </c>
       <c r="H62" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -4298,7 +4307,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -4324,7 +4333,7 @@
         <v>0.2867490636277352</v>
       </c>
       <c r="H64" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -4350,7 +4359,7 @@
         <v>0.9498742410172212</v>
       </c>
       <c r="H65" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -4376,7 +4385,7 @@
         <v>1</v>
       </c>
       <c r="H66" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -4402,7 +4411,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -4428,7 +4437,7 @@
         <v>1</v>
       </c>
       <c r="H68" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4454,7 +4463,7 @@
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4480,7 +4489,7 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4506,7 +4515,7 @@
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4532,7 +4541,7 @@
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4558,7 +4567,7 @@
         <v>0.1304718106398864</v>
       </c>
       <c r="H73" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4584,7 +4593,7 @@
         <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4610,7 +4619,7 @@
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4636,7 +4645,7 @@
         <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4662,7 +4671,7 @@
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4688,7 +4697,7 @@
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4714,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4740,7 +4749,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4766,7 +4775,7 @@
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4792,7 +4801,7 @@
         <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4818,7 +4827,7 @@
         <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4844,7 +4853,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4870,7 +4879,7 @@
         <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4896,7 +4905,7 @@
         <v>0.414032993753131</v>
       </c>
       <c r="H86" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4922,7 +4931,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4948,7 +4957,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4974,7 +4983,7 @@
         <v>1</v>
       </c>
       <c r="H89" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -5000,7 +5009,7 @@
         <v>1</v>
       </c>
       <c r="H90" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -5026,7 +5035,7 @@
         <v>1</v>
       </c>
       <c r="H91" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -5052,7 +5061,7 @@
         <v>0.9279948866595563</v>
       </c>
       <c r="H92" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -5078,7 +5087,7 @@
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -5104,7 +5113,7 @@
         <v>1</v>
       </c>
       <c r="H94" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -5130,7 +5139,7 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -5156,7 +5165,7 @@
         <v>0.1871628344782118</v>
       </c>
       <c r="H96" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -5182,7 +5191,7 @@
         <v>1</v>
       </c>
       <c r="H97" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -5208,7 +5217,7 @@
         <v>1</v>
       </c>
       <c r="H98" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -5234,7 +5243,7 @@
         <v>0.8771001701943608</v>
       </c>
       <c r="H99" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -5260,7 +5269,7 @@
         <v>0.2146591320888346</v>
       </c>
       <c r="H100" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -5286,7 +5295,7 @@
         <v>1</v>
       </c>
       <c r="H101" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -5312,7 +5321,7 @@
         <v>1</v>
       </c>
       <c r="H102" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -5338,7 +5347,7 @@
         <v>1</v>
       </c>
       <c r="H103" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -5364,7 +5373,7 @@
         <v>1</v>
       </c>
       <c r="H104" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -5390,7 +5399,7 @@
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5416,7 +5425,7 @@
         <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5442,7 +5451,7 @@
         <v>1</v>
       </c>
       <c r="H107" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5468,7 +5477,7 @@
         <v>1</v>
       </c>
       <c r="H108" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5494,7 +5503,7 @@
         <v>1</v>
       </c>
       <c r="H109" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5520,7 +5529,7 @@
         <v>1</v>
       </c>
       <c r="H110" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5546,7 +5555,7 @@
         <v>1</v>
       </c>
       <c r="H111" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5572,7 +5581,7 @@
         <v>0.2055505200809835</v>
       </c>
       <c r="H112" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5598,7 +5607,7 @@
         <v>1</v>
       </c>
       <c r="H113" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5624,7 +5633,7 @@
         <v>0.2995528011053107</v>
       </c>
       <c r="H114" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5650,7 +5659,7 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5676,7 +5685,7 @@
         <v>0.4699445027580825</v>
       </c>
       <c r="H116" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5702,7 +5711,7 @@
         <v>0.770937588646547</v>
       </c>
       <c r="H117" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5728,7 +5737,7 @@
         <v>0.7826457521192932</v>
       </c>
       <c r="H118" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5754,7 +5763,7 @@
         <v>0.4304704948469578</v>
       </c>
       <c r="H119" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5780,7 +5789,7 @@
         <v>1</v>
       </c>
       <c r="H120" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5806,7 +5815,7 @@
         <v>0.6719963442506929</v>
       </c>
       <c r="H121" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5832,7 +5841,7 @@
         <v>1</v>
       </c>
       <c r="H122" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5858,7 +5867,7 @@
         <v>0.5375310953297759</v>
       </c>
       <c r="H123" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5884,7 +5893,7 @@
         <v>0.6497318652602996</v>
       </c>
       <c r="H124" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5910,7 +5919,7 @@
         <v>0.4013470357796504</v>
       </c>
       <c r="H125" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5936,7 +5945,7 @@
         <v>0.4404307186051412</v>
       </c>
       <c r="H126" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5962,7 +5971,7 @@
         <v>0.7535410487481622</v>
       </c>
       <c r="H127" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5988,7 +5997,7 @@
         <v>0.1968264148093589</v>
       </c>
       <c r="H128" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -6014,7 +6023,7 @@
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -6040,7 +6049,7 @@
         <v>0.5903062422634243</v>
       </c>
       <c r="H130" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -6066,7 +6075,7 @@
         <v>0.3143863952226104</v>
       </c>
       <c r="H131" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -6092,7 +6101,7 @@
         <v>0.5251513973196068</v>
       </c>
       <c r="H132" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -6118,7 +6127,7 @@
         <v>0.26776714123178</v>
       </c>
       <c r="H133" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -6144,7 +6153,7 @@
         <v>0.2026359533431654</v>
       </c>
       <c r="H134" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -6170,7 +6179,7 @@
         <v>1</v>
       </c>
       <c r="H135" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -6196,7 +6205,7 @@
         <v>1</v>
       </c>
       <c r="H136" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -6222,7 +6231,7 @@
         <v>0.5557953472408601</v>
       </c>
       <c r="H137" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -6248,7 +6257,7 @@
         <v>1</v>
       </c>
       <c r="H138" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -6274,7 +6283,7 @@
         <v>1</v>
       </c>
       <c r="H139" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -6300,7 +6309,7 @@
         <v>0.8945463189254167</v>
       </c>
       <c r="H140" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -6326,7 +6335,7 @@
         <v>0.6772450649528653</v>
       </c>
       <c r="H141" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -6352,7 +6361,7 @@
         <v>0.9188898615772668</v>
       </c>
       <c r="H142" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -6378,7 +6387,7 @@
         <v>0.6808222412559765</v>
       </c>
       <c r="H143" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -6404,7 +6413,7 @@
         <v>0.7236705146772729</v>
       </c>
       <c r="H144" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -6430,7 +6439,7 @@
         <v>1</v>
       </c>
       <c r="H145" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -6456,7 +6465,7 @@
         <v>1</v>
       </c>
       <c r="H146" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -6482,7 +6491,7 @@
         <v>0.4083837438899106</v>
       </c>
       <c r="H147" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6508,7 +6517,7 @@
         <v>1</v>
       </c>
       <c r="H148" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6534,7 +6543,7 @@
         <v>0</v>
       </c>
       <c r="H149" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6560,7 +6569,7 @@
         <v>0.6711645860416422</v>
       </c>
       <c r="H150" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6586,7 +6595,7 @@
         <v>0.2715172141387561</v>
       </c>
       <c r="H151" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6612,7 +6621,7 @@
         <v>0.2398762302450229</v>
       </c>
       <c r="H152" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6638,7 +6647,7 @@
         <v>0.5664737805177642</v>
       </c>
       <c r="H153" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6664,7 +6673,7 @@
         <v>0.4223113145194125</v>
       </c>
       <c r="H154" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6690,7 +6699,7 @@
         <v>0.3667629390545308</v>
       </c>
       <c r="H155" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6716,7 +6725,7 @@
         <v>0.9231722118787783</v>
       </c>
       <c r="H156" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6742,7 +6751,7 @@
         <v>0.9851787420357059</v>
       </c>
       <c r="H157" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6768,7 +6777,7 @@
         <v>0.4518542194729144</v>
       </c>
       <c r="H158" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6794,7 +6803,7 @@
         <v>0.4964868798335714</v>
       </c>
       <c r="H159" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6820,7 +6829,7 @@
         <v>1</v>
       </c>
       <c r="H160" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6846,7 +6855,7 @@
         <v>1</v>
       </c>
       <c r="H161" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6872,7 +6881,7 @@
         <v>1</v>
       </c>
       <c r="H162" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6898,7 +6907,7 @@
         <v>0.6766899544020667</v>
       </c>
       <c r="H163" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6924,7 +6933,7 @@
         <v>1</v>
       </c>
       <c r="H164" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6950,7 +6959,7 @@
         <v>0</v>
       </c>
       <c r="H165" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6976,7 +6985,7 @@
         <v>0.6910065861261394</v>
       </c>
       <c r="H166" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -7002,7 +7011,7 @@
         <v>1</v>
       </c>
       <c r="H167" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -7028,7 +7037,7 @@
         <v>1</v>
       </c>
       <c r="H168" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -7054,7 +7063,7 @@
         <v>1</v>
       </c>
       <c r="H169" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -7080,7 +7089,7 @@
         <v>0.3087324093735406</v>
       </c>
       <c r="H170" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -7106,7 +7115,7 @@
         <v>0.6040906971093285</v>
       </c>
       <c r="H171" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -7132,7 +7141,7 @@
         <v>1</v>
       </c>
       <c r="H172" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -7158,7 +7167,7 @@
         <v>1</v>
       </c>
       <c r="H173" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -7184,7 +7193,7 @@
         <v>0.5411987563813702</v>
       </c>
       <c r="H174" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -7210,7 +7219,7 @@
         <v>1</v>
       </c>
       <c r="H175" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -7236,7 +7245,7 @@
         <v>0.5366275239822063</v>
       </c>
       <c r="H176" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -7262,7 +7271,7 @@
         <v>0.7616464524958171</v>
       </c>
       <c r="H177" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -7288,7 +7297,7 @@
         <v>0.778584820565025</v>
       </c>
       <c r="H178" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -7314,7 +7323,7 @@
         <v>1</v>
       </c>
       <c r="H179" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -7340,7 +7349,7 @@
         <v>0.779814372339514</v>
       </c>
       <c r="H180" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -7366,7 +7375,7 @@
         <v>1</v>
       </c>
       <c r="H181" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -7392,7 +7401,7 @@
         <v>1</v>
       </c>
       <c r="H182" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -7418,7 +7427,7 @@
         <v>1</v>
       </c>
       <c r="H183" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -7444,7 +7453,7 @@
         <v>1</v>
       </c>
       <c r="H184" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -7470,7 +7479,7 @@
         <v>1</v>
       </c>
       <c r="H185" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -7496,7 +7505,7 @@
         <v>1</v>
       </c>
       <c r="H186" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7522,7 +7531,7 @@
         <v>0.3910910264558739</v>
       </c>
       <c r="H187" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7548,7 +7557,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7574,7 +7583,7 @@
         <v>0.3782183282254096</v>
       </c>
       <c r="H189" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7600,7 +7609,7 @@
         <v>1</v>
       </c>
       <c r="H190" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7626,7 +7635,7 @@
         <v>1</v>
       </c>
       <c r="H191" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7652,7 +7661,7 @@
         <v>0.5022217334415366</v>
       </c>
       <c r="H192" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7678,7 +7687,7 @@
         <v>0.5141989063837532</v>
       </c>
       <c r="H193" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7704,7 +7713,7 @@
         <v>0.3056884663520373</v>
       </c>
       <c r="H194" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7730,7 +7739,7 @@
         <v>0.9738865825460928</v>
       </c>
       <c r="H195" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7756,7 +7765,7 @@
         <v>0.3670780584150713</v>
       </c>
       <c r="H196" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7782,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="H197" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7808,7 +7817,7 @@
         <v>0</v>
       </c>
       <c r="H198" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7834,7 +7843,7 @@
         <v>0</v>
       </c>
       <c r="H199" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7860,7 +7869,7 @@
         <v>0.2629434170052546</v>
       </c>
       <c r="H200" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7886,7 +7895,7 @@
         <v>0</v>
       </c>
       <c r="H201" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7912,7 +7921,7 @@
         <v>0.3643661297271093</v>
       </c>
       <c r="H202" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7938,7 +7947,7 @@
         <v>1</v>
       </c>
       <c r="H203" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7964,7 +7973,7 @@
         <v>0.2007309629135912</v>
       </c>
       <c r="H204" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7990,7 +7999,7 @@
         <v>0.3622835247576352</v>
       </c>
       <c r="H205" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -8016,7 +8025,7 @@
         <v>0.2580942394651852</v>
       </c>
       <c r="H206" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -8042,7 +8051,7 @@
         <v>0.2272896410009056</v>
       </c>
       <c r="H207" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -8068,7 +8077,7 @@
         <v>0.02259656952943894</v>
       </c>
       <c r="H208" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -8094,7 +8103,7 @@
         <v>1</v>
       </c>
       <c r="H209" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -8120,7 +8129,7 @@
         <v>0.316699835553751</v>
       </c>
       <c r="H210" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -8146,7 +8155,7 @@
         <v>0.2917756618279652</v>
       </c>
       <c r="H211" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -8172,7 +8181,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -8198,7 +8207,7 @@
         <v>1</v>
       </c>
       <c r="H213" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -8224,7 +8233,7 @@
         <v>1</v>
       </c>
       <c r="H214" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -8250,7 +8259,7 @@
         <v>1</v>
       </c>
       <c r="H215" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -8276,7 +8285,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -8302,7 +8311,7 @@
         <v>1</v>
       </c>
       <c r="H217" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -8328,7 +8337,7 @@
         <v>1</v>
       </c>
       <c r="H218" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -8354,7 +8363,7 @@
         <v>0</v>
       </c>
       <c r="H219" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -8380,7 +8389,7 @@
         <v>1</v>
       </c>
       <c r="H220" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -8406,7 +8415,7 @@
         <v>0.0621306534788825</v>
       </c>
       <c r="H221" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -8432,7 +8441,7 @@
         <v>0.9197124253853388</v>
       </c>
       <c r="H222" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -8458,7 +8467,7 @@
         <v>0.1534574198678031</v>
       </c>
       <c r="H223" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -8484,7 +8493,7 @@
         <v>0.0432766620547291</v>
       </c>
       <c r="H224" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -8510,7 +8519,7 @@
         <v>0</v>
       </c>
       <c r="H225" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8536,7 +8545,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8562,7 +8571,7 @@
         <v>1</v>
       </c>
       <c r="H227" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8588,7 +8597,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8614,7 +8623,7 @@
         <v>1</v>
       </c>
       <c r="H229" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8640,7 +8649,7 @@
         <v>1</v>
       </c>
       <c r="H230" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8666,7 +8675,7 @@
         <v>1</v>
       </c>
       <c r="H231" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8692,7 +8701,7 @@
         <v>1</v>
       </c>
       <c r="H232" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8718,7 +8727,7 @@
         <v>0</v>
       </c>
       <c r="H233" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8744,7 +8753,7 @@
         <v>1</v>
       </c>
       <c r="H234" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8770,7 +8779,7 @@
         <v>1</v>
       </c>
       <c r="H235" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8796,7 +8805,7 @@
         <v>1</v>
       </c>
       <c r="H236" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8822,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="H237" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8848,7 +8857,7 @@
         <v>1</v>
       </c>
       <c r="H238" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8874,7 +8883,7 @@
         <v>0.8495492332177974</v>
       </c>
       <c r="H239" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8900,7 +8909,7 @@
         <v>0.6287165807955644</v>
       </c>
       <c r="H240" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8926,7 +8935,7 @@
         <v>0.6590199742859937</v>
       </c>
       <c r="H241" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8952,7 +8961,7 @@
         <v>1</v>
       </c>
       <c r="H242" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8978,7 +8987,7 @@
         <v>1</v>
       </c>
       <c r="H243" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -9004,7 +9013,7 @@
         <v>0</v>
       </c>
       <c r="H244" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -9030,7 +9039,7 @@
         <v>0</v>
       </c>
       <c r="H245" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -9056,7 +9065,7 @@
         <v>1</v>
       </c>
       <c r="H246" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -9082,7 +9091,7 @@
         <v>0.009874081767952174</v>
       </c>
       <c r="H247" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -9108,7 +9117,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -9134,7 +9143,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -9160,7 +9169,7 @@
         <v>0.7771680614627153</v>
       </c>
       <c r="H250" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -9186,7 +9195,7 @@
         <v>0.684092991361349</v>
       </c>
       <c r="H251" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -9212,7 +9221,7 @@
         <v>0.6190568656417142</v>
       </c>
       <c r="H252" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -9238,7 +9247,7 @@
         <v>0.6179968680850856</v>
       </c>
       <c r="H253" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -9264,7 +9273,7 @@
         <v>0.5456188990663409</v>
       </c>
       <c r="H254" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -9290,7 +9299,7 @@
         <v>1</v>
       </c>
       <c r="H255" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -9316,7 +9325,7 @@
         <v>0.5074108996205345</v>
       </c>
       <c r="H256" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -9342,7 +9351,7 @@
         <v>0.3570787145669819</v>
       </c>
       <c r="H257" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -9368,7 +9377,7 @@
         <v>0.3430474956288668</v>
       </c>
       <c r="H258" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -9394,7 +9403,7 @@
         <v>0.3780916182620047</v>
       </c>
       <c r="H259" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -9420,7 +9429,7 @@
         <v>1</v>
       </c>
       <c r="H260" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -9446,7 +9455,7 @@
         <v>1</v>
       </c>
       <c r="H261" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -9472,7 +9481,7 @@
         <v>0.2400217296095157</v>
       </c>
       <c r="H262" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -9498,7 +9507,7 @@
         <v>0.3026477102582492</v>
       </c>
       <c r="H263" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -9524,7 +9533,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9550,7 +9559,7 @@
         <v>0.5824288330939381</v>
       </c>
       <c r="H265" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9576,7 +9585,7 @@
         <v>1</v>
       </c>
       <c r="H266" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9602,7 +9611,7 @@
         <v>1</v>
       </c>
       <c r="H267" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9628,7 +9637,7 @@
         <v>1</v>
       </c>
       <c r="H268" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9654,7 +9663,7 @@
         <v>0.4860554446028704</v>
       </c>
       <c r="H269" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9680,7 +9689,7 @@
         <v>0.5485218530910564</v>
       </c>
       <c r="H270" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9706,7 +9715,7 @@
         <v>0.5687845911126622</v>
       </c>
       <c r="H271" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9732,7 +9741,7 @@
         <v>1</v>
       </c>
       <c r="H272" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9758,7 +9767,7 @@
         <v>1</v>
       </c>
       <c r="H273" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9784,7 +9793,7 @@
         <v>1</v>
       </c>
       <c r="H274" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9810,7 +9819,7 @@
         <v>1</v>
       </c>
       <c r="H275" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9836,7 +9845,7 @@
         <v>0.5347201194974325</v>
       </c>
       <c r="H276" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9862,7 +9871,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9888,7 +9897,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9914,7 +9923,7 @@
         <v>0</v>
       </c>
       <c r="H279" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9940,7 +9949,7 @@
         <v>0</v>
       </c>
       <c r="H280" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9966,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9992,7 +10001,7 @@
         <v>0</v>
       </c>
       <c r="H282" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -10018,7 +10027,7 @@
         <v>0</v>
       </c>
       <c r="H283" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -10044,7 +10053,7 @@
         <v>1</v>
       </c>
       <c r="H284" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -10070,7 +10079,7 @@
         <v>1</v>
       </c>
       <c r="H285" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -10096,7 +10105,7 @@
         <v>0</v>
       </c>
       <c r="H286" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -10122,7 +10131,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -10148,7 +10157,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -10174,7 +10183,7 @@
         <v>0.1387512764613225</v>
       </c>
       <c r="H289" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -10200,7 +10209,7 @@
         <v>0.09876212659905496</v>
       </c>
       <c r="H290" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -10226,7 +10235,7 @@
         <v>0</v>
       </c>
       <c r="H291" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -10252,7 +10261,7 @@
         <v>0</v>
       </c>
       <c r="H292" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -10278,7 +10287,7 @@
         <v>0</v>
       </c>
       <c r="H293" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -10304,7 +10313,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -10330,7 +10339,7 @@
         <v>0</v>
       </c>
       <c r="H295" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -10356,7 +10365,7 @@
         <v>0</v>
       </c>
       <c r="H296" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -10382,7 +10391,7 @@
         <v>0</v>
       </c>
       <c r="H297" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -10408,7 +10417,7 @@
         <v>0</v>
       </c>
       <c r="H298" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -10434,7 +10443,7 @@
         <v>1</v>
       </c>
       <c r="H299" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -10460,7 +10469,7 @@
         <v>0.8392691107314288</v>
       </c>
       <c r="H300" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -10486,7 +10495,7 @@
         <v>1</v>
       </c>
       <c r="H301" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -10512,7 +10521,7 @@
         <v>0.5725104927894985</v>
       </c>
       <c r="H302" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -10538,7 +10547,7 @@
         <v>0.6452248196870423</v>
       </c>
       <c r="H303" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10564,7 +10573,7 @@
         <v>0</v>
       </c>
       <c r="H304" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10590,7 +10599,7 @@
         <v>1</v>
       </c>
       <c r="H305" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10616,7 +10625,7 @@
         <v>0.6176258382287111</v>
       </c>
       <c r="H306" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10642,7 +10651,7 @@
         <v>0.1402908509712884</v>
       </c>
       <c r="H307" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10668,7 +10677,7 @@
         <v>0.2470817519305337</v>
       </c>
       <c r="H308" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10694,7 +10703,7 @@
         <v>0</v>
       </c>
       <c r="H309" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10720,7 +10729,7 @@
         <v>0</v>
       </c>
       <c r="H310" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10746,7 +10755,7 @@
         <v>0</v>
       </c>
       <c r="H311" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10772,7 +10781,7 @@
         <v>0</v>
       </c>
       <c r="H312" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10798,7 +10807,7 @@
         <v>0</v>
       </c>
       <c r="H313" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10824,7 +10833,7 @@
         <v>0</v>
       </c>
       <c r="H314" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10850,7 +10859,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10876,7 +10885,7 @@
         <v>0</v>
       </c>
       <c r="H316" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10902,7 +10911,7 @@
         <v>0</v>
       </c>
       <c r="H317" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10928,7 +10937,7 @@
         <v>0.9408311744300493</v>
       </c>
       <c r="H318" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10954,7 +10963,7 @@
         <v>0.2281076034476917</v>
       </c>
       <c r="H319" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10980,7 +10989,7 @@
         <v>0.2584835532146987</v>
       </c>
       <c r="H320" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -11006,7 +11015,7 @@
         <v>0</v>
       </c>
       <c r="H321" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -11032,7 +11041,7 @@
         <v>0.49663247087312</v>
       </c>
       <c r="H322" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -11058,7 +11067,7 @@
         <v>0.7142898090287908</v>
       </c>
       <c r="H323" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -11084,7 +11093,7 @@
         <v>0.6838526371805752</v>
       </c>
       <c r="H324" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -11110,7 +11119,7 @@
         <v>1</v>
       </c>
       <c r="H325" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -11136,7 +11145,7 @@
         <v>0.8669334352785576</v>
       </c>
       <c r="H326" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -11162,7 +11171,7 @@
         <v>1</v>
       </c>
       <c r="H327" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -11188,7 +11197,7 @@
         <v>0.1987863872524352</v>
       </c>
       <c r="H328" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -11214,7 +11223,7 @@
         <v>0</v>
       </c>
       <c r="H329" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -11240,7 +11249,7 @@
         <v>0.2962742518059081</v>
       </c>
       <c r="H330" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -11266,7 +11275,7 @@
         <v>0.8764820442189873</v>
       </c>
       <c r="H331" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -11292,7 +11301,7 @@
         <v>1</v>
       </c>
       <c r="H332" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -11318,7 +11327,7 @@
         <v>1</v>
       </c>
       <c r="H333" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -11344,7 +11353,7 @@
         <v>0.1209662521283257</v>
       </c>
       <c r="H334" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -11370,7 +11379,7 @@
         <v>0.1691055214091461</v>
       </c>
       <c r="H335" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -11396,7 +11405,7 @@
         <v>1</v>
       </c>
       <c r="H336" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -11422,7 +11431,7 @@
         <v>0.2094118740417113</v>
       </c>
       <c r="H337" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -11448,7 +11457,7 @@
         <v>0</v>
       </c>
       <c r="H338" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -11474,7 +11483,7 @@
         <v>0.5156827272568333</v>
       </c>
       <c r="H339" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -11500,7 +11509,7 @@
         <v>0.9070222351886812</v>
       </c>
       <c r="H340" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -11526,7 +11535,7 @@
         <v>1</v>
       </c>
       <c r="H341" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -11552,7 +11561,7 @@
         <v>0</v>
       </c>
       <c r="H342" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11578,7 +11587,7 @@
         <v>1</v>
       </c>
       <c r="H343" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11604,7 +11613,7 @@
         <v>1</v>
       </c>
       <c r="H344" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11630,7 +11639,7 @@
         <v>0.3535956611716411</v>
       </c>
       <c r="H345" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11656,7 +11665,7 @@
         <v>0.3446389756593827</v>
       </c>
       <c r="H346" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11682,7 +11691,7 @@
         <v>1</v>
       </c>
       <c r="H347" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11708,7 +11717,7 @@
         <v>1</v>
       </c>
       <c r="H348" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11734,7 +11743,7 @@
         <v>0.5328032329248698</v>
       </c>
       <c r="H349" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11760,7 +11769,7 @@
         <v>0.4185556812752281</v>
       </c>
       <c r="H350" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11786,7 +11795,7 @@
         <v>1</v>
       </c>
       <c r="H351" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11812,7 +11821,7 @@
         <v>0</v>
       </c>
       <c r="H352" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11838,7 +11847,7 @@
         <v>0</v>
       </c>
       <c r="H353" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11864,7 +11873,7 @@
         <v>0</v>
       </c>
       <c r="H354" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11890,7 +11899,7 @@
         <v>1</v>
       </c>
       <c r="H355" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11916,7 +11925,7 @@
         <v>0.4671289773253784</v>
       </c>
       <c r="H356" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11942,7 +11951,7 @@
         <v>0.620001927632466</v>
       </c>
       <c r="H357" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11968,7 +11977,7 @@
         <v>0.6957105060667875</v>
       </c>
       <c r="H358" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11994,7 +12003,7 @@
         <v>0</v>
       </c>
       <c r="H359" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -12020,7 +12029,7 @@
         <v>0.4905456411905179</v>
       </c>
       <c r="H360" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -12046,7 +12055,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -12072,7 +12081,7 @@
         <v>0</v>
       </c>
       <c r="H362" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -12098,7 +12107,7 @@
         <v>0</v>
       </c>
       <c r="H363" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -12124,7 +12133,7 @@
         <v>0</v>
       </c>
       <c r="H364" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -12150,7 +12159,7 @@
         <v>0</v>
       </c>
       <c r="H365" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -12176,7 +12185,7 @@
         <v>1</v>
       </c>
       <c r="H366" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -12202,7 +12211,7 @@
         <v>0</v>
       </c>
       <c r="H367" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -12228,7 +12237,7 @@
         <v>0</v>
       </c>
       <c r="H368" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -12254,7 +12263,7 @@
         <v>1</v>
       </c>
       <c r="H369" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -12280,7 +12289,7 @@
         <v>0.6127664785798932</v>
       </c>
       <c r="H370" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -12306,7 +12315,7 @@
         <v>1</v>
       </c>
       <c r="H371" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -12332,7 +12341,7 @@
         <v>1</v>
       </c>
       <c r="H372" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -12358,7 +12367,7 @@
         <v>0</v>
       </c>
       <c r="H373" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -12384,7 +12393,7 @@
         <v>1</v>
       </c>
       <c r="H374" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -12410,7 +12419,7 @@
         <v>0</v>
       </c>
       <c r="H375" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -12436,7 +12445,7 @@
         <v>1</v>
       </c>
       <c r="H376" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -12462,7 +12471,7 @@
         <v>0</v>
       </c>
       <c r="H377" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -12488,7 +12497,7 @@
         <v>0</v>
       </c>
       <c r="H378" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -12514,7 +12523,7 @@
         <v>0</v>
       </c>
       <c r="H379" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -12540,7 +12549,7 @@
         <v>0.2247282290278291</v>
       </c>
       <c r="H380" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -12566,7 +12575,7 @@
         <v>1</v>
       </c>
       <c r="H381" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12592,7 +12601,7 @@
         <v>1</v>
       </c>
       <c r="H382" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12618,7 +12627,7 @@
         <v>1</v>
       </c>
       <c r="H383" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12644,7 +12653,7 @@
         <v>1</v>
       </c>
       <c r="H384" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12670,7 +12679,7 @@
         <v>1</v>
       </c>
       <c r="H385" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12696,7 +12705,7 @@
         <v>0.5175780030761412</v>
       </c>
       <c r="H386" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12722,7 +12731,7 @@
         <v>0.407629165987654</v>
       </c>
       <c r="H387" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12748,7 +12757,7 @@
         <v>0.5917118171892221</v>
       </c>
       <c r="H388" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12774,7 +12783,7 @@
         <v>0</v>
       </c>
       <c r="H389" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12800,7 +12809,7 @@
         <v>0</v>
       </c>
       <c r="H390" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12826,7 +12835,7 @@
         <v>0.1210744071449007</v>
       </c>
       <c r="H391" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12852,7 +12861,7 @@
         <v>0</v>
       </c>
       <c r="H392" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12878,7 +12887,7 @@
         <v>0.4730991435488794</v>
       </c>
       <c r="H393" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12904,7 +12913,7 @@
         <v>1</v>
       </c>
       <c r="H394" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12930,7 +12939,7 @@
         <v>0</v>
       </c>
       <c r="H395" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12956,7 +12965,7 @@
         <v>1</v>
       </c>
       <c r="H396" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12982,7 +12991,7 @@
         <v>1</v>
       </c>
       <c r="H397" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -13008,7 +13017,7 @@
         <v>1</v>
       </c>
       <c r="H398" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -13034,7 +13043,7 @@
         <v>1</v>
       </c>
       <c r="H399" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -13060,7 +13069,7 @@
         <v>0</v>
       </c>
       <c r="H400" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -13086,7 +13095,7 @@
         <v>1</v>
       </c>
       <c r="H401" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -13112,7 +13121,7 @@
         <v>1</v>
       </c>
       <c r="H402" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -13138,7 +13147,7 @@
         <v>0</v>
       </c>
       <c r="H403" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -13164,7 +13173,7 @@
         <v>1</v>
       </c>
       <c r="H404" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -13190,7 +13199,7 @@
         <v>0</v>
       </c>
       <c r="H405" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -13216,7 +13225,7 @@
         <v>0.7209622620919816</v>
       </c>
       <c r="H406" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -13242,7 +13251,7 @@
         <v>1</v>
       </c>
       <c r="H407" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -13268,7 +13277,7 @@
         <v>1</v>
       </c>
       <c r="H408" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -13294,7 +13303,7 @@
         <v>1</v>
       </c>
       <c r="H409" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -13320,7 +13329,7 @@
         <v>1</v>
       </c>
       <c r="H410" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -13346,7 +13355,7 @@
         <v>0</v>
       </c>
       <c r="H411" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -13372,7 +13381,7 @@
         <v>1</v>
       </c>
       <c r="H412" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -13398,7 +13407,7 @@
         <v>0</v>
       </c>
       <c r="H413" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -13424,7 +13433,7 @@
         <v>1</v>
       </c>
       <c r="H414" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -13450,7 +13459,7 @@
         <v>1</v>
       </c>
       <c r="H415" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -13476,7 +13485,7 @@
         <v>1</v>
       </c>
       <c r="H416" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -13502,7 +13511,7 @@
         <v>0.7565382919417687</v>
       </c>
       <c r="H417" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -13528,7 +13537,7 @@
         <v>1</v>
       </c>
       <c r="H418" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -13554,7 +13563,7 @@
         <v>0.58958180434202</v>
       </c>
       <c r="H419" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13580,7 +13589,7 @@
         <v>0.4342165329712733</v>
       </c>
       <c r="H420" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13606,7 +13615,7 @@
         <v>1</v>
       </c>
       <c r="H421" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13632,7 +13641,7 @@
         <v>0.6575336465873136</v>
       </c>
       <c r="H422" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13658,7 +13667,7 @@
         <v>1</v>
       </c>
       <c r="H423" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13684,7 +13693,7 @@
         <v>1</v>
       </c>
       <c r="H424" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13710,7 +13719,7 @@
         <v>1</v>
       </c>
       <c r="H425" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13736,7 +13745,7 @@
         <v>1</v>
       </c>
       <c r="H426" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13762,7 +13771,7 @@
         <v>0.1931729729332681</v>
       </c>
       <c r="H427" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13788,7 +13797,7 @@
         <v>1</v>
       </c>
       <c r="H428" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13814,7 +13823,7 @@
         <v>0.838787845031057</v>
       </c>
       <c r="H429" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13840,7 +13849,7 @@
         <v>0</v>
       </c>
       <c r="H430" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13866,7 +13875,7 @@
         <v>0.1022396663436237</v>
       </c>
       <c r="H431" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13892,7 +13901,7 @@
         <v>0</v>
       </c>
       <c r="H432" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13918,7 +13927,7 @@
         <v>1</v>
       </c>
       <c r="H433" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13944,7 +13953,7 @@
         <v>0.4540250855516209</v>
       </c>
       <c r="H434" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13970,7 +13979,7 @@
         <v>0.2896165830953565</v>
       </c>
       <c r="H435" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13996,7 +14005,7 @@
         <v>0.7917401509339994</v>
       </c>
       <c r="H436" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -14022,7 +14031,7 @@
         <v>0</v>
       </c>
       <c r="H437" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -14048,7 +14057,7 @@
         <v>1</v>
       </c>
       <c r="H438" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -14074,7 +14083,7 @@
         <v>0.7067178088732917</v>
       </c>
       <c r="H439" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -14100,7 +14109,7 @@
         <v>1</v>
       </c>
       <c r="H440" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -14126,7 +14135,7 @@
         <v>1</v>
       </c>
       <c r="H441" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -14152,7 +14161,7 @@
         <v>0</v>
       </c>
       <c r="H442" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -14178,7 +14187,7 @@
         <v>1</v>
       </c>
       <c r="H443" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -14204,7 +14213,7 @@
         <v>1</v>
       </c>
       <c r="H444" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -14230,7 +14239,7 @@
         <v>1</v>
       </c>
       <c r="H445" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -14256,7 +14265,7 @@
         <v>0.3206802237079347</v>
       </c>
       <c r="H446" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -14282,7 +14291,7 @@
         <v>0</v>
       </c>
       <c r="H447" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -14308,7 +14317,7 @@
         <v>0.2166572947957321</v>
       </c>
       <c r="H448" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -14334,7 +14343,7 @@
         <v>0.09220139004312224</v>
       </c>
       <c r="H449" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -14360,7 +14369,7 @@
         <v>0</v>
       </c>
       <c r="H450" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -14386,7 +14395,7 @@
         <v>0</v>
       </c>
       <c r="H451" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -14412,7 +14421,7 @@
         <v>1</v>
       </c>
       <c r="H452" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -14438,7 +14447,7 @@
         <v>1</v>
       </c>
       <c r="H453" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -14464,7 +14473,7 @@
         <v>1</v>
       </c>
       <c r="H454" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -14490,7 +14499,7 @@
         <v>1</v>
       </c>
       <c r="H455" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -14516,7 +14525,7 @@
         <v>1</v>
       </c>
       <c r="H456" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -14542,7 +14551,7 @@
         <v>0.5355349910433382</v>
       </c>
       <c r="H457" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14568,7 +14577,7 @@
         <v>1</v>
       </c>
       <c r="H458" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14594,7 +14603,7 @@
         <v>1</v>
       </c>
       <c r="H459" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14620,7 +14629,7 @@
         <v>0</v>
       </c>
       <c r="H460" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14646,7 +14655,7 @@
         <v>0.7362068598138494</v>
       </c>
       <c r="H461" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14672,7 +14681,7 @@
         <v>1</v>
       </c>
       <c r="H462" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14698,7 +14707,7 @@
         <v>1</v>
       </c>
       <c r="H463" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14724,7 +14733,7 @@
         <v>0.8290442293029383</v>
       </c>
       <c r="H464" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14750,7 +14759,7 @@
         <v>1</v>
       </c>
       <c r="H465" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14776,7 +14785,7 @@
         <v>1</v>
       </c>
       <c r="H466" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14802,7 +14811,7 @@
         <v>0.2972172914877398</v>
       </c>
       <c r="H467" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14828,7 +14837,7 @@
         <v>1</v>
       </c>
       <c r="H468" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14854,7 +14863,7 @@
         <v>0.3828030816675656</v>
       </c>
       <c r="H469" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14880,7 +14889,7 @@
         <v>1</v>
       </c>
       <c r="H470" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14906,7 +14915,7 @@
         <v>1</v>
       </c>
       <c r="H471" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14932,7 +14941,7 @@
         <v>0.7072751504056575</v>
       </c>
       <c r="H472" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14958,7 +14967,7 @@
         <v>0.6887345743487142</v>
       </c>
       <c r="H473" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14984,7 +14993,7 @@
         <v>0.1067305209771346</v>
       </c>
       <c r="H474" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -15010,7 +15019,7 @@
         <v>0</v>
       </c>
       <c r="H475" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -15036,7 +15045,7 @@
         <v>0.6057977033084144</v>
       </c>
       <c r="H476" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -15062,7 +15071,7 @@
         <v>0.6091777797350002</v>
       </c>
       <c r="H477" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -15088,7 +15097,7 @@
         <v>0.5694759431987656</v>
       </c>
       <c r="H478" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -15114,7 +15123,7 @@
         <v>0.6207146575699412</v>
       </c>
       <c r="H479" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -15140,7 +15149,7 @@
         <v>0.283376215899611</v>
       </c>
       <c r="H480" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -15166,7 +15175,7 @@
         <v>0.2427067649021355</v>
       </c>
       <c r="H481" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -15192,7 +15201,7 @@
         <v>1</v>
       </c>
       <c r="H482" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -15218,7 +15227,7 @@
         <v>0.5104176137220019</v>
       </c>
       <c r="H483" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -15244,7 +15253,7 @@
         <v>1</v>
       </c>
       <c r="H484" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -15270,7 +15279,7 @@
         <v>1</v>
       </c>
       <c r="H485" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -15296,7 +15305,7 @@
         <v>1</v>
       </c>
       <c r="H486" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -15322,7 +15331,7 @@
         <v>1</v>
       </c>
       <c r="H487" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -15348,7 +15357,7 @@
         <v>0.4677260579614761</v>
       </c>
       <c r="H488" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -15374,7 +15383,7 @@
         <v>1</v>
       </c>
       <c r="H489" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -15400,7 +15409,7 @@
         <v>0.476242461576072</v>
       </c>
       <c r="H490" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -15426,7 +15435,7 @@
         <v>1</v>
       </c>
       <c r="H491" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -15452,7 +15461,7 @@
         <v>0.4885601466764756</v>
       </c>
       <c r="H492" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -15478,7 +15487,7 @@
         <v>1</v>
       </c>
       <c r="H493" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -15504,7 +15513,7 @@
         <v>0.1892964267045682</v>
       </c>
       <c r="H494" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -15530,7 +15539,7 @@
         <v>1</v>
       </c>
       <c r="H495" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -15556,7 +15565,7 @@
         <v>1</v>
       </c>
       <c r="H496" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -15582,7 +15591,7 @@
         <v>0.562429454701116</v>
       </c>
       <c r="H497" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -15608,7 +15617,7 @@
         <v>0.5893467746014928</v>
       </c>
       <c r="H498" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -15634,7 +15643,7 @@
         <v>0.2453840526620205</v>
       </c>
       <c r="H499" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -15660,7 +15669,7 @@
         <v>1</v>
       </c>
       <c r="H500" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15686,7 +15695,7 @@
         <v>0.4919547742740523</v>
       </c>
       <c r="H501" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -15712,7 +15721,7 @@
         <v>1</v>
       </c>
       <c r="H502" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15738,7 +15747,7 @@
         <v>1</v>
       </c>
       <c r="H503" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -15764,7 +15773,7 @@
         <v>1</v>
       </c>
       <c r="H504" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -15790,7 +15799,7 @@
         <v>0.5332096778046151</v>
       </c>
       <c r="H505" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -15816,7 +15825,7 @@
         <v>1</v>
       </c>
       <c r="H506" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15842,7 +15851,7 @@
         <v>0.4095043245568133</v>
       </c>
       <c r="H507" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15868,7 +15877,7 @@
         <v>0.9563556993906542</v>
       </c>
       <c r="H508" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15894,7 +15903,7 @@
         <v>1</v>
       </c>
       <c r="H509" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15920,7 +15929,7 @@
         <v>0.3151420077674845</v>
       </c>
       <c r="H510" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15946,7 +15955,7 @@
         <v>1</v>
       </c>
       <c r="H511" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -15972,7 +15981,7 @@
         <v>0</v>
       </c>
       <c r="H512" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -15998,7 +16007,7 @@
         <v>0.1226144815616208</v>
       </c>
       <c r="H513" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -16024,7 +16033,7 @@
         <v>0.348937876188559</v>
       </c>
       <c r="H514" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -16050,7 +16059,7 @@
         <v>1</v>
       </c>
       <c r="H515" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -16076,7 +16085,7 @@
         <v>1</v>
       </c>
       <c r="H516" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -16102,7 +16111,7 @@
         <v>1</v>
       </c>
       <c r="H517" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -16128,7 +16137,7 @@
         <v>0.8236312239487298</v>
       </c>
       <c r="H518" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -16154,7 +16163,7 @@
         <v>1</v>
       </c>
       <c r="H519" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -16180,7 +16189,7 @@
         <v>0.4553771692067081</v>
       </c>
       <c r="H520" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -16206,7 +16215,7 @@
         <v>1</v>
       </c>
       <c r="H521" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -16232,7 +16241,7 @@
         <v>0.7309927778789053</v>
       </c>
       <c r="H522" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -16258,7 +16267,7 @@
         <v>1</v>
       </c>
       <c r="H523" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -16284,7 +16293,7 @@
         <v>0.5966838048782487</v>
       </c>
       <c r="H524" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -16310,7 +16319,7 @@
         <v>1</v>
       </c>
       <c r="H525" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -16336,7 +16345,7 @@
         <v>0.5392000628733806</v>
       </c>
       <c r="H526" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -16362,7 +16371,7 @@
         <v>0.2752626559507874</v>
       </c>
       <c r="H527" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -16388,7 +16397,7 @@
         <v>0.6423944529437058</v>
       </c>
       <c r="H528" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -16414,7 +16423,7 @@
         <v>0.7096367257969294</v>
       </c>
       <c r="H529" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -16440,7 +16449,7 @@
         <v>0.266</v>
       </c>
       <c r="H530" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -16466,7 +16475,7 @@
         <v>0.2872</v>
       </c>
       <c r="H531" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -16492,7 +16501,7 @@
         <v>0.6227</v>
       </c>
       <c r="H532" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -16518,7 +16527,7 @@
         <v>1</v>
       </c>
       <c r="H533" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -16544,7 +16553,7 @@
         <v>0</v>
       </c>
       <c r="H534" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -16570,7 +16579,7 @@
         <v>1</v>
       </c>
       <c r="H535" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -16596,7 +16605,7 @@
         <v>1</v>
       </c>
       <c r="H536" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -16622,7 +16631,7 @@
         <v>0</v>
       </c>
       <c r="H537" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -16648,7 +16657,7 @@
         <v>0</v>
       </c>
       <c r="H538" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -16674,7 +16683,7 @@
         <v>0</v>
       </c>
       <c r="H539" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -16700,7 +16709,7 @@
         <v>0.6155</v>
       </c>
       <c r="H540" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -16726,7 +16735,7 @@
         <v>0.4573</v>
       </c>
       <c r="H541" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -16752,7 +16761,7 @@
         <v>1</v>
       </c>
       <c r="H542" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -16778,7 +16787,7 @@
         <v>0.835</v>
       </c>
       <c r="H543" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -16804,7 +16813,7 @@
         <v>0.7548999999999999</v>
       </c>
       <c r="H544" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -16830,7 +16839,7 @@
         <v>1</v>
       </c>
       <c r="H545" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -16856,7 +16865,7 @@
         <v>0</v>
       </c>
       <c r="H546" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -16882,7 +16891,7 @@
         <v>0</v>
       </c>
       <c r="H547" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -16908,7 +16917,7 @@
         <v>0.9719</v>
       </c>
       <c r="H548" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -16934,7 +16943,7 @@
         <v>0</v>
       </c>
       <c r="H549" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -16960,7 +16969,7 @@
         <v>0</v>
       </c>
       <c r="H550" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -16986,7 +16995,7 @@
         <v>0</v>
       </c>
       <c r="H551" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -16996,8 +17005,14 @@
       <c r="B552" t="s">
         <v>557</v>
       </c>
+      <c r="C552">
+        <v>0</v>
+      </c>
       <c r="D552">
         <v>0</v>
+      </c>
+      <c r="E552">
+        <v>1</v>
       </c>
       <c r="F552">
         <v>0.7027</v>
@@ -17006,7 +17021,79 @@
         <v>0.2973</v>
       </c>
       <c r="H552" t="s">
-        <v>762</v>
+        <v>765</v>
+      </c>
+    </row>
+    <row r="553" spans="1:8">
+      <c r="A553" s="1">
+        <v>551</v>
+      </c>
+      <c r="B553" t="s">
+        <v>558</v>
+      </c>
+      <c r="C553">
+        <v>1</v>
+      </c>
+      <c r="D553">
+        <v>1</v>
+      </c>
+      <c r="E553">
+        <v>1</v>
+      </c>
+      <c r="F553">
+        <v>0</v>
+      </c>
+      <c r="G553">
+        <v>1</v>
+      </c>
+      <c r="H553" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="554" spans="1:8">
+      <c r="A554" s="1">
+        <v>552</v>
+      </c>
+      <c r="B554" t="s">
+        <v>559</v>
+      </c>
+      <c r="C554">
+        <v>0</v>
+      </c>
+      <c r="D554">
+        <v>1</v>
+      </c>
+      <c r="E554">
+        <v>0</v>
+      </c>
+      <c r="F554">
+        <v>0</v>
+      </c>
+      <c r="G554">
+        <v>1</v>
+      </c>
+      <c r="H554" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="555" spans="1:8">
+      <c r="A555" s="1">
+        <v>553</v>
+      </c>
+      <c r="B555" t="s">
+        <v>560</v>
+      </c>
+      <c r="D555">
+        <v>1</v>
+      </c>
+      <c r="F555">
+        <v>0</v>
+      </c>
+      <c r="G555">
+        <v>1</v>
+      </c>
+      <c r="H555" t="s">
+        <v>562</v>
       </c>
     </row>
   </sheetData>

--- a/firebase_data_from_spyEnsembleVSMO_v2.xlsx
+++ b/firebase_data_from_spyEnsembleVSMO_v2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="768">
   <si>
     <t>date</t>
   </si>
@@ -1697,6 +1697,12 @@
   </si>
   <si>
     <t>2025-08-14</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-18</t>
   </si>
   <si>
     <t>0.00</t>
@@ -2669,7 +2675,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H555"/>
+  <dimension ref="A1:H557"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2721,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2747,7 +2753,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2773,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2799,7 +2805,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2825,7 +2831,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2851,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2877,7 +2883,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2903,7 +2909,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2929,7 +2935,7 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2955,7 +2961,7 @@
         <v>0.04303446040071349</v>
       </c>
       <c r="H11" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2981,7 +2987,7 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3007,7 +3013,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3033,7 +3039,7 @@
         <v>0.915256809318685</v>
       </c>
       <c r="H14" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3059,7 +3065,7 @@
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -3085,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -3111,7 +3117,7 @@
         <v>0.6184143588780344</v>
       </c>
       <c r="H17" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -3137,7 +3143,7 @@
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -3163,7 +3169,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -3189,7 +3195,7 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3215,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3241,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -3267,7 +3273,7 @@
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3293,7 +3299,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3319,7 +3325,7 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -3345,7 +3351,7 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3371,7 +3377,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3397,7 +3403,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3423,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3449,7 +3455,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3475,7 +3481,7 @@
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3501,7 +3507,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3527,7 +3533,7 @@
         <v>0.745393260242324</v>
       </c>
       <c r="H33" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3553,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3579,7 +3585,7 @@
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3605,7 +3611,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3631,7 +3637,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3657,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3683,7 +3689,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3709,7 +3715,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3735,7 +3741,7 @@
         <v>0.683079705692312</v>
       </c>
       <c r="H41" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3761,7 +3767,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3787,7 +3793,7 @@
         <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3813,7 +3819,7 @@
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3839,7 +3845,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3865,7 +3871,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3891,7 +3897,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3917,7 +3923,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3943,7 +3949,7 @@
         <v>0.4307420609211915</v>
       </c>
       <c r="H49" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3969,7 +3975,7 @@
         <v>0.4817317520945901</v>
       </c>
       <c r="H50" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3995,7 +4001,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -4021,7 +4027,7 @@
         <v>0.5570981908629731</v>
       </c>
       <c r="H52" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -4047,7 +4053,7 @@
         <v>0.7872019792055407</v>
       </c>
       <c r="H53" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -4073,7 +4079,7 @@
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -4099,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -4125,7 +4131,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -4151,7 +4157,7 @@
         <v>0.215245798636519</v>
       </c>
       <c r="H57" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -4177,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -4203,7 +4209,7 @@
         <v>0.3135669763477688</v>
       </c>
       <c r="H59" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -4229,7 +4235,7 @@
         <v>0.1529716371439602</v>
       </c>
       <c r="H60" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -4255,7 +4261,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -4281,7 +4287,7 @@
         <v>0.3106901159644614</v>
       </c>
       <c r="H62" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -4307,7 +4313,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -4333,7 +4339,7 @@
         <v>0.2867490636277352</v>
       </c>
       <c r="H64" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -4359,7 +4365,7 @@
         <v>0.9498742410172212</v>
       </c>
       <c r="H65" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -4385,7 +4391,7 @@
         <v>1</v>
       </c>
       <c r="H66" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -4411,7 +4417,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -4437,7 +4443,7 @@
         <v>1</v>
       </c>
       <c r="H68" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4463,7 +4469,7 @@
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4489,7 +4495,7 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4515,7 +4521,7 @@
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4541,7 +4547,7 @@
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4567,7 +4573,7 @@
         <v>0.1304718106398864</v>
       </c>
       <c r="H73" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4593,7 +4599,7 @@
         <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4619,7 +4625,7 @@
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4645,7 +4651,7 @@
         <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4671,7 +4677,7 @@
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4697,7 +4703,7 @@
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4723,7 +4729,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4749,7 +4755,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4775,7 +4781,7 @@
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4801,7 +4807,7 @@
         <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4827,7 +4833,7 @@
         <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4853,7 +4859,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4879,7 +4885,7 @@
         <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4905,7 +4911,7 @@
         <v>0.414032993753131</v>
       </c>
       <c r="H86" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4931,7 +4937,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4957,7 +4963,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4983,7 +4989,7 @@
         <v>1</v>
       </c>
       <c r="H89" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -5009,7 +5015,7 @@
         <v>1</v>
       </c>
       <c r="H90" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -5035,7 +5041,7 @@
         <v>1</v>
       </c>
       <c r="H91" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -5061,7 +5067,7 @@
         <v>0.9279948866595563</v>
       </c>
       <c r="H92" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -5087,7 +5093,7 @@
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -5113,7 +5119,7 @@
         <v>1</v>
       </c>
       <c r="H94" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -5139,7 +5145,7 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -5165,7 +5171,7 @@
         <v>0.1871628344782118</v>
       </c>
       <c r="H96" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -5191,7 +5197,7 @@
         <v>1</v>
       </c>
       <c r="H97" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -5217,7 +5223,7 @@
         <v>1</v>
       </c>
       <c r="H98" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -5243,7 +5249,7 @@
         <v>0.8771001701943608</v>
       </c>
       <c r="H99" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -5269,7 +5275,7 @@
         <v>0.2146591320888346</v>
       </c>
       <c r="H100" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -5295,7 +5301,7 @@
         <v>1</v>
       </c>
       <c r="H101" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -5321,7 +5327,7 @@
         <v>1</v>
       </c>
       <c r="H102" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -5347,7 +5353,7 @@
         <v>1</v>
       </c>
       <c r="H103" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -5373,7 +5379,7 @@
         <v>1</v>
       </c>
       <c r="H104" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -5399,7 +5405,7 @@
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5425,7 +5431,7 @@
         <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5451,7 +5457,7 @@
         <v>1</v>
       </c>
       <c r="H107" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5477,7 +5483,7 @@
         <v>1</v>
       </c>
       <c r="H108" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5503,7 +5509,7 @@
         <v>1</v>
       </c>
       <c r="H109" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5529,7 +5535,7 @@
         <v>1</v>
       </c>
       <c r="H110" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5555,7 +5561,7 @@
         <v>1</v>
       </c>
       <c r="H111" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5581,7 +5587,7 @@
         <v>0.2055505200809835</v>
       </c>
       <c r="H112" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5607,7 +5613,7 @@
         <v>1</v>
       </c>
       <c r="H113" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5633,7 +5639,7 @@
         <v>0.2995528011053107</v>
       </c>
       <c r="H114" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5659,7 +5665,7 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5685,7 +5691,7 @@
         <v>0.4699445027580825</v>
       </c>
       <c r="H116" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5711,7 +5717,7 @@
         <v>0.770937588646547</v>
       </c>
       <c r="H117" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5737,7 +5743,7 @@
         <v>0.7826457521192932</v>
       </c>
       <c r="H118" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5763,7 +5769,7 @@
         <v>0.4304704948469578</v>
       </c>
       <c r="H119" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5789,7 +5795,7 @@
         <v>1</v>
       </c>
       <c r="H120" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5815,7 +5821,7 @@
         <v>0.6719963442506929</v>
       </c>
       <c r="H121" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5841,7 +5847,7 @@
         <v>1</v>
       </c>
       <c r="H122" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5867,7 +5873,7 @@
         <v>0.5375310953297759</v>
       </c>
       <c r="H123" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5893,7 +5899,7 @@
         <v>0.6497318652602996</v>
       </c>
       <c r="H124" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5919,7 +5925,7 @@
         <v>0.4013470357796504</v>
       </c>
       <c r="H125" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5945,7 +5951,7 @@
         <v>0.4404307186051412</v>
       </c>
       <c r="H126" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5971,7 +5977,7 @@
         <v>0.7535410487481622</v>
       </c>
       <c r="H127" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5997,7 +6003,7 @@
         <v>0.1968264148093589</v>
       </c>
       <c r="H128" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -6023,7 +6029,7 @@
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -6049,7 +6055,7 @@
         <v>0.5903062422634243</v>
       </c>
       <c r="H130" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -6075,7 +6081,7 @@
         <v>0.3143863952226104</v>
       </c>
       <c r="H131" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -6101,7 +6107,7 @@
         <v>0.5251513973196068</v>
       </c>
       <c r="H132" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -6127,7 +6133,7 @@
         <v>0.26776714123178</v>
       </c>
       <c r="H133" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -6153,7 +6159,7 @@
         <v>0.2026359533431654</v>
       </c>
       <c r="H134" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -6179,7 +6185,7 @@
         <v>1</v>
       </c>
       <c r="H135" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -6205,7 +6211,7 @@
         <v>1</v>
       </c>
       <c r="H136" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -6231,7 +6237,7 @@
         <v>0.5557953472408601</v>
       </c>
       <c r="H137" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -6257,7 +6263,7 @@
         <v>1</v>
       </c>
       <c r="H138" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -6283,7 +6289,7 @@
         <v>1</v>
       </c>
       <c r="H139" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -6309,7 +6315,7 @@
         <v>0.8945463189254167</v>
       </c>
       <c r="H140" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -6335,7 +6341,7 @@
         <v>0.6772450649528653</v>
       </c>
       <c r="H141" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -6361,7 +6367,7 @@
         <v>0.9188898615772668</v>
       </c>
       <c r="H142" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -6387,7 +6393,7 @@
         <v>0.6808222412559765</v>
       </c>
       <c r="H143" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -6413,7 +6419,7 @@
         <v>0.7236705146772729</v>
       </c>
       <c r="H144" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -6439,7 +6445,7 @@
         <v>1</v>
       </c>
       <c r="H145" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -6465,7 +6471,7 @@
         <v>1</v>
       </c>
       <c r="H146" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -6491,7 +6497,7 @@
         <v>0.4083837438899106</v>
       </c>
       <c r="H147" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6517,7 +6523,7 @@
         <v>1</v>
       </c>
       <c r="H148" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6543,7 +6549,7 @@
         <v>0</v>
       </c>
       <c r="H149" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6569,7 +6575,7 @@
         <v>0.6711645860416422</v>
       </c>
       <c r="H150" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6595,7 +6601,7 @@
         <v>0.2715172141387561</v>
       </c>
       <c r="H151" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6621,7 +6627,7 @@
         <v>0.2398762302450229</v>
       </c>
       <c r="H152" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6647,7 +6653,7 @@
         <v>0.5664737805177642</v>
       </c>
       <c r="H153" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6673,7 +6679,7 @@
         <v>0.4223113145194125</v>
       </c>
       <c r="H154" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6699,7 +6705,7 @@
         <v>0.3667629390545308</v>
       </c>
       <c r="H155" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6725,7 +6731,7 @@
         <v>0.9231722118787783</v>
       </c>
       <c r="H156" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6751,7 +6757,7 @@
         <v>0.9851787420357059</v>
       </c>
       <c r="H157" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6777,7 +6783,7 @@
         <v>0.4518542194729144</v>
       </c>
       <c r="H158" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6803,7 +6809,7 @@
         <v>0.4964868798335714</v>
       </c>
       <c r="H159" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6829,7 +6835,7 @@
         <v>1</v>
       </c>
       <c r="H160" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6855,7 +6861,7 @@
         <v>1</v>
       </c>
       <c r="H161" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6881,7 +6887,7 @@
         <v>1</v>
       </c>
       <c r="H162" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6907,7 +6913,7 @@
         <v>0.6766899544020667</v>
       </c>
       <c r="H163" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6933,7 +6939,7 @@
         <v>1</v>
       </c>
       <c r="H164" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6959,7 +6965,7 @@
         <v>0</v>
       </c>
       <c r="H165" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6985,7 +6991,7 @@
         <v>0.6910065861261394</v>
       </c>
       <c r="H166" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -7011,7 +7017,7 @@
         <v>1</v>
       </c>
       <c r="H167" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -7037,7 +7043,7 @@
         <v>1</v>
       </c>
       <c r="H168" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -7063,7 +7069,7 @@
         <v>1</v>
       </c>
       <c r="H169" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -7089,7 +7095,7 @@
         <v>0.3087324093735406</v>
       </c>
       <c r="H170" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -7115,7 +7121,7 @@
         <v>0.6040906971093285</v>
       </c>
       <c r="H171" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -7141,7 +7147,7 @@
         <v>1</v>
       </c>
       <c r="H172" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -7167,7 +7173,7 @@
         <v>1</v>
       </c>
       <c r="H173" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -7193,7 +7199,7 @@
         <v>0.5411987563813702</v>
       </c>
       <c r="H174" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -7219,7 +7225,7 @@
         <v>1</v>
       </c>
       <c r="H175" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -7245,7 +7251,7 @@
         <v>0.5366275239822063</v>
       </c>
       <c r="H176" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -7271,7 +7277,7 @@
         <v>0.7616464524958171</v>
       </c>
       <c r="H177" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -7297,7 +7303,7 @@
         <v>0.778584820565025</v>
       </c>
       <c r="H178" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -7323,7 +7329,7 @@
         <v>1</v>
       </c>
       <c r="H179" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -7349,7 +7355,7 @@
         <v>0.779814372339514</v>
       </c>
       <c r="H180" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -7375,7 +7381,7 @@
         <v>1</v>
       </c>
       <c r="H181" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -7401,7 +7407,7 @@
         <v>1</v>
       </c>
       <c r="H182" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -7427,7 +7433,7 @@
         <v>1</v>
       </c>
       <c r="H183" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -7453,7 +7459,7 @@
         <v>1</v>
       </c>
       <c r="H184" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -7479,7 +7485,7 @@
         <v>1</v>
       </c>
       <c r="H185" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -7505,7 +7511,7 @@
         <v>1</v>
       </c>
       <c r="H186" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7531,7 +7537,7 @@
         <v>0.3910910264558739</v>
       </c>
       <c r="H187" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7557,7 +7563,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7583,7 +7589,7 @@
         <v>0.3782183282254096</v>
       </c>
       <c r="H189" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7609,7 +7615,7 @@
         <v>1</v>
       </c>
       <c r="H190" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7635,7 +7641,7 @@
         <v>1</v>
       </c>
       <c r="H191" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7661,7 +7667,7 @@
         <v>0.5022217334415366</v>
       </c>
       <c r="H192" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7687,7 +7693,7 @@
         <v>0.5141989063837532</v>
       </c>
       <c r="H193" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7713,7 +7719,7 @@
         <v>0.3056884663520373</v>
       </c>
       <c r="H194" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7739,7 +7745,7 @@
         <v>0.9738865825460928</v>
       </c>
       <c r="H195" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7765,7 +7771,7 @@
         <v>0.3670780584150713</v>
       </c>
       <c r="H196" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7791,7 +7797,7 @@
         <v>0</v>
       </c>
       <c r="H197" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7817,7 +7823,7 @@
         <v>0</v>
       </c>
       <c r="H198" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7843,7 +7849,7 @@
         <v>0</v>
       </c>
       <c r="H199" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7869,7 +7875,7 @@
         <v>0.2629434170052546</v>
       </c>
       <c r="H200" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7895,7 +7901,7 @@
         <v>0</v>
       </c>
       <c r="H201" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7921,7 +7927,7 @@
         <v>0.3643661297271093</v>
       </c>
       <c r="H202" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7947,7 +7953,7 @@
         <v>1</v>
       </c>
       <c r="H203" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7973,7 +7979,7 @@
         <v>0.2007309629135912</v>
       </c>
       <c r="H204" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7999,7 +8005,7 @@
         <v>0.3622835247576352</v>
       </c>
       <c r="H205" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -8025,7 +8031,7 @@
         <v>0.2580942394651852</v>
       </c>
       <c r="H206" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -8051,7 +8057,7 @@
         <v>0.2272896410009056</v>
       </c>
       <c r="H207" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -8077,7 +8083,7 @@
         <v>0.02259656952943894</v>
       </c>
       <c r="H208" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -8103,7 +8109,7 @@
         <v>1</v>
       </c>
       <c r="H209" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -8129,7 +8135,7 @@
         <v>0.316699835553751</v>
       </c>
       <c r="H210" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -8155,7 +8161,7 @@
         <v>0.2917756618279652</v>
       </c>
       <c r="H211" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -8181,7 +8187,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -8207,7 +8213,7 @@
         <v>1</v>
       </c>
       <c r="H213" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -8233,7 +8239,7 @@
         <v>1</v>
       </c>
       <c r="H214" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -8259,7 +8265,7 @@
         <v>1</v>
       </c>
       <c r="H215" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -8285,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -8311,7 +8317,7 @@
         <v>1</v>
       </c>
       <c r="H217" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -8337,7 +8343,7 @@
         <v>1</v>
       </c>
       <c r="H218" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -8363,7 +8369,7 @@
         <v>0</v>
       </c>
       <c r="H219" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -8389,7 +8395,7 @@
         <v>1</v>
       </c>
       <c r="H220" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -8415,7 +8421,7 @@
         <v>0.0621306534788825</v>
       </c>
       <c r="H221" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -8441,7 +8447,7 @@
         <v>0.9197124253853388</v>
       </c>
       <c r="H222" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -8467,7 +8473,7 @@
         <v>0.1534574198678031</v>
       </c>
       <c r="H223" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -8493,7 +8499,7 @@
         <v>0.0432766620547291</v>
       </c>
       <c r="H224" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -8519,7 +8525,7 @@
         <v>0</v>
       </c>
       <c r="H225" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8545,7 +8551,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8571,7 +8577,7 @@
         <v>1</v>
       </c>
       <c r="H227" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8597,7 +8603,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8623,7 +8629,7 @@
         <v>1</v>
       </c>
       <c r="H229" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8649,7 +8655,7 @@
         <v>1</v>
       </c>
       <c r="H230" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8675,7 +8681,7 @@
         <v>1</v>
       </c>
       <c r="H231" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8701,7 +8707,7 @@
         <v>1</v>
       </c>
       <c r="H232" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8727,7 +8733,7 @@
         <v>0</v>
       </c>
       <c r="H233" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8753,7 +8759,7 @@
         <v>1</v>
       </c>
       <c r="H234" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8779,7 +8785,7 @@
         <v>1</v>
       </c>
       <c r="H235" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8805,7 +8811,7 @@
         <v>1</v>
       </c>
       <c r="H236" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8831,7 +8837,7 @@
         <v>0</v>
       </c>
       <c r="H237" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8857,7 +8863,7 @@
         <v>1</v>
       </c>
       <c r="H238" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8883,7 +8889,7 @@
         <v>0.8495492332177974</v>
       </c>
       <c r="H239" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8909,7 +8915,7 @@
         <v>0.6287165807955644</v>
       </c>
       <c r="H240" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8935,7 +8941,7 @@
         <v>0.6590199742859937</v>
       </c>
       <c r="H241" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8961,7 +8967,7 @@
         <v>1</v>
       </c>
       <c r="H242" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8987,7 +8993,7 @@
         <v>1</v>
       </c>
       <c r="H243" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -9013,7 +9019,7 @@
         <v>0</v>
       </c>
       <c r="H244" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -9039,7 +9045,7 @@
         <v>0</v>
       </c>
       <c r="H245" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -9065,7 +9071,7 @@
         <v>1</v>
       </c>
       <c r="H246" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -9091,7 +9097,7 @@
         <v>0.009874081767952174</v>
       </c>
       <c r="H247" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -9117,7 +9123,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -9143,7 +9149,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -9169,7 +9175,7 @@
         <v>0.7771680614627153</v>
       </c>
       <c r="H250" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -9195,7 +9201,7 @@
         <v>0.684092991361349</v>
       </c>
       <c r="H251" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -9221,7 +9227,7 @@
         <v>0.6190568656417142</v>
       </c>
       <c r="H252" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -9247,7 +9253,7 @@
         <v>0.6179968680850856</v>
       </c>
       <c r="H253" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -9273,7 +9279,7 @@
         <v>0.5456188990663409</v>
       </c>
       <c r="H254" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -9299,7 +9305,7 @@
         <v>1</v>
       </c>
       <c r="H255" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -9325,7 +9331,7 @@
         <v>0.5074108996205345</v>
       </c>
       <c r="H256" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -9351,7 +9357,7 @@
         <v>0.3570787145669819</v>
       </c>
       <c r="H257" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -9377,7 +9383,7 @@
         <v>0.3430474956288668</v>
       </c>
       <c r="H258" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -9403,7 +9409,7 @@
         <v>0.3780916182620047</v>
       </c>
       <c r="H259" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -9429,7 +9435,7 @@
         <v>1</v>
       </c>
       <c r="H260" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -9455,7 +9461,7 @@
         <v>1</v>
       </c>
       <c r="H261" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -9481,7 +9487,7 @@
         <v>0.2400217296095157</v>
       </c>
       <c r="H262" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -9507,7 +9513,7 @@
         <v>0.3026477102582492</v>
       </c>
       <c r="H263" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -9533,7 +9539,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9559,7 +9565,7 @@
         <v>0.5824288330939381</v>
       </c>
       <c r="H265" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9585,7 +9591,7 @@
         <v>1</v>
       </c>
       <c r="H266" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9611,7 +9617,7 @@
         <v>1</v>
       </c>
       <c r="H267" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9637,7 +9643,7 @@
         <v>1</v>
       </c>
       <c r="H268" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9663,7 +9669,7 @@
         <v>0.4860554446028704</v>
       </c>
       <c r="H269" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9689,7 +9695,7 @@
         <v>0.5485218530910564</v>
       </c>
       <c r="H270" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9715,7 +9721,7 @@
         <v>0.5687845911126622</v>
       </c>
       <c r="H271" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9741,7 +9747,7 @@
         <v>1</v>
       </c>
       <c r="H272" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9767,7 +9773,7 @@
         <v>1</v>
       </c>
       <c r="H273" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9793,7 +9799,7 @@
         <v>1</v>
       </c>
       <c r="H274" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9819,7 +9825,7 @@
         <v>1</v>
       </c>
       <c r="H275" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9845,7 +9851,7 @@
         <v>0.5347201194974325</v>
       </c>
       <c r="H276" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9871,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9897,7 +9903,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9923,7 +9929,7 @@
         <v>0</v>
       </c>
       <c r="H279" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9949,7 +9955,7 @@
         <v>0</v>
       </c>
       <c r="H280" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9975,7 +9981,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -10001,7 +10007,7 @@
         <v>0</v>
       </c>
       <c r="H282" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -10027,7 +10033,7 @@
         <v>0</v>
       </c>
       <c r="H283" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -10053,7 +10059,7 @@
         <v>1</v>
       </c>
       <c r="H284" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -10079,7 +10085,7 @@
         <v>1</v>
       </c>
       <c r="H285" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -10105,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="H286" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -10131,7 +10137,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -10157,7 +10163,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -10183,7 +10189,7 @@
         <v>0.1387512764613225</v>
       </c>
       <c r="H289" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -10209,7 +10215,7 @@
         <v>0.09876212659905496</v>
       </c>
       <c r="H290" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -10235,7 +10241,7 @@
         <v>0</v>
       </c>
       <c r="H291" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -10261,7 +10267,7 @@
         <v>0</v>
       </c>
       <c r="H292" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -10287,7 +10293,7 @@
         <v>0</v>
       </c>
       <c r="H293" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -10313,7 +10319,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -10339,7 +10345,7 @@
         <v>0</v>
       </c>
       <c r="H295" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -10365,7 +10371,7 @@
         <v>0</v>
       </c>
       <c r="H296" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -10391,7 +10397,7 @@
         <v>0</v>
       </c>
       <c r="H297" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -10417,7 +10423,7 @@
         <v>0</v>
       </c>
       <c r="H298" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -10443,7 +10449,7 @@
         <v>1</v>
       </c>
       <c r="H299" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -10469,7 +10475,7 @@
         <v>0.8392691107314288</v>
       </c>
       <c r="H300" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -10495,7 +10501,7 @@
         <v>1</v>
       </c>
       <c r="H301" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -10521,7 +10527,7 @@
         <v>0.5725104927894985</v>
       </c>
       <c r="H302" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -10547,7 +10553,7 @@
         <v>0.6452248196870423</v>
       </c>
       <c r="H303" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10573,7 +10579,7 @@
         <v>0</v>
       </c>
       <c r="H304" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10599,7 +10605,7 @@
         <v>1</v>
       </c>
       <c r="H305" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10625,7 +10631,7 @@
         <v>0.6176258382287111</v>
       </c>
       <c r="H306" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10651,7 +10657,7 @@
         <v>0.1402908509712884</v>
       </c>
       <c r="H307" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10677,7 +10683,7 @@
         <v>0.2470817519305337</v>
       </c>
       <c r="H308" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10703,7 +10709,7 @@
         <v>0</v>
       </c>
       <c r="H309" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10729,7 +10735,7 @@
         <v>0</v>
       </c>
       <c r="H310" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10755,7 +10761,7 @@
         <v>0</v>
       </c>
       <c r="H311" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10781,7 +10787,7 @@
         <v>0</v>
       </c>
       <c r="H312" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10807,7 +10813,7 @@
         <v>0</v>
       </c>
       <c r="H313" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10833,7 +10839,7 @@
         <v>0</v>
       </c>
       <c r="H314" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10859,7 +10865,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10885,7 +10891,7 @@
         <v>0</v>
       </c>
       <c r="H316" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10911,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="H317" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10937,7 +10943,7 @@
         <v>0.9408311744300493</v>
       </c>
       <c r="H318" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10963,7 +10969,7 @@
         <v>0.2281076034476917</v>
       </c>
       <c r="H319" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10989,7 +10995,7 @@
         <v>0.2584835532146987</v>
       </c>
       <c r="H320" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -11015,7 +11021,7 @@
         <v>0</v>
       </c>
       <c r="H321" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -11041,7 +11047,7 @@
         <v>0.49663247087312</v>
       </c>
       <c r="H322" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -11067,7 +11073,7 @@
         <v>0.7142898090287908</v>
       </c>
       <c r="H323" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -11093,7 +11099,7 @@
         <v>0.6838526371805752</v>
       </c>
       <c r="H324" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -11119,7 +11125,7 @@
         <v>1</v>
       </c>
       <c r="H325" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -11145,7 +11151,7 @@
         <v>0.8669334352785576</v>
       </c>
       <c r="H326" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -11171,7 +11177,7 @@
         <v>1</v>
       </c>
       <c r="H327" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -11197,7 +11203,7 @@
         <v>0.1987863872524352</v>
       </c>
       <c r="H328" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -11223,7 +11229,7 @@
         <v>0</v>
       </c>
       <c r="H329" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -11249,7 +11255,7 @@
         <v>0.2962742518059081</v>
       </c>
       <c r="H330" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -11275,7 +11281,7 @@
         <v>0.8764820442189873</v>
       </c>
       <c r="H331" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -11301,7 +11307,7 @@
         <v>1</v>
       </c>
       <c r="H332" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -11327,7 +11333,7 @@
         <v>1</v>
       </c>
       <c r="H333" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -11353,7 +11359,7 @@
         <v>0.1209662521283257</v>
       </c>
       <c r="H334" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -11379,7 +11385,7 @@
         <v>0.1691055214091461</v>
       </c>
       <c r="H335" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -11405,7 +11411,7 @@
         <v>1</v>
       </c>
       <c r="H336" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -11431,7 +11437,7 @@
         <v>0.2094118740417113</v>
       </c>
       <c r="H337" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -11457,7 +11463,7 @@
         <v>0</v>
       </c>
       <c r="H338" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -11483,7 +11489,7 @@
         <v>0.5156827272568333</v>
       </c>
       <c r="H339" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -11509,7 +11515,7 @@
         <v>0.9070222351886812</v>
       </c>
       <c r="H340" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -11535,7 +11541,7 @@
         <v>1</v>
       </c>
       <c r="H341" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -11561,7 +11567,7 @@
         <v>0</v>
       </c>
       <c r="H342" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11587,7 +11593,7 @@
         <v>1</v>
       </c>
       <c r="H343" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11613,7 +11619,7 @@
         <v>1</v>
       </c>
       <c r="H344" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11639,7 +11645,7 @@
         <v>0.3535956611716411</v>
       </c>
       <c r="H345" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11665,7 +11671,7 @@
         <v>0.3446389756593827</v>
       </c>
       <c r="H346" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11691,7 +11697,7 @@
         <v>1</v>
       </c>
       <c r="H347" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11717,7 +11723,7 @@
         <v>1</v>
       </c>
       <c r="H348" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11743,7 +11749,7 @@
         <v>0.5328032329248698</v>
       </c>
       <c r="H349" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11769,7 +11775,7 @@
         <v>0.4185556812752281</v>
       </c>
       <c r="H350" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11795,7 +11801,7 @@
         <v>1</v>
       </c>
       <c r="H351" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11821,7 +11827,7 @@
         <v>0</v>
       </c>
       <c r="H352" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11847,7 +11853,7 @@
         <v>0</v>
       </c>
       <c r="H353" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11873,7 +11879,7 @@
         <v>0</v>
       </c>
       <c r="H354" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11899,7 +11905,7 @@
         <v>1</v>
       </c>
       <c r="H355" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11925,7 +11931,7 @@
         <v>0.4671289773253784</v>
       </c>
       <c r="H356" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11951,7 +11957,7 @@
         <v>0.620001927632466</v>
       </c>
       <c r="H357" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11977,7 +11983,7 @@
         <v>0.6957105060667875</v>
       </c>
       <c r="H358" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -12003,7 +12009,7 @@
         <v>0</v>
       </c>
       <c r="H359" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -12029,7 +12035,7 @@
         <v>0.4905456411905179</v>
       </c>
       <c r="H360" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -12055,7 +12061,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -12081,7 +12087,7 @@
         <v>0</v>
       </c>
       <c r="H362" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -12107,7 +12113,7 @@
         <v>0</v>
       </c>
       <c r="H363" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -12133,7 +12139,7 @@
         <v>0</v>
       </c>
       <c r="H364" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -12159,7 +12165,7 @@
         <v>0</v>
       </c>
       <c r="H365" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -12185,7 +12191,7 @@
         <v>1</v>
       </c>
       <c r="H366" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -12211,7 +12217,7 @@
         <v>0</v>
       </c>
       <c r="H367" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -12237,7 +12243,7 @@
         <v>0</v>
       </c>
       <c r="H368" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -12263,7 +12269,7 @@
         <v>1</v>
       </c>
       <c r="H369" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -12289,7 +12295,7 @@
         <v>0.6127664785798932</v>
       </c>
       <c r="H370" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -12315,7 +12321,7 @@
         <v>1</v>
       </c>
       <c r="H371" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -12341,7 +12347,7 @@
         <v>1</v>
       </c>
       <c r="H372" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -12367,7 +12373,7 @@
         <v>0</v>
       </c>
       <c r="H373" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -12393,7 +12399,7 @@
         <v>1</v>
       </c>
       <c r="H374" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -12419,7 +12425,7 @@
         <v>0</v>
       </c>
       <c r="H375" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -12445,7 +12451,7 @@
         <v>1</v>
       </c>
       <c r="H376" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -12471,7 +12477,7 @@
         <v>0</v>
       </c>
       <c r="H377" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -12497,7 +12503,7 @@
         <v>0</v>
       </c>
       <c r="H378" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -12523,7 +12529,7 @@
         <v>0</v>
       </c>
       <c r="H379" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -12549,7 +12555,7 @@
         <v>0.2247282290278291</v>
       </c>
       <c r="H380" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -12575,7 +12581,7 @@
         <v>1</v>
       </c>
       <c r="H381" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12601,7 +12607,7 @@
         <v>1</v>
       </c>
       <c r="H382" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12627,7 +12633,7 @@
         <v>1</v>
       </c>
       <c r="H383" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12653,7 +12659,7 @@
         <v>1</v>
       </c>
       <c r="H384" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12679,7 +12685,7 @@
         <v>1</v>
       </c>
       <c r="H385" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12705,7 +12711,7 @@
         <v>0.5175780030761412</v>
       </c>
       <c r="H386" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12731,7 +12737,7 @@
         <v>0.407629165987654</v>
       </c>
       <c r="H387" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12757,7 +12763,7 @@
         <v>0.5917118171892221</v>
       </c>
       <c r="H388" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12783,7 +12789,7 @@
         <v>0</v>
       </c>
       <c r="H389" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12809,7 +12815,7 @@
         <v>0</v>
       </c>
       <c r="H390" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12835,7 +12841,7 @@
         <v>0.1210744071449007</v>
       </c>
       <c r="H391" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12861,7 +12867,7 @@
         <v>0</v>
       </c>
       <c r="H392" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12887,7 +12893,7 @@
         <v>0.4730991435488794</v>
       </c>
       <c r="H393" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12913,7 +12919,7 @@
         <v>1</v>
       </c>
       <c r="H394" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12939,7 +12945,7 @@
         <v>0</v>
       </c>
       <c r="H395" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12965,7 +12971,7 @@
         <v>1</v>
       </c>
       <c r="H396" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12991,7 +12997,7 @@
         <v>1</v>
       </c>
       <c r="H397" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -13017,7 +13023,7 @@
         <v>1</v>
       </c>
       <c r="H398" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -13043,7 +13049,7 @@
         <v>1</v>
       </c>
       <c r="H399" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -13069,7 +13075,7 @@
         <v>0</v>
       </c>
       <c r="H400" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -13095,7 +13101,7 @@
         <v>1</v>
       </c>
       <c r="H401" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -13121,7 +13127,7 @@
         <v>1</v>
       </c>
       <c r="H402" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -13147,7 +13153,7 @@
         <v>0</v>
       </c>
       <c r="H403" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -13173,7 +13179,7 @@
         <v>1</v>
       </c>
       <c r="H404" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -13199,7 +13205,7 @@
         <v>0</v>
       </c>
       <c r="H405" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -13225,7 +13231,7 @@
         <v>0.7209622620919816</v>
       </c>
       <c r="H406" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -13251,7 +13257,7 @@
         <v>1</v>
       </c>
       <c r="H407" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -13277,7 +13283,7 @@
         <v>1</v>
       </c>
       <c r="H408" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -13303,7 +13309,7 @@
         <v>1</v>
       </c>
       <c r="H409" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -13329,7 +13335,7 @@
         <v>1</v>
       </c>
       <c r="H410" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -13355,7 +13361,7 @@
         <v>0</v>
       </c>
       <c r="H411" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -13381,7 +13387,7 @@
         <v>1</v>
       </c>
       <c r="H412" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -13407,7 +13413,7 @@
         <v>0</v>
       </c>
       <c r="H413" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -13433,7 +13439,7 @@
         <v>1</v>
       </c>
       <c r="H414" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -13459,7 +13465,7 @@
         <v>1</v>
       </c>
       <c r="H415" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -13485,7 +13491,7 @@
         <v>1</v>
       </c>
       <c r="H416" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -13511,7 +13517,7 @@
         <v>0.7565382919417687</v>
       </c>
       <c r="H417" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -13537,7 +13543,7 @@
         <v>1</v>
       </c>
       <c r="H418" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -13563,7 +13569,7 @@
         <v>0.58958180434202</v>
       </c>
       <c r="H419" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13589,7 +13595,7 @@
         <v>0.4342165329712733</v>
       </c>
       <c r="H420" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13615,7 +13621,7 @@
         <v>1</v>
       </c>
       <c r="H421" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13641,7 +13647,7 @@
         <v>0.6575336465873136</v>
       </c>
       <c r="H422" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13667,7 +13673,7 @@
         <v>1</v>
       </c>
       <c r="H423" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13693,7 +13699,7 @@
         <v>1</v>
       </c>
       <c r="H424" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13719,7 +13725,7 @@
         <v>1</v>
       </c>
       <c r="H425" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13745,7 +13751,7 @@
         <v>1</v>
       </c>
       <c r="H426" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13771,7 +13777,7 @@
         <v>0.1931729729332681</v>
       </c>
       <c r="H427" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13797,7 +13803,7 @@
         <v>1</v>
       </c>
       <c r="H428" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13823,7 +13829,7 @@
         <v>0.838787845031057</v>
       </c>
       <c r="H429" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13849,7 +13855,7 @@
         <v>0</v>
       </c>
       <c r="H430" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13875,7 +13881,7 @@
         <v>0.1022396663436237</v>
       </c>
       <c r="H431" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13901,7 +13907,7 @@
         <v>0</v>
       </c>
       <c r="H432" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13927,7 +13933,7 @@
         <v>1</v>
       </c>
       <c r="H433" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13953,7 +13959,7 @@
         <v>0.4540250855516209</v>
       </c>
       <c r="H434" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13979,7 +13985,7 @@
         <v>0.2896165830953565</v>
       </c>
       <c r="H435" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -14005,7 +14011,7 @@
         <v>0.7917401509339994</v>
       </c>
       <c r="H436" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -14031,7 +14037,7 @@
         <v>0</v>
       </c>
       <c r="H437" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -14057,7 +14063,7 @@
         <v>1</v>
       </c>
       <c r="H438" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -14083,7 +14089,7 @@
         <v>0.7067178088732917</v>
       </c>
       <c r="H439" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -14109,7 +14115,7 @@
         <v>1</v>
       </c>
       <c r="H440" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -14135,7 +14141,7 @@
         <v>1</v>
       </c>
       <c r="H441" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -14161,7 +14167,7 @@
         <v>0</v>
       </c>
       <c r="H442" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -14187,7 +14193,7 @@
         <v>1</v>
       </c>
       <c r="H443" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -14213,7 +14219,7 @@
         <v>1</v>
       </c>
       <c r="H444" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -14239,7 +14245,7 @@
         <v>1</v>
       </c>
       <c r="H445" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -14265,7 +14271,7 @@
         <v>0.3206802237079347</v>
       </c>
       <c r="H446" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -14291,7 +14297,7 @@
         <v>0</v>
       </c>
       <c r="H447" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -14317,7 +14323,7 @@
         <v>0.2166572947957321</v>
       </c>
       <c r="H448" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -14343,7 +14349,7 @@
         <v>0.09220139004312224</v>
       </c>
       <c r="H449" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -14369,7 +14375,7 @@
         <v>0</v>
       </c>
       <c r="H450" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -14395,7 +14401,7 @@
         <v>0</v>
       </c>
       <c r="H451" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -14421,7 +14427,7 @@
         <v>1</v>
       </c>
       <c r="H452" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -14447,7 +14453,7 @@
         <v>1</v>
       </c>
       <c r="H453" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -14473,7 +14479,7 @@
         <v>1</v>
       </c>
       <c r="H454" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -14499,7 +14505,7 @@
         <v>1</v>
       </c>
       <c r="H455" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -14525,7 +14531,7 @@
         <v>1</v>
       </c>
       <c r="H456" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -14551,7 +14557,7 @@
         <v>0.5355349910433382</v>
       </c>
       <c r="H457" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14577,7 +14583,7 @@
         <v>1</v>
       </c>
       <c r="H458" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14603,7 +14609,7 @@
         <v>1</v>
       </c>
       <c r="H459" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14629,7 +14635,7 @@
         <v>0</v>
       </c>
       <c r="H460" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14655,7 +14661,7 @@
         <v>0.7362068598138494</v>
       </c>
       <c r="H461" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14681,7 +14687,7 @@
         <v>1</v>
       </c>
       <c r="H462" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14707,7 +14713,7 @@
         <v>1</v>
       </c>
       <c r="H463" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14733,7 +14739,7 @@
         <v>0.8290442293029383</v>
       </c>
       <c r="H464" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14759,7 +14765,7 @@
         <v>1</v>
       </c>
       <c r="H465" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14785,7 +14791,7 @@
         <v>1</v>
       </c>
       <c r="H466" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14811,7 +14817,7 @@
         <v>0.2972172914877398</v>
       </c>
       <c r="H467" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14837,7 +14843,7 @@
         <v>1</v>
       </c>
       <c r="H468" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14863,7 +14869,7 @@
         <v>0.3828030816675656</v>
       </c>
       <c r="H469" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14889,7 +14895,7 @@
         <v>1</v>
       </c>
       <c r="H470" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14915,7 +14921,7 @@
         <v>1</v>
       </c>
       <c r="H471" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14941,7 +14947,7 @@
         <v>0.7072751504056575</v>
       </c>
       <c r="H472" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14967,7 +14973,7 @@
         <v>0.6887345743487142</v>
       </c>
       <c r="H473" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14993,7 +14999,7 @@
         <v>0.1067305209771346</v>
       </c>
       <c r="H474" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -15019,7 +15025,7 @@
         <v>0</v>
       </c>
       <c r="H475" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -15045,7 +15051,7 @@
         <v>0.6057977033084144</v>
       </c>
       <c r="H476" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -15071,7 +15077,7 @@
         <v>0.6091777797350002</v>
       </c>
       <c r="H477" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -15097,7 +15103,7 @@
         <v>0.5694759431987656</v>
       </c>
       <c r="H478" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -15123,7 +15129,7 @@
         <v>0.6207146575699412</v>
       </c>
       <c r="H479" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -15149,7 +15155,7 @@
         <v>0.283376215899611</v>
       </c>
       <c r="H480" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -15175,7 +15181,7 @@
         <v>0.2427067649021355</v>
       </c>
       <c r="H481" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -15201,7 +15207,7 @@
         <v>1</v>
       </c>
       <c r="H482" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -15227,7 +15233,7 @@
         <v>0.5104176137220019</v>
       </c>
       <c r="H483" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -15253,7 +15259,7 @@
         <v>1</v>
       </c>
       <c r="H484" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -15279,7 +15285,7 @@
         <v>1</v>
       </c>
       <c r="H485" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -15305,7 +15311,7 @@
         <v>1</v>
       </c>
       <c r="H486" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -15331,7 +15337,7 @@
         <v>1</v>
       </c>
       <c r="H487" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -15357,7 +15363,7 @@
         <v>0.4677260579614761</v>
       </c>
       <c r="H488" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -15383,7 +15389,7 @@
         <v>1</v>
       </c>
       <c r="H489" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -15409,7 +15415,7 @@
         <v>0.476242461576072</v>
       </c>
       <c r="H490" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -15435,7 +15441,7 @@
         <v>1</v>
       </c>
       <c r="H491" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -15461,7 +15467,7 @@
         <v>0.4885601466764756</v>
       </c>
       <c r="H492" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -15487,7 +15493,7 @@
         <v>1</v>
       </c>
       <c r="H493" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -15513,7 +15519,7 @@
         <v>0.1892964267045682</v>
       </c>
       <c r="H494" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -15539,7 +15545,7 @@
         <v>1</v>
       </c>
       <c r="H495" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -15565,7 +15571,7 @@
         <v>1</v>
       </c>
       <c r="H496" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -15591,7 +15597,7 @@
         <v>0.562429454701116</v>
       </c>
       <c r="H497" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -15617,7 +15623,7 @@
         <v>0.5893467746014928</v>
       </c>
       <c r="H498" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -15643,7 +15649,7 @@
         <v>0.2453840526620205</v>
       </c>
       <c r="H499" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -15669,7 +15675,7 @@
         <v>1</v>
       </c>
       <c r="H500" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15695,7 +15701,7 @@
         <v>0.4919547742740523</v>
       </c>
       <c r="H501" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -15721,7 +15727,7 @@
         <v>1</v>
       </c>
       <c r="H502" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15747,7 +15753,7 @@
         <v>1</v>
       </c>
       <c r="H503" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -15773,7 +15779,7 @@
         <v>1</v>
       </c>
       <c r="H504" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -15799,7 +15805,7 @@
         <v>0.5332096778046151</v>
       </c>
       <c r="H505" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -15825,7 +15831,7 @@
         <v>1</v>
       </c>
       <c r="H506" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15851,7 +15857,7 @@
         <v>0.4095043245568133</v>
       </c>
       <c r="H507" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15877,7 +15883,7 @@
         <v>0.9563556993906542</v>
       </c>
       <c r="H508" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15903,7 +15909,7 @@
         <v>1</v>
       </c>
       <c r="H509" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15929,7 +15935,7 @@
         <v>0.3151420077674845</v>
       </c>
       <c r="H510" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15955,7 +15961,7 @@
         <v>1</v>
       </c>
       <c r="H511" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -15981,7 +15987,7 @@
         <v>0</v>
       </c>
       <c r="H512" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -16007,7 +16013,7 @@
         <v>0.1226144815616208</v>
       </c>
       <c r="H513" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -16033,7 +16039,7 @@
         <v>0.348937876188559</v>
       </c>
       <c r="H514" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -16059,7 +16065,7 @@
         <v>1</v>
       </c>
       <c r="H515" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -16085,7 +16091,7 @@
         <v>1</v>
       </c>
       <c r="H516" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -16111,7 +16117,7 @@
         <v>1</v>
       </c>
       <c r="H517" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -16137,7 +16143,7 @@
         <v>0.8236312239487298</v>
       </c>
       <c r="H518" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -16163,7 +16169,7 @@
         <v>1</v>
       </c>
       <c r="H519" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -16189,7 +16195,7 @@
         <v>0.4553771692067081</v>
       </c>
       <c r="H520" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -16215,7 +16221,7 @@
         <v>1</v>
       </c>
       <c r="H521" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -16241,7 +16247,7 @@
         <v>0.7309927778789053</v>
       </c>
       <c r="H522" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -16267,7 +16273,7 @@
         <v>1</v>
       </c>
       <c r="H523" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -16293,7 +16299,7 @@
         <v>0.5966838048782487</v>
       </c>
       <c r="H524" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -16319,7 +16325,7 @@
         <v>1</v>
       </c>
       <c r="H525" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -16345,7 +16351,7 @@
         <v>0.5392000628733806</v>
       </c>
       <c r="H526" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -16371,7 +16377,7 @@
         <v>0.2752626559507874</v>
       </c>
       <c r="H527" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -16397,7 +16403,7 @@
         <v>0.6423944529437058</v>
       </c>
       <c r="H528" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -16423,7 +16429,7 @@
         <v>0.7096367257969294</v>
       </c>
       <c r="H529" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -16449,7 +16455,7 @@
         <v>0.266</v>
       </c>
       <c r="H530" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -16475,7 +16481,7 @@
         <v>0.2872</v>
       </c>
       <c r="H531" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -16501,7 +16507,7 @@
         <v>0.6227</v>
       </c>
       <c r="H532" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -16527,7 +16533,7 @@
         <v>1</v>
       </c>
       <c r="H533" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -16553,7 +16559,7 @@
         <v>0</v>
       </c>
       <c r="H534" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -16579,7 +16585,7 @@
         <v>1</v>
       </c>
       <c r="H535" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -16605,7 +16611,7 @@
         <v>1</v>
       </c>
       <c r="H536" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -16631,7 +16637,7 @@
         <v>0</v>
       </c>
       <c r="H537" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -16657,7 +16663,7 @@
         <v>0</v>
       </c>
       <c r="H538" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -16683,7 +16689,7 @@
         <v>0</v>
       </c>
       <c r="H539" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -16709,7 +16715,7 @@
         <v>0.6155</v>
       </c>
       <c r="H540" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -16735,7 +16741,7 @@
         <v>0.4573</v>
       </c>
       <c r="H541" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -16761,7 +16767,7 @@
         <v>1</v>
       </c>
       <c r="H542" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -16787,7 +16793,7 @@
         <v>0.835</v>
       </c>
       <c r="H543" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -16813,7 +16819,7 @@
         <v>0.7548999999999999</v>
       </c>
       <c r="H544" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -16839,7 +16845,7 @@
         <v>1</v>
       </c>
       <c r="H545" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -16865,7 +16871,7 @@
         <v>0</v>
       </c>
       <c r="H546" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -16891,7 +16897,7 @@
         <v>0</v>
       </c>
       <c r="H547" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -16917,7 +16923,7 @@
         <v>0.9719</v>
       </c>
       <c r="H548" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -16943,7 +16949,7 @@
         <v>0</v>
       </c>
       <c r="H549" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -16969,7 +16975,7 @@
         <v>0</v>
       </c>
       <c r="H550" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -16995,7 +17001,7 @@
         <v>0</v>
       </c>
       <c r="H551" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -17021,7 +17027,7 @@
         <v>0.2973</v>
       </c>
       <c r="H552" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -17047,7 +17053,7 @@
         <v>1</v>
       </c>
       <c r="H553" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -17073,7 +17079,7 @@
         <v>1</v>
       </c>
       <c r="H554" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -17083,9 +17089,15 @@
       <c r="B555" t="s">
         <v>560</v>
       </c>
+      <c r="C555">
+        <v>1</v>
+      </c>
       <c r="D555">
         <v>1</v>
       </c>
+      <c r="E555">
+        <v>1</v>
+      </c>
       <c r="F555">
         <v>0</v>
       </c>
@@ -17093,7 +17105,53 @@
         <v>1</v>
       </c>
       <c r="H555" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="556" spans="1:8">
+      <c r="A556" s="1">
+        <v>554</v>
+      </c>
+      <c r="B556" t="s">
+        <v>561</v>
+      </c>
+      <c r="C556">
+        <v>0</v>
+      </c>
+      <c r="D556">
+        <v>1</v>
+      </c>
+      <c r="E556">
+        <v>0</v>
+      </c>
+      <c r="F556">
+        <v>0</v>
+      </c>
+      <c r="G556">
+        <v>1</v>
+      </c>
+      <c r="H556" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="557" spans="1:8">
+      <c r="A557" s="1">
+        <v>555</v>
+      </c>
+      <c r="B557" t="s">
         <v>562</v>
+      </c>
+      <c r="D557">
+        <v>1</v>
+      </c>
+      <c r="F557">
+        <v>0</v>
+      </c>
+      <c r="G557">
+        <v>1</v>
+      </c>
+      <c r="H557" t="s">
+        <v>564</v>
       </c>
     </row>
   </sheetData>

--- a/firebase_data_from_spyEnsembleVSMO_v2.xlsx
+++ b/firebase_data_from_spyEnsembleVSMO_v2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="771">
   <si>
     <t>date</t>
   </si>
@@ -1703,6 +1703,15 @@
   </si>
   <si>
     <t>2025-08-18</t>
+  </si>
+  <si>
+    <t>2025-08-19</t>
+  </si>
+  <si>
+    <t>2025-08-20</t>
+  </si>
+  <si>
+    <t>2025-08-21</t>
   </si>
   <si>
     <t>0.00</t>
@@ -2675,7 +2684,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H557"/>
+  <dimension ref="A1:H560"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2727,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2753,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2779,7 +2788,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2805,7 +2814,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2831,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2857,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2883,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2909,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2935,7 +2944,7 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2961,7 +2970,7 @@
         <v>0.04303446040071349</v>
       </c>
       <c r="H11" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2987,7 +2996,7 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3013,7 +3022,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3039,7 +3048,7 @@
         <v>0.915256809318685</v>
       </c>
       <c r="H14" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3065,7 +3074,7 @@
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -3091,7 +3100,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -3117,7 +3126,7 @@
         <v>0.6184143588780344</v>
       </c>
       <c r="H17" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -3143,7 +3152,7 @@
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -3169,7 +3178,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -3195,7 +3204,7 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3221,7 +3230,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3247,7 +3256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -3273,7 +3282,7 @@
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3299,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3325,7 +3334,7 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -3351,7 +3360,7 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3377,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3403,7 +3412,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3429,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3455,7 +3464,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3481,7 +3490,7 @@
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3507,7 +3516,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3533,7 +3542,7 @@
         <v>0.745393260242324</v>
       </c>
       <c r="H33" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3559,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3585,7 +3594,7 @@
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3611,7 +3620,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3637,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3663,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3689,7 +3698,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3715,7 +3724,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3741,7 +3750,7 @@
         <v>0.683079705692312</v>
       </c>
       <c r="H41" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3767,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3793,7 +3802,7 @@
         <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3819,7 +3828,7 @@
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3845,7 +3854,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3871,7 +3880,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3897,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3923,7 +3932,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3949,7 +3958,7 @@
         <v>0.4307420609211915</v>
       </c>
       <c r="H49" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3975,7 +3984,7 @@
         <v>0.4817317520945901</v>
       </c>
       <c r="H50" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -4001,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -4027,7 +4036,7 @@
         <v>0.5570981908629731</v>
       </c>
       <c r="H52" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -4053,7 +4062,7 @@
         <v>0.7872019792055407</v>
       </c>
       <c r="H53" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -4079,7 +4088,7 @@
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -4105,7 +4114,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -4131,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -4157,7 +4166,7 @@
         <v>0.215245798636519</v>
       </c>
       <c r="H57" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -4183,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -4209,7 +4218,7 @@
         <v>0.3135669763477688</v>
       </c>
       <c r="H59" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -4235,7 +4244,7 @@
         <v>0.1529716371439602</v>
       </c>
       <c r="H60" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -4261,7 +4270,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -4287,7 +4296,7 @@
         <v>0.3106901159644614</v>
       </c>
       <c r="H62" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -4313,7 +4322,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -4339,7 +4348,7 @@
         <v>0.2867490636277352</v>
       </c>
       <c r="H64" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -4365,7 +4374,7 @@
         <v>0.9498742410172212</v>
       </c>
       <c r="H65" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -4391,7 +4400,7 @@
         <v>1</v>
       </c>
       <c r="H66" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -4417,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -4443,7 +4452,7 @@
         <v>1</v>
       </c>
       <c r="H68" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4469,7 +4478,7 @@
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4495,7 +4504,7 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4521,7 +4530,7 @@
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4547,7 +4556,7 @@
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4573,7 +4582,7 @@
         <v>0.1304718106398864</v>
       </c>
       <c r="H73" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4599,7 +4608,7 @@
         <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4625,7 +4634,7 @@
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4651,7 +4660,7 @@
         <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4677,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4703,7 +4712,7 @@
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4729,7 +4738,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4755,7 +4764,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4781,7 +4790,7 @@
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4807,7 +4816,7 @@
         <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4833,7 +4842,7 @@
         <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4859,7 +4868,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4885,7 +4894,7 @@
         <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4911,7 +4920,7 @@
         <v>0.414032993753131</v>
       </c>
       <c r="H86" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4937,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4963,7 +4972,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4989,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="H89" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -5015,7 +5024,7 @@
         <v>1</v>
       </c>
       <c r="H90" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -5041,7 +5050,7 @@
         <v>1</v>
       </c>
       <c r="H91" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -5067,7 +5076,7 @@
         <v>0.9279948866595563</v>
       </c>
       <c r="H92" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -5093,7 +5102,7 @@
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -5119,7 +5128,7 @@
         <v>1</v>
       </c>
       <c r="H94" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -5145,7 +5154,7 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -5171,7 +5180,7 @@
         <v>0.1871628344782118</v>
       </c>
       <c r="H96" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -5197,7 +5206,7 @@
         <v>1</v>
       </c>
       <c r="H97" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -5223,7 +5232,7 @@
         <v>1</v>
       </c>
       <c r="H98" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -5249,7 +5258,7 @@
         <v>0.8771001701943608</v>
       </c>
       <c r="H99" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -5275,7 +5284,7 @@
         <v>0.2146591320888346</v>
       </c>
       <c r="H100" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -5301,7 +5310,7 @@
         <v>1</v>
       </c>
       <c r="H101" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -5327,7 +5336,7 @@
         <v>1</v>
       </c>
       <c r="H102" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -5353,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="H103" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -5379,7 +5388,7 @@
         <v>1</v>
       </c>
       <c r="H104" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -5405,7 +5414,7 @@
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5431,7 +5440,7 @@
         <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5457,7 +5466,7 @@
         <v>1</v>
       </c>
       <c r="H107" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5483,7 +5492,7 @@
         <v>1</v>
       </c>
       <c r="H108" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5509,7 +5518,7 @@
         <v>1</v>
       </c>
       <c r="H109" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5535,7 +5544,7 @@
         <v>1</v>
       </c>
       <c r="H110" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5561,7 +5570,7 @@
         <v>1</v>
       </c>
       <c r="H111" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5587,7 +5596,7 @@
         <v>0.2055505200809835</v>
       </c>
       <c r="H112" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5613,7 +5622,7 @@
         <v>1</v>
       </c>
       <c r="H113" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5639,7 +5648,7 @@
         <v>0.2995528011053107</v>
       </c>
       <c r="H114" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5665,7 +5674,7 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5691,7 +5700,7 @@
         <v>0.4699445027580825</v>
       </c>
       <c r="H116" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5717,7 +5726,7 @@
         <v>0.770937588646547</v>
       </c>
       <c r="H117" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5743,7 +5752,7 @@
         <v>0.7826457521192932</v>
       </c>
       <c r="H118" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5769,7 +5778,7 @@
         <v>0.4304704948469578</v>
       </c>
       <c r="H119" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5795,7 +5804,7 @@
         <v>1</v>
       </c>
       <c r="H120" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5821,7 +5830,7 @@
         <v>0.6719963442506929</v>
       </c>
       <c r="H121" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5847,7 +5856,7 @@
         <v>1</v>
       </c>
       <c r="H122" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5873,7 +5882,7 @@
         <v>0.5375310953297759</v>
       </c>
       <c r="H123" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5899,7 +5908,7 @@
         <v>0.6497318652602996</v>
       </c>
       <c r="H124" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5925,7 +5934,7 @@
         <v>0.4013470357796504</v>
       </c>
       <c r="H125" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5951,7 +5960,7 @@
         <v>0.4404307186051412</v>
       </c>
       <c r="H126" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5977,7 +5986,7 @@
         <v>0.7535410487481622</v>
       </c>
       <c r="H127" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -6003,7 +6012,7 @@
         <v>0.1968264148093589</v>
       </c>
       <c r="H128" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -6029,7 +6038,7 @@
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -6055,7 +6064,7 @@
         <v>0.5903062422634243</v>
       </c>
       <c r="H130" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -6081,7 +6090,7 @@
         <v>0.3143863952226104</v>
       </c>
       <c r="H131" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -6107,7 +6116,7 @@
         <v>0.5251513973196068</v>
       </c>
       <c r="H132" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -6133,7 +6142,7 @@
         <v>0.26776714123178</v>
       </c>
       <c r="H133" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -6159,7 +6168,7 @@
         <v>0.2026359533431654</v>
       </c>
       <c r="H134" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -6185,7 +6194,7 @@
         <v>1</v>
       </c>
       <c r="H135" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -6211,7 +6220,7 @@
         <v>1</v>
       </c>
       <c r="H136" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -6237,7 +6246,7 @@
         <v>0.5557953472408601</v>
       </c>
       <c r="H137" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -6263,7 +6272,7 @@
         <v>1</v>
       </c>
       <c r="H138" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -6289,7 +6298,7 @@
         <v>1</v>
       </c>
       <c r="H139" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -6315,7 +6324,7 @@
         <v>0.8945463189254167</v>
       </c>
       <c r="H140" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -6341,7 +6350,7 @@
         <v>0.6772450649528653</v>
       </c>
       <c r="H141" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -6367,7 +6376,7 @@
         <v>0.9188898615772668</v>
       </c>
       <c r="H142" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -6393,7 +6402,7 @@
         <v>0.6808222412559765</v>
       </c>
       <c r="H143" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -6419,7 +6428,7 @@
         <v>0.7236705146772729</v>
       </c>
       <c r="H144" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -6445,7 +6454,7 @@
         <v>1</v>
       </c>
       <c r="H145" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -6471,7 +6480,7 @@
         <v>1</v>
       </c>
       <c r="H146" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -6497,7 +6506,7 @@
         <v>0.4083837438899106</v>
       </c>
       <c r="H147" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6523,7 +6532,7 @@
         <v>1</v>
       </c>
       <c r="H148" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6549,7 +6558,7 @@
         <v>0</v>
       </c>
       <c r="H149" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6575,7 +6584,7 @@
         <v>0.6711645860416422</v>
       </c>
       <c r="H150" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6601,7 +6610,7 @@
         <v>0.2715172141387561</v>
       </c>
       <c r="H151" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6627,7 +6636,7 @@
         <v>0.2398762302450229</v>
       </c>
       <c r="H152" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6653,7 +6662,7 @@
         <v>0.5664737805177642</v>
       </c>
       <c r="H153" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6679,7 +6688,7 @@
         <v>0.4223113145194125</v>
       </c>
       <c r="H154" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6705,7 +6714,7 @@
         <v>0.3667629390545308</v>
       </c>
       <c r="H155" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6731,7 +6740,7 @@
         <v>0.9231722118787783</v>
       </c>
       <c r="H156" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6757,7 +6766,7 @@
         <v>0.9851787420357059</v>
       </c>
       <c r="H157" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6783,7 +6792,7 @@
         <v>0.4518542194729144</v>
       </c>
       <c r="H158" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6809,7 +6818,7 @@
         <v>0.4964868798335714</v>
       </c>
       <c r="H159" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6835,7 +6844,7 @@
         <v>1</v>
       </c>
       <c r="H160" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6861,7 +6870,7 @@
         <v>1</v>
       </c>
       <c r="H161" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6887,7 +6896,7 @@
         <v>1</v>
       </c>
       <c r="H162" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6913,7 +6922,7 @@
         <v>0.6766899544020667</v>
       </c>
       <c r="H163" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6939,7 +6948,7 @@
         <v>1</v>
       </c>
       <c r="H164" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6965,7 +6974,7 @@
         <v>0</v>
       </c>
       <c r="H165" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6991,7 +7000,7 @@
         <v>0.6910065861261394</v>
       </c>
       <c r="H166" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -7017,7 +7026,7 @@
         <v>1</v>
       </c>
       <c r="H167" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -7043,7 +7052,7 @@
         <v>1</v>
       </c>
       <c r="H168" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -7069,7 +7078,7 @@
         <v>1</v>
       </c>
       <c r="H169" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -7095,7 +7104,7 @@
         <v>0.3087324093735406</v>
       </c>
       <c r="H170" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -7121,7 +7130,7 @@
         <v>0.6040906971093285</v>
       </c>
       <c r="H171" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -7147,7 +7156,7 @@
         <v>1</v>
       </c>
       <c r="H172" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -7173,7 +7182,7 @@
         <v>1</v>
       </c>
       <c r="H173" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -7199,7 +7208,7 @@
         <v>0.5411987563813702</v>
       </c>
       <c r="H174" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -7225,7 +7234,7 @@
         <v>1</v>
       </c>
       <c r="H175" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -7251,7 +7260,7 @@
         <v>0.5366275239822063</v>
       </c>
       <c r="H176" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -7277,7 +7286,7 @@
         <v>0.7616464524958171</v>
       </c>
       <c r="H177" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -7303,7 +7312,7 @@
         <v>0.778584820565025</v>
       </c>
       <c r="H178" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -7329,7 +7338,7 @@
         <v>1</v>
       </c>
       <c r="H179" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -7355,7 +7364,7 @@
         <v>0.779814372339514</v>
       </c>
       <c r="H180" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -7381,7 +7390,7 @@
         <v>1</v>
       </c>
       <c r="H181" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -7407,7 +7416,7 @@
         <v>1</v>
       </c>
       <c r="H182" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -7433,7 +7442,7 @@
         <v>1</v>
       </c>
       <c r="H183" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -7459,7 +7468,7 @@
         <v>1</v>
       </c>
       <c r="H184" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -7485,7 +7494,7 @@
         <v>1</v>
       </c>
       <c r="H185" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -7511,7 +7520,7 @@
         <v>1</v>
       </c>
       <c r="H186" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7537,7 +7546,7 @@
         <v>0.3910910264558739</v>
       </c>
       <c r="H187" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7563,7 +7572,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7589,7 +7598,7 @@
         <v>0.3782183282254096</v>
       </c>
       <c r="H189" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7615,7 +7624,7 @@
         <v>1</v>
       </c>
       <c r="H190" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7641,7 +7650,7 @@
         <v>1</v>
       </c>
       <c r="H191" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7667,7 +7676,7 @@
         <v>0.5022217334415366</v>
       </c>
       <c r="H192" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7693,7 +7702,7 @@
         <v>0.5141989063837532</v>
       </c>
       <c r="H193" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7719,7 +7728,7 @@
         <v>0.3056884663520373</v>
       </c>
       <c r="H194" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7745,7 +7754,7 @@
         <v>0.9738865825460928</v>
       </c>
       <c r="H195" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7771,7 +7780,7 @@
         <v>0.3670780584150713</v>
       </c>
       <c r="H196" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7797,7 +7806,7 @@
         <v>0</v>
       </c>
       <c r="H197" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7823,7 +7832,7 @@
         <v>0</v>
       </c>
       <c r="H198" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7849,7 +7858,7 @@
         <v>0</v>
       </c>
       <c r="H199" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7875,7 +7884,7 @@
         <v>0.2629434170052546</v>
       </c>
       <c r="H200" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7901,7 +7910,7 @@
         <v>0</v>
       </c>
       <c r="H201" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7927,7 +7936,7 @@
         <v>0.3643661297271093</v>
       </c>
       <c r="H202" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7953,7 +7962,7 @@
         <v>1</v>
       </c>
       <c r="H203" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7979,7 +7988,7 @@
         <v>0.2007309629135912</v>
       </c>
       <c r="H204" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -8005,7 +8014,7 @@
         <v>0.3622835247576352</v>
       </c>
       <c r="H205" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -8031,7 +8040,7 @@
         <v>0.2580942394651852</v>
       </c>
       <c r="H206" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -8057,7 +8066,7 @@
         <v>0.2272896410009056</v>
       </c>
       <c r="H207" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -8083,7 +8092,7 @@
         <v>0.02259656952943894</v>
       </c>
       <c r="H208" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -8109,7 +8118,7 @@
         <v>1</v>
       </c>
       <c r="H209" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -8135,7 +8144,7 @@
         <v>0.316699835553751</v>
       </c>
       <c r="H210" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -8161,7 +8170,7 @@
         <v>0.2917756618279652</v>
       </c>
       <c r="H211" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -8187,7 +8196,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -8213,7 +8222,7 @@
         <v>1</v>
       </c>
       <c r="H213" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -8239,7 +8248,7 @@
         <v>1</v>
       </c>
       <c r="H214" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -8265,7 +8274,7 @@
         <v>1</v>
       </c>
       <c r="H215" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -8291,7 +8300,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -8317,7 +8326,7 @@
         <v>1</v>
       </c>
       <c r="H217" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -8343,7 +8352,7 @@
         <v>1</v>
       </c>
       <c r="H218" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -8369,7 +8378,7 @@
         <v>0</v>
       </c>
       <c r="H219" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -8395,7 +8404,7 @@
         <v>1</v>
       </c>
       <c r="H220" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -8421,7 +8430,7 @@
         <v>0.0621306534788825</v>
       </c>
       <c r="H221" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -8447,7 +8456,7 @@
         <v>0.9197124253853388</v>
       </c>
       <c r="H222" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -8473,7 +8482,7 @@
         <v>0.1534574198678031</v>
       </c>
       <c r="H223" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -8499,7 +8508,7 @@
         <v>0.0432766620547291</v>
       </c>
       <c r="H224" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -8525,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="H225" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8551,7 +8560,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8577,7 +8586,7 @@
         <v>1</v>
       </c>
       <c r="H227" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8603,7 +8612,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8629,7 +8638,7 @@
         <v>1</v>
       </c>
       <c r="H229" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8655,7 +8664,7 @@
         <v>1</v>
       </c>
       <c r="H230" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8681,7 +8690,7 @@
         <v>1</v>
       </c>
       <c r="H231" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8707,7 +8716,7 @@
         <v>1</v>
       </c>
       <c r="H232" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8733,7 +8742,7 @@
         <v>0</v>
       </c>
       <c r="H233" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8759,7 +8768,7 @@
         <v>1</v>
       </c>
       <c r="H234" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8785,7 +8794,7 @@
         <v>1</v>
       </c>
       <c r="H235" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8811,7 +8820,7 @@
         <v>1</v>
       </c>
       <c r="H236" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8837,7 +8846,7 @@
         <v>0</v>
       </c>
       <c r="H237" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8863,7 +8872,7 @@
         <v>1</v>
       </c>
       <c r="H238" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8889,7 +8898,7 @@
         <v>0.8495492332177974</v>
       </c>
       <c r="H239" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8915,7 +8924,7 @@
         <v>0.6287165807955644</v>
       </c>
       <c r="H240" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8941,7 +8950,7 @@
         <v>0.6590199742859937</v>
       </c>
       <c r="H241" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8967,7 +8976,7 @@
         <v>1</v>
       </c>
       <c r="H242" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8993,7 +9002,7 @@
         <v>1</v>
       </c>
       <c r="H243" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -9019,7 +9028,7 @@
         <v>0</v>
       </c>
       <c r="H244" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -9045,7 +9054,7 @@
         <v>0</v>
       </c>
       <c r="H245" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -9071,7 +9080,7 @@
         <v>1</v>
       </c>
       <c r="H246" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -9097,7 +9106,7 @@
         <v>0.009874081767952174</v>
       </c>
       <c r="H247" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -9123,7 +9132,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -9149,7 +9158,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -9175,7 +9184,7 @@
         <v>0.7771680614627153</v>
       </c>
       <c r="H250" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -9201,7 +9210,7 @@
         <v>0.684092991361349</v>
       </c>
       <c r="H251" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -9227,7 +9236,7 @@
         <v>0.6190568656417142</v>
       </c>
       <c r="H252" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -9253,7 +9262,7 @@
         <v>0.6179968680850856</v>
       </c>
       <c r="H253" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -9279,7 +9288,7 @@
         <v>0.5456188990663409</v>
       </c>
       <c r="H254" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -9305,7 +9314,7 @@
         <v>1</v>
       </c>
       <c r="H255" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -9331,7 +9340,7 @@
         <v>0.5074108996205345</v>
       </c>
       <c r="H256" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -9357,7 +9366,7 @@
         <v>0.3570787145669819</v>
       </c>
       <c r="H257" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -9383,7 +9392,7 @@
         <v>0.3430474956288668</v>
       </c>
       <c r="H258" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -9409,7 +9418,7 @@
         <v>0.3780916182620047</v>
       </c>
       <c r="H259" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -9435,7 +9444,7 @@
         <v>1</v>
       </c>
       <c r="H260" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -9461,7 +9470,7 @@
         <v>1</v>
       </c>
       <c r="H261" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -9487,7 +9496,7 @@
         <v>0.2400217296095157</v>
       </c>
       <c r="H262" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -9513,7 +9522,7 @@
         <v>0.3026477102582492</v>
       </c>
       <c r="H263" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -9539,7 +9548,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9565,7 +9574,7 @@
         <v>0.5824288330939381</v>
       </c>
       <c r="H265" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9591,7 +9600,7 @@
         <v>1</v>
       </c>
       <c r="H266" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9617,7 +9626,7 @@
         <v>1</v>
       </c>
       <c r="H267" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9643,7 +9652,7 @@
         <v>1</v>
       </c>
       <c r="H268" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9669,7 +9678,7 @@
         <v>0.4860554446028704</v>
       </c>
       <c r="H269" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9695,7 +9704,7 @@
         <v>0.5485218530910564</v>
       </c>
       <c r="H270" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9721,7 +9730,7 @@
         <v>0.5687845911126622</v>
       </c>
       <c r="H271" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9747,7 +9756,7 @@
         <v>1</v>
       </c>
       <c r="H272" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9773,7 +9782,7 @@
         <v>1</v>
       </c>
       <c r="H273" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9799,7 +9808,7 @@
         <v>1</v>
       </c>
       <c r="H274" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9825,7 +9834,7 @@
         <v>1</v>
       </c>
       <c r="H275" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9851,7 +9860,7 @@
         <v>0.5347201194974325</v>
       </c>
       <c r="H276" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9877,7 +9886,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9903,7 +9912,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9929,7 +9938,7 @@
         <v>0</v>
       </c>
       <c r="H279" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9955,7 +9964,7 @@
         <v>0</v>
       </c>
       <c r="H280" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9981,7 +9990,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -10007,7 +10016,7 @@
         <v>0</v>
       </c>
       <c r="H282" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -10033,7 +10042,7 @@
         <v>0</v>
       </c>
       <c r="H283" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -10059,7 +10068,7 @@
         <v>1</v>
       </c>
       <c r="H284" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -10085,7 +10094,7 @@
         <v>1</v>
       </c>
       <c r="H285" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -10111,7 +10120,7 @@
         <v>0</v>
       </c>
       <c r="H286" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -10137,7 +10146,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -10163,7 +10172,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -10189,7 +10198,7 @@
         <v>0.1387512764613225</v>
       </c>
       <c r="H289" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -10215,7 +10224,7 @@
         <v>0.09876212659905496</v>
       </c>
       <c r="H290" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -10241,7 +10250,7 @@
         <v>0</v>
       </c>
       <c r="H291" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -10267,7 +10276,7 @@
         <v>0</v>
       </c>
       <c r="H292" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -10293,7 +10302,7 @@
         <v>0</v>
       </c>
       <c r="H293" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -10319,7 +10328,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -10345,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="H295" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -10371,7 +10380,7 @@
         <v>0</v>
       </c>
       <c r="H296" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -10397,7 +10406,7 @@
         <v>0</v>
       </c>
       <c r="H297" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -10423,7 +10432,7 @@
         <v>0</v>
       </c>
       <c r="H298" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -10449,7 +10458,7 @@
         <v>1</v>
       </c>
       <c r="H299" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -10475,7 +10484,7 @@
         <v>0.8392691107314288</v>
       </c>
       <c r="H300" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -10501,7 +10510,7 @@
         <v>1</v>
       </c>
       <c r="H301" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -10527,7 +10536,7 @@
         <v>0.5725104927894985</v>
       </c>
       <c r="H302" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -10553,7 +10562,7 @@
         <v>0.6452248196870423</v>
       </c>
       <c r="H303" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10579,7 +10588,7 @@
         <v>0</v>
       </c>
       <c r="H304" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10605,7 +10614,7 @@
         <v>1</v>
       </c>
       <c r="H305" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10631,7 +10640,7 @@
         <v>0.6176258382287111</v>
       </c>
       <c r="H306" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10657,7 +10666,7 @@
         <v>0.1402908509712884</v>
       </c>
       <c r="H307" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10683,7 +10692,7 @@
         <v>0.2470817519305337</v>
       </c>
       <c r="H308" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10709,7 +10718,7 @@
         <v>0</v>
       </c>
       <c r="H309" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10735,7 +10744,7 @@
         <v>0</v>
       </c>
       <c r="H310" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10761,7 +10770,7 @@
         <v>0</v>
       </c>
       <c r="H311" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10787,7 +10796,7 @@
         <v>0</v>
       </c>
       <c r="H312" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10813,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="H313" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10839,7 +10848,7 @@
         <v>0</v>
       </c>
       <c r="H314" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10865,7 +10874,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10891,7 +10900,7 @@
         <v>0</v>
       </c>
       <c r="H316" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10917,7 +10926,7 @@
         <v>0</v>
       </c>
       <c r="H317" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10943,7 +10952,7 @@
         <v>0.9408311744300493</v>
       </c>
       <c r="H318" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10969,7 +10978,7 @@
         <v>0.2281076034476917</v>
       </c>
       <c r="H319" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10995,7 +11004,7 @@
         <v>0.2584835532146987</v>
       </c>
       <c r="H320" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -11021,7 +11030,7 @@
         <v>0</v>
       </c>
       <c r="H321" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -11047,7 +11056,7 @@
         <v>0.49663247087312</v>
       </c>
       <c r="H322" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -11073,7 +11082,7 @@
         <v>0.7142898090287908</v>
       </c>
       <c r="H323" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -11099,7 +11108,7 @@
         <v>0.6838526371805752</v>
       </c>
       <c r="H324" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -11125,7 +11134,7 @@
         <v>1</v>
       </c>
       <c r="H325" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -11151,7 +11160,7 @@
         <v>0.8669334352785576</v>
       </c>
       <c r="H326" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -11177,7 +11186,7 @@
         <v>1</v>
       </c>
       <c r="H327" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -11203,7 +11212,7 @@
         <v>0.1987863872524352</v>
       </c>
       <c r="H328" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -11229,7 +11238,7 @@
         <v>0</v>
       </c>
       <c r="H329" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -11255,7 +11264,7 @@
         <v>0.2962742518059081</v>
       </c>
       <c r="H330" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -11281,7 +11290,7 @@
         <v>0.8764820442189873</v>
       </c>
       <c r="H331" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -11307,7 +11316,7 @@
         <v>1</v>
       </c>
       <c r="H332" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -11333,7 +11342,7 @@
         <v>1</v>
       </c>
       <c r="H333" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -11359,7 +11368,7 @@
         <v>0.1209662521283257</v>
       </c>
       <c r="H334" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -11385,7 +11394,7 @@
         <v>0.1691055214091461</v>
       </c>
       <c r="H335" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -11411,7 +11420,7 @@
         <v>1</v>
       </c>
       <c r="H336" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -11437,7 +11446,7 @@
         <v>0.2094118740417113</v>
       </c>
       <c r="H337" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -11463,7 +11472,7 @@
         <v>0</v>
       </c>
       <c r="H338" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -11489,7 +11498,7 @@
         <v>0.5156827272568333</v>
       </c>
       <c r="H339" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -11515,7 +11524,7 @@
         <v>0.9070222351886812</v>
       </c>
       <c r="H340" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -11541,7 +11550,7 @@
         <v>1</v>
       </c>
       <c r="H341" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -11567,7 +11576,7 @@
         <v>0</v>
       </c>
       <c r="H342" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11593,7 +11602,7 @@
         <v>1</v>
       </c>
       <c r="H343" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11619,7 +11628,7 @@
         <v>1</v>
       </c>
       <c r="H344" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11645,7 +11654,7 @@
         <v>0.3535956611716411</v>
       </c>
       <c r="H345" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11671,7 +11680,7 @@
         <v>0.3446389756593827</v>
       </c>
       <c r="H346" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11697,7 +11706,7 @@
         <v>1</v>
       </c>
       <c r="H347" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11723,7 +11732,7 @@
         <v>1</v>
       </c>
       <c r="H348" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11749,7 +11758,7 @@
         <v>0.5328032329248698</v>
       </c>
       <c r="H349" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11775,7 +11784,7 @@
         <v>0.4185556812752281</v>
       </c>
       <c r="H350" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11801,7 +11810,7 @@
         <v>1</v>
       </c>
       <c r="H351" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11827,7 +11836,7 @@
         <v>0</v>
       </c>
       <c r="H352" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11853,7 +11862,7 @@
         <v>0</v>
       </c>
       <c r="H353" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11879,7 +11888,7 @@
         <v>0</v>
       </c>
       <c r="H354" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11905,7 +11914,7 @@
         <v>1</v>
       </c>
       <c r="H355" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11931,7 +11940,7 @@
         <v>0.4671289773253784</v>
       </c>
       <c r="H356" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11957,7 +11966,7 @@
         <v>0.620001927632466</v>
       </c>
       <c r="H357" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11983,7 +11992,7 @@
         <v>0.6957105060667875</v>
       </c>
       <c r="H358" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -12009,7 +12018,7 @@
         <v>0</v>
       </c>
       <c r="H359" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -12035,7 +12044,7 @@
         <v>0.4905456411905179</v>
       </c>
       <c r="H360" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -12061,7 +12070,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -12087,7 +12096,7 @@
         <v>0</v>
       </c>
       <c r="H362" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -12113,7 +12122,7 @@
         <v>0</v>
       </c>
       <c r="H363" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -12139,7 +12148,7 @@
         <v>0</v>
       </c>
       <c r="H364" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -12165,7 +12174,7 @@
         <v>0</v>
       </c>
       <c r="H365" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -12191,7 +12200,7 @@
         <v>1</v>
       </c>
       <c r="H366" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -12217,7 +12226,7 @@
         <v>0</v>
       </c>
       <c r="H367" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -12243,7 +12252,7 @@
         <v>0</v>
       </c>
       <c r="H368" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -12269,7 +12278,7 @@
         <v>1</v>
       </c>
       <c r="H369" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -12295,7 +12304,7 @@
         <v>0.6127664785798932</v>
       </c>
       <c r="H370" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -12321,7 +12330,7 @@
         <v>1</v>
       </c>
       <c r="H371" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -12347,7 +12356,7 @@
         <v>1</v>
       </c>
       <c r="H372" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -12373,7 +12382,7 @@
         <v>0</v>
       </c>
       <c r="H373" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -12399,7 +12408,7 @@
         <v>1</v>
       </c>
       <c r="H374" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -12425,7 +12434,7 @@
         <v>0</v>
       </c>
       <c r="H375" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -12451,7 +12460,7 @@
         <v>1</v>
       </c>
       <c r="H376" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -12477,7 +12486,7 @@
         <v>0</v>
       </c>
       <c r="H377" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -12503,7 +12512,7 @@
         <v>0</v>
       </c>
       <c r="H378" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -12529,7 +12538,7 @@
         <v>0</v>
       </c>
       <c r="H379" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -12555,7 +12564,7 @@
         <v>0.2247282290278291</v>
       </c>
       <c r="H380" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -12581,7 +12590,7 @@
         <v>1</v>
       </c>
       <c r="H381" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12607,7 +12616,7 @@
         <v>1</v>
       </c>
       <c r="H382" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12633,7 +12642,7 @@
         <v>1</v>
       </c>
       <c r="H383" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12659,7 +12668,7 @@
         <v>1</v>
       </c>
       <c r="H384" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12685,7 +12694,7 @@
         <v>1</v>
       </c>
       <c r="H385" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12711,7 +12720,7 @@
         <v>0.5175780030761412</v>
       </c>
       <c r="H386" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12737,7 +12746,7 @@
         <v>0.407629165987654</v>
       </c>
       <c r="H387" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12763,7 +12772,7 @@
         <v>0.5917118171892221</v>
       </c>
       <c r="H388" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12789,7 +12798,7 @@
         <v>0</v>
       </c>
       <c r="H389" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12815,7 +12824,7 @@
         <v>0</v>
       </c>
       <c r="H390" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12841,7 +12850,7 @@
         <v>0.1210744071449007</v>
       </c>
       <c r="H391" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12867,7 +12876,7 @@
         <v>0</v>
       </c>
       <c r="H392" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12893,7 +12902,7 @@
         <v>0.4730991435488794</v>
       </c>
       <c r="H393" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12919,7 +12928,7 @@
         <v>1</v>
       </c>
       <c r="H394" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12945,7 +12954,7 @@
         <v>0</v>
       </c>
       <c r="H395" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12971,7 +12980,7 @@
         <v>1</v>
       </c>
       <c r="H396" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12997,7 +13006,7 @@
         <v>1</v>
       </c>
       <c r="H397" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -13023,7 +13032,7 @@
         <v>1</v>
       </c>
       <c r="H398" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -13049,7 +13058,7 @@
         <v>1</v>
       </c>
       <c r="H399" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -13075,7 +13084,7 @@
         <v>0</v>
       </c>
       <c r="H400" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -13101,7 +13110,7 @@
         <v>1</v>
       </c>
       <c r="H401" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -13127,7 +13136,7 @@
         <v>1</v>
       </c>
       <c r="H402" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -13153,7 +13162,7 @@
         <v>0</v>
       </c>
       <c r="H403" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -13179,7 +13188,7 @@
         <v>1</v>
       </c>
       <c r="H404" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -13205,7 +13214,7 @@
         <v>0</v>
       </c>
       <c r="H405" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -13231,7 +13240,7 @@
         <v>0.7209622620919816</v>
       </c>
       <c r="H406" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -13257,7 +13266,7 @@
         <v>1</v>
       </c>
       <c r="H407" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -13283,7 +13292,7 @@
         <v>1</v>
       </c>
       <c r="H408" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -13309,7 +13318,7 @@
         <v>1</v>
       </c>
       <c r="H409" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -13335,7 +13344,7 @@
         <v>1</v>
       </c>
       <c r="H410" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -13361,7 +13370,7 @@
         <v>0</v>
       </c>
       <c r="H411" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -13387,7 +13396,7 @@
         <v>1</v>
       </c>
       <c r="H412" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -13413,7 +13422,7 @@
         <v>0</v>
       </c>
       <c r="H413" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -13439,7 +13448,7 @@
         <v>1</v>
       </c>
       <c r="H414" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -13465,7 +13474,7 @@
         <v>1</v>
       </c>
       <c r="H415" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -13491,7 +13500,7 @@
         <v>1</v>
       </c>
       <c r="H416" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -13517,7 +13526,7 @@
         <v>0.7565382919417687</v>
       </c>
       <c r="H417" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -13543,7 +13552,7 @@
         <v>1</v>
       </c>
       <c r="H418" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -13569,7 +13578,7 @@
         <v>0.58958180434202</v>
       </c>
       <c r="H419" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13595,7 +13604,7 @@
         <v>0.4342165329712733</v>
       </c>
       <c r="H420" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13621,7 +13630,7 @@
         <v>1</v>
       </c>
       <c r="H421" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13647,7 +13656,7 @@
         <v>0.6575336465873136</v>
       </c>
       <c r="H422" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13673,7 +13682,7 @@
         <v>1</v>
       </c>
       <c r="H423" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13699,7 +13708,7 @@
         <v>1</v>
       </c>
       <c r="H424" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13725,7 +13734,7 @@
         <v>1</v>
       </c>
       <c r="H425" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13751,7 +13760,7 @@
         <v>1</v>
       </c>
       <c r="H426" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13777,7 +13786,7 @@
         <v>0.1931729729332681</v>
       </c>
       <c r="H427" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13803,7 +13812,7 @@
         <v>1</v>
       </c>
       <c r="H428" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13829,7 +13838,7 @@
         <v>0.838787845031057</v>
       </c>
       <c r="H429" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13855,7 +13864,7 @@
         <v>0</v>
       </c>
       <c r="H430" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13881,7 +13890,7 @@
         <v>0.1022396663436237</v>
       </c>
       <c r="H431" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13907,7 +13916,7 @@
         <v>0</v>
       </c>
       <c r="H432" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13933,7 +13942,7 @@
         <v>1</v>
       </c>
       <c r="H433" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13959,7 +13968,7 @@
         <v>0.4540250855516209</v>
       </c>
       <c r="H434" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13985,7 +13994,7 @@
         <v>0.2896165830953565</v>
       </c>
       <c r="H435" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -14011,7 +14020,7 @@
         <v>0.7917401509339994</v>
       </c>
       <c r="H436" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -14037,7 +14046,7 @@
         <v>0</v>
       </c>
       <c r="H437" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -14063,7 +14072,7 @@
         <v>1</v>
       </c>
       <c r="H438" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -14089,7 +14098,7 @@
         <v>0.7067178088732917</v>
       </c>
       <c r="H439" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -14115,7 +14124,7 @@
         <v>1</v>
       </c>
       <c r="H440" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -14141,7 +14150,7 @@
         <v>1</v>
       </c>
       <c r="H441" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -14167,7 +14176,7 @@
         <v>0</v>
       </c>
       <c r="H442" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -14193,7 +14202,7 @@
         <v>1</v>
       </c>
       <c r="H443" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -14219,7 +14228,7 @@
         <v>1</v>
       </c>
       <c r="H444" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -14245,7 +14254,7 @@
         <v>1</v>
       </c>
       <c r="H445" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -14271,7 +14280,7 @@
         <v>0.3206802237079347</v>
       </c>
       <c r="H446" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -14297,7 +14306,7 @@
         <v>0</v>
       </c>
       <c r="H447" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -14323,7 +14332,7 @@
         <v>0.2166572947957321</v>
       </c>
       <c r="H448" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -14349,7 +14358,7 @@
         <v>0.09220139004312224</v>
       </c>
       <c r="H449" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -14375,7 +14384,7 @@
         <v>0</v>
       </c>
       <c r="H450" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -14401,7 +14410,7 @@
         <v>0</v>
       </c>
       <c r="H451" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -14427,7 +14436,7 @@
         <v>1</v>
       </c>
       <c r="H452" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -14453,7 +14462,7 @@
         <v>1</v>
       </c>
       <c r="H453" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -14479,7 +14488,7 @@
         <v>1</v>
       </c>
       <c r="H454" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -14505,7 +14514,7 @@
         <v>1</v>
       </c>
       <c r="H455" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -14531,7 +14540,7 @@
         <v>1</v>
       </c>
       <c r="H456" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -14557,7 +14566,7 @@
         <v>0.5355349910433382</v>
       </c>
       <c r="H457" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14583,7 +14592,7 @@
         <v>1</v>
       </c>
       <c r="H458" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14609,7 +14618,7 @@
         <v>1</v>
       </c>
       <c r="H459" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14635,7 +14644,7 @@
         <v>0</v>
       </c>
       <c r="H460" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14661,7 +14670,7 @@
         <v>0.7362068598138494</v>
       </c>
       <c r="H461" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14687,7 +14696,7 @@
         <v>1</v>
       </c>
       <c r="H462" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14713,7 +14722,7 @@
         <v>1</v>
       </c>
       <c r="H463" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14739,7 +14748,7 @@
         <v>0.8290442293029383</v>
       </c>
       <c r="H464" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14765,7 +14774,7 @@
         <v>1</v>
       </c>
       <c r="H465" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14791,7 +14800,7 @@
         <v>1</v>
       </c>
       <c r="H466" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14817,7 +14826,7 @@
         <v>0.2972172914877398</v>
       </c>
       <c r="H467" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14843,7 +14852,7 @@
         <v>1</v>
       </c>
       <c r="H468" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14869,7 +14878,7 @@
         <v>0.3828030816675656</v>
       </c>
       <c r="H469" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14895,7 +14904,7 @@
         <v>1</v>
       </c>
       <c r="H470" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14921,7 +14930,7 @@
         <v>1</v>
       </c>
       <c r="H471" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14947,7 +14956,7 @@
         <v>0.7072751504056575</v>
       </c>
       <c r="H472" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14973,7 +14982,7 @@
         <v>0.6887345743487142</v>
       </c>
       <c r="H473" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14999,7 +15008,7 @@
         <v>0.1067305209771346</v>
       </c>
       <c r="H474" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -15025,7 +15034,7 @@
         <v>0</v>
       </c>
       <c r="H475" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -15051,7 +15060,7 @@
         <v>0.6057977033084144</v>
       </c>
       <c r="H476" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -15077,7 +15086,7 @@
         <v>0.6091777797350002</v>
       </c>
       <c r="H477" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -15103,7 +15112,7 @@
         <v>0.5694759431987656</v>
       </c>
       <c r="H478" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -15129,7 +15138,7 @@
         <v>0.6207146575699412</v>
       </c>
       <c r="H479" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -15155,7 +15164,7 @@
         <v>0.283376215899611</v>
       </c>
       <c r="H480" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -15181,7 +15190,7 @@
         <v>0.2427067649021355</v>
       </c>
       <c r="H481" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -15207,7 +15216,7 @@
         <v>1</v>
       </c>
       <c r="H482" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -15233,7 +15242,7 @@
         <v>0.5104176137220019</v>
       </c>
       <c r="H483" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -15259,7 +15268,7 @@
         <v>1</v>
       </c>
       <c r="H484" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -15285,7 +15294,7 @@
         <v>1</v>
       </c>
       <c r="H485" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -15311,7 +15320,7 @@
         <v>1</v>
       </c>
       <c r="H486" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -15337,7 +15346,7 @@
         <v>1</v>
       </c>
       <c r="H487" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -15363,7 +15372,7 @@
         <v>0.4677260579614761</v>
       </c>
       <c r="H488" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -15389,7 +15398,7 @@
         <v>1</v>
       </c>
       <c r="H489" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -15415,7 +15424,7 @@
         <v>0.476242461576072</v>
       </c>
       <c r="H490" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -15441,7 +15450,7 @@
         <v>1</v>
       </c>
       <c r="H491" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -15467,7 +15476,7 @@
         <v>0.4885601466764756</v>
       </c>
       <c r="H492" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -15493,7 +15502,7 @@
         <v>1</v>
       </c>
       <c r="H493" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -15519,7 +15528,7 @@
         <v>0.1892964267045682</v>
       </c>
       <c r="H494" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -15545,7 +15554,7 @@
         <v>1</v>
       </c>
       <c r="H495" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -15571,7 +15580,7 @@
         <v>1</v>
       </c>
       <c r="H496" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -15597,7 +15606,7 @@
         <v>0.562429454701116</v>
       </c>
       <c r="H497" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -15623,7 +15632,7 @@
         <v>0.5893467746014928</v>
       </c>
       <c r="H498" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -15649,7 +15658,7 @@
         <v>0.2453840526620205</v>
       </c>
       <c r="H499" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -15675,7 +15684,7 @@
         <v>1</v>
       </c>
       <c r="H500" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15701,7 +15710,7 @@
         <v>0.4919547742740523</v>
       </c>
       <c r="H501" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -15727,7 +15736,7 @@
         <v>1</v>
       </c>
       <c r="H502" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15753,7 +15762,7 @@
         <v>1</v>
       </c>
       <c r="H503" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -15779,7 +15788,7 @@
         <v>1</v>
       </c>
       <c r="H504" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -15805,7 +15814,7 @@
         <v>0.5332096778046151</v>
       </c>
       <c r="H505" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -15831,7 +15840,7 @@
         <v>1</v>
       </c>
       <c r="H506" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15857,7 +15866,7 @@
         <v>0.4095043245568133</v>
       </c>
       <c r="H507" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15883,7 +15892,7 @@
         <v>0.9563556993906542</v>
       </c>
       <c r="H508" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15909,7 +15918,7 @@
         <v>1</v>
       </c>
       <c r="H509" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15935,7 +15944,7 @@
         <v>0.3151420077674845</v>
       </c>
       <c r="H510" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15961,7 +15970,7 @@
         <v>1</v>
       </c>
       <c r="H511" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -15987,7 +15996,7 @@
         <v>0</v>
       </c>
       <c r="H512" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -16013,7 +16022,7 @@
         <v>0.1226144815616208</v>
       </c>
       <c r="H513" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -16039,7 +16048,7 @@
         <v>0.348937876188559</v>
       </c>
       <c r="H514" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -16065,7 +16074,7 @@
         <v>1</v>
       </c>
       <c r="H515" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -16091,7 +16100,7 @@
         <v>1</v>
       </c>
       <c r="H516" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -16117,7 +16126,7 @@
         <v>1</v>
       </c>
       <c r="H517" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -16143,7 +16152,7 @@
         <v>0.8236312239487298</v>
       </c>
       <c r="H518" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -16169,7 +16178,7 @@
         <v>1</v>
       </c>
       <c r="H519" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -16195,7 +16204,7 @@
         <v>0.4553771692067081</v>
       </c>
       <c r="H520" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -16221,7 +16230,7 @@
         <v>1</v>
       </c>
       <c r="H521" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -16247,7 +16256,7 @@
         <v>0.7309927778789053</v>
       </c>
       <c r="H522" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -16273,7 +16282,7 @@
         <v>1</v>
       </c>
       <c r="H523" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -16299,7 +16308,7 @@
         <v>0.5966838048782487</v>
       </c>
       <c r="H524" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -16325,7 +16334,7 @@
         <v>1</v>
       </c>
       <c r="H525" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -16351,7 +16360,7 @@
         <v>0.5392000628733806</v>
       </c>
       <c r="H526" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -16377,7 +16386,7 @@
         <v>0.2752626559507874</v>
       </c>
       <c r="H527" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -16403,7 +16412,7 @@
         <v>0.6423944529437058</v>
       </c>
       <c r="H528" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -16429,7 +16438,7 @@
         <v>0.7096367257969294</v>
       </c>
       <c r="H529" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -16455,7 +16464,7 @@
         <v>0.266</v>
       </c>
       <c r="H530" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -16481,7 +16490,7 @@
         <v>0.2872</v>
       </c>
       <c r="H531" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -16507,7 +16516,7 @@
         <v>0.6227</v>
       </c>
       <c r="H532" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -16533,7 +16542,7 @@
         <v>1</v>
       </c>
       <c r="H533" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -16559,7 +16568,7 @@
         <v>0</v>
       </c>
       <c r="H534" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -16585,7 +16594,7 @@
         <v>1</v>
       </c>
       <c r="H535" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -16611,7 +16620,7 @@
         <v>1</v>
       </c>
       <c r="H536" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -16637,7 +16646,7 @@
         <v>0</v>
       </c>
       <c r="H537" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -16663,7 +16672,7 @@
         <v>0</v>
       </c>
       <c r="H538" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -16689,7 +16698,7 @@
         <v>0</v>
       </c>
       <c r="H539" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -16715,7 +16724,7 @@
         <v>0.6155</v>
       </c>
       <c r="H540" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -16741,7 +16750,7 @@
         <v>0.4573</v>
       </c>
       <c r="H541" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -16767,7 +16776,7 @@
         <v>1</v>
       </c>
       <c r="H542" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -16793,7 +16802,7 @@
         <v>0.835</v>
       </c>
       <c r="H543" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -16819,7 +16828,7 @@
         <v>0.7548999999999999</v>
       </c>
       <c r="H544" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -16845,7 +16854,7 @@
         <v>1</v>
       </c>
       <c r="H545" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -16871,7 +16880,7 @@
         <v>0</v>
       </c>
       <c r="H546" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -16897,7 +16906,7 @@
         <v>0</v>
       </c>
       <c r="H547" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -16923,7 +16932,7 @@
         <v>0.9719</v>
       </c>
       <c r="H548" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -16949,7 +16958,7 @@
         <v>0</v>
       </c>
       <c r="H549" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -16975,7 +16984,7 @@
         <v>0</v>
       </c>
       <c r="H550" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -17001,7 +17010,7 @@
         <v>0</v>
       </c>
       <c r="H551" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -17027,7 +17036,7 @@
         <v>0.2973</v>
       </c>
       <c r="H552" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -17053,7 +17062,7 @@
         <v>1</v>
       </c>
       <c r="H553" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -17079,7 +17088,7 @@
         <v>1</v>
       </c>
       <c r="H554" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -17105,7 +17114,7 @@
         <v>1</v>
       </c>
       <c r="H555" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -17131,7 +17140,7 @@
         <v>1</v>
       </c>
       <c r="H556" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -17141,9 +17150,15 @@
       <c r="B557" t="s">
         <v>562</v>
       </c>
+      <c r="C557">
+        <v>1</v>
+      </c>
       <c r="D557">
         <v>1</v>
       </c>
+      <c r="E557">
+        <v>1</v>
+      </c>
       <c r="F557">
         <v>0</v>
       </c>
@@ -17151,7 +17166,79 @@
         <v>1</v>
       </c>
       <c r="H557" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="558" spans="1:8">
+      <c r="A558" s="1">
+        <v>556</v>
+      </c>
+      <c r="B558" t="s">
+        <v>563</v>
+      </c>
+      <c r="C558">
+        <v>0</v>
+      </c>
+      <c r="D558">
+        <v>1</v>
+      </c>
+      <c r="E558">
+        <v>0</v>
+      </c>
+      <c r="F558">
+        <v>0</v>
+      </c>
+      <c r="G558">
+        <v>1</v>
+      </c>
+      <c r="H558" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="559" spans="1:8">
+      <c r="A559" s="1">
+        <v>557</v>
+      </c>
+      <c r="B559" t="s">
         <v>564</v>
+      </c>
+      <c r="C559">
+        <v>0</v>
+      </c>
+      <c r="D559">
+        <v>1</v>
+      </c>
+      <c r="E559">
+        <v>0</v>
+      </c>
+      <c r="F559">
+        <v>0</v>
+      </c>
+      <c r="G559">
+        <v>1</v>
+      </c>
+      <c r="H559" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="560" spans="1:8">
+      <c r="A560" s="1">
+        <v>558</v>
+      </c>
+      <c r="B560" t="s">
+        <v>565</v>
+      </c>
+      <c r="D560">
+        <v>0</v>
+      </c>
+      <c r="F560">
+        <v>1</v>
+      </c>
+      <c r="G560">
+        <v>0</v>
+      </c>
+      <c r="H560" t="s">
+        <v>567</v>
       </c>
     </row>
   </sheetData>

--- a/firebase_data_from_spyEnsembleVSMO_v2.xlsx
+++ b/firebase_data_from_spyEnsembleVSMO_v2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="775">
   <si>
     <t>date</t>
   </si>
@@ -1718,6 +1718,12 @@
   </si>
   <si>
     <t>2025-08-25</t>
+  </si>
+  <si>
+    <t>2025-08-26</t>
+  </si>
+  <si>
+    <t>2025-08-27</t>
   </si>
   <si>
     <t>0.00</t>
@@ -2690,7 +2696,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H562"/>
+  <dimension ref="A1:H564"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2742,7 +2748,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2768,7 +2774,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2794,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2820,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2846,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2872,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2898,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2924,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2950,7 +2956,7 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2976,7 +2982,7 @@
         <v>0.04303446040071349</v>
       </c>
       <c r="H11" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3002,7 +3008,7 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3028,7 +3034,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3054,7 +3060,7 @@
         <v>0.915256809318685</v>
       </c>
       <c r="H14" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3080,7 +3086,7 @@
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -3106,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -3132,7 +3138,7 @@
         <v>0.6184143588780344</v>
       </c>
       <c r="H17" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -3158,7 +3164,7 @@
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -3184,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -3210,7 +3216,7 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3236,7 +3242,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3262,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -3288,7 +3294,7 @@
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3314,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3340,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -3366,7 +3372,7 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3392,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3418,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3444,7 +3450,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3470,7 +3476,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3496,7 +3502,7 @@
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3522,7 +3528,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3548,7 +3554,7 @@
         <v>0.745393260242324</v>
       </c>
       <c r="H33" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3574,7 +3580,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3600,7 +3606,7 @@
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3626,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3652,7 +3658,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3678,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3704,7 +3710,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3730,7 +3736,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3756,7 +3762,7 @@
         <v>0.683079705692312</v>
       </c>
       <c r="H41" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3782,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3808,7 +3814,7 @@
         <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3834,7 +3840,7 @@
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3860,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3886,7 +3892,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3912,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3938,7 +3944,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3964,7 +3970,7 @@
         <v>0.4307420609211915</v>
       </c>
       <c r="H49" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3990,7 +3996,7 @@
         <v>0.4817317520945901</v>
       </c>
       <c r="H50" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -4016,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -4042,7 +4048,7 @@
         <v>0.5570981908629731</v>
       </c>
       <c r="H52" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -4068,7 +4074,7 @@
         <v>0.7872019792055407</v>
       </c>
       <c r="H53" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -4094,7 +4100,7 @@
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -4120,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -4146,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -4172,7 +4178,7 @@
         <v>0.215245798636519</v>
       </c>
       <c r="H57" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -4198,7 +4204,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -4224,7 +4230,7 @@
         <v>0.3135669763477688</v>
       </c>
       <c r="H59" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -4250,7 +4256,7 @@
         <v>0.1529716371439602</v>
       </c>
       <c r="H60" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -4276,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -4302,7 +4308,7 @@
         <v>0.3106901159644614</v>
       </c>
       <c r="H62" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -4328,7 +4334,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -4354,7 +4360,7 @@
         <v>0.2867490636277352</v>
       </c>
       <c r="H64" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -4380,7 +4386,7 @@
         <v>0.9498742410172212</v>
       </c>
       <c r="H65" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -4406,7 +4412,7 @@
         <v>1</v>
       </c>
       <c r="H66" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -4432,7 +4438,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -4458,7 +4464,7 @@
         <v>1</v>
       </c>
       <c r="H68" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4484,7 +4490,7 @@
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4510,7 +4516,7 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4536,7 +4542,7 @@
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4562,7 +4568,7 @@
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4588,7 +4594,7 @@
         <v>0.1304718106398864</v>
       </c>
       <c r="H73" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4614,7 +4620,7 @@
         <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4640,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4666,7 +4672,7 @@
         <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4692,7 +4698,7 @@
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4718,7 +4724,7 @@
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4744,7 +4750,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4770,7 +4776,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4796,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4822,7 +4828,7 @@
         <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4848,7 +4854,7 @@
         <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4874,7 +4880,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4900,7 +4906,7 @@
         <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4926,7 +4932,7 @@
         <v>0.414032993753131</v>
       </c>
       <c r="H86" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4952,7 +4958,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4978,7 +4984,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -5004,7 +5010,7 @@
         <v>1</v>
       </c>
       <c r="H89" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -5030,7 +5036,7 @@
         <v>1</v>
       </c>
       <c r="H90" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -5056,7 +5062,7 @@
         <v>1</v>
       </c>
       <c r="H91" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -5082,7 +5088,7 @@
         <v>0.9279948866595563</v>
       </c>
       <c r="H92" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -5108,7 +5114,7 @@
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -5134,7 +5140,7 @@
         <v>1</v>
       </c>
       <c r="H94" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -5160,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -5186,7 +5192,7 @@
         <v>0.1871628344782118</v>
       </c>
       <c r="H96" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -5212,7 +5218,7 @@
         <v>1</v>
       </c>
       <c r="H97" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -5238,7 +5244,7 @@
         <v>1</v>
       </c>
       <c r="H98" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -5264,7 +5270,7 @@
         <v>0.8771001701943608</v>
       </c>
       <c r="H99" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -5290,7 +5296,7 @@
         <v>0.2146591320888346</v>
       </c>
       <c r="H100" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -5316,7 +5322,7 @@
         <v>1</v>
       </c>
       <c r="H101" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -5342,7 +5348,7 @@
         <v>1</v>
       </c>
       <c r="H102" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -5368,7 +5374,7 @@
         <v>1</v>
       </c>
       <c r="H103" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -5394,7 +5400,7 @@
         <v>1</v>
       </c>
       <c r="H104" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -5420,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5446,7 +5452,7 @@
         <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5472,7 +5478,7 @@
         <v>1</v>
       </c>
       <c r="H107" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5498,7 +5504,7 @@
         <v>1</v>
       </c>
       <c r="H108" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5524,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="H109" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5550,7 +5556,7 @@
         <v>1</v>
       </c>
       <c r="H110" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5576,7 +5582,7 @@
         <v>1</v>
       </c>
       <c r="H111" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5602,7 +5608,7 @@
         <v>0.2055505200809835</v>
       </c>
       <c r="H112" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5628,7 +5634,7 @@
         <v>1</v>
       </c>
       <c r="H113" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5654,7 +5660,7 @@
         <v>0.2995528011053107</v>
       </c>
       <c r="H114" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5680,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5706,7 +5712,7 @@
         <v>0.4699445027580825</v>
       </c>
       <c r="H116" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5732,7 +5738,7 @@
         <v>0.770937588646547</v>
       </c>
       <c r="H117" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5758,7 +5764,7 @@
         <v>0.7826457521192932</v>
       </c>
       <c r="H118" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5784,7 +5790,7 @@
         <v>0.4304704948469578</v>
       </c>
       <c r="H119" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5810,7 +5816,7 @@
         <v>1</v>
       </c>
       <c r="H120" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5836,7 +5842,7 @@
         <v>0.6719963442506929</v>
       </c>
       <c r="H121" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5862,7 +5868,7 @@
         <v>1</v>
       </c>
       <c r="H122" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5888,7 +5894,7 @@
         <v>0.5375310953297759</v>
       </c>
       <c r="H123" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5914,7 +5920,7 @@
         <v>0.6497318652602996</v>
       </c>
       <c r="H124" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5940,7 +5946,7 @@
         <v>0.4013470357796504</v>
       </c>
       <c r="H125" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5966,7 +5972,7 @@
         <v>0.4404307186051412</v>
       </c>
       <c r="H126" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5992,7 +5998,7 @@
         <v>0.7535410487481622</v>
       </c>
       <c r="H127" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -6018,7 +6024,7 @@
         <v>0.1968264148093589</v>
       </c>
       <c r="H128" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -6044,7 +6050,7 @@
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -6070,7 +6076,7 @@
         <v>0.5903062422634243</v>
       </c>
       <c r="H130" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -6096,7 +6102,7 @@
         <v>0.3143863952226104</v>
       </c>
       <c r="H131" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -6122,7 +6128,7 @@
         <v>0.5251513973196068</v>
       </c>
       <c r="H132" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -6148,7 +6154,7 @@
         <v>0.26776714123178</v>
       </c>
       <c r="H133" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -6174,7 +6180,7 @@
         <v>0.2026359533431654</v>
       </c>
       <c r="H134" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -6200,7 +6206,7 @@
         <v>1</v>
       </c>
       <c r="H135" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -6226,7 +6232,7 @@
         <v>1</v>
       </c>
       <c r="H136" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -6252,7 +6258,7 @@
         <v>0.5557953472408601</v>
       </c>
       <c r="H137" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -6278,7 +6284,7 @@
         <v>1</v>
       </c>
       <c r="H138" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -6304,7 +6310,7 @@
         <v>1</v>
       </c>
       <c r="H139" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -6330,7 +6336,7 @@
         <v>0.8945463189254167</v>
       </c>
       <c r="H140" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -6356,7 +6362,7 @@
         <v>0.6772450649528653</v>
       </c>
       <c r="H141" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -6382,7 +6388,7 @@
         <v>0.9188898615772668</v>
       </c>
       <c r="H142" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -6408,7 +6414,7 @@
         <v>0.6808222412559765</v>
       </c>
       <c r="H143" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -6434,7 +6440,7 @@
         <v>0.7236705146772729</v>
       </c>
       <c r="H144" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -6460,7 +6466,7 @@
         <v>1</v>
       </c>
       <c r="H145" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -6486,7 +6492,7 @@
         <v>1</v>
       </c>
       <c r="H146" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -6512,7 +6518,7 @@
         <v>0.4083837438899106</v>
       </c>
       <c r="H147" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6538,7 +6544,7 @@
         <v>1</v>
       </c>
       <c r="H148" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6564,7 +6570,7 @@
         <v>0</v>
       </c>
       <c r="H149" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6590,7 +6596,7 @@
         <v>0.6711645860416422</v>
       </c>
       <c r="H150" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6616,7 +6622,7 @@
         <v>0.2715172141387561</v>
       </c>
       <c r="H151" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6642,7 +6648,7 @@
         <v>0.2398762302450229</v>
       </c>
       <c r="H152" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6668,7 +6674,7 @@
         <v>0.5664737805177642</v>
       </c>
       <c r="H153" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6694,7 +6700,7 @@
         <v>0.4223113145194125</v>
       </c>
       <c r="H154" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6720,7 +6726,7 @@
         <v>0.3667629390545308</v>
       </c>
       <c r="H155" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6746,7 +6752,7 @@
         <v>0.9231722118787783</v>
       </c>
       <c r="H156" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6772,7 +6778,7 @@
         <v>0.9851787420357059</v>
       </c>
       <c r="H157" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6798,7 +6804,7 @@
         <v>0.4518542194729144</v>
       </c>
       <c r="H158" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6824,7 +6830,7 @@
         <v>0.4964868798335714</v>
       </c>
       <c r="H159" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6850,7 +6856,7 @@
         <v>1</v>
       </c>
       <c r="H160" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6876,7 +6882,7 @@
         <v>1</v>
       </c>
       <c r="H161" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6902,7 +6908,7 @@
         <v>1</v>
       </c>
       <c r="H162" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6928,7 +6934,7 @@
         <v>0.6766899544020667</v>
       </c>
       <c r="H163" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6954,7 +6960,7 @@
         <v>1</v>
       </c>
       <c r="H164" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6980,7 +6986,7 @@
         <v>0</v>
       </c>
       <c r="H165" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -7006,7 +7012,7 @@
         <v>0.6910065861261394</v>
       </c>
       <c r="H166" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -7032,7 +7038,7 @@
         <v>1</v>
       </c>
       <c r="H167" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -7058,7 +7064,7 @@
         <v>1</v>
       </c>
       <c r="H168" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -7084,7 +7090,7 @@
         <v>1</v>
       </c>
       <c r="H169" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -7110,7 +7116,7 @@
         <v>0.3087324093735406</v>
       </c>
       <c r="H170" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -7136,7 +7142,7 @@
         <v>0.6040906971093285</v>
       </c>
       <c r="H171" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -7162,7 +7168,7 @@
         <v>1</v>
       </c>
       <c r="H172" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -7188,7 +7194,7 @@
         <v>1</v>
       </c>
       <c r="H173" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -7214,7 +7220,7 @@
         <v>0.5411987563813702</v>
       </c>
       <c r="H174" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -7240,7 +7246,7 @@
         <v>1</v>
       </c>
       <c r="H175" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -7266,7 +7272,7 @@
         <v>0.5366275239822063</v>
       </c>
       <c r="H176" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -7292,7 +7298,7 @@
         <v>0.7616464524958171</v>
       </c>
       <c r="H177" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -7318,7 +7324,7 @@
         <v>0.778584820565025</v>
       </c>
       <c r="H178" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -7344,7 +7350,7 @@
         <v>1</v>
       </c>
       <c r="H179" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -7370,7 +7376,7 @@
         <v>0.779814372339514</v>
       </c>
       <c r="H180" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -7396,7 +7402,7 @@
         <v>1</v>
       </c>
       <c r="H181" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -7422,7 +7428,7 @@
         <v>1</v>
       </c>
       <c r="H182" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -7448,7 +7454,7 @@
         <v>1</v>
       </c>
       <c r="H183" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -7474,7 +7480,7 @@
         <v>1</v>
       </c>
       <c r="H184" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -7500,7 +7506,7 @@
         <v>1</v>
       </c>
       <c r="H185" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -7526,7 +7532,7 @@
         <v>1</v>
       </c>
       <c r="H186" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7552,7 +7558,7 @@
         <v>0.3910910264558739</v>
       </c>
       <c r="H187" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7578,7 +7584,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7604,7 +7610,7 @@
         <v>0.3782183282254096</v>
       </c>
       <c r="H189" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7630,7 +7636,7 @@
         <v>1</v>
       </c>
       <c r="H190" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7656,7 +7662,7 @@
         <v>1</v>
       </c>
       <c r="H191" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7682,7 +7688,7 @@
         <v>0.5022217334415366</v>
       </c>
       <c r="H192" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7708,7 +7714,7 @@
         <v>0.5141989063837532</v>
       </c>
       <c r="H193" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7734,7 +7740,7 @@
         <v>0.3056884663520373</v>
       </c>
       <c r="H194" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7760,7 +7766,7 @@
         <v>0.9738865825460928</v>
       </c>
       <c r="H195" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7786,7 +7792,7 @@
         <v>0.3670780584150713</v>
       </c>
       <c r="H196" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7812,7 +7818,7 @@
         <v>0</v>
       </c>
       <c r="H197" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7838,7 +7844,7 @@
         <v>0</v>
       </c>
       <c r="H198" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7864,7 +7870,7 @@
         <v>0</v>
       </c>
       <c r="H199" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7890,7 +7896,7 @@
         <v>0.2629434170052546</v>
       </c>
       <c r="H200" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7916,7 +7922,7 @@
         <v>0</v>
       </c>
       <c r="H201" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7942,7 +7948,7 @@
         <v>0.3643661297271093</v>
       </c>
       <c r="H202" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7968,7 +7974,7 @@
         <v>1</v>
       </c>
       <c r="H203" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7994,7 +8000,7 @@
         <v>0.2007309629135912</v>
       </c>
       <c r="H204" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -8020,7 +8026,7 @@
         <v>0.3622835247576352</v>
       </c>
       <c r="H205" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -8046,7 +8052,7 @@
         <v>0.2580942394651852</v>
       </c>
       <c r="H206" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -8072,7 +8078,7 @@
         <v>0.2272896410009056</v>
       </c>
       <c r="H207" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -8098,7 +8104,7 @@
         <v>0.02259656952943894</v>
       </c>
       <c r="H208" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -8124,7 +8130,7 @@
         <v>1</v>
       </c>
       <c r="H209" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -8150,7 +8156,7 @@
         <v>0.316699835553751</v>
       </c>
       <c r="H210" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -8176,7 +8182,7 @@
         <v>0.2917756618279652</v>
       </c>
       <c r="H211" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -8202,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -8228,7 +8234,7 @@
         <v>1</v>
       </c>
       <c r="H213" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -8254,7 +8260,7 @@
         <v>1</v>
       </c>
       <c r="H214" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -8280,7 +8286,7 @@
         <v>1</v>
       </c>
       <c r="H215" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -8306,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -8332,7 +8338,7 @@
         <v>1</v>
       </c>
       <c r="H217" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -8358,7 +8364,7 @@
         <v>1</v>
       </c>
       <c r="H218" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -8384,7 +8390,7 @@
         <v>0</v>
       </c>
       <c r="H219" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -8410,7 +8416,7 @@
         <v>1</v>
       </c>
       <c r="H220" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -8436,7 +8442,7 @@
         <v>0.0621306534788825</v>
       </c>
       <c r="H221" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -8462,7 +8468,7 @@
         <v>0.9197124253853388</v>
       </c>
       <c r="H222" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -8488,7 +8494,7 @@
         <v>0.1534574198678031</v>
       </c>
       <c r="H223" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -8514,7 +8520,7 @@
         <v>0.0432766620547291</v>
       </c>
       <c r="H224" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -8540,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="H225" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8566,7 +8572,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8592,7 +8598,7 @@
         <v>1</v>
       </c>
       <c r="H227" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8618,7 +8624,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8644,7 +8650,7 @@
         <v>1</v>
       </c>
       <c r="H229" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8670,7 +8676,7 @@
         <v>1</v>
       </c>
       <c r="H230" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8696,7 +8702,7 @@
         <v>1</v>
       </c>
       <c r="H231" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8722,7 +8728,7 @@
         <v>1</v>
       </c>
       <c r="H232" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8748,7 +8754,7 @@
         <v>0</v>
       </c>
       <c r="H233" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8774,7 +8780,7 @@
         <v>1</v>
       </c>
       <c r="H234" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8800,7 +8806,7 @@
         <v>1</v>
       </c>
       <c r="H235" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8826,7 +8832,7 @@
         <v>1</v>
       </c>
       <c r="H236" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8852,7 +8858,7 @@
         <v>0</v>
       </c>
       <c r="H237" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8878,7 +8884,7 @@
         <v>1</v>
       </c>
       <c r="H238" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8904,7 +8910,7 @@
         <v>0.8495492332177974</v>
       </c>
       <c r="H239" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8930,7 +8936,7 @@
         <v>0.6287165807955644</v>
       </c>
       <c r="H240" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8956,7 +8962,7 @@
         <v>0.6590199742859937</v>
       </c>
       <c r="H241" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8982,7 +8988,7 @@
         <v>1</v>
       </c>
       <c r="H242" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -9008,7 +9014,7 @@
         <v>1</v>
       </c>
       <c r="H243" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -9034,7 +9040,7 @@
         <v>0</v>
       </c>
       <c r="H244" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -9060,7 +9066,7 @@
         <v>0</v>
       </c>
       <c r="H245" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -9086,7 +9092,7 @@
         <v>1</v>
       </c>
       <c r="H246" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -9112,7 +9118,7 @@
         <v>0.009874081767952174</v>
       </c>
       <c r="H247" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -9138,7 +9144,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -9164,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -9190,7 +9196,7 @@
         <v>0.7771680614627153</v>
       </c>
       <c r="H250" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -9216,7 +9222,7 @@
         <v>0.684092991361349</v>
       </c>
       <c r="H251" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -9242,7 +9248,7 @@
         <v>0.6190568656417142</v>
       </c>
       <c r="H252" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -9268,7 +9274,7 @@
         <v>0.6179968680850856</v>
       </c>
       <c r="H253" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -9294,7 +9300,7 @@
         <v>0.5456188990663409</v>
       </c>
       <c r="H254" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -9320,7 +9326,7 @@
         <v>1</v>
       </c>
       <c r="H255" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -9346,7 +9352,7 @@
         <v>0.5074108996205345</v>
       </c>
       <c r="H256" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -9372,7 +9378,7 @@
         <v>0.3570787145669819</v>
       </c>
       <c r="H257" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -9398,7 +9404,7 @@
         <v>0.3430474956288668</v>
       </c>
       <c r="H258" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -9424,7 +9430,7 @@
         <v>0.3780916182620047</v>
       </c>
       <c r="H259" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -9450,7 +9456,7 @@
         <v>1</v>
       </c>
       <c r="H260" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -9476,7 +9482,7 @@
         <v>1</v>
       </c>
       <c r="H261" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -9502,7 +9508,7 @@
         <v>0.2400217296095157</v>
       </c>
       <c r="H262" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -9528,7 +9534,7 @@
         <v>0.3026477102582492</v>
       </c>
       <c r="H263" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -9554,7 +9560,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9580,7 +9586,7 @@
         <v>0.5824288330939381</v>
       </c>
       <c r="H265" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9606,7 +9612,7 @@
         <v>1</v>
       </c>
       <c r="H266" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9632,7 +9638,7 @@
         <v>1</v>
       </c>
       <c r="H267" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9658,7 +9664,7 @@
         <v>1</v>
       </c>
       <c r="H268" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9684,7 +9690,7 @@
         <v>0.4860554446028704</v>
       </c>
       <c r="H269" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9710,7 +9716,7 @@
         <v>0.5485218530910564</v>
       </c>
       <c r="H270" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9736,7 +9742,7 @@
         <v>0.5687845911126622</v>
       </c>
       <c r="H271" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9762,7 +9768,7 @@
         <v>1</v>
       </c>
       <c r="H272" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9788,7 +9794,7 @@
         <v>1</v>
       </c>
       <c r="H273" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9814,7 +9820,7 @@
         <v>1</v>
       </c>
       <c r="H274" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9840,7 +9846,7 @@
         <v>1</v>
       </c>
       <c r="H275" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9866,7 +9872,7 @@
         <v>0.5347201194974325</v>
       </c>
       <c r="H276" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9892,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9918,7 +9924,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9944,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="H279" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9970,7 +9976,7 @@
         <v>0</v>
       </c>
       <c r="H280" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9996,7 +10002,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -10022,7 +10028,7 @@
         <v>0</v>
       </c>
       <c r="H282" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -10048,7 +10054,7 @@
         <v>0</v>
       </c>
       <c r="H283" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -10074,7 +10080,7 @@
         <v>1</v>
       </c>
       <c r="H284" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -10100,7 +10106,7 @@
         <v>1</v>
       </c>
       <c r="H285" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -10126,7 +10132,7 @@
         <v>0</v>
       </c>
       <c r="H286" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -10152,7 +10158,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -10178,7 +10184,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -10204,7 +10210,7 @@
         <v>0.1387512764613225</v>
       </c>
       <c r="H289" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -10230,7 +10236,7 @@
         <v>0.09876212659905496</v>
       </c>
       <c r="H290" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -10256,7 +10262,7 @@
         <v>0</v>
       </c>
       <c r="H291" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -10282,7 +10288,7 @@
         <v>0</v>
       </c>
       <c r="H292" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -10308,7 +10314,7 @@
         <v>0</v>
       </c>
       <c r="H293" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -10334,7 +10340,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -10360,7 +10366,7 @@
         <v>0</v>
       </c>
       <c r="H295" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -10386,7 +10392,7 @@
         <v>0</v>
       </c>
       <c r="H296" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -10412,7 +10418,7 @@
         <v>0</v>
       </c>
       <c r="H297" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -10438,7 +10444,7 @@
         <v>0</v>
       </c>
       <c r="H298" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -10464,7 +10470,7 @@
         <v>1</v>
       </c>
       <c r="H299" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -10490,7 +10496,7 @@
         <v>0.8392691107314288</v>
       </c>
       <c r="H300" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -10516,7 +10522,7 @@
         <v>1</v>
       </c>
       <c r="H301" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -10542,7 +10548,7 @@
         <v>0.5725104927894985</v>
       </c>
       <c r="H302" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -10568,7 +10574,7 @@
         <v>0.6452248196870423</v>
       </c>
       <c r="H303" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10594,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="H304" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10620,7 +10626,7 @@
         <v>1</v>
       </c>
       <c r="H305" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10646,7 +10652,7 @@
         <v>0.6176258382287111</v>
       </c>
       <c r="H306" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10672,7 +10678,7 @@
         <v>0.1402908509712884</v>
       </c>
       <c r="H307" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10698,7 +10704,7 @@
         <v>0.2470817519305337</v>
       </c>
       <c r="H308" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10724,7 +10730,7 @@
         <v>0</v>
       </c>
       <c r="H309" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10750,7 +10756,7 @@
         <v>0</v>
       </c>
       <c r="H310" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10776,7 +10782,7 @@
         <v>0</v>
       </c>
       <c r="H311" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10802,7 +10808,7 @@
         <v>0</v>
       </c>
       <c r="H312" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10828,7 +10834,7 @@
         <v>0</v>
       </c>
       <c r="H313" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10854,7 +10860,7 @@
         <v>0</v>
       </c>
       <c r="H314" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10880,7 +10886,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10906,7 +10912,7 @@
         <v>0</v>
       </c>
       <c r="H316" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10932,7 +10938,7 @@
         <v>0</v>
       </c>
       <c r="H317" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10958,7 +10964,7 @@
         <v>0.9408311744300493</v>
       </c>
       <c r="H318" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10984,7 +10990,7 @@
         <v>0.2281076034476917</v>
       </c>
       <c r="H319" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -11010,7 +11016,7 @@
         <v>0.2584835532146987</v>
       </c>
       <c r="H320" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -11036,7 +11042,7 @@
         <v>0</v>
       </c>
       <c r="H321" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -11062,7 +11068,7 @@
         <v>0.49663247087312</v>
       </c>
       <c r="H322" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -11088,7 +11094,7 @@
         <v>0.7142898090287908</v>
       </c>
       <c r="H323" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -11114,7 +11120,7 @@
         <v>0.6838526371805752</v>
       </c>
       <c r="H324" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -11140,7 +11146,7 @@
         <v>1</v>
       </c>
       <c r="H325" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -11166,7 +11172,7 @@
         <v>0.8669334352785576</v>
       </c>
       <c r="H326" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -11192,7 +11198,7 @@
         <v>1</v>
       </c>
       <c r="H327" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -11218,7 +11224,7 @@
         <v>0.1987863872524352</v>
       </c>
       <c r="H328" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -11244,7 +11250,7 @@
         <v>0</v>
       </c>
       <c r="H329" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -11270,7 +11276,7 @@
         <v>0.2962742518059081</v>
       </c>
       <c r="H330" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -11296,7 +11302,7 @@
         <v>0.8764820442189873</v>
       </c>
       <c r="H331" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -11322,7 +11328,7 @@
         <v>1</v>
       </c>
       <c r="H332" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -11348,7 +11354,7 @@
         <v>1</v>
       </c>
       <c r="H333" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -11374,7 +11380,7 @@
         <v>0.1209662521283257</v>
       </c>
       <c r="H334" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -11400,7 +11406,7 @@
         <v>0.1691055214091461</v>
       </c>
       <c r="H335" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -11426,7 +11432,7 @@
         <v>1</v>
       </c>
       <c r="H336" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -11452,7 +11458,7 @@
         <v>0.2094118740417113</v>
       </c>
       <c r="H337" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -11478,7 +11484,7 @@
         <v>0</v>
       </c>
       <c r="H338" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -11504,7 +11510,7 @@
         <v>0.5156827272568333</v>
       </c>
       <c r="H339" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -11530,7 +11536,7 @@
         <v>0.9070222351886812</v>
       </c>
       <c r="H340" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -11556,7 +11562,7 @@
         <v>1</v>
       </c>
       <c r="H341" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -11582,7 +11588,7 @@
         <v>0</v>
       </c>
       <c r="H342" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11608,7 +11614,7 @@
         <v>1</v>
       </c>
       <c r="H343" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11634,7 +11640,7 @@
         <v>1</v>
       </c>
       <c r="H344" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11660,7 +11666,7 @@
         <v>0.3535956611716411</v>
       </c>
       <c r="H345" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11686,7 +11692,7 @@
         <v>0.3446389756593827</v>
       </c>
       <c r="H346" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11712,7 +11718,7 @@
         <v>1</v>
       </c>
       <c r="H347" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11738,7 +11744,7 @@
         <v>1</v>
       </c>
       <c r="H348" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11764,7 +11770,7 @@
         <v>0.5328032329248698</v>
       </c>
       <c r="H349" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11790,7 +11796,7 @@
         <v>0.4185556812752281</v>
       </c>
       <c r="H350" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11816,7 +11822,7 @@
         <v>1</v>
       </c>
       <c r="H351" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11842,7 +11848,7 @@
         <v>0</v>
       </c>
       <c r="H352" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11868,7 +11874,7 @@
         <v>0</v>
       </c>
       <c r="H353" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11894,7 +11900,7 @@
         <v>0</v>
       </c>
       <c r="H354" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11920,7 +11926,7 @@
         <v>1</v>
       </c>
       <c r="H355" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11946,7 +11952,7 @@
         <v>0.4671289773253784</v>
       </c>
       <c r="H356" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11972,7 +11978,7 @@
         <v>0.620001927632466</v>
       </c>
       <c r="H357" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11998,7 +12004,7 @@
         <v>0.6957105060667875</v>
       </c>
       <c r="H358" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -12024,7 +12030,7 @@
         <v>0</v>
       </c>
       <c r="H359" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -12050,7 +12056,7 @@
         <v>0.4905456411905179</v>
       </c>
       <c r="H360" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -12076,7 +12082,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -12102,7 +12108,7 @@
         <v>0</v>
       </c>
       <c r="H362" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -12128,7 +12134,7 @@
         <v>0</v>
       </c>
       <c r="H363" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -12154,7 +12160,7 @@
         <v>0</v>
       </c>
       <c r="H364" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -12180,7 +12186,7 @@
         <v>0</v>
       </c>
       <c r="H365" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -12206,7 +12212,7 @@
         <v>1</v>
       </c>
       <c r="H366" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -12232,7 +12238,7 @@
         <v>0</v>
       </c>
       <c r="H367" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -12258,7 +12264,7 @@
         <v>0</v>
       </c>
       <c r="H368" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -12284,7 +12290,7 @@
         <v>1</v>
       </c>
       <c r="H369" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -12310,7 +12316,7 @@
         <v>0.6127664785798932</v>
       </c>
       <c r="H370" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -12336,7 +12342,7 @@
         <v>1</v>
       </c>
       <c r="H371" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -12362,7 +12368,7 @@
         <v>1</v>
       </c>
       <c r="H372" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -12388,7 +12394,7 @@
         <v>0</v>
       </c>
       <c r="H373" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -12414,7 +12420,7 @@
         <v>1</v>
       </c>
       <c r="H374" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -12440,7 +12446,7 @@
         <v>0</v>
       </c>
       <c r="H375" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -12466,7 +12472,7 @@
         <v>1</v>
       </c>
       <c r="H376" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -12492,7 +12498,7 @@
         <v>0</v>
       </c>
       <c r="H377" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -12518,7 +12524,7 @@
         <v>0</v>
       </c>
       <c r="H378" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -12544,7 +12550,7 @@
         <v>0</v>
       </c>
       <c r="H379" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -12570,7 +12576,7 @@
         <v>0.2247282290278291</v>
       </c>
       <c r="H380" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -12596,7 +12602,7 @@
         <v>1</v>
       </c>
       <c r="H381" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12622,7 +12628,7 @@
         <v>1</v>
       </c>
       <c r="H382" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12648,7 +12654,7 @@
         <v>1</v>
       </c>
       <c r="H383" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12674,7 +12680,7 @@
         <v>1</v>
       </c>
       <c r="H384" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12700,7 +12706,7 @@
         <v>1</v>
       </c>
       <c r="H385" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12726,7 +12732,7 @@
         <v>0.5175780030761412</v>
       </c>
       <c r="H386" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12752,7 +12758,7 @@
         <v>0.407629165987654</v>
       </c>
       <c r="H387" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12778,7 +12784,7 @@
         <v>0.5917118171892221</v>
       </c>
       <c r="H388" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12804,7 +12810,7 @@
         <v>0</v>
       </c>
       <c r="H389" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12830,7 +12836,7 @@
         <v>0</v>
       </c>
       <c r="H390" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12856,7 +12862,7 @@
         <v>0.1210744071449007</v>
       </c>
       <c r="H391" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12882,7 +12888,7 @@
         <v>0</v>
       </c>
       <c r="H392" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12908,7 +12914,7 @@
         <v>0.4730991435488794</v>
       </c>
       <c r="H393" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12934,7 +12940,7 @@
         <v>1</v>
       </c>
       <c r="H394" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12960,7 +12966,7 @@
         <v>0</v>
       </c>
       <c r="H395" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12986,7 +12992,7 @@
         <v>1</v>
       </c>
       <c r="H396" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -13012,7 +13018,7 @@
         <v>1</v>
       </c>
       <c r="H397" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -13038,7 +13044,7 @@
         <v>1</v>
       </c>
       <c r="H398" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -13064,7 +13070,7 @@
         <v>1</v>
       </c>
       <c r="H399" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -13090,7 +13096,7 @@
         <v>0</v>
       </c>
       <c r="H400" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -13116,7 +13122,7 @@
         <v>1</v>
       </c>
       <c r="H401" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -13142,7 +13148,7 @@
         <v>1</v>
       </c>
       <c r="H402" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -13168,7 +13174,7 @@
         <v>0</v>
       </c>
       <c r="H403" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -13194,7 +13200,7 @@
         <v>1</v>
       </c>
       <c r="H404" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -13220,7 +13226,7 @@
         <v>0</v>
       </c>
       <c r="H405" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -13246,7 +13252,7 @@
         <v>0.7209622620919816</v>
       </c>
       <c r="H406" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -13272,7 +13278,7 @@
         <v>1</v>
       </c>
       <c r="H407" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -13298,7 +13304,7 @@
         <v>1</v>
       </c>
       <c r="H408" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -13324,7 +13330,7 @@
         <v>1</v>
       </c>
       <c r="H409" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -13350,7 +13356,7 @@
         <v>1</v>
       </c>
       <c r="H410" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -13376,7 +13382,7 @@
         <v>0</v>
       </c>
       <c r="H411" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -13402,7 +13408,7 @@
         <v>1</v>
       </c>
       <c r="H412" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -13428,7 +13434,7 @@
         <v>0</v>
       </c>
       <c r="H413" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -13454,7 +13460,7 @@
         <v>1</v>
       </c>
       <c r="H414" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -13480,7 +13486,7 @@
         <v>1</v>
       </c>
       <c r="H415" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -13506,7 +13512,7 @@
         <v>1</v>
       </c>
       <c r="H416" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -13532,7 +13538,7 @@
         <v>0.7565382919417687</v>
       </c>
       <c r="H417" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -13558,7 +13564,7 @@
         <v>1</v>
       </c>
       <c r="H418" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -13584,7 +13590,7 @@
         <v>0.58958180434202</v>
       </c>
       <c r="H419" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13610,7 +13616,7 @@
         <v>0.4342165329712733</v>
       </c>
       <c r="H420" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13636,7 +13642,7 @@
         <v>1</v>
       </c>
       <c r="H421" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13662,7 +13668,7 @@
         <v>0.6575336465873136</v>
       </c>
       <c r="H422" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13688,7 +13694,7 @@
         <v>1</v>
       </c>
       <c r="H423" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13714,7 +13720,7 @@
         <v>1</v>
       </c>
       <c r="H424" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13740,7 +13746,7 @@
         <v>1</v>
       </c>
       <c r="H425" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13766,7 +13772,7 @@
         <v>1</v>
       </c>
       <c r="H426" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13792,7 +13798,7 @@
         <v>0.1931729729332681</v>
       </c>
       <c r="H427" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13818,7 +13824,7 @@
         <v>1</v>
       </c>
       <c r="H428" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13844,7 +13850,7 @@
         <v>0.838787845031057</v>
       </c>
       <c r="H429" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13870,7 +13876,7 @@
         <v>0</v>
       </c>
       <c r="H430" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13896,7 +13902,7 @@
         <v>0.1022396663436237</v>
       </c>
       <c r="H431" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13922,7 +13928,7 @@
         <v>0</v>
       </c>
       <c r="H432" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13948,7 +13954,7 @@
         <v>1</v>
       </c>
       <c r="H433" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13974,7 +13980,7 @@
         <v>0.4540250855516209</v>
       </c>
       <c r="H434" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -14000,7 +14006,7 @@
         <v>0.2896165830953565</v>
       </c>
       <c r="H435" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -14026,7 +14032,7 @@
         <v>0.7917401509339994</v>
       </c>
       <c r="H436" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -14052,7 +14058,7 @@
         <v>0</v>
       </c>
       <c r="H437" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -14078,7 +14084,7 @@
         <v>1</v>
       </c>
       <c r="H438" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -14104,7 +14110,7 @@
         <v>0.7067178088732917</v>
       </c>
       <c r="H439" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -14130,7 +14136,7 @@
         <v>1</v>
       </c>
       <c r="H440" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -14156,7 +14162,7 @@
         <v>1</v>
       </c>
       <c r="H441" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -14182,7 +14188,7 @@
         <v>0</v>
       </c>
       <c r="H442" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -14208,7 +14214,7 @@
         <v>1</v>
       </c>
       <c r="H443" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -14234,7 +14240,7 @@
         <v>1</v>
       </c>
       <c r="H444" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -14260,7 +14266,7 @@
         <v>1</v>
       </c>
       <c r="H445" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -14286,7 +14292,7 @@
         <v>0.3206802237079347</v>
       </c>
       <c r="H446" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -14312,7 +14318,7 @@
         <v>0</v>
       </c>
       <c r="H447" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -14338,7 +14344,7 @@
         <v>0.2166572947957321</v>
       </c>
       <c r="H448" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -14364,7 +14370,7 @@
         <v>0.09220139004312224</v>
       </c>
       <c r="H449" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -14390,7 +14396,7 @@
         <v>0</v>
       </c>
       <c r="H450" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -14416,7 +14422,7 @@
         <v>0</v>
       </c>
       <c r="H451" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -14442,7 +14448,7 @@
         <v>1</v>
       </c>
       <c r="H452" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -14468,7 +14474,7 @@
         <v>1</v>
       </c>
       <c r="H453" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -14494,7 +14500,7 @@
         <v>1</v>
       </c>
       <c r="H454" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -14520,7 +14526,7 @@
         <v>1</v>
       </c>
       <c r="H455" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -14546,7 +14552,7 @@
         <v>1</v>
       </c>
       <c r="H456" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -14572,7 +14578,7 @@
         <v>0.5355349910433382</v>
       </c>
       <c r="H457" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14598,7 +14604,7 @@
         <v>1</v>
       </c>
       <c r="H458" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14624,7 +14630,7 @@
         <v>1</v>
       </c>
       <c r="H459" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14650,7 +14656,7 @@
         <v>0</v>
       </c>
       <c r="H460" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14676,7 +14682,7 @@
         <v>0.7362068598138494</v>
       </c>
       <c r="H461" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14702,7 +14708,7 @@
         <v>1</v>
       </c>
       <c r="H462" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14728,7 +14734,7 @@
         <v>1</v>
       </c>
       <c r="H463" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14754,7 +14760,7 @@
         <v>0.8290442293029383</v>
       </c>
       <c r="H464" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14780,7 +14786,7 @@
         <v>1</v>
       </c>
       <c r="H465" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14806,7 +14812,7 @@
         <v>1</v>
       </c>
       <c r="H466" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14832,7 +14838,7 @@
         <v>0.2972172914877398</v>
       </c>
       <c r="H467" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14858,7 +14864,7 @@
         <v>1</v>
       </c>
       <c r="H468" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14884,7 +14890,7 @@
         <v>0.3828030816675656</v>
       </c>
       <c r="H469" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14910,7 +14916,7 @@
         <v>1</v>
       </c>
       <c r="H470" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14936,7 +14942,7 @@
         <v>1</v>
       </c>
       <c r="H471" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14962,7 +14968,7 @@
         <v>0.7072751504056575</v>
       </c>
       <c r="H472" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14988,7 +14994,7 @@
         <v>0.6887345743487142</v>
       </c>
       <c r="H473" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -15014,7 +15020,7 @@
         <v>0.1067305209771346</v>
       </c>
       <c r="H474" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -15040,7 +15046,7 @@
         <v>0</v>
       </c>
       <c r="H475" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -15066,7 +15072,7 @@
         <v>0.6057977033084144</v>
       </c>
       <c r="H476" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -15092,7 +15098,7 @@
         <v>0.6091777797350002</v>
       </c>
       <c r="H477" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -15118,7 +15124,7 @@
         <v>0.5694759431987656</v>
       </c>
       <c r="H478" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -15144,7 +15150,7 @@
         <v>0.6207146575699412</v>
       </c>
       <c r="H479" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -15170,7 +15176,7 @@
         <v>0.283376215899611</v>
       </c>
       <c r="H480" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -15196,7 +15202,7 @@
         <v>0.2427067649021355</v>
       </c>
       <c r="H481" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -15222,7 +15228,7 @@
         <v>1</v>
       </c>
       <c r="H482" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -15248,7 +15254,7 @@
         <v>0.5104176137220019</v>
       </c>
       <c r="H483" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -15274,7 +15280,7 @@
         <v>1</v>
       </c>
       <c r="H484" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -15300,7 +15306,7 @@
         <v>1</v>
       </c>
       <c r="H485" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -15326,7 +15332,7 @@
         <v>1</v>
       </c>
       <c r="H486" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -15352,7 +15358,7 @@
         <v>1</v>
       </c>
       <c r="H487" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -15378,7 +15384,7 @@
         <v>0.4677260579614761</v>
       </c>
       <c r="H488" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -15404,7 +15410,7 @@
         <v>1</v>
       </c>
       <c r="H489" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -15430,7 +15436,7 @@
         <v>0.476242461576072</v>
       </c>
       <c r="H490" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -15456,7 +15462,7 @@
         <v>1</v>
       </c>
       <c r="H491" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -15482,7 +15488,7 @@
         <v>0.4885601466764756</v>
       </c>
       <c r="H492" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -15508,7 +15514,7 @@
         <v>1</v>
       </c>
       <c r="H493" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -15534,7 +15540,7 @@
         <v>0.1892964267045682</v>
       </c>
       <c r="H494" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -15560,7 +15566,7 @@
         <v>1</v>
       </c>
       <c r="H495" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -15586,7 +15592,7 @@
         <v>1</v>
       </c>
       <c r="H496" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -15612,7 +15618,7 @@
         <v>0.562429454701116</v>
       </c>
       <c r="H497" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -15638,7 +15644,7 @@
         <v>0.5893467746014928</v>
       </c>
       <c r="H498" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -15664,7 +15670,7 @@
         <v>0.2453840526620205</v>
       </c>
       <c r="H499" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -15690,7 +15696,7 @@
         <v>1</v>
       </c>
       <c r="H500" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15716,7 +15722,7 @@
         <v>0.4919547742740523</v>
       </c>
       <c r="H501" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -15742,7 +15748,7 @@
         <v>1</v>
       </c>
       <c r="H502" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15768,7 +15774,7 @@
         <v>1</v>
       </c>
       <c r="H503" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -15794,7 +15800,7 @@
         <v>1</v>
       </c>
       <c r="H504" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -15820,7 +15826,7 @@
         <v>0.5332096778046151</v>
       </c>
       <c r="H505" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -15846,7 +15852,7 @@
         <v>1</v>
       </c>
       <c r="H506" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15872,7 +15878,7 @@
         <v>0.4095043245568133</v>
       </c>
       <c r="H507" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15898,7 +15904,7 @@
         <v>0.9563556993906542</v>
       </c>
       <c r="H508" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15924,7 +15930,7 @@
         <v>1</v>
       </c>
       <c r="H509" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15950,7 +15956,7 @@
         <v>0.3151420077674845</v>
       </c>
       <c r="H510" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15976,7 +15982,7 @@
         <v>1</v>
       </c>
       <c r="H511" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -16002,7 +16008,7 @@
         <v>0</v>
       </c>
       <c r="H512" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -16028,7 +16034,7 @@
         <v>0.1226144815616208</v>
       </c>
       <c r="H513" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -16054,7 +16060,7 @@
         <v>0.348937876188559</v>
       </c>
       <c r="H514" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -16080,7 +16086,7 @@
         <v>1</v>
       </c>
       <c r="H515" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -16106,7 +16112,7 @@
         <v>1</v>
       </c>
       <c r="H516" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -16132,7 +16138,7 @@
         <v>1</v>
       </c>
       <c r="H517" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -16158,7 +16164,7 @@
         <v>0.8236312239487298</v>
       </c>
       <c r="H518" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -16184,7 +16190,7 @@
         <v>1</v>
       </c>
       <c r="H519" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -16210,7 +16216,7 @@
         <v>0.4553771692067081</v>
       </c>
       <c r="H520" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -16236,7 +16242,7 @@
         <v>1</v>
       </c>
       <c r="H521" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -16262,7 +16268,7 @@
         <v>0.7309927778789053</v>
       </c>
       <c r="H522" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -16288,7 +16294,7 @@
         <v>1</v>
       </c>
       <c r="H523" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -16314,7 +16320,7 @@
         <v>0.5966838048782487</v>
       </c>
       <c r="H524" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -16340,7 +16346,7 @@
         <v>1</v>
       </c>
       <c r="H525" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -16366,7 +16372,7 @@
         <v>0.5392000628733806</v>
       </c>
       <c r="H526" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -16392,7 +16398,7 @@
         <v>0.2752626559507874</v>
       </c>
       <c r="H527" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -16418,7 +16424,7 @@
         <v>0.6423944529437058</v>
       </c>
       <c r="H528" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -16444,7 +16450,7 @@
         <v>0.7096367257969294</v>
       </c>
       <c r="H529" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -16470,7 +16476,7 @@
         <v>0.266</v>
       </c>
       <c r="H530" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -16496,7 +16502,7 @@
         <v>0.2872</v>
       </c>
       <c r="H531" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -16522,7 +16528,7 @@
         <v>0.6227</v>
       </c>
       <c r="H532" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -16548,7 +16554,7 @@
         <v>1</v>
       </c>
       <c r="H533" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -16574,7 +16580,7 @@
         <v>0</v>
       </c>
       <c r="H534" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -16600,7 +16606,7 @@
         <v>1</v>
       </c>
       <c r="H535" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -16626,7 +16632,7 @@
         <v>1</v>
       </c>
       <c r="H536" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -16652,7 +16658,7 @@
         <v>0</v>
       </c>
       <c r="H537" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -16678,7 +16684,7 @@
         <v>0</v>
       </c>
       <c r="H538" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -16704,7 +16710,7 @@
         <v>0</v>
       </c>
       <c r="H539" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -16730,7 +16736,7 @@
         <v>0.6155</v>
       </c>
       <c r="H540" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -16756,7 +16762,7 @@
         <v>0.4573</v>
       </c>
       <c r="H541" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -16782,7 +16788,7 @@
         <v>1</v>
       </c>
       <c r="H542" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -16808,7 +16814,7 @@
         <v>0.835</v>
       </c>
       <c r="H543" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -16834,7 +16840,7 @@
         <v>0.7548999999999999</v>
       </c>
       <c r="H544" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -16860,7 +16866,7 @@
         <v>1</v>
       </c>
       <c r="H545" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -16886,7 +16892,7 @@
         <v>0</v>
       </c>
       <c r="H546" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -16912,7 +16918,7 @@
         <v>0</v>
       </c>
       <c r="H547" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -16938,7 +16944,7 @@
         <v>0.9719</v>
       </c>
       <c r="H548" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -16964,7 +16970,7 @@
         <v>0</v>
       </c>
       <c r="H549" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -16990,7 +16996,7 @@
         <v>0</v>
       </c>
       <c r="H550" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -17016,7 +17022,7 @@
         <v>0</v>
       </c>
       <c r="H551" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -17042,7 +17048,7 @@
         <v>0.2973</v>
       </c>
       <c r="H552" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -17068,7 +17074,7 @@
         <v>1</v>
       </c>
       <c r="H553" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -17094,7 +17100,7 @@
         <v>1</v>
       </c>
       <c r="H554" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -17120,7 +17126,7 @@
         <v>1</v>
       </c>
       <c r="H555" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -17146,7 +17152,7 @@
         <v>1</v>
       </c>
       <c r="H556" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -17172,7 +17178,7 @@
         <v>1</v>
       </c>
       <c r="H557" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -17198,7 +17204,7 @@
         <v>1</v>
       </c>
       <c r="H558" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -17224,7 +17230,7 @@
         <v>1</v>
       </c>
       <c r="H559" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -17250,7 +17256,7 @@
         <v>0</v>
       </c>
       <c r="H560" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -17276,7 +17282,7 @@
         <v>0</v>
       </c>
       <c r="H561" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -17286,9 +17292,15 @@
       <c r="B562" t="s">
         <v>567</v>
       </c>
+      <c r="C562">
+        <v>0</v>
+      </c>
       <c r="D562">
         <v>0</v>
       </c>
+      <c r="E562">
+        <v>1</v>
+      </c>
       <c r="F562">
         <v>1</v>
       </c>
@@ -17296,7 +17308,53 @@
         <v>0</v>
       </c>
       <c r="H562" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="563" spans="1:8">
+      <c r="A563" s="1">
+        <v>561</v>
+      </c>
+      <c r="B563" t="s">
+        <v>568</v>
+      </c>
+      <c r="C563">
+        <v>1</v>
+      </c>
+      <c r="D563">
+        <v>0</v>
+      </c>
+      <c r="E563">
+        <v>0</v>
+      </c>
+      <c r="F563">
+        <v>1</v>
+      </c>
+      <c r="G563">
+        <v>0</v>
+      </c>
+      <c r="H563" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="564" spans="1:8">
+      <c r="A564" s="1">
+        <v>562</v>
+      </c>
+      <c r="B564" t="s">
         <v>569</v>
+      </c>
+      <c r="D564">
+        <v>1</v>
+      </c>
+      <c r="F564">
+        <v>0</v>
+      </c>
+      <c r="G564">
+        <v>1</v>
+      </c>
+      <c r="H564" t="s">
+        <v>571</v>
       </c>
     </row>
   </sheetData>

--- a/firebase_data_from_spyEnsembleVSMO_v2.xlsx
+++ b/firebase_data_from_spyEnsembleVSMO_v2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="778">
   <si>
     <t>date</t>
   </si>
@@ -1726,6 +1726,12 @@
     <t>2025-08-27</t>
   </si>
   <si>
+    <t>2025-08-28</t>
+  </si>
+  <si>
+    <t>2025-08-29</t>
+  </si>
+  <si>
     <t>0.00</t>
   </si>
   <si>
@@ -2339,6 +2345,9 @@
   </si>
   <si>
     <t>70.27</t>
+  </si>
+  <si>
+    <t>97.34</t>
   </si>
 </sst>
 </file>
@@ -2696,7 +2705,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H564"/>
+  <dimension ref="A1:H566"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2748,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2774,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2800,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2826,7 +2835,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2852,7 +2861,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2878,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2904,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2930,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2956,7 +2965,7 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2982,7 +2991,7 @@
         <v>0.04303446040071349</v>
       </c>
       <c r="H11" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3008,7 +3017,7 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3034,7 +3043,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3060,7 +3069,7 @@
         <v>0.915256809318685</v>
       </c>
       <c r="H14" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3086,7 +3095,7 @@
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -3112,7 +3121,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -3138,7 +3147,7 @@
         <v>0.6184143588780344</v>
       </c>
       <c r="H17" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -3164,7 +3173,7 @@
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -3190,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -3216,7 +3225,7 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3242,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3268,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -3294,7 +3303,7 @@
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3320,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3346,7 +3355,7 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -3372,7 +3381,7 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3398,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3424,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3450,7 +3459,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3476,7 +3485,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3502,7 +3511,7 @@
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3528,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3554,7 +3563,7 @@
         <v>0.745393260242324</v>
       </c>
       <c r="H33" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3580,7 +3589,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3606,7 +3615,7 @@
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3632,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3658,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3684,7 +3693,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3710,7 +3719,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3736,7 +3745,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3762,7 +3771,7 @@
         <v>0.683079705692312</v>
       </c>
       <c r="H41" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3788,7 +3797,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3814,7 +3823,7 @@
         <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3840,7 +3849,7 @@
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3866,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3892,7 +3901,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3918,7 +3927,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3944,7 +3953,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3970,7 +3979,7 @@
         <v>0.4307420609211915</v>
       </c>
       <c r="H49" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3996,7 +4005,7 @@
         <v>0.4817317520945901</v>
       </c>
       <c r="H50" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -4022,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -4048,7 +4057,7 @@
         <v>0.5570981908629731</v>
       </c>
       <c r="H52" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -4074,7 +4083,7 @@
         <v>0.7872019792055407</v>
       </c>
       <c r="H53" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -4100,7 +4109,7 @@
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -4126,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -4152,7 +4161,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -4178,7 +4187,7 @@
         <v>0.215245798636519</v>
       </c>
       <c r="H57" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -4204,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -4230,7 +4239,7 @@
         <v>0.3135669763477688</v>
       </c>
       <c r="H59" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -4256,7 +4265,7 @@
         <v>0.1529716371439602</v>
       </c>
       <c r="H60" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -4282,7 +4291,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -4308,7 +4317,7 @@
         <v>0.3106901159644614</v>
       </c>
       <c r="H62" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -4334,7 +4343,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -4360,7 +4369,7 @@
         <v>0.2867490636277352</v>
       </c>
       <c r="H64" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -4386,7 +4395,7 @@
         <v>0.9498742410172212</v>
       </c>
       <c r="H65" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -4412,7 +4421,7 @@
         <v>1</v>
       </c>
       <c r="H66" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -4438,7 +4447,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -4464,7 +4473,7 @@
         <v>1</v>
       </c>
       <c r="H68" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4490,7 +4499,7 @@
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4516,7 +4525,7 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4542,7 +4551,7 @@
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4568,7 +4577,7 @@
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4594,7 +4603,7 @@
         <v>0.1304718106398864</v>
       </c>
       <c r="H73" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4620,7 +4629,7 @@
         <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4646,7 +4655,7 @@
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4672,7 +4681,7 @@
         <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4698,7 +4707,7 @@
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4724,7 +4733,7 @@
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4750,7 +4759,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4776,7 +4785,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4802,7 +4811,7 @@
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4828,7 +4837,7 @@
         <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4854,7 +4863,7 @@
         <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4880,7 +4889,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4906,7 +4915,7 @@
         <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4932,7 +4941,7 @@
         <v>0.414032993753131</v>
       </c>
       <c r="H86" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4958,7 +4967,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4984,7 +4993,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -5010,7 +5019,7 @@
         <v>1</v>
       </c>
       <c r="H89" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -5036,7 +5045,7 @@
         <v>1</v>
       </c>
       <c r="H90" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -5062,7 +5071,7 @@
         <v>1</v>
       </c>
       <c r="H91" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -5088,7 +5097,7 @@
         <v>0.9279948866595563</v>
       </c>
       <c r="H92" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -5114,7 +5123,7 @@
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -5140,7 +5149,7 @@
         <v>1</v>
       </c>
       <c r="H94" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -5166,7 +5175,7 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -5192,7 +5201,7 @@
         <v>0.1871628344782118</v>
       </c>
       <c r="H96" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -5218,7 +5227,7 @@
         <v>1</v>
       </c>
       <c r="H97" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -5244,7 +5253,7 @@
         <v>1</v>
       </c>
       <c r="H98" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -5270,7 +5279,7 @@
         <v>0.8771001701943608</v>
       </c>
       <c r="H99" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -5296,7 +5305,7 @@
         <v>0.2146591320888346</v>
       </c>
       <c r="H100" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -5322,7 +5331,7 @@
         <v>1</v>
       </c>
       <c r="H101" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -5348,7 +5357,7 @@
         <v>1</v>
       </c>
       <c r="H102" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -5374,7 +5383,7 @@
         <v>1</v>
       </c>
       <c r="H103" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -5400,7 +5409,7 @@
         <v>1</v>
       </c>
       <c r="H104" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -5426,7 +5435,7 @@
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5452,7 +5461,7 @@
         <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5478,7 +5487,7 @@
         <v>1</v>
       </c>
       <c r="H107" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5504,7 +5513,7 @@
         <v>1</v>
       </c>
       <c r="H108" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5530,7 +5539,7 @@
         <v>1</v>
       </c>
       <c r="H109" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5556,7 +5565,7 @@
         <v>1</v>
       </c>
       <c r="H110" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5582,7 +5591,7 @@
         <v>1</v>
       </c>
       <c r="H111" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5608,7 +5617,7 @@
         <v>0.2055505200809835</v>
       </c>
       <c r="H112" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5634,7 +5643,7 @@
         <v>1</v>
       </c>
       <c r="H113" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5660,7 +5669,7 @@
         <v>0.2995528011053107</v>
       </c>
       <c r="H114" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5686,7 +5695,7 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5712,7 +5721,7 @@
         <v>0.4699445027580825</v>
       </c>
       <c r="H116" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5738,7 +5747,7 @@
         <v>0.770937588646547</v>
       </c>
       <c r="H117" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5764,7 +5773,7 @@
         <v>0.7826457521192932</v>
       </c>
       <c r="H118" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5790,7 +5799,7 @@
         <v>0.4304704948469578</v>
       </c>
       <c r="H119" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5816,7 +5825,7 @@
         <v>1</v>
       </c>
       <c r="H120" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5842,7 +5851,7 @@
         <v>0.6719963442506929</v>
       </c>
       <c r="H121" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5868,7 +5877,7 @@
         <v>1</v>
       </c>
       <c r="H122" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5894,7 +5903,7 @@
         <v>0.5375310953297759</v>
       </c>
       <c r="H123" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5920,7 +5929,7 @@
         <v>0.6497318652602996</v>
       </c>
       <c r="H124" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5946,7 +5955,7 @@
         <v>0.4013470357796504</v>
       </c>
       <c r="H125" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5972,7 +5981,7 @@
         <v>0.4404307186051412</v>
       </c>
       <c r="H126" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5998,7 +6007,7 @@
         <v>0.7535410487481622</v>
       </c>
       <c r="H127" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -6024,7 +6033,7 @@
         <v>0.1968264148093589</v>
       </c>
       <c r="H128" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -6050,7 +6059,7 @@
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -6076,7 +6085,7 @@
         <v>0.5903062422634243</v>
       </c>
       <c r="H130" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -6102,7 +6111,7 @@
         <v>0.3143863952226104</v>
       </c>
       <c r="H131" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -6128,7 +6137,7 @@
         <v>0.5251513973196068</v>
       </c>
       <c r="H132" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -6154,7 +6163,7 @@
         <v>0.26776714123178</v>
       </c>
       <c r="H133" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -6180,7 +6189,7 @@
         <v>0.2026359533431654</v>
       </c>
       <c r="H134" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -6206,7 +6215,7 @@
         <v>1</v>
       </c>
       <c r="H135" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -6232,7 +6241,7 @@
         <v>1</v>
       </c>
       <c r="H136" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -6258,7 +6267,7 @@
         <v>0.5557953472408601</v>
       </c>
       <c r="H137" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -6284,7 +6293,7 @@
         <v>1</v>
       </c>
       <c r="H138" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -6310,7 +6319,7 @@
         <v>1</v>
       </c>
       <c r="H139" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -6336,7 +6345,7 @@
         <v>0.8945463189254167</v>
       </c>
       <c r="H140" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -6362,7 +6371,7 @@
         <v>0.6772450649528653</v>
       </c>
       <c r="H141" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -6388,7 +6397,7 @@
         <v>0.9188898615772668</v>
       </c>
       <c r="H142" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -6414,7 +6423,7 @@
         <v>0.6808222412559765</v>
       </c>
       <c r="H143" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -6440,7 +6449,7 @@
         <v>0.7236705146772729</v>
       </c>
       <c r="H144" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -6466,7 +6475,7 @@
         <v>1</v>
       </c>
       <c r="H145" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -6492,7 +6501,7 @@
         <v>1</v>
       </c>
       <c r="H146" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -6518,7 +6527,7 @@
         <v>0.4083837438899106</v>
       </c>
       <c r="H147" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6544,7 +6553,7 @@
         <v>1</v>
       </c>
       <c r="H148" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6570,7 +6579,7 @@
         <v>0</v>
       </c>
       <c r="H149" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6596,7 +6605,7 @@
         <v>0.6711645860416422</v>
       </c>
       <c r="H150" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6622,7 +6631,7 @@
         <v>0.2715172141387561</v>
       </c>
       <c r="H151" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6648,7 +6657,7 @@
         <v>0.2398762302450229</v>
       </c>
       <c r="H152" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6674,7 +6683,7 @@
         <v>0.5664737805177642</v>
       </c>
       <c r="H153" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6700,7 +6709,7 @@
         <v>0.4223113145194125</v>
       </c>
       <c r="H154" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6726,7 +6735,7 @@
         <v>0.3667629390545308</v>
       </c>
       <c r="H155" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6752,7 +6761,7 @@
         <v>0.9231722118787783</v>
       </c>
       <c r="H156" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6778,7 +6787,7 @@
         <v>0.9851787420357059</v>
       </c>
       <c r="H157" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6804,7 +6813,7 @@
         <v>0.4518542194729144</v>
       </c>
       <c r="H158" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6830,7 +6839,7 @@
         <v>0.4964868798335714</v>
       </c>
       <c r="H159" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6856,7 +6865,7 @@
         <v>1</v>
       </c>
       <c r="H160" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6882,7 +6891,7 @@
         <v>1</v>
       </c>
       <c r="H161" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6908,7 +6917,7 @@
         <v>1</v>
       </c>
       <c r="H162" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6934,7 +6943,7 @@
         <v>0.6766899544020667</v>
       </c>
       <c r="H163" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6960,7 +6969,7 @@
         <v>1</v>
       </c>
       <c r="H164" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6986,7 +6995,7 @@
         <v>0</v>
       </c>
       <c r="H165" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -7012,7 +7021,7 @@
         <v>0.6910065861261394</v>
       </c>
       <c r="H166" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -7038,7 +7047,7 @@
         <v>1</v>
       </c>
       <c r="H167" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -7064,7 +7073,7 @@
         <v>1</v>
       </c>
       <c r="H168" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -7090,7 +7099,7 @@
         <v>1</v>
       </c>
       <c r="H169" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -7116,7 +7125,7 @@
         <v>0.3087324093735406</v>
       </c>
       <c r="H170" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -7142,7 +7151,7 @@
         <v>0.6040906971093285</v>
       </c>
       <c r="H171" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -7168,7 +7177,7 @@
         <v>1</v>
       </c>
       <c r="H172" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -7194,7 +7203,7 @@
         <v>1</v>
       </c>
       <c r="H173" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -7220,7 +7229,7 @@
         <v>0.5411987563813702</v>
       </c>
       <c r="H174" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -7246,7 +7255,7 @@
         <v>1</v>
       </c>
       <c r="H175" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -7272,7 +7281,7 @@
         <v>0.5366275239822063</v>
       </c>
       <c r="H176" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -7298,7 +7307,7 @@
         <v>0.7616464524958171</v>
       </c>
       <c r="H177" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -7324,7 +7333,7 @@
         <v>0.778584820565025</v>
       </c>
       <c r="H178" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -7350,7 +7359,7 @@
         <v>1</v>
       </c>
       <c r="H179" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -7376,7 +7385,7 @@
         <v>0.779814372339514</v>
       </c>
       <c r="H180" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -7402,7 +7411,7 @@
         <v>1</v>
       </c>
       <c r="H181" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -7428,7 +7437,7 @@
         <v>1</v>
       </c>
       <c r="H182" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -7454,7 +7463,7 @@
         <v>1</v>
       </c>
       <c r="H183" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -7480,7 +7489,7 @@
         <v>1</v>
       </c>
       <c r="H184" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -7506,7 +7515,7 @@
         <v>1</v>
       </c>
       <c r="H185" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -7532,7 +7541,7 @@
         <v>1</v>
       </c>
       <c r="H186" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7558,7 +7567,7 @@
         <v>0.3910910264558739</v>
       </c>
       <c r="H187" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7584,7 +7593,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7610,7 +7619,7 @@
         <v>0.3782183282254096</v>
       </c>
       <c r="H189" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7636,7 +7645,7 @@
         <v>1</v>
       </c>
       <c r="H190" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7662,7 +7671,7 @@
         <v>1</v>
       </c>
       <c r="H191" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7688,7 +7697,7 @@
         <v>0.5022217334415366</v>
       </c>
       <c r="H192" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7714,7 +7723,7 @@
         <v>0.5141989063837532</v>
       </c>
       <c r="H193" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7740,7 +7749,7 @@
         <v>0.3056884663520373</v>
       </c>
       <c r="H194" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7766,7 +7775,7 @@
         <v>0.9738865825460928</v>
       </c>
       <c r="H195" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7792,7 +7801,7 @@
         <v>0.3670780584150713</v>
       </c>
       <c r="H196" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7818,7 +7827,7 @@
         <v>0</v>
       </c>
       <c r="H197" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7844,7 +7853,7 @@
         <v>0</v>
       </c>
       <c r="H198" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7870,7 +7879,7 @@
         <v>0</v>
       </c>
       <c r="H199" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7896,7 +7905,7 @@
         <v>0.2629434170052546</v>
       </c>
       <c r="H200" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7922,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="H201" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7948,7 +7957,7 @@
         <v>0.3643661297271093</v>
       </c>
       <c r="H202" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7974,7 +7983,7 @@
         <v>1</v>
       </c>
       <c r="H203" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -8000,7 +8009,7 @@
         <v>0.2007309629135912</v>
       </c>
       <c r="H204" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -8026,7 +8035,7 @@
         <v>0.3622835247576352</v>
       </c>
       <c r="H205" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -8052,7 +8061,7 @@
         <v>0.2580942394651852</v>
       </c>
       <c r="H206" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -8078,7 +8087,7 @@
         <v>0.2272896410009056</v>
       </c>
       <c r="H207" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -8104,7 +8113,7 @@
         <v>0.02259656952943894</v>
       </c>
       <c r="H208" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -8130,7 +8139,7 @@
         <v>1</v>
       </c>
       <c r="H209" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -8156,7 +8165,7 @@
         <v>0.316699835553751</v>
       </c>
       <c r="H210" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -8182,7 +8191,7 @@
         <v>0.2917756618279652</v>
       </c>
       <c r="H211" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -8208,7 +8217,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -8234,7 +8243,7 @@
         <v>1</v>
       </c>
       <c r="H213" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -8260,7 +8269,7 @@
         <v>1</v>
       </c>
       <c r="H214" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -8286,7 +8295,7 @@
         <v>1</v>
       </c>
       <c r="H215" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -8312,7 +8321,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -8338,7 +8347,7 @@
         <v>1</v>
       </c>
       <c r="H217" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -8364,7 +8373,7 @@
         <v>1</v>
       </c>
       <c r="H218" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -8390,7 +8399,7 @@
         <v>0</v>
       </c>
       <c r="H219" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -8416,7 +8425,7 @@
         <v>1</v>
       </c>
       <c r="H220" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -8442,7 +8451,7 @@
         <v>0.0621306534788825</v>
       </c>
       <c r="H221" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -8468,7 +8477,7 @@
         <v>0.9197124253853388</v>
       </c>
       <c r="H222" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -8494,7 +8503,7 @@
         <v>0.1534574198678031</v>
       </c>
       <c r="H223" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -8520,7 +8529,7 @@
         <v>0.0432766620547291</v>
       </c>
       <c r="H224" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -8546,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="H225" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8572,7 +8581,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8598,7 +8607,7 @@
         <v>1</v>
       </c>
       <c r="H227" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8624,7 +8633,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8650,7 +8659,7 @@
         <v>1</v>
       </c>
       <c r="H229" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8676,7 +8685,7 @@
         <v>1</v>
       </c>
       <c r="H230" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8702,7 +8711,7 @@
         <v>1</v>
       </c>
       <c r="H231" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8728,7 +8737,7 @@
         <v>1</v>
       </c>
       <c r="H232" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8754,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="H233" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8780,7 +8789,7 @@
         <v>1</v>
       </c>
       <c r="H234" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8806,7 +8815,7 @@
         <v>1</v>
       </c>
       <c r="H235" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8832,7 +8841,7 @@
         <v>1</v>
       </c>
       <c r="H236" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8858,7 +8867,7 @@
         <v>0</v>
       </c>
       <c r="H237" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8884,7 +8893,7 @@
         <v>1</v>
       </c>
       <c r="H238" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8910,7 +8919,7 @@
         <v>0.8495492332177974</v>
       </c>
       <c r="H239" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8936,7 +8945,7 @@
         <v>0.6287165807955644</v>
       </c>
       <c r="H240" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8962,7 +8971,7 @@
         <v>0.6590199742859937</v>
       </c>
       <c r="H241" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8988,7 +8997,7 @@
         <v>1</v>
       </c>
       <c r="H242" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -9014,7 +9023,7 @@
         <v>1</v>
       </c>
       <c r="H243" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -9040,7 +9049,7 @@
         <v>0</v>
       </c>
       <c r="H244" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -9066,7 +9075,7 @@
         <v>0</v>
       </c>
       <c r="H245" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -9092,7 +9101,7 @@
         <v>1</v>
       </c>
       <c r="H246" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -9118,7 +9127,7 @@
         <v>0.009874081767952174</v>
       </c>
       <c r="H247" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -9144,7 +9153,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -9170,7 +9179,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -9196,7 +9205,7 @@
         <v>0.7771680614627153</v>
       </c>
       <c r="H250" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -9222,7 +9231,7 @@
         <v>0.684092991361349</v>
       </c>
       <c r="H251" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -9248,7 +9257,7 @@
         <v>0.6190568656417142</v>
       </c>
       <c r="H252" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -9274,7 +9283,7 @@
         <v>0.6179968680850856</v>
       </c>
       <c r="H253" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -9300,7 +9309,7 @@
         <v>0.5456188990663409</v>
       </c>
       <c r="H254" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -9326,7 +9335,7 @@
         <v>1</v>
       </c>
       <c r="H255" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -9352,7 +9361,7 @@
         <v>0.5074108996205345</v>
       </c>
       <c r="H256" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -9378,7 +9387,7 @@
         <v>0.3570787145669819</v>
       </c>
       <c r="H257" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -9404,7 +9413,7 @@
         <v>0.3430474956288668</v>
       </c>
       <c r="H258" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -9430,7 +9439,7 @@
         <v>0.3780916182620047</v>
       </c>
       <c r="H259" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -9456,7 +9465,7 @@
         <v>1</v>
       </c>
       <c r="H260" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -9482,7 +9491,7 @@
         <v>1</v>
       </c>
       <c r="H261" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -9508,7 +9517,7 @@
         <v>0.2400217296095157</v>
       </c>
       <c r="H262" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -9534,7 +9543,7 @@
         <v>0.3026477102582492</v>
       </c>
       <c r="H263" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -9560,7 +9569,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9586,7 +9595,7 @@
         <v>0.5824288330939381</v>
       </c>
       <c r="H265" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9612,7 +9621,7 @@
         <v>1</v>
       </c>
       <c r="H266" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9638,7 +9647,7 @@
         <v>1</v>
       </c>
       <c r="H267" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9664,7 +9673,7 @@
         <v>1</v>
       </c>
       <c r="H268" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9690,7 +9699,7 @@
         <v>0.4860554446028704</v>
       </c>
       <c r="H269" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9716,7 +9725,7 @@
         <v>0.5485218530910564</v>
       </c>
       <c r="H270" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9742,7 +9751,7 @@
         <v>0.5687845911126622</v>
       </c>
       <c r="H271" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9768,7 +9777,7 @@
         <v>1</v>
       </c>
       <c r="H272" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9794,7 +9803,7 @@
         <v>1</v>
       </c>
       <c r="H273" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9820,7 +9829,7 @@
         <v>1</v>
       </c>
       <c r="H274" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9846,7 +9855,7 @@
         <v>1</v>
       </c>
       <c r="H275" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9872,7 +9881,7 @@
         <v>0.5347201194974325</v>
       </c>
       <c r="H276" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9898,7 +9907,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9924,7 +9933,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9950,7 +9959,7 @@
         <v>0</v>
       </c>
       <c r="H279" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9976,7 +9985,7 @@
         <v>0</v>
       </c>
       <c r="H280" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -10002,7 +10011,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -10028,7 +10037,7 @@
         <v>0</v>
       </c>
       <c r="H282" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -10054,7 +10063,7 @@
         <v>0</v>
       </c>
       <c r="H283" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -10080,7 +10089,7 @@
         <v>1</v>
       </c>
       <c r="H284" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -10106,7 +10115,7 @@
         <v>1</v>
       </c>
       <c r="H285" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -10132,7 +10141,7 @@
         <v>0</v>
       </c>
       <c r="H286" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -10158,7 +10167,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -10184,7 +10193,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -10210,7 +10219,7 @@
         <v>0.1387512764613225</v>
       </c>
       <c r="H289" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -10236,7 +10245,7 @@
         <v>0.09876212659905496</v>
       </c>
       <c r="H290" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -10262,7 +10271,7 @@
         <v>0</v>
       </c>
       <c r="H291" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -10288,7 +10297,7 @@
         <v>0</v>
       </c>
       <c r="H292" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -10314,7 +10323,7 @@
         <v>0</v>
       </c>
       <c r="H293" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -10340,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -10366,7 +10375,7 @@
         <v>0</v>
       </c>
       <c r="H295" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -10392,7 +10401,7 @@
         <v>0</v>
       </c>
       <c r="H296" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -10418,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="H297" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -10444,7 +10453,7 @@
         <v>0</v>
       </c>
       <c r="H298" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -10470,7 +10479,7 @@
         <v>1</v>
       </c>
       <c r="H299" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -10496,7 +10505,7 @@
         <v>0.8392691107314288</v>
       </c>
       <c r="H300" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -10522,7 +10531,7 @@
         <v>1</v>
       </c>
       <c r="H301" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -10548,7 +10557,7 @@
         <v>0.5725104927894985</v>
       </c>
       <c r="H302" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -10574,7 +10583,7 @@
         <v>0.6452248196870423</v>
       </c>
       <c r="H303" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10600,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="H304" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10626,7 +10635,7 @@
         <v>1</v>
       </c>
       <c r="H305" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10652,7 +10661,7 @@
         <v>0.6176258382287111</v>
       </c>
       <c r="H306" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10678,7 +10687,7 @@
         <v>0.1402908509712884</v>
       </c>
       <c r="H307" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10704,7 +10713,7 @@
         <v>0.2470817519305337</v>
       </c>
       <c r="H308" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10730,7 +10739,7 @@
         <v>0</v>
       </c>
       <c r="H309" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10756,7 +10765,7 @@
         <v>0</v>
       </c>
       <c r="H310" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10782,7 +10791,7 @@
         <v>0</v>
       </c>
       <c r="H311" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10808,7 +10817,7 @@
         <v>0</v>
       </c>
       <c r="H312" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10834,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="H313" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10860,7 +10869,7 @@
         <v>0</v>
       </c>
       <c r="H314" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10886,7 +10895,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10912,7 +10921,7 @@
         <v>0</v>
       </c>
       <c r="H316" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10938,7 +10947,7 @@
         <v>0</v>
       </c>
       <c r="H317" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10964,7 +10973,7 @@
         <v>0.9408311744300493</v>
       </c>
       <c r="H318" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10990,7 +10999,7 @@
         <v>0.2281076034476917</v>
       </c>
       <c r="H319" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -11016,7 +11025,7 @@
         <v>0.2584835532146987</v>
       </c>
       <c r="H320" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -11042,7 +11051,7 @@
         <v>0</v>
       </c>
       <c r="H321" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -11068,7 +11077,7 @@
         <v>0.49663247087312</v>
       </c>
       <c r="H322" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -11094,7 +11103,7 @@
         <v>0.7142898090287908</v>
       </c>
       <c r="H323" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -11120,7 +11129,7 @@
         <v>0.6838526371805752</v>
       </c>
       <c r="H324" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -11146,7 +11155,7 @@
         <v>1</v>
       </c>
       <c r="H325" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -11172,7 +11181,7 @@
         <v>0.8669334352785576</v>
       </c>
       <c r="H326" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -11198,7 +11207,7 @@
         <v>1</v>
       </c>
       <c r="H327" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -11224,7 +11233,7 @@
         <v>0.1987863872524352</v>
       </c>
       <c r="H328" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -11250,7 +11259,7 @@
         <v>0</v>
       </c>
       <c r="H329" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -11276,7 +11285,7 @@
         <v>0.2962742518059081</v>
       </c>
       <c r="H330" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -11302,7 +11311,7 @@
         <v>0.8764820442189873</v>
       </c>
       <c r="H331" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -11328,7 +11337,7 @@
         <v>1</v>
       </c>
       <c r="H332" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -11354,7 +11363,7 @@
         <v>1</v>
       </c>
       <c r="H333" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -11380,7 +11389,7 @@
         <v>0.1209662521283257</v>
       </c>
       <c r="H334" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -11406,7 +11415,7 @@
         <v>0.1691055214091461</v>
       </c>
       <c r="H335" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -11432,7 +11441,7 @@
         <v>1</v>
       </c>
       <c r="H336" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -11458,7 +11467,7 @@
         <v>0.2094118740417113</v>
       </c>
       <c r="H337" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -11484,7 +11493,7 @@
         <v>0</v>
       </c>
       <c r="H338" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -11510,7 +11519,7 @@
         <v>0.5156827272568333</v>
       </c>
       <c r="H339" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -11536,7 +11545,7 @@
         <v>0.9070222351886812</v>
       </c>
       <c r="H340" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -11562,7 +11571,7 @@
         <v>1</v>
       </c>
       <c r="H341" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -11588,7 +11597,7 @@
         <v>0</v>
       </c>
       <c r="H342" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11614,7 +11623,7 @@
         <v>1</v>
       </c>
       <c r="H343" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11640,7 +11649,7 @@
         <v>1</v>
       </c>
       <c r="H344" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11666,7 +11675,7 @@
         <v>0.3535956611716411</v>
       </c>
       <c r="H345" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11692,7 +11701,7 @@
         <v>0.3446389756593827</v>
       </c>
       <c r="H346" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11718,7 +11727,7 @@
         <v>1</v>
       </c>
       <c r="H347" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11744,7 +11753,7 @@
         <v>1</v>
       </c>
       <c r="H348" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11770,7 +11779,7 @@
         <v>0.5328032329248698</v>
       </c>
       <c r="H349" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11796,7 +11805,7 @@
         <v>0.4185556812752281</v>
       </c>
       <c r="H350" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11822,7 +11831,7 @@
         <v>1</v>
       </c>
       <c r="H351" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11848,7 +11857,7 @@
         <v>0</v>
       </c>
       <c r="H352" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11874,7 +11883,7 @@
         <v>0</v>
       </c>
       <c r="H353" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11900,7 +11909,7 @@
         <v>0</v>
       </c>
       <c r="H354" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11926,7 +11935,7 @@
         <v>1</v>
       </c>
       <c r="H355" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11952,7 +11961,7 @@
         <v>0.4671289773253784</v>
       </c>
       <c r="H356" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11978,7 +11987,7 @@
         <v>0.620001927632466</v>
       </c>
       <c r="H357" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -12004,7 +12013,7 @@
         <v>0.6957105060667875</v>
       </c>
       <c r="H358" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -12030,7 +12039,7 @@
         <v>0</v>
       </c>
       <c r="H359" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -12056,7 +12065,7 @@
         <v>0.4905456411905179</v>
       </c>
       <c r="H360" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -12082,7 +12091,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -12108,7 +12117,7 @@
         <v>0</v>
       </c>
       <c r="H362" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -12134,7 +12143,7 @@
         <v>0</v>
       </c>
       <c r="H363" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -12160,7 +12169,7 @@
         <v>0</v>
       </c>
       <c r="H364" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -12186,7 +12195,7 @@
         <v>0</v>
       </c>
       <c r="H365" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -12212,7 +12221,7 @@
         <v>1</v>
       </c>
       <c r="H366" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -12238,7 +12247,7 @@
         <v>0</v>
       </c>
       <c r="H367" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -12264,7 +12273,7 @@
         <v>0</v>
       </c>
       <c r="H368" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -12290,7 +12299,7 @@
         <v>1</v>
       </c>
       <c r="H369" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -12316,7 +12325,7 @@
         <v>0.6127664785798932</v>
       </c>
       <c r="H370" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -12342,7 +12351,7 @@
         <v>1</v>
       </c>
       <c r="H371" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -12368,7 +12377,7 @@
         <v>1</v>
       </c>
       <c r="H372" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -12394,7 +12403,7 @@
         <v>0</v>
       </c>
       <c r="H373" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -12420,7 +12429,7 @@
         <v>1</v>
       </c>
       <c r="H374" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -12446,7 +12455,7 @@
         <v>0</v>
       </c>
       <c r="H375" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -12472,7 +12481,7 @@
         <v>1</v>
       </c>
       <c r="H376" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -12498,7 +12507,7 @@
         <v>0</v>
       </c>
       <c r="H377" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -12524,7 +12533,7 @@
         <v>0</v>
       </c>
       <c r="H378" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -12550,7 +12559,7 @@
         <v>0</v>
       </c>
       <c r="H379" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -12576,7 +12585,7 @@
         <v>0.2247282290278291</v>
       </c>
       <c r="H380" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -12602,7 +12611,7 @@
         <v>1</v>
       </c>
       <c r="H381" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12628,7 +12637,7 @@
         <v>1</v>
       </c>
       <c r="H382" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12654,7 +12663,7 @@
         <v>1</v>
       </c>
       <c r="H383" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12680,7 +12689,7 @@
         <v>1</v>
       </c>
       <c r="H384" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12706,7 +12715,7 @@
         <v>1</v>
       </c>
       <c r="H385" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12732,7 +12741,7 @@
         <v>0.5175780030761412</v>
       </c>
       <c r="H386" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12758,7 +12767,7 @@
         <v>0.407629165987654</v>
       </c>
       <c r="H387" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12784,7 +12793,7 @@
         <v>0.5917118171892221</v>
       </c>
       <c r="H388" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12810,7 +12819,7 @@
         <v>0</v>
       </c>
       <c r="H389" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12836,7 +12845,7 @@
         <v>0</v>
       </c>
       <c r="H390" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12862,7 +12871,7 @@
         <v>0.1210744071449007</v>
       </c>
       <c r="H391" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12888,7 +12897,7 @@
         <v>0</v>
       </c>
       <c r="H392" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12914,7 +12923,7 @@
         <v>0.4730991435488794</v>
       </c>
       <c r="H393" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12940,7 +12949,7 @@
         <v>1</v>
       </c>
       <c r="H394" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12966,7 +12975,7 @@
         <v>0</v>
       </c>
       <c r="H395" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12992,7 +13001,7 @@
         <v>1</v>
       </c>
       <c r="H396" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -13018,7 +13027,7 @@
         <v>1</v>
       </c>
       <c r="H397" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -13044,7 +13053,7 @@
         <v>1</v>
       </c>
       <c r="H398" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -13070,7 +13079,7 @@
         <v>1</v>
       </c>
       <c r="H399" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -13096,7 +13105,7 @@
         <v>0</v>
       </c>
       <c r="H400" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -13122,7 +13131,7 @@
         <v>1</v>
       </c>
       <c r="H401" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -13148,7 +13157,7 @@
         <v>1</v>
       </c>
       <c r="H402" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -13174,7 +13183,7 @@
         <v>0</v>
       </c>
       <c r="H403" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -13200,7 +13209,7 @@
         <v>1</v>
       </c>
       <c r="H404" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -13226,7 +13235,7 @@
         <v>0</v>
       </c>
       <c r="H405" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -13252,7 +13261,7 @@
         <v>0.7209622620919816</v>
       </c>
       <c r="H406" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -13278,7 +13287,7 @@
         <v>1</v>
       </c>
       <c r="H407" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -13304,7 +13313,7 @@
         <v>1</v>
       </c>
       <c r="H408" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -13330,7 +13339,7 @@
         <v>1</v>
       </c>
       <c r="H409" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -13356,7 +13365,7 @@
         <v>1</v>
       </c>
       <c r="H410" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -13382,7 +13391,7 @@
         <v>0</v>
       </c>
       <c r="H411" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -13408,7 +13417,7 @@
         <v>1</v>
       </c>
       <c r="H412" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -13434,7 +13443,7 @@
         <v>0</v>
       </c>
       <c r="H413" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -13460,7 +13469,7 @@
         <v>1</v>
       </c>
       <c r="H414" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -13486,7 +13495,7 @@
         <v>1</v>
       </c>
       <c r="H415" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -13512,7 +13521,7 @@
         <v>1</v>
       </c>
       <c r="H416" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -13538,7 +13547,7 @@
         <v>0.7565382919417687</v>
       </c>
       <c r="H417" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -13564,7 +13573,7 @@
         <v>1</v>
       </c>
       <c r="H418" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -13590,7 +13599,7 @@
         <v>0.58958180434202</v>
       </c>
       <c r="H419" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13616,7 +13625,7 @@
         <v>0.4342165329712733</v>
       </c>
       <c r="H420" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13642,7 +13651,7 @@
         <v>1</v>
       </c>
       <c r="H421" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13668,7 +13677,7 @@
         <v>0.6575336465873136</v>
       </c>
       <c r="H422" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13694,7 +13703,7 @@
         <v>1</v>
       </c>
       <c r="H423" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13720,7 +13729,7 @@
         <v>1</v>
       </c>
       <c r="H424" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13746,7 +13755,7 @@
         <v>1</v>
       </c>
       <c r="H425" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13772,7 +13781,7 @@
         <v>1</v>
       </c>
       <c r="H426" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13798,7 +13807,7 @@
         <v>0.1931729729332681</v>
       </c>
       <c r="H427" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13824,7 +13833,7 @@
         <v>1</v>
       </c>
       <c r="H428" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13850,7 +13859,7 @@
         <v>0.838787845031057</v>
       </c>
       <c r="H429" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13876,7 +13885,7 @@
         <v>0</v>
       </c>
       <c r="H430" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13902,7 +13911,7 @@
         <v>0.1022396663436237</v>
       </c>
       <c r="H431" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13928,7 +13937,7 @@
         <v>0</v>
       </c>
       <c r="H432" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13954,7 +13963,7 @@
         <v>1</v>
       </c>
       <c r="H433" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13980,7 +13989,7 @@
         <v>0.4540250855516209</v>
       </c>
       <c r="H434" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -14006,7 +14015,7 @@
         <v>0.2896165830953565</v>
       </c>
       <c r="H435" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -14032,7 +14041,7 @@
         <v>0.7917401509339994</v>
       </c>
       <c r="H436" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -14058,7 +14067,7 @@
         <v>0</v>
       </c>
       <c r="H437" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -14084,7 +14093,7 @@
         <v>1</v>
       </c>
       <c r="H438" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -14110,7 +14119,7 @@
         <v>0.7067178088732917</v>
       </c>
       <c r="H439" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -14136,7 +14145,7 @@
         <v>1</v>
       </c>
       <c r="H440" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -14162,7 +14171,7 @@
         <v>1</v>
       </c>
       <c r="H441" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -14188,7 +14197,7 @@
         <v>0</v>
       </c>
       <c r="H442" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -14214,7 +14223,7 @@
         <v>1</v>
       </c>
       <c r="H443" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -14240,7 +14249,7 @@
         <v>1</v>
       </c>
       <c r="H444" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -14266,7 +14275,7 @@
         <v>1</v>
       </c>
       <c r="H445" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -14292,7 +14301,7 @@
         <v>0.3206802237079347</v>
       </c>
       <c r="H446" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -14318,7 +14327,7 @@
         <v>0</v>
       </c>
       <c r="H447" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -14344,7 +14353,7 @@
         <v>0.2166572947957321</v>
       </c>
       <c r="H448" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -14370,7 +14379,7 @@
         <v>0.09220139004312224</v>
       </c>
       <c r="H449" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -14396,7 +14405,7 @@
         <v>0</v>
       </c>
       <c r="H450" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -14422,7 +14431,7 @@
         <v>0</v>
       </c>
       <c r="H451" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -14448,7 +14457,7 @@
         <v>1</v>
       </c>
       <c r="H452" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -14474,7 +14483,7 @@
         <v>1</v>
       </c>
       <c r="H453" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -14500,7 +14509,7 @@
         <v>1</v>
       </c>
       <c r="H454" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -14526,7 +14535,7 @@
         <v>1</v>
       </c>
       <c r="H455" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -14552,7 +14561,7 @@
         <v>1</v>
       </c>
       <c r="H456" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -14578,7 +14587,7 @@
         <v>0.5355349910433382</v>
       </c>
       <c r="H457" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14604,7 +14613,7 @@
         <v>1</v>
       </c>
       <c r="H458" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14630,7 +14639,7 @@
         <v>1</v>
       </c>
       <c r="H459" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14656,7 +14665,7 @@
         <v>0</v>
       </c>
       <c r="H460" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14682,7 +14691,7 @@
         <v>0.7362068598138494</v>
       </c>
       <c r="H461" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14708,7 +14717,7 @@
         <v>1</v>
       </c>
       <c r="H462" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14734,7 +14743,7 @@
         <v>1</v>
       </c>
       <c r="H463" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14760,7 +14769,7 @@
         <v>0.8290442293029383</v>
       </c>
       <c r="H464" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14786,7 +14795,7 @@
         <v>1</v>
       </c>
       <c r="H465" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14812,7 +14821,7 @@
         <v>1</v>
       </c>
       <c r="H466" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14838,7 +14847,7 @@
         <v>0.2972172914877398</v>
       </c>
       <c r="H467" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14864,7 +14873,7 @@
         <v>1</v>
       </c>
       <c r="H468" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14890,7 +14899,7 @@
         <v>0.3828030816675656</v>
       </c>
       <c r="H469" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14916,7 +14925,7 @@
         <v>1</v>
       </c>
       <c r="H470" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14942,7 +14951,7 @@
         <v>1</v>
       </c>
       <c r="H471" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14968,7 +14977,7 @@
         <v>0.7072751504056575</v>
       </c>
       <c r="H472" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14994,7 +15003,7 @@
         <v>0.6887345743487142</v>
       </c>
       <c r="H473" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -15020,7 +15029,7 @@
         <v>0.1067305209771346</v>
       </c>
       <c r="H474" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -15046,7 +15055,7 @@
         <v>0</v>
       </c>
       <c r="H475" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -15072,7 +15081,7 @@
         <v>0.6057977033084144</v>
       </c>
       <c r="H476" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -15098,7 +15107,7 @@
         <v>0.6091777797350002</v>
       </c>
       <c r="H477" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -15124,7 +15133,7 @@
         <v>0.5694759431987656</v>
       </c>
       <c r="H478" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -15150,7 +15159,7 @@
         <v>0.6207146575699412</v>
       </c>
       <c r="H479" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -15176,7 +15185,7 @@
         <v>0.283376215899611</v>
       </c>
       <c r="H480" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -15202,7 +15211,7 @@
         <v>0.2427067649021355</v>
       </c>
       <c r="H481" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -15228,7 +15237,7 @@
         <v>1</v>
       </c>
       <c r="H482" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -15254,7 +15263,7 @@
         <v>0.5104176137220019</v>
       </c>
       <c r="H483" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -15280,7 +15289,7 @@
         <v>1</v>
       </c>
       <c r="H484" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -15306,7 +15315,7 @@
         <v>1</v>
       </c>
       <c r="H485" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -15332,7 +15341,7 @@
         <v>1</v>
       </c>
       <c r="H486" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -15358,7 +15367,7 @@
         <v>1</v>
       </c>
       <c r="H487" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -15384,7 +15393,7 @@
         <v>0.4677260579614761</v>
       </c>
       <c r="H488" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -15410,7 +15419,7 @@
         <v>1</v>
       </c>
       <c r="H489" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -15436,7 +15445,7 @@
         <v>0.476242461576072</v>
       </c>
       <c r="H490" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -15462,7 +15471,7 @@
         <v>1</v>
       </c>
       <c r="H491" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -15488,7 +15497,7 @@
         <v>0.4885601466764756</v>
       </c>
       <c r="H492" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -15514,7 +15523,7 @@
         <v>1</v>
       </c>
       <c r="H493" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -15540,7 +15549,7 @@
         <v>0.1892964267045682</v>
       </c>
       <c r="H494" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -15566,7 +15575,7 @@
         <v>1</v>
       </c>
       <c r="H495" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -15592,7 +15601,7 @@
         <v>1</v>
       </c>
       <c r="H496" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -15618,7 +15627,7 @@
         <v>0.562429454701116</v>
       </c>
       <c r="H497" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -15644,7 +15653,7 @@
         <v>0.5893467746014928</v>
       </c>
       <c r="H498" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -15670,7 +15679,7 @@
         <v>0.2453840526620205</v>
       </c>
       <c r="H499" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -15696,7 +15705,7 @@
         <v>1</v>
       </c>
       <c r="H500" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15722,7 +15731,7 @@
         <v>0.4919547742740523</v>
       </c>
       <c r="H501" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -15748,7 +15757,7 @@
         <v>1</v>
       </c>
       <c r="H502" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15774,7 +15783,7 @@
         <v>1</v>
       </c>
       <c r="H503" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -15800,7 +15809,7 @@
         <v>1</v>
       </c>
       <c r="H504" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -15826,7 +15835,7 @@
         <v>0.5332096778046151</v>
       </c>
       <c r="H505" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -15852,7 +15861,7 @@
         <v>1</v>
       </c>
       <c r="H506" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15878,7 +15887,7 @@
         <v>0.4095043245568133</v>
       </c>
       <c r="H507" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15904,7 +15913,7 @@
         <v>0.9563556993906542</v>
       </c>
       <c r="H508" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15930,7 +15939,7 @@
         <v>1</v>
       </c>
       <c r="H509" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15956,7 +15965,7 @@
         <v>0.3151420077674845</v>
       </c>
       <c r="H510" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15982,7 +15991,7 @@
         <v>1</v>
       </c>
       <c r="H511" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -16008,7 +16017,7 @@
         <v>0</v>
       </c>
       <c r="H512" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -16034,7 +16043,7 @@
         <v>0.1226144815616208</v>
       </c>
       <c r="H513" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -16060,7 +16069,7 @@
         <v>0.348937876188559</v>
       </c>
       <c r="H514" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -16086,7 +16095,7 @@
         <v>1</v>
       </c>
       <c r="H515" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -16112,7 +16121,7 @@
         <v>1</v>
       </c>
       <c r="H516" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -16138,7 +16147,7 @@
         <v>1</v>
       </c>
       <c r="H517" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -16164,7 +16173,7 @@
         <v>0.8236312239487298</v>
       </c>
       <c r="H518" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -16190,7 +16199,7 @@
         <v>1</v>
       </c>
       <c r="H519" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -16216,7 +16225,7 @@
         <v>0.4553771692067081</v>
       </c>
       <c r="H520" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -16242,7 +16251,7 @@
         <v>1</v>
       </c>
       <c r="H521" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -16268,7 +16277,7 @@
         <v>0.7309927778789053</v>
       </c>
       <c r="H522" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -16294,7 +16303,7 @@
         <v>1</v>
       </c>
       <c r="H523" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -16320,7 +16329,7 @@
         <v>0.5966838048782487</v>
       </c>
       <c r="H524" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -16346,7 +16355,7 @@
         <v>1</v>
       </c>
       <c r="H525" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -16372,7 +16381,7 @@
         <v>0.5392000628733806</v>
       </c>
       <c r="H526" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -16398,7 +16407,7 @@
         <v>0.2752626559507874</v>
       </c>
       <c r="H527" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -16424,7 +16433,7 @@
         <v>0.6423944529437058</v>
       </c>
       <c r="H528" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -16450,7 +16459,7 @@
         <v>0.7096367257969294</v>
       </c>
       <c r="H529" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -16476,7 +16485,7 @@
         <v>0.266</v>
       </c>
       <c r="H530" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -16502,7 +16511,7 @@
         <v>0.2872</v>
       </c>
       <c r="H531" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -16528,7 +16537,7 @@
         <v>0.6227</v>
       </c>
       <c r="H532" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -16554,7 +16563,7 @@
         <v>1</v>
       </c>
       <c r="H533" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -16580,7 +16589,7 @@
         <v>0</v>
       </c>
       <c r="H534" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -16606,7 +16615,7 @@
         <v>1</v>
       </c>
       <c r="H535" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -16632,7 +16641,7 @@
         <v>1</v>
       </c>
       <c r="H536" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -16658,7 +16667,7 @@
         <v>0</v>
       </c>
       <c r="H537" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -16684,7 +16693,7 @@
         <v>0</v>
       </c>
       <c r="H538" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -16710,7 +16719,7 @@
         <v>0</v>
       </c>
       <c r="H539" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -16736,7 +16745,7 @@
         <v>0.6155</v>
       </c>
       <c r="H540" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -16762,7 +16771,7 @@
         <v>0.4573</v>
       </c>
       <c r="H541" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -16788,7 +16797,7 @@
         <v>1</v>
       </c>
       <c r="H542" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -16814,7 +16823,7 @@
         <v>0.835</v>
       </c>
       <c r="H543" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -16840,7 +16849,7 @@
         <v>0.7548999999999999</v>
       </c>
       <c r="H544" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -16866,7 +16875,7 @@
         <v>1</v>
       </c>
       <c r="H545" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -16892,7 +16901,7 @@
         <v>0</v>
       </c>
       <c r="H546" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -16918,7 +16927,7 @@
         <v>0</v>
       </c>
       <c r="H547" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -16944,7 +16953,7 @@
         <v>0.9719</v>
       </c>
       <c r="H548" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -16970,7 +16979,7 @@
         <v>0</v>
       </c>
       <c r="H549" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -16996,7 +17005,7 @@
         <v>0</v>
       </c>
       <c r="H550" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -17022,7 +17031,7 @@
         <v>0</v>
       </c>
       <c r="H551" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -17048,7 +17057,7 @@
         <v>0.2973</v>
       </c>
       <c r="H552" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -17074,7 +17083,7 @@
         <v>1</v>
       </c>
       <c r="H553" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -17100,7 +17109,7 @@
         <v>1</v>
       </c>
       <c r="H554" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -17126,7 +17135,7 @@
         <v>1</v>
       </c>
       <c r="H555" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -17152,7 +17161,7 @@
         <v>1</v>
       </c>
       <c r="H556" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -17178,7 +17187,7 @@
         <v>1</v>
       </c>
       <c r="H557" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -17204,7 +17213,7 @@
         <v>1</v>
       </c>
       <c r="H558" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -17230,7 +17239,7 @@
         <v>1</v>
       </c>
       <c r="H559" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -17256,7 +17265,7 @@
         <v>0</v>
       </c>
       <c r="H560" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -17282,7 +17291,7 @@
         <v>0</v>
       </c>
       <c r="H561" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -17308,7 +17317,7 @@
         <v>0</v>
       </c>
       <c r="H562" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -17334,7 +17343,7 @@
         <v>0</v>
       </c>
       <c r="H563" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -17344,9 +17353,15 @@
       <c r="B564" t="s">
         <v>569</v>
       </c>
+      <c r="C564">
+        <v>1</v>
+      </c>
       <c r="D564">
         <v>1</v>
       </c>
+      <c r="E564">
+        <v>1</v>
+      </c>
       <c r="F564">
         <v>0</v>
       </c>
@@ -17354,7 +17369,53 @@
         <v>1</v>
       </c>
       <c r="H564" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="565" spans="1:8">
+      <c r="A565" s="1">
+        <v>563</v>
+      </c>
+      <c r="B565" t="s">
+        <v>570</v>
+      </c>
+      <c r="C565">
+        <v>1</v>
+      </c>
+      <c r="D565">
+        <v>1</v>
+      </c>
+      <c r="E565">
+        <v>1</v>
+      </c>
+      <c r="F565">
+        <v>0</v>
+      </c>
+      <c r="G565">
+        <v>1</v>
+      </c>
+      <c r="H565" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="566" spans="1:8">
+      <c r="A566" s="1">
+        <v>564</v>
+      </c>
+      <c r="B566" t="s">
         <v>571</v>
+      </c>
+      <c r="D566">
+        <v>0</v>
+      </c>
+      <c r="F566">
+        <v>0.9734</v>
+      </c>
+      <c r="G566">
+        <v>0.0266</v>
+      </c>
+      <c r="H566" t="s">
+        <v>777</v>
       </c>
     </row>
   </sheetData>

--- a/firebase_data_from_spyEnsembleVSMO_v2.xlsx
+++ b/firebase_data_from_spyEnsembleVSMO_v2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="784">
   <si>
     <t>date</t>
   </si>
@@ -1730,6 +1730,24 @@
   </si>
   <si>
     <t>2025-08-29</t>
+  </si>
+  <si>
+    <t>2025-09-02</t>
+  </si>
+  <si>
+    <t>2025-09-03</t>
+  </si>
+  <si>
+    <t>2025-09-04</t>
+  </si>
+  <si>
+    <t>2025-09-05</t>
+  </si>
+  <si>
+    <t>2025-09-08</t>
+  </si>
+  <si>
+    <t>2025-09-09</t>
   </si>
   <si>
     <t>0.00</t>
@@ -2705,7 +2723,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H566"/>
+  <dimension ref="A1:H572"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2757,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2783,7 +2801,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2809,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2835,7 +2853,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2861,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2887,7 +2905,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2913,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2939,7 +2957,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2965,7 +2983,7 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2991,7 +3009,7 @@
         <v>0.04303446040071349</v>
       </c>
       <c r="H11" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3017,7 +3035,7 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3043,7 +3061,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3069,7 +3087,7 @@
         <v>0.915256809318685</v>
       </c>
       <c r="H14" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3095,7 +3113,7 @@
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -3121,7 +3139,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -3147,7 +3165,7 @@
         <v>0.6184143588780344</v>
       </c>
       <c r="H17" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -3173,7 +3191,7 @@
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -3199,7 +3217,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -3225,7 +3243,7 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3251,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3277,7 +3295,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -3303,7 +3321,7 @@
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3329,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3355,7 +3373,7 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -3381,7 +3399,7 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3407,7 +3425,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3433,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3459,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3485,7 +3503,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3511,7 +3529,7 @@
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3537,7 +3555,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3563,7 +3581,7 @@
         <v>0.745393260242324</v>
       </c>
       <c r="H33" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3589,7 +3607,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3615,7 +3633,7 @@
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3641,7 +3659,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3667,7 +3685,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3693,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3719,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3745,7 +3763,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3771,7 +3789,7 @@
         <v>0.683079705692312</v>
       </c>
       <c r="H41" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3797,7 +3815,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3823,7 +3841,7 @@
         <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3849,7 +3867,7 @@
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3875,7 +3893,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3901,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3927,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3953,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3979,7 +3997,7 @@
         <v>0.4307420609211915</v>
       </c>
       <c r="H49" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -4005,7 +4023,7 @@
         <v>0.4817317520945901</v>
       </c>
       <c r="H50" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -4031,7 +4049,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -4057,7 +4075,7 @@
         <v>0.5570981908629731</v>
       </c>
       <c r="H52" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -4083,7 +4101,7 @@
         <v>0.7872019792055407</v>
       </c>
       <c r="H53" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -4109,7 +4127,7 @@
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -4135,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -4161,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -4187,7 +4205,7 @@
         <v>0.215245798636519</v>
       </c>
       <c r="H57" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -4213,7 +4231,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -4239,7 +4257,7 @@
         <v>0.3135669763477688</v>
       </c>
       <c r="H59" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -4265,7 +4283,7 @@
         <v>0.1529716371439602</v>
       </c>
       <c r="H60" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -4291,7 +4309,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -4317,7 +4335,7 @@
         <v>0.3106901159644614</v>
       </c>
       <c r="H62" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -4343,7 +4361,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -4369,7 +4387,7 @@
         <v>0.2867490636277352</v>
       </c>
       <c r="H64" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -4395,7 +4413,7 @@
         <v>0.9498742410172212</v>
       </c>
       <c r="H65" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -4421,7 +4439,7 @@
         <v>1</v>
       </c>
       <c r="H66" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -4447,7 +4465,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -4473,7 +4491,7 @@
         <v>1</v>
       </c>
       <c r="H68" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4499,7 +4517,7 @@
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4525,7 +4543,7 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4551,7 +4569,7 @@
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4577,7 +4595,7 @@
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4603,7 +4621,7 @@
         <v>0.1304718106398864</v>
       </c>
       <c r="H73" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4629,7 +4647,7 @@
         <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4655,7 +4673,7 @@
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4681,7 +4699,7 @@
         <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4707,7 +4725,7 @@
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4733,7 +4751,7 @@
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4759,7 +4777,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4785,7 +4803,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4811,7 +4829,7 @@
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4837,7 +4855,7 @@
         <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4863,7 +4881,7 @@
         <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4889,7 +4907,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4915,7 +4933,7 @@
         <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4941,7 +4959,7 @@
         <v>0.414032993753131</v>
       </c>
       <c r="H86" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4967,7 +4985,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4993,7 +5011,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -5019,7 +5037,7 @@
         <v>1</v>
       </c>
       <c r="H89" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -5045,7 +5063,7 @@
         <v>1</v>
       </c>
       <c r="H90" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -5071,7 +5089,7 @@
         <v>1</v>
       </c>
       <c r="H91" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -5097,7 +5115,7 @@
         <v>0.9279948866595563</v>
       </c>
       <c r="H92" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -5123,7 +5141,7 @@
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -5149,7 +5167,7 @@
         <v>1</v>
       </c>
       <c r="H94" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -5175,7 +5193,7 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -5201,7 +5219,7 @@
         <v>0.1871628344782118</v>
       </c>
       <c r="H96" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -5227,7 +5245,7 @@
         <v>1</v>
       </c>
       <c r="H97" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -5253,7 +5271,7 @@
         <v>1</v>
       </c>
       <c r="H98" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -5279,7 +5297,7 @@
         <v>0.8771001701943608</v>
       </c>
       <c r="H99" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -5305,7 +5323,7 @@
         <v>0.2146591320888346</v>
       </c>
       <c r="H100" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -5331,7 +5349,7 @@
         <v>1</v>
       </c>
       <c r="H101" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -5357,7 +5375,7 @@
         <v>1</v>
       </c>
       <c r="H102" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -5383,7 +5401,7 @@
         <v>1</v>
       </c>
       <c r="H103" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -5409,7 +5427,7 @@
         <v>1</v>
       </c>
       <c r="H104" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -5435,7 +5453,7 @@
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5461,7 +5479,7 @@
         <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5487,7 +5505,7 @@
         <v>1</v>
       </c>
       <c r="H107" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5513,7 +5531,7 @@
         <v>1</v>
       </c>
       <c r="H108" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5539,7 +5557,7 @@
         <v>1</v>
       </c>
       <c r="H109" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5565,7 +5583,7 @@
         <v>1</v>
       </c>
       <c r="H110" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5591,7 +5609,7 @@
         <v>1</v>
       </c>
       <c r="H111" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5617,7 +5635,7 @@
         <v>0.2055505200809835</v>
       </c>
       <c r="H112" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5643,7 +5661,7 @@
         <v>1</v>
       </c>
       <c r="H113" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5669,7 +5687,7 @@
         <v>0.2995528011053107</v>
       </c>
       <c r="H114" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5695,7 +5713,7 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5721,7 +5739,7 @@
         <v>0.4699445027580825</v>
       </c>
       <c r="H116" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5747,7 +5765,7 @@
         <v>0.770937588646547</v>
       </c>
       <c r="H117" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5773,7 +5791,7 @@
         <v>0.7826457521192932</v>
       </c>
       <c r="H118" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5799,7 +5817,7 @@
         <v>0.4304704948469578</v>
       </c>
       <c r="H119" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5825,7 +5843,7 @@
         <v>1</v>
       </c>
       <c r="H120" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5851,7 +5869,7 @@
         <v>0.6719963442506929</v>
       </c>
       <c r="H121" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5877,7 +5895,7 @@
         <v>1</v>
       </c>
       <c r="H122" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5903,7 +5921,7 @@
         <v>0.5375310953297759</v>
       </c>
       <c r="H123" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5929,7 +5947,7 @@
         <v>0.6497318652602996</v>
       </c>
       <c r="H124" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5955,7 +5973,7 @@
         <v>0.4013470357796504</v>
       </c>
       <c r="H125" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5981,7 +5999,7 @@
         <v>0.4404307186051412</v>
       </c>
       <c r="H126" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -6007,7 +6025,7 @@
         <v>0.7535410487481622</v>
       </c>
       <c r="H127" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -6033,7 +6051,7 @@
         <v>0.1968264148093589</v>
       </c>
       <c r="H128" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -6059,7 +6077,7 @@
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -6085,7 +6103,7 @@
         <v>0.5903062422634243</v>
       </c>
       <c r="H130" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -6111,7 +6129,7 @@
         <v>0.3143863952226104</v>
       </c>
       <c r="H131" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -6137,7 +6155,7 @@
         <v>0.5251513973196068</v>
       </c>
       <c r="H132" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -6163,7 +6181,7 @@
         <v>0.26776714123178</v>
       </c>
       <c r="H133" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -6189,7 +6207,7 @@
         <v>0.2026359533431654</v>
       </c>
       <c r="H134" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -6215,7 +6233,7 @@
         <v>1</v>
       </c>
       <c r="H135" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -6241,7 +6259,7 @@
         <v>1</v>
       </c>
       <c r="H136" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -6267,7 +6285,7 @@
         <v>0.5557953472408601</v>
       </c>
       <c r="H137" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -6293,7 +6311,7 @@
         <v>1</v>
       </c>
       <c r="H138" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -6319,7 +6337,7 @@
         <v>1</v>
       </c>
       <c r="H139" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -6345,7 +6363,7 @@
         <v>0.8945463189254167</v>
       </c>
       <c r="H140" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -6371,7 +6389,7 @@
         <v>0.6772450649528653</v>
       </c>
       <c r="H141" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -6397,7 +6415,7 @@
         <v>0.9188898615772668</v>
       </c>
       <c r="H142" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -6423,7 +6441,7 @@
         <v>0.6808222412559765</v>
       </c>
       <c r="H143" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -6449,7 +6467,7 @@
         <v>0.7236705146772729</v>
       </c>
       <c r="H144" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -6475,7 +6493,7 @@
         <v>1</v>
       </c>
       <c r="H145" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -6501,7 +6519,7 @@
         <v>1</v>
       </c>
       <c r="H146" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -6527,7 +6545,7 @@
         <v>0.4083837438899106</v>
       </c>
       <c r="H147" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6553,7 +6571,7 @@
         <v>1</v>
       </c>
       <c r="H148" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6579,7 +6597,7 @@
         <v>0</v>
       </c>
       <c r="H149" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6605,7 +6623,7 @@
         <v>0.6711645860416422</v>
       </c>
       <c r="H150" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6631,7 +6649,7 @@
         <v>0.2715172141387561</v>
       </c>
       <c r="H151" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6657,7 +6675,7 @@
         <v>0.2398762302450229</v>
       </c>
       <c r="H152" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6683,7 +6701,7 @@
         <v>0.5664737805177642</v>
       </c>
       <c r="H153" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6709,7 +6727,7 @@
         <v>0.4223113145194125</v>
       </c>
       <c r="H154" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6735,7 +6753,7 @@
         <v>0.3667629390545308</v>
       </c>
       <c r="H155" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6761,7 +6779,7 @@
         <v>0.9231722118787783</v>
       </c>
       <c r="H156" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6787,7 +6805,7 @@
         <v>0.9851787420357059</v>
       </c>
       <c r="H157" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6813,7 +6831,7 @@
         <v>0.4518542194729144</v>
       </c>
       <c r="H158" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6839,7 +6857,7 @@
         <v>0.4964868798335714</v>
       </c>
       <c r="H159" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6865,7 +6883,7 @@
         <v>1</v>
       </c>
       <c r="H160" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6891,7 +6909,7 @@
         <v>1</v>
       </c>
       <c r="H161" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6917,7 +6935,7 @@
         <v>1</v>
       </c>
       <c r="H162" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6943,7 +6961,7 @@
         <v>0.6766899544020667</v>
       </c>
       <c r="H163" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6969,7 +6987,7 @@
         <v>1</v>
       </c>
       <c r="H164" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6995,7 +7013,7 @@
         <v>0</v>
       </c>
       <c r="H165" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -7021,7 +7039,7 @@
         <v>0.6910065861261394</v>
       </c>
       <c r="H166" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -7047,7 +7065,7 @@
         <v>1</v>
       </c>
       <c r="H167" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -7073,7 +7091,7 @@
         <v>1</v>
       </c>
       <c r="H168" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -7099,7 +7117,7 @@
         <v>1</v>
       </c>
       <c r="H169" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -7125,7 +7143,7 @@
         <v>0.3087324093735406</v>
       </c>
       <c r="H170" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -7151,7 +7169,7 @@
         <v>0.6040906971093285</v>
       </c>
       <c r="H171" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -7177,7 +7195,7 @@
         <v>1</v>
       </c>
       <c r="H172" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -7203,7 +7221,7 @@
         <v>1</v>
       </c>
       <c r="H173" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -7229,7 +7247,7 @@
         <v>0.5411987563813702</v>
       </c>
       <c r="H174" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -7255,7 +7273,7 @@
         <v>1</v>
       </c>
       <c r="H175" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -7281,7 +7299,7 @@
         <v>0.5366275239822063</v>
       </c>
       <c r="H176" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -7307,7 +7325,7 @@
         <v>0.7616464524958171</v>
       </c>
       <c r="H177" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -7333,7 +7351,7 @@
         <v>0.778584820565025</v>
       </c>
       <c r="H178" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -7359,7 +7377,7 @@
         <v>1</v>
       </c>
       <c r="H179" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -7385,7 +7403,7 @@
         <v>0.779814372339514</v>
       </c>
       <c r="H180" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -7411,7 +7429,7 @@
         <v>1</v>
       </c>
       <c r="H181" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -7437,7 +7455,7 @@
         <v>1</v>
       </c>
       <c r="H182" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -7463,7 +7481,7 @@
         <v>1</v>
       </c>
       <c r="H183" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -7489,7 +7507,7 @@
         <v>1</v>
       </c>
       <c r="H184" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -7515,7 +7533,7 @@
         <v>1</v>
       </c>
       <c r="H185" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -7541,7 +7559,7 @@
         <v>1</v>
       </c>
       <c r="H186" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7567,7 +7585,7 @@
         <v>0.3910910264558739</v>
       </c>
       <c r="H187" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7593,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7619,7 +7637,7 @@
         <v>0.3782183282254096</v>
       </c>
       <c r="H189" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7645,7 +7663,7 @@
         <v>1</v>
       </c>
       <c r="H190" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7671,7 +7689,7 @@
         <v>1</v>
       </c>
       <c r="H191" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7697,7 +7715,7 @@
         <v>0.5022217334415366</v>
       </c>
       <c r="H192" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7723,7 +7741,7 @@
         <v>0.5141989063837532</v>
       </c>
       <c r="H193" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7749,7 +7767,7 @@
         <v>0.3056884663520373</v>
       </c>
       <c r="H194" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7775,7 +7793,7 @@
         <v>0.9738865825460928</v>
       </c>
       <c r="H195" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7801,7 +7819,7 @@
         <v>0.3670780584150713</v>
       </c>
       <c r="H196" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7827,7 +7845,7 @@
         <v>0</v>
       </c>
       <c r="H197" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7853,7 +7871,7 @@
         <v>0</v>
       </c>
       <c r="H198" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7879,7 +7897,7 @@
         <v>0</v>
       </c>
       <c r="H199" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7905,7 +7923,7 @@
         <v>0.2629434170052546</v>
       </c>
       <c r="H200" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7931,7 +7949,7 @@
         <v>0</v>
       </c>
       <c r="H201" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7957,7 +7975,7 @@
         <v>0.3643661297271093</v>
       </c>
       <c r="H202" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7983,7 +8001,7 @@
         <v>1</v>
       </c>
       <c r="H203" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -8009,7 +8027,7 @@
         <v>0.2007309629135912</v>
       </c>
       <c r="H204" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -8035,7 +8053,7 @@
         <v>0.3622835247576352</v>
       </c>
       <c r="H205" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -8061,7 +8079,7 @@
         <v>0.2580942394651852</v>
       </c>
       <c r="H206" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -8087,7 +8105,7 @@
         <v>0.2272896410009056</v>
       </c>
       <c r="H207" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -8113,7 +8131,7 @@
         <v>0.02259656952943894</v>
       </c>
       <c r="H208" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -8139,7 +8157,7 @@
         <v>1</v>
       </c>
       <c r="H209" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -8165,7 +8183,7 @@
         <v>0.316699835553751</v>
       </c>
       <c r="H210" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -8191,7 +8209,7 @@
         <v>0.2917756618279652</v>
       </c>
       <c r="H211" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -8217,7 +8235,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -8243,7 +8261,7 @@
         <v>1</v>
       </c>
       <c r="H213" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -8269,7 +8287,7 @@
         <v>1</v>
       </c>
       <c r="H214" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -8295,7 +8313,7 @@
         <v>1</v>
       </c>
       <c r="H215" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -8321,7 +8339,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -8347,7 +8365,7 @@
         <v>1</v>
       </c>
       <c r="H217" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -8373,7 +8391,7 @@
         <v>1</v>
       </c>
       <c r="H218" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -8399,7 +8417,7 @@
         <v>0</v>
       </c>
       <c r="H219" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -8425,7 +8443,7 @@
         <v>1</v>
       </c>
       <c r="H220" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -8451,7 +8469,7 @@
         <v>0.0621306534788825</v>
       </c>
       <c r="H221" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -8477,7 +8495,7 @@
         <v>0.9197124253853388</v>
       </c>
       <c r="H222" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -8503,7 +8521,7 @@
         <v>0.1534574198678031</v>
       </c>
       <c r="H223" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -8529,7 +8547,7 @@
         <v>0.0432766620547291</v>
       </c>
       <c r="H224" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -8555,7 +8573,7 @@
         <v>0</v>
       </c>
       <c r="H225" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8581,7 +8599,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8607,7 +8625,7 @@
         <v>1</v>
       </c>
       <c r="H227" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8633,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8659,7 +8677,7 @@
         <v>1</v>
       </c>
       <c r="H229" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8685,7 +8703,7 @@
         <v>1</v>
       </c>
       <c r="H230" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8711,7 +8729,7 @@
         <v>1</v>
       </c>
       <c r="H231" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8737,7 +8755,7 @@
         <v>1</v>
       </c>
       <c r="H232" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8763,7 +8781,7 @@
         <v>0</v>
       </c>
       <c r="H233" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8789,7 +8807,7 @@
         <v>1</v>
       </c>
       <c r="H234" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8815,7 +8833,7 @@
         <v>1</v>
       </c>
       <c r="H235" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8841,7 +8859,7 @@
         <v>1</v>
       </c>
       <c r="H236" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8867,7 +8885,7 @@
         <v>0</v>
       </c>
       <c r="H237" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8893,7 +8911,7 @@
         <v>1</v>
       </c>
       <c r="H238" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8919,7 +8937,7 @@
         <v>0.8495492332177974</v>
       </c>
       <c r="H239" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8945,7 +8963,7 @@
         <v>0.6287165807955644</v>
       </c>
       <c r="H240" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8971,7 +8989,7 @@
         <v>0.6590199742859937</v>
       </c>
       <c r="H241" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8997,7 +9015,7 @@
         <v>1</v>
       </c>
       <c r="H242" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -9023,7 +9041,7 @@
         <v>1</v>
       </c>
       <c r="H243" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -9049,7 +9067,7 @@
         <v>0</v>
       </c>
       <c r="H244" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -9075,7 +9093,7 @@
         <v>0</v>
       </c>
       <c r="H245" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -9101,7 +9119,7 @@
         <v>1</v>
       </c>
       <c r="H246" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -9127,7 +9145,7 @@
         <v>0.009874081767952174</v>
       </c>
       <c r="H247" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -9153,7 +9171,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -9179,7 +9197,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -9205,7 +9223,7 @@
         <v>0.7771680614627153</v>
       </c>
       <c r="H250" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -9231,7 +9249,7 @@
         <v>0.684092991361349</v>
       </c>
       <c r="H251" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -9257,7 +9275,7 @@
         <v>0.6190568656417142</v>
       </c>
       <c r="H252" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -9283,7 +9301,7 @@
         <v>0.6179968680850856</v>
       </c>
       <c r="H253" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -9309,7 +9327,7 @@
         <v>0.5456188990663409</v>
       </c>
       <c r="H254" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -9335,7 +9353,7 @@
         <v>1</v>
       </c>
       <c r="H255" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -9361,7 +9379,7 @@
         <v>0.5074108996205345</v>
       </c>
       <c r="H256" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -9387,7 +9405,7 @@
         <v>0.3570787145669819</v>
       </c>
       <c r="H257" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -9413,7 +9431,7 @@
         <v>0.3430474956288668</v>
       </c>
       <c r="H258" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -9439,7 +9457,7 @@
         <v>0.3780916182620047</v>
       </c>
       <c r="H259" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -9465,7 +9483,7 @@
         <v>1</v>
       </c>
       <c r="H260" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -9491,7 +9509,7 @@
         <v>1</v>
       </c>
       <c r="H261" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -9517,7 +9535,7 @@
         <v>0.2400217296095157</v>
       </c>
       <c r="H262" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -9543,7 +9561,7 @@
         <v>0.3026477102582492</v>
       </c>
       <c r="H263" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -9569,7 +9587,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9595,7 +9613,7 @@
         <v>0.5824288330939381</v>
       </c>
       <c r="H265" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9621,7 +9639,7 @@
         <v>1</v>
       </c>
       <c r="H266" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9647,7 +9665,7 @@
         <v>1</v>
       </c>
       <c r="H267" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9673,7 +9691,7 @@
         <v>1</v>
       </c>
       <c r="H268" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9699,7 +9717,7 @@
         <v>0.4860554446028704</v>
       </c>
       <c r="H269" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9725,7 +9743,7 @@
         <v>0.5485218530910564</v>
       </c>
       <c r="H270" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9751,7 +9769,7 @@
         <v>0.5687845911126622</v>
       </c>
       <c r="H271" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9777,7 +9795,7 @@
         <v>1</v>
       </c>
       <c r="H272" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9803,7 +9821,7 @@
         <v>1</v>
       </c>
       <c r="H273" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9829,7 +9847,7 @@
         <v>1</v>
       </c>
       <c r="H274" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9855,7 +9873,7 @@
         <v>1</v>
       </c>
       <c r="H275" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9881,7 +9899,7 @@
         <v>0.5347201194974325</v>
       </c>
       <c r="H276" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9907,7 +9925,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9933,7 +9951,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9959,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="H279" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9985,7 +10003,7 @@
         <v>0</v>
       </c>
       <c r="H280" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -10011,7 +10029,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -10037,7 +10055,7 @@
         <v>0</v>
       </c>
       <c r="H282" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -10063,7 +10081,7 @@
         <v>0</v>
       </c>
       <c r="H283" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -10089,7 +10107,7 @@
         <v>1</v>
       </c>
       <c r="H284" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -10115,7 +10133,7 @@
         <v>1</v>
       </c>
       <c r="H285" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -10141,7 +10159,7 @@
         <v>0</v>
       </c>
       <c r="H286" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -10167,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -10193,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -10219,7 +10237,7 @@
         <v>0.1387512764613225</v>
       </c>
       <c r="H289" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -10245,7 +10263,7 @@
         <v>0.09876212659905496</v>
       </c>
       <c r="H290" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -10271,7 +10289,7 @@
         <v>0</v>
       </c>
       <c r="H291" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -10297,7 +10315,7 @@
         <v>0</v>
       </c>
       <c r="H292" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -10323,7 +10341,7 @@
         <v>0</v>
       </c>
       <c r="H293" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -10349,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -10375,7 +10393,7 @@
         <v>0</v>
       </c>
       <c r="H295" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -10401,7 +10419,7 @@
         <v>0</v>
       </c>
       <c r="H296" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -10427,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="H297" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -10453,7 +10471,7 @@
         <v>0</v>
       </c>
       <c r="H298" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -10479,7 +10497,7 @@
         <v>1</v>
       </c>
       <c r="H299" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -10505,7 +10523,7 @@
         <v>0.8392691107314288</v>
       </c>
       <c r="H300" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -10531,7 +10549,7 @@
         <v>1</v>
       </c>
       <c r="H301" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -10557,7 +10575,7 @@
         <v>0.5725104927894985</v>
       </c>
       <c r="H302" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -10583,7 +10601,7 @@
         <v>0.6452248196870423</v>
       </c>
       <c r="H303" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10609,7 +10627,7 @@
         <v>0</v>
       </c>
       <c r="H304" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10635,7 +10653,7 @@
         <v>1</v>
       </c>
       <c r="H305" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10661,7 +10679,7 @@
         <v>0.6176258382287111</v>
       </c>
       <c r="H306" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10687,7 +10705,7 @@
         <v>0.1402908509712884</v>
       </c>
       <c r="H307" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10713,7 +10731,7 @@
         <v>0.2470817519305337</v>
       </c>
       <c r="H308" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10739,7 +10757,7 @@
         <v>0</v>
       </c>
       <c r="H309" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10765,7 +10783,7 @@
         <v>0</v>
       </c>
       <c r="H310" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10791,7 +10809,7 @@
         <v>0</v>
       </c>
       <c r="H311" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10817,7 +10835,7 @@
         <v>0</v>
       </c>
       <c r="H312" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10843,7 +10861,7 @@
         <v>0</v>
       </c>
       <c r="H313" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10869,7 +10887,7 @@
         <v>0</v>
       </c>
       <c r="H314" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10895,7 +10913,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10921,7 +10939,7 @@
         <v>0</v>
       </c>
       <c r="H316" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10947,7 +10965,7 @@
         <v>0</v>
       </c>
       <c r="H317" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10973,7 +10991,7 @@
         <v>0.9408311744300493</v>
       </c>
       <c r="H318" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10999,7 +11017,7 @@
         <v>0.2281076034476917</v>
       </c>
       <c r="H319" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -11025,7 +11043,7 @@
         <v>0.2584835532146987</v>
       </c>
       <c r="H320" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -11051,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="H321" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -11077,7 +11095,7 @@
         <v>0.49663247087312</v>
       </c>
       <c r="H322" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -11103,7 +11121,7 @@
         <v>0.7142898090287908</v>
       </c>
       <c r="H323" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -11129,7 +11147,7 @@
         <v>0.6838526371805752</v>
       </c>
       <c r="H324" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -11155,7 +11173,7 @@
         <v>1</v>
       </c>
       <c r="H325" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -11181,7 +11199,7 @@
         <v>0.8669334352785576</v>
       </c>
       <c r="H326" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -11207,7 +11225,7 @@
         <v>1</v>
       </c>
       <c r="H327" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -11233,7 +11251,7 @@
         <v>0.1987863872524352</v>
       </c>
       <c r="H328" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -11259,7 +11277,7 @@
         <v>0</v>
       </c>
       <c r="H329" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -11285,7 +11303,7 @@
         <v>0.2962742518059081</v>
       </c>
       <c r="H330" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -11311,7 +11329,7 @@
         <v>0.8764820442189873</v>
       </c>
       <c r="H331" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -11337,7 +11355,7 @@
         <v>1</v>
       </c>
       <c r="H332" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -11363,7 +11381,7 @@
         <v>1</v>
       </c>
       <c r="H333" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -11389,7 +11407,7 @@
         <v>0.1209662521283257</v>
       </c>
       <c r="H334" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -11415,7 +11433,7 @@
         <v>0.1691055214091461</v>
       </c>
       <c r="H335" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -11441,7 +11459,7 @@
         <v>1</v>
       </c>
       <c r="H336" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -11467,7 +11485,7 @@
         <v>0.2094118740417113</v>
       </c>
       <c r="H337" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -11493,7 +11511,7 @@
         <v>0</v>
       </c>
       <c r="H338" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -11519,7 +11537,7 @@
         <v>0.5156827272568333</v>
       </c>
       <c r="H339" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -11545,7 +11563,7 @@
         <v>0.9070222351886812</v>
       </c>
       <c r="H340" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -11571,7 +11589,7 @@
         <v>1</v>
       </c>
       <c r="H341" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -11597,7 +11615,7 @@
         <v>0</v>
       </c>
       <c r="H342" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11623,7 +11641,7 @@
         <v>1</v>
       </c>
       <c r="H343" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11649,7 +11667,7 @@
         <v>1</v>
       </c>
       <c r="H344" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11675,7 +11693,7 @@
         <v>0.3535956611716411</v>
       </c>
       <c r="H345" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11701,7 +11719,7 @@
         <v>0.3446389756593827</v>
       </c>
       <c r="H346" t="s">
-        <v>703</v>
+        <v>709</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11727,7 +11745,7 @@
         <v>1</v>
       </c>
       <c r="H347" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11753,7 +11771,7 @@
         <v>1</v>
       </c>
       <c r="H348" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11779,7 +11797,7 @@
         <v>0.5328032329248698</v>
       </c>
       <c r="H349" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11805,7 +11823,7 @@
         <v>0.4185556812752281</v>
       </c>
       <c r="H350" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11831,7 +11849,7 @@
         <v>1</v>
       </c>
       <c r="H351" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11857,7 +11875,7 @@
         <v>0</v>
       </c>
       <c r="H352" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11883,7 +11901,7 @@
         <v>0</v>
       </c>
       <c r="H353" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11909,7 +11927,7 @@
         <v>0</v>
       </c>
       <c r="H354" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11935,7 +11953,7 @@
         <v>1</v>
       </c>
       <c r="H355" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11961,7 +11979,7 @@
         <v>0.4671289773253784</v>
       </c>
       <c r="H356" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11987,7 +12005,7 @@
         <v>0.620001927632466</v>
       </c>
       <c r="H357" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -12013,7 +12031,7 @@
         <v>0.6957105060667875</v>
       </c>
       <c r="H358" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -12039,7 +12057,7 @@
         <v>0</v>
       </c>
       <c r="H359" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -12065,7 +12083,7 @@
         <v>0.4905456411905179</v>
       </c>
       <c r="H360" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -12091,7 +12109,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -12117,7 +12135,7 @@
         <v>0</v>
       </c>
       <c r="H362" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -12143,7 +12161,7 @@
         <v>0</v>
       </c>
       <c r="H363" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -12169,7 +12187,7 @@
         <v>0</v>
       </c>
       <c r="H364" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -12195,7 +12213,7 @@
         <v>0</v>
       </c>
       <c r="H365" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -12221,7 +12239,7 @@
         <v>1</v>
       </c>
       <c r="H366" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -12247,7 +12265,7 @@
         <v>0</v>
       </c>
       <c r="H367" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -12273,7 +12291,7 @@
         <v>0</v>
       </c>
       <c r="H368" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -12299,7 +12317,7 @@
         <v>1</v>
       </c>
       <c r="H369" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -12325,7 +12343,7 @@
         <v>0.6127664785798932</v>
       </c>
       <c r="H370" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -12351,7 +12369,7 @@
         <v>1</v>
       </c>
       <c r="H371" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -12377,7 +12395,7 @@
         <v>1</v>
       </c>
       <c r="H372" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -12403,7 +12421,7 @@
         <v>0</v>
       </c>
       <c r="H373" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -12429,7 +12447,7 @@
         <v>1</v>
       </c>
       <c r="H374" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -12455,7 +12473,7 @@
         <v>0</v>
       </c>
       <c r="H375" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -12481,7 +12499,7 @@
         <v>1</v>
       </c>
       <c r="H376" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -12507,7 +12525,7 @@
         <v>0</v>
       </c>
       <c r="H377" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -12533,7 +12551,7 @@
         <v>0</v>
       </c>
       <c r="H378" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -12559,7 +12577,7 @@
         <v>0</v>
       </c>
       <c r="H379" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -12585,7 +12603,7 @@
         <v>0.2247282290278291</v>
       </c>
       <c r="H380" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -12611,7 +12629,7 @@
         <v>1</v>
       </c>
       <c r="H381" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12637,7 +12655,7 @@
         <v>1</v>
       </c>
       <c r="H382" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12663,7 +12681,7 @@
         <v>1</v>
       </c>
       <c r="H383" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12689,7 +12707,7 @@
         <v>1</v>
       </c>
       <c r="H384" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12715,7 +12733,7 @@
         <v>1</v>
       </c>
       <c r="H385" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12741,7 +12759,7 @@
         <v>0.5175780030761412</v>
       </c>
       <c r="H386" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12767,7 +12785,7 @@
         <v>0.407629165987654</v>
       </c>
       <c r="H387" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12793,7 +12811,7 @@
         <v>0.5917118171892221</v>
       </c>
       <c r="H388" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12819,7 +12837,7 @@
         <v>0</v>
       </c>
       <c r="H389" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12845,7 +12863,7 @@
         <v>0</v>
       </c>
       <c r="H390" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12871,7 +12889,7 @@
         <v>0.1210744071449007</v>
       </c>
       <c r="H391" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12897,7 +12915,7 @@
         <v>0</v>
       </c>
       <c r="H392" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12923,7 +12941,7 @@
         <v>0.4730991435488794</v>
       </c>
       <c r="H393" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12949,7 +12967,7 @@
         <v>1</v>
       </c>
       <c r="H394" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12975,7 +12993,7 @@
         <v>0</v>
       </c>
       <c r="H395" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -13001,7 +13019,7 @@
         <v>1</v>
       </c>
       <c r="H396" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -13027,7 +13045,7 @@
         <v>1</v>
       </c>
       <c r="H397" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -13053,7 +13071,7 @@
         <v>1</v>
       </c>
       <c r="H398" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -13079,7 +13097,7 @@
         <v>1</v>
       </c>
       <c r="H399" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -13105,7 +13123,7 @@
         <v>0</v>
       </c>
       <c r="H400" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -13131,7 +13149,7 @@
         <v>1</v>
       </c>
       <c r="H401" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -13157,7 +13175,7 @@
         <v>1</v>
       </c>
       <c r="H402" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -13183,7 +13201,7 @@
         <v>0</v>
       </c>
       <c r="H403" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -13209,7 +13227,7 @@
         <v>1</v>
       </c>
       <c r="H404" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -13235,7 +13253,7 @@
         <v>0</v>
       </c>
       <c r="H405" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -13261,7 +13279,7 @@
         <v>0.7209622620919816</v>
       </c>
       <c r="H406" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -13287,7 +13305,7 @@
         <v>1</v>
       </c>
       <c r="H407" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -13313,7 +13331,7 @@
         <v>1</v>
       </c>
       <c r="H408" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -13339,7 +13357,7 @@
         <v>1</v>
       </c>
       <c r="H409" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -13365,7 +13383,7 @@
         <v>1</v>
       </c>
       <c r="H410" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -13391,7 +13409,7 @@
         <v>0</v>
       </c>
       <c r="H411" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -13417,7 +13435,7 @@
         <v>1</v>
       </c>
       <c r="H412" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -13443,7 +13461,7 @@
         <v>0</v>
       </c>
       <c r="H413" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -13469,7 +13487,7 @@
         <v>1</v>
       </c>
       <c r="H414" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -13495,7 +13513,7 @@
         <v>1</v>
       </c>
       <c r="H415" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -13521,7 +13539,7 @@
         <v>1</v>
       </c>
       <c r="H416" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -13547,7 +13565,7 @@
         <v>0.7565382919417687</v>
       </c>
       <c r="H417" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -13573,7 +13591,7 @@
         <v>1</v>
       </c>
       <c r="H418" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -13599,7 +13617,7 @@
         <v>0.58958180434202</v>
       </c>
       <c r="H419" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13625,7 +13643,7 @@
         <v>0.4342165329712733</v>
       </c>
       <c r="H420" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13651,7 +13669,7 @@
         <v>1</v>
       </c>
       <c r="H421" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13677,7 +13695,7 @@
         <v>0.6575336465873136</v>
       </c>
       <c r="H422" t="s">
-        <v>721</v>
+        <v>727</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13703,7 +13721,7 @@
         <v>1</v>
       </c>
       <c r="H423" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13729,7 +13747,7 @@
         <v>1</v>
       </c>
       <c r="H424" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13755,7 +13773,7 @@
         <v>1</v>
       </c>
       <c r="H425" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13781,7 +13799,7 @@
         <v>1</v>
       </c>
       <c r="H426" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13807,7 +13825,7 @@
         <v>0.1931729729332681</v>
       </c>
       <c r="H427" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13833,7 +13851,7 @@
         <v>1</v>
       </c>
       <c r="H428" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13859,7 +13877,7 @@
         <v>0.838787845031057</v>
       </c>
       <c r="H429" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13885,7 +13903,7 @@
         <v>0</v>
       </c>
       <c r="H430" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13911,7 +13929,7 @@
         <v>0.1022396663436237</v>
       </c>
       <c r="H431" t="s">
-        <v>724</v>
+        <v>730</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13937,7 +13955,7 @@
         <v>0</v>
       </c>
       <c r="H432" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13963,7 +13981,7 @@
         <v>1</v>
       </c>
       <c r="H433" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13989,7 +14007,7 @@
         <v>0.4540250855516209</v>
       </c>
       <c r="H434" t="s">
-        <v>725</v>
+        <v>731</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -14015,7 +14033,7 @@
         <v>0.2896165830953565</v>
       </c>
       <c r="H435" t="s">
-        <v>726</v>
+        <v>732</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -14041,7 +14059,7 @@
         <v>0.7917401509339994</v>
       </c>
       <c r="H436" t="s">
-        <v>727</v>
+        <v>733</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -14067,7 +14085,7 @@
         <v>0</v>
       </c>
       <c r="H437" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -14093,7 +14111,7 @@
         <v>1</v>
       </c>
       <c r="H438" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -14119,7 +14137,7 @@
         <v>0.7067178088732917</v>
       </c>
       <c r="H439" t="s">
-        <v>728</v>
+        <v>734</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -14145,7 +14163,7 @@
         <v>1</v>
       </c>
       <c r="H440" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -14171,7 +14189,7 @@
         <v>1</v>
       </c>
       <c r="H441" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -14197,7 +14215,7 @@
         <v>0</v>
       </c>
       <c r="H442" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -14223,7 +14241,7 @@
         <v>1</v>
       </c>
       <c r="H443" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -14249,7 +14267,7 @@
         <v>1</v>
       </c>
       <c r="H444" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -14275,7 +14293,7 @@
         <v>1</v>
       </c>
       <c r="H445" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -14301,7 +14319,7 @@
         <v>0.3206802237079347</v>
       </c>
       <c r="H446" t="s">
-        <v>729</v>
+        <v>735</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -14327,7 +14345,7 @@
         <v>0</v>
       </c>
       <c r="H447" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -14353,7 +14371,7 @@
         <v>0.2166572947957321</v>
       </c>
       <c r="H448" t="s">
-        <v>730</v>
+        <v>736</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -14379,7 +14397,7 @@
         <v>0.09220139004312224</v>
       </c>
       <c r="H449" t="s">
-        <v>731</v>
+        <v>737</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -14405,7 +14423,7 @@
         <v>0</v>
       </c>
       <c r="H450" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -14431,7 +14449,7 @@
         <v>0</v>
       </c>
       <c r="H451" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -14457,7 +14475,7 @@
         <v>1</v>
       </c>
       <c r="H452" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -14483,7 +14501,7 @@
         <v>1</v>
       </c>
       <c r="H453" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -14509,7 +14527,7 @@
         <v>1</v>
       </c>
       <c r="H454" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -14535,7 +14553,7 @@
         <v>1</v>
       </c>
       <c r="H455" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -14561,7 +14579,7 @@
         <v>1</v>
       </c>
       <c r="H456" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -14587,7 +14605,7 @@
         <v>0.5355349910433382</v>
       </c>
       <c r="H457" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14613,7 +14631,7 @@
         <v>1</v>
       </c>
       <c r="H458" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14639,7 +14657,7 @@
         <v>1</v>
       </c>
       <c r="H459" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14665,7 +14683,7 @@
         <v>0</v>
       </c>
       <c r="H460" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14691,7 +14709,7 @@
         <v>0.7362068598138494</v>
       </c>
       <c r="H461" t="s">
-        <v>733</v>
+        <v>739</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14717,7 +14735,7 @@
         <v>1</v>
       </c>
       <c r="H462" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14743,7 +14761,7 @@
         <v>1</v>
       </c>
       <c r="H463" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14769,7 +14787,7 @@
         <v>0.8290442293029383</v>
       </c>
       <c r="H464" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14795,7 +14813,7 @@
         <v>1</v>
       </c>
       <c r="H465" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14821,7 +14839,7 @@
         <v>1</v>
       </c>
       <c r="H466" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14847,7 +14865,7 @@
         <v>0.2972172914877398</v>
       </c>
       <c r="H467" t="s">
-        <v>735</v>
+        <v>741</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14873,7 +14891,7 @@
         <v>1</v>
       </c>
       <c r="H468" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14899,7 +14917,7 @@
         <v>0.3828030816675656</v>
       </c>
       <c r="H469" t="s">
-        <v>736</v>
+        <v>742</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14925,7 +14943,7 @@
         <v>1</v>
       </c>
       <c r="H470" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14951,7 +14969,7 @@
         <v>1</v>
       </c>
       <c r="H471" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14977,7 +14995,7 @@
         <v>0.7072751504056575</v>
       </c>
       <c r="H472" t="s">
-        <v>737</v>
+        <v>743</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -15003,7 +15021,7 @@
         <v>0.6887345743487142</v>
       </c>
       <c r="H473" t="s">
-        <v>738</v>
+        <v>744</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -15029,7 +15047,7 @@
         <v>0.1067305209771346</v>
       </c>
       <c r="H474" t="s">
-        <v>739</v>
+        <v>745</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -15055,7 +15073,7 @@
         <v>0</v>
       </c>
       <c r="H475" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -15081,7 +15099,7 @@
         <v>0.6057977033084144</v>
       </c>
       <c r="H476" t="s">
-        <v>740</v>
+        <v>746</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -15107,7 +15125,7 @@
         <v>0.6091777797350002</v>
       </c>
       <c r="H477" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -15133,7 +15151,7 @@
         <v>0.5694759431987656</v>
       </c>
       <c r="H478" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -15159,7 +15177,7 @@
         <v>0.6207146575699412</v>
       </c>
       <c r="H479" t="s">
-        <v>742</v>
+        <v>748</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -15185,7 +15203,7 @@
         <v>0.283376215899611</v>
       </c>
       <c r="H480" t="s">
-        <v>743</v>
+        <v>749</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -15211,7 +15229,7 @@
         <v>0.2427067649021355</v>
       </c>
       <c r="H481" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -15237,7 +15255,7 @@
         <v>1</v>
       </c>
       <c r="H482" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -15263,7 +15281,7 @@
         <v>0.5104176137220019</v>
       </c>
       <c r="H483" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -15289,7 +15307,7 @@
         <v>1</v>
       </c>
       <c r="H484" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -15315,7 +15333,7 @@
         <v>1</v>
       </c>
       <c r="H485" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -15341,7 +15359,7 @@
         <v>1</v>
       </c>
       <c r="H486" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -15367,7 +15385,7 @@
         <v>1</v>
       </c>
       <c r="H487" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -15393,7 +15411,7 @@
         <v>0.4677260579614761</v>
       </c>
       <c r="H488" t="s">
-        <v>746</v>
+        <v>752</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -15419,7 +15437,7 @@
         <v>1</v>
       </c>
       <c r="H489" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -15445,7 +15463,7 @@
         <v>0.476242461576072</v>
       </c>
       <c r="H490" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -15471,7 +15489,7 @@
         <v>1</v>
       </c>
       <c r="H491" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -15497,7 +15515,7 @@
         <v>0.4885601466764756</v>
       </c>
       <c r="H492" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -15523,7 +15541,7 @@
         <v>1</v>
       </c>
       <c r="H493" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -15549,7 +15567,7 @@
         <v>0.1892964267045682</v>
       </c>
       <c r="H494" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -15575,7 +15593,7 @@
         <v>1</v>
       </c>
       <c r="H495" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -15601,7 +15619,7 @@
         <v>1</v>
       </c>
       <c r="H496" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -15627,7 +15645,7 @@
         <v>0.562429454701116</v>
       </c>
       <c r="H497" t="s">
-        <v>750</v>
+        <v>756</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -15653,7 +15671,7 @@
         <v>0.5893467746014928</v>
       </c>
       <c r="H498" t="s">
-        <v>751</v>
+        <v>757</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -15679,7 +15697,7 @@
         <v>0.2453840526620205</v>
       </c>
       <c r="H499" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -15705,7 +15723,7 @@
         <v>1</v>
       </c>
       <c r="H500" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15731,7 +15749,7 @@
         <v>0.4919547742740523</v>
       </c>
       <c r="H501" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -15757,7 +15775,7 @@
         <v>1</v>
       </c>
       <c r="H502" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15783,7 +15801,7 @@
         <v>1</v>
       </c>
       <c r="H503" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -15809,7 +15827,7 @@
         <v>1</v>
       </c>
       <c r="H504" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -15835,7 +15853,7 @@
         <v>0.5332096778046151</v>
       </c>
       <c r="H505" t="s">
-        <v>754</v>
+        <v>760</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -15861,7 +15879,7 @@
         <v>1</v>
       </c>
       <c r="H506" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15887,7 +15905,7 @@
         <v>0.4095043245568133</v>
       </c>
       <c r="H507" t="s">
-        <v>755</v>
+        <v>761</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15913,7 +15931,7 @@
         <v>0.9563556993906542</v>
       </c>
       <c r="H508" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15939,7 +15957,7 @@
         <v>1</v>
       </c>
       <c r="H509" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15965,7 +15983,7 @@
         <v>0.3151420077674845</v>
       </c>
       <c r="H510" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15991,7 +16009,7 @@
         <v>1</v>
       </c>
       <c r="H511" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -16017,7 +16035,7 @@
         <v>0</v>
       </c>
       <c r="H512" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -16043,7 +16061,7 @@
         <v>0.1226144815616208</v>
       </c>
       <c r="H513" t="s">
-        <v>758</v>
+        <v>764</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -16069,7 +16087,7 @@
         <v>0.348937876188559</v>
       </c>
       <c r="H514" t="s">
-        <v>759</v>
+        <v>765</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -16095,7 +16113,7 @@
         <v>1</v>
       </c>
       <c r="H515" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -16121,7 +16139,7 @@
         <v>1</v>
       </c>
       <c r="H516" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -16147,7 +16165,7 @@
         <v>1</v>
       </c>
       <c r="H517" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -16173,7 +16191,7 @@
         <v>0.8236312239487298</v>
       </c>
       <c r="H518" t="s">
-        <v>760</v>
+        <v>766</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -16199,7 +16217,7 @@
         <v>1</v>
       </c>
       <c r="H519" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -16225,7 +16243,7 @@
         <v>0.4553771692067081</v>
       </c>
       <c r="H520" t="s">
-        <v>761</v>
+        <v>767</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -16251,7 +16269,7 @@
         <v>1</v>
       </c>
       <c r="H521" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -16277,7 +16295,7 @@
         <v>0.7309927778789053</v>
       </c>
       <c r="H522" t="s">
-        <v>762</v>
+        <v>768</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -16303,7 +16321,7 @@
         <v>1</v>
       </c>
       <c r="H523" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -16329,7 +16347,7 @@
         <v>0.5966838048782487</v>
       </c>
       <c r="H524" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -16355,7 +16373,7 @@
         <v>1</v>
       </c>
       <c r="H525" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -16381,7 +16399,7 @@
         <v>0.5392000628733806</v>
       </c>
       <c r="H526" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -16407,7 +16425,7 @@
         <v>0.2752626559507874</v>
       </c>
       <c r="H527" t="s">
-        <v>765</v>
+        <v>771</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -16433,7 +16451,7 @@
         <v>0.6423944529437058</v>
       </c>
       <c r="H528" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -16459,7 +16477,7 @@
         <v>0.7096367257969294</v>
       </c>
       <c r="H529" t="s">
-        <v>767</v>
+        <v>773</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -16485,7 +16503,7 @@
         <v>0.266</v>
       </c>
       <c r="H530" t="s">
-        <v>768</v>
+        <v>774</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -16511,7 +16529,7 @@
         <v>0.2872</v>
       </c>
       <c r="H531" t="s">
-        <v>769</v>
+        <v>775</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -16537,7 +16555,7 @@
         <v>0.6227</v>
       </c>
       <c r="H532" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -16563,7 +16581,7 @@
         <v>1</v>
       </c>
       <c r="H533" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -16589,7 +16607,7 @@
         <v>0</v>
       </c>
       <c r="H534" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -16615,7 +16633,7 @@
         <v>1</v>
       </c>
       <c r="H535" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -16641,7 +16659,7 @@
         <v>1</v>
       </c>
       <c r="H536" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -16667,7 +16685,7 @@
         <v>0</v>
       </c>
       <c r="H537" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -16693,7 +16711,7 @@
         <v>0</v>
       </c>
       <c r="H538" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -16719,7 +16737,7 @@
         <v>0</v>
       </c>
       <c r="H539" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -16745,7 +16763,7 @@
         <v>0.6155</v>
       </c>
       <c r="H540" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -16771,7 +16789,7 @@
         <v>0.4573</v>
       </c>
       <c r="H541" t="s">
-        <v>772</v>
+        <v>778</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -16797,7 +16815,7 @@
         <v>1</v>
       </c>
       <c r="H542" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -16823,7 +16841,7 @@
         <v>0.835</v>
       </c>
       <c r="H543" t="s">
-        <v>773</v>
+        <v>779</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -16849,7 +16867,7 @@
         <v>0.7548999999999999</v>
       </c>
       <c r="H544" t="s">
-        <v>774</v>
+        <v>780</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -16875,7 +16893,7 @@
         <v>1</v>
       </c>
       <c r="H545" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -16901,7 +16919,7 @@
         <v>0</v>
       </c>
       <c r="H546" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -16927,7 +16945,7 @@
         <v>0</v>
       </c>
       <c r="H547" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -16953,7 +16971,7 @@
         <v>0.9719</v>
       </c>
       <c r="H548" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -16979,7 +16997,7 @@
         <v>0</v>
       </c>
       <c r="H549" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -17005,7 +17023,7 @@
         <v>0</v>
       </c>
       <c r="H550" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -17031,7 +17049,7 @@
         <v>0</v>
       </c>
       <c r="H551" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -17057,7 +17075,7 @@
         <v>0.2973</v>
       </c>
       <c r="H552" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -17083,7 +17101,7 @@
         <v>1</v>
       </c>
       <c r="H553" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -17109,7 +17127,7 @@
         <v>1</v>
       </c>
       <c r="H554" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -17135,7 +17153,7 @@
         <v>1</v>
       </c>
       <c r="H555" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -17161,7 +17179,7 @@
         <v>1</v>
       </c>
       <c r="H556" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -17187,7 +17205,7 @@
         <v>1</v>
       </c>
       <c r="H557" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -17213,7 +17231,7 @@
         <v>1</v>
       </c>
       <c r="H558" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -17239,7 +17257,7 @@
         <v>1</v>
       </c>
       <c r="H559" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -17265,7 +17283,7 @@
         <v>0</v>
       </c>
       <c r="H560" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -17291,7 +17309,7 @@
         <v>0</v>
       </c>
       <c r="H561" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -17317,7 +17335,7 @@
         <v>0</v>
       </c>
       <c r="H562" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -17343,7 +17361,7 @@
         <v>0</v>
       </c>
       <c r="H563" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -17369,7 +17387,7 @@
         <v>1</v>
       </c>
       <c r="H564" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -17395,7 +17413,7 @@
         <v>1</v>
       </c>
       <c r="H565" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -17405,8 +17423,14 @@
       <c r="B566" t="s">
         <v>571</v>
       </c>
+      <c r="C566">
+        <v>0</v>
+      </c>
       <c r="D566">
         <v>0</v>
+      </c>
+      <c r="E566">
+        <v>1</v>
       </c>
       <c r="F566">
         <v>0.9734</v>
@@ -17415,7 +17439,157 @@
         <v>0.0266</v>
       </c>
       <c r="H566" t="s">
-        <v>777</v>
+        <v>783</v>
+      </c>
+    </row>
+    <row r="567" spans="1:8">
+      <c r="A567" s="1">
+        <v>565</v>
+      </c>
+      <c r="B567" t="s">
+        <v>572</v>
+      </c>
+      <c r="C567">
+        <v>1</v>
+      </c>
+      <c r="D567">
+        <v>0</v>
+      </c>
+      <c r="E567">
+        <v>0</v>
+      </c>
+      <c r="F567">
+        <v>1</v>
+      </c>
+      <c r="G567">
+        <v>0</v>
+      </c>
+      <c r="H567" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="568" spans="1:8">
+      <c r="A568" s="1">
+        <v>566</v>
+      </c>
+      <c r="B568" t="s">
+        <v>573</v>
+      </c>
+      <c r="C568">
+        <v>1</v>
+      </c>
+      <c r="D568">
+        <v>1</v>
+      </c>
+      <c r="E568">
+        <v>1</v>
+      </c>
+      <c r="F568">
+        <v>0</v>
+      </c>
+      <c r="G568">
+        <v>1</v>
+      </c>
+      <c r="H568" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="569" spans="1:8">
+      <c r="A569" s="1">
+        <v>567</v>
+      </c>
+      <c r="B569" t="s">
+        <v>574</v>
+      </c>
+      <c r="C569">
+        <v>1</v>
+      </c>
+      <c r="D569">
+        <v>1</v>
+      </c>
+      <c r="E569">
+        <v>1</v>
+      </c>
+      <c r="F569">
+        <v>0</v>
+      </c>
+      <c r="G569">
+        <v>1</v>
+      </c>
+      <c r="H569" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="570" spans="1:8">
+      <c r="A570" s="1">
+        <v>568</v>
+      </c>
+      <c r="B570" t="s">
+        <v>575</v>
+      </c>
+      <c r="C570">
+        <v>0</v>
+      </c>
+      <c r="D570">
+        <v>1</v>
+      </c>
+      <c r="E570">
+        <v>0</v>
+      </c>
+      <c r="F570">
+        <v>0</v>
+      </c>
+      <c r="G570">
+        <v>1</v>
+      </c>
+      <c r="H570" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="571" spans="1:8">
+      <c r="A571" s="1">
+        <v>569</v>
+      </c>
+      <c r="B571" t="s">
+        <v>576</v>
+      </c>
+      <c r="C571">
+        <v>1</v>
+      </c>
+      <c r="D571">
+        <v>0</v>
+      </c>
+      <c r="E571">
+        <v>0</v>
+      </c>
+      <c r="F571">
+        <v>1</v>
+      </c>
+      <c r="G571">
+        <v>0</v>
+      </c>
+      <c r="H571" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="572" spans="1:8">
+      <c r="A572" s="1">
+        <v>570</v>
+      </c>
+      <c r="B572" t="s">
+        <v>577</v>
+      </c>
+      <c r="D572">
+        <v>0</v>
+      </c>
+      <c r="F572">
+        <v>1</v>
+      </c>
+      <c r="G572">
+        <v>0</v>
+      </c>
+      <c r="H572" t="s">
+        <v>579</v>
       </c>
     </row>
   </sheetData>

--- a/firebase_data_from_spyEnsembleVSMO_v2.xlsx
+++ b/firebase_data_from_spyEnsembleVSMO_v2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="786">
   <si>
     <t>date</t>
   </si>
@@ -1748,6 +1748,12 @@
   </si>
   <si>
     <t>2025-09-09</t>
+  </si>
+  <si>
+    <t>2025-09-10</t>
+  </si>
+  <si>
+    <t>2025-09-11</t>
   </si>
   <si>
     <t>0.00</t>
@@ -2723,7 +2729,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H572"/>
+  <dimension ref="A1:H574"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2775,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2801,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2827,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2853,7 +2859,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2879,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2905,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2931,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2957,7 +2963,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2983,7 +2989,7 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3009,7 +3015,7 @@
         <v>0.04303446040071349</v>
       </c>
       <c r="H11" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3035,7 +3041,7 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3061,7 +3067,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3087,7 +3093,7 @@
         <v>0.915256809318685</v>
       </c>
       <c r="H14" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3113,7 +3119,7 @@
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -3139,7 +3145,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -3165,7 +3171,7 @@
         <v>0.6184143588780344</v>
       </c>
       <c r="H17" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -3191,7 +3197,7 @@
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -3217,7 +3223,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -3243,7 +3249,7 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3269,7 +3275,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3295,7 +3301,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -3321,7 +3327,7 @@
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3347,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3373,7 +3379,7 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -3399,7 +3405,7 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3425,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3451,7 +3457,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3477,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3503,7 +3509,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3529,7 +3535,7 @@
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3555,7 +3561,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3581,7 +3587,7 @@
         <v>0.745393260242324</v>
       </c>
       <c r="H33" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3607,7 +3613,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3633,7 +3639,7 @@
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3659,7 +3665,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3685,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3711,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3737,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3763,7 +3769,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3789,7 +3795,7 @@
         <v>0.683079705692312</v>
       </c>
       <c r="H41" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3815,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3841,7 +3847,7 @@
         <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3867,7 +3873,7 @@
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3893,7 +3899,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3919,7 +3925,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3945,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3971,7 +3977,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3997,7 +4003,7 @@
         <v>0.4307420609211915</v>
       </c>
       <c r="H49" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -4023,7 +4029,7 @@
         <v>0.4817317520945901</v>
       </c>
       <c r="H50" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -4049,7 +4055,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -4075,7 +4081,7 @@
         <v>0.5570981908629731</v>
       </c>
       <c r="H52" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -4101,7 +4107,7 @@
         <v>0.7872019792055407</v>
       </c>
       <c r="H53" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -4127,7 +4133,7 @@
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -4153,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -4179,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -4205,7 +4211,7 @@
         <v>0.215245798636519</v>
       </c>
       <c r="H57" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -4231,7 +4237,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -4257,7 +4263,7 @@
         <v>0.3135669763477688</v>
       </c>
       <c r="H59" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -4283,7 +4289,7 @@
         <v>0.1529716371439602</v>
       </c>
       <c r="H60" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -4309,7 +4315,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -4335,7 +4341,7 @@
         <v>0.3106901159644614</v>
       </c>
       <c r="H62" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -4361,7 +4367,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -4387,7 +4393,7 @@
         <v>0.2867490636277352</v>
       </c>
       <c r="H64" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -4413,7 +4419,7 @@
         <v>0.9498742410172212</v>
       </c>
       <c r="H65" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -4439,7 +4445,7 @@
         <v>1</v>
       </c>
       <c r="H66" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -4465,7 +4471,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -4491,7 +4497,7 @@
         <v>1</v>
       </c>
       <c r="H68" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4517,7 +4523,7 @@
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4543,7 +4549,7 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4569,7 +4575,7 @@
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4595,7 +4601,7 @@
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4621,7 +4627,7 @@
         <v>0.1304718106398864</v>
       </c>
       <c r="H73" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4647,7 +4653,7 @@
         <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4673,7 +4679,7 @@
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4699,7 +4705,7 @@
         <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4725,7 +4731,7 @@
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4751,7 +4757,7 @@
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4777,7 +4783,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4803,7 +4809,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4829,7 +4835,7 @@
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4855,7 +4861,7 @@
         <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4881,7 +4887,7 @@
         <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4907,7 +4913,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4933,7 +4939,7 @@
         <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4959,7 +4965,7 @@
         <v>0.414032993753131</v>
       </c>
       <c r="H86" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4985,7 +4991,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -5011,7 +5017,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -5037,7 +5043,7 @@
         <v>1</v>
       </c>
       <c r="H89" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -5063,7 +5069,7 @@
         <v>1</v>
       </c>
       <c r="H90" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -5089,7 +5095,7 @@
         <v>1</v>
       </c>
       <c r="H91" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -5115,7 +5121,7 @@
         <v>0.9279948866595563</v>
       </c>
       <c r="H92" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -5141,7 +5147,7 @@
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -5167,7 +5173,7 @@
         <v>1</v>
       </c>
       <c r="H94" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -5193,7 +5199,7 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -5219,7 +5225,7 @@
         <v>0.1871628344782118</v>
       </c>
       <c r="H96" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -5245,7 +5251,7 @@
         <v>1</v>
       </c>
       <c r="H97" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -5271,7 +5277,7 @@
         <v>1</v>
       </c>
       <c r="H98" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -5297,7 +5303,7 @@
         <v>0.8771001701943608</v>
       </c>
       <c r="H99" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -5323,7 +5329,7 @@
         <v>0.2146591320888346</v>
       </c>
       <c r="H100" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -5349,7 +5355,7 @@
         <v>1</v>
       </c>
       <c r="H101" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -5375,7 +5381,7 @@
         <v>1</v>
       </c>
       <c r="H102" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -5401,7 +5407,7 @@
         <v>1</v>
       </c>
       <c r="H103" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -5427,7 +5433,7 @@
         <v>1</v>
       </c>
       <c r="H104" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -5453,7 +5459,7 @@
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5479,7 +5485,7 @@
         <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5505,7 +5511,7 @@
         <v>1</v>
       </c>
       <c r="H107" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5531,7 +5537,7 @@
         <v>1</v>
       </c>
       <c r="H108" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5557,7 +5563,7 @@
         <v>1</v>
       </c>
       <c r="H109" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5583,7 +5589,7 @@
         <v>1</v>
       </c>
       <c r="H110" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5609,7 +5615,7 @@
         <v>1</v>
       </c>
       <c r="H111" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5635,7 +5641,7 @@
         <v>0.2055505200809835</v>
       </c>
       <c r="H112" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5661,7 +5667,7 @@
         <v>1</v>
       </c>
       <c r="H113" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5687,7 +5693,7 @@
         <v>0.2995528011053107</v>
       </c>
       <c r="H114" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5713,7 +5719,7 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5739,7 +5745,7 @@
         <v>0.4699445027580825</v>
       </c>
       <c r="H116" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5765,7 +5771,7 @@
         <v>0.770937588646547</v>
       </c>
       <c r="H117" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5791,7 +5797,7 @@
         <v>0.7826457521192932</v>
       </c>
       <c r="H118" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5817,7 +5823,7 @@
         <v>0.4304704948469578</v>
       </c>
       <c r="H119" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5843,7 +5849,7 @@
         <v>1</v>
       </c>
       <c r="H120" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5869,7 +5875,7 @@
         <v>0.6719963442506929</v>
       </c>
       <c r="H121" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5895,7 +5901,7 @@
         <v>1</v>
       </c>
       <c r="H122" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5921,7 +5927,7 @@
         <v>0.5375310953297759</v>
       </c>
       <c r="H123" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5947,7 +5953,7 @@
         <v>0.6497318652602996</v>
       </c>
       <c r="H124" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5973,7 +5979,7 @@
         <v>0.4013470357796504</v>
       </c>
       <c r="H125" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5999,7 +6005,7 @@
         <v>0.4404307186051412</v>
       </c>
       <c r="H126" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -6025,7 +6031,7 @@
         <v>0.7535410487481622</v>
       </c>
       <c r="H127" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -6051,7 +6057,7 @@
         <v>0.1968264148093589</v>
       </c>
       <c r="H128" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -6077,7 +6083,7 @@
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -6103,7 +6109,7 @@
         <v>0.5903062422634243</v>
       </c>
       <c r="H130" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -6129,7 +6135,7 @@
         <v>0.3143863952226104</v>
       </c>
       <c r="H131" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -6155,7 +6161,7 @@
         <v>0.5251513973196068</v>
       </c>
       <c r="H132" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -6181,7 +6187,7 @@
         <v>0.26776714123178</v>
       </c>
       <c r="H133" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -6207,7 +6213,7 @@
         <v>0.2026359533431654</v>
       </c>
       <c r="H134" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -6233,7 +6239,7 @@
         <v>1</v>
       </c>
       <c r="H135" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -6259,7 +6265,7 @@
         <v>1</v>
       </c>
       <c r="H136" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -6285,7 +6291,7 @@
         <v>0.5557953472408601</v>
       </c>
       <c r="H137" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -6311,7 +6317,7 @@
         <v>1</v>
       </c>
       <c r="H138" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -6337,7 +6343,7 @@
         <v>1</v>
       </c>
       <c r="H139" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -6363,7 +6369,7 @@
         <v>0.8945463189254167</v>
       </c>
       <c r="H140" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -6389,7 +6395,7 @@
         <v>0.6772450649528653</v>
       </c>
       <c r="H141" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -6415,7 +6421,7 @@
         <v>0.9188898615772668</v>
       </c>
       <c r="H142" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -6441,7 +6447,7 @@
         <v>0.6808222412559765</v>
       </c>
       <c r="H143" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -6467,7 +6473,7 @@
         <v>0.7236705146772729</v>
       </c>
       <c r="H144" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -6493,7 +6499,7 @@
         <v>1</v>
       </c>
       <c r="H145" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -6519,7 +6525,7 @@
         <v>1</v>
       </c>
       <c r="H146" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -6545,7 +6551,7 @@
         <v>0.4083837438899106</v>
       </c>
       <c r="H147" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6571,7 +6577,7 @@
         <v>1</v>
       </c>
       <c r="H148" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6597,7 +6603,7 @@
         <v>0</v>
       </c>
       <c r="H149" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6623,7 +6629,7 @@
         <v>0.6711645860416422</v>
       </c>
       <c r="H150" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6649,7 +6655,7 @@
         <v>0.2715172141387561</v>
       </c>
       <c r="H151" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6675,7 +6681,7 @@
         <v>0.2398762302450229</v>
       </c>
       <c r="H152" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6701,7 +6707,7 @@
         <v>0.5664737805177642</v>
       </c>
       <c r="H153" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6727,7 +6733,7 @@
         <v>0.4223113145194125</v>
       </c>
       <c r="H154" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6753,7 +6759,7 @@
         <v>0.3667629390545308</v>
       </c>
       <c r="H155" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6779,7 +6785,7 @@
         <v>0.9231722118787783</v>
       </c>
       <c r="H156" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6805,7 +6811,7 @@
         <v>0.9851787420357059</v>
       </c>
       <c r="H157" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6831,7 +6837,7 @@
         <v>0.4518542194729144</v>
       </c>
       <c r="H158" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6857,7 +6863,7 @@
         <v>0.4964868798335714</v>
       </c>
       <c r="H159" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6883,7 +6889,7 @@
         <v>1</v>
       </c>
       <c r="H160" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6909,7 +6915,7 @@
         <v>1</v>
       </c>
       <c r="H161" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6935,7 +6941,7 @@
         <v>1</v>
       </c>
       <c r="H162" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6961,7 +6967,7 @@
         <v>0.6766899544020667</v>
       </c>
       <c r="H163" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6987,7 +6993,7 @@
         <v>1</v>
       </c>
       <c r="H164" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -7013,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="H165" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -7039,7 +7045,7 @@
         <v>0.6910065861261394</v>
       </c>
       <c r="H166" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -7065,7 +7071,7 @@
         <v>1</v>
       </c>
       <c r="H167" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -7091,7 +7097,7 @@
         <v>1</v>
       </c>
       <c r="H168" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -7117,7 +7123,7 @@
         <v>1</v>
       </c>
       <c r="H169" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -7143,7 +7149,7 @@
         <v>0.3087324093735406</v>
       </c>
       <c r="H170" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -7169,7 +7175,7 @@
         <v>0.6040906971093285</v>
       </c>
       <c r="H171" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -7195,7 +7201,7 @@
         <v>1</v>
       </c>
       <c r="H172" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -7221,7 +7227,7 @@
         <v>1</v>
       </c>
       <c r="H173" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -7247,7 +7253,7 @@
         <v>0.5411987563813702</v>
       </c>
       <c r="H174" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -7273,7 +7279,7 @@
         <v>1</v>
       </c>
       <c r="H175" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -7299,7 +7305,7 @@
         <v>0.5366275239822063</v>
       </c>
       <c r="H176" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -7325,7 +7331,7 @@
         <v>0.7616464524958171</v>
       </c>
       <c r="H177" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -7351,7 +7357,7 @@
         <v>0.778584820565025</v>
       </c>
       <c r="H178" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -7377,7 +7383,7 @@
         <v>1</v>
       </c>
       <c r="H179" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -7403,7 +7409,7 @@
         <v>0.779814372339514</v>
       </c>
       <c r="H180" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -7429,7 +7435,7 @@
         <v>1</v>
       </c>
       <c r="H181" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -7455,7 +7461,7 @@
         <v>1</v>
       </c>
       <c r="H182" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -7481,7 +7487,7 @@
         <v>1</v>
       </c>
       <c r="H183" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -7507,7 +7513,7 @@
         <v>1</v>
       </c>
       <c r="H184" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -7533,7 +7539,7 @@
         <v>1</v>
       </c>
       <c r="H185" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -7559,7 +7565,7 @@
         <v>1</v>
       </c>
       <c r="H186" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7585,7 +7591,7 @@
         <v>0.3910910264558739</v>
       </c>
       <c r="H187" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7611,7 +7617,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7637,7 +7643,7 @@
         <v>0.3782183282254096</v>
       </c>
       <c r="H189" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7663,7 +7669,7 @@
         <v>1</v>
       </c>
       <c r="H190" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7689,7 +7695,7 @@
         <v>1</v>
       </c>
       <c r="H191" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7715,7 +7721,7 @@
         <v>0.5022217334415366</v>
       </c>
       <c r="H192" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7741,7 +7747,7 @@
         <v>0.5141989063837532</v>
       </c>
       <c r="H193" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7767,7 +7773,7 @@
         <v>0.3056884663520373</v>
       </c>
       <c r="H194" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7793,7 +7799,7 @@
         <v>0.9738865825460928</v>
       </c>
       <c r="H195" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7819,7 +7825,7 @@
         <v>0.3670780584150713</v>
       </c>
       <c r="H196" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7845,7 +7851,7 @@
         <v>0</v>
       </c>
       <c r="H197" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7871,7 +7877,7 @@
         <v>0</v>
       </c>
       <c r="H198" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7897,7 +7903,7 @@
         <v>0</v>
       </c>
       <c r="H199" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7923,7 +7929,7 @@
         <v>0.2629434170052546</v>
       </c>
       <c r="H200" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7949,7 +7955,7 @@
         <v>0</v>
       </c>
       <c r="H201" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7975,7 +7981,7 @@
         <v>0.3643661297271093</v>
       </c>
       <c r="H202" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -8001,7 +8007,7 @@
         <v>1</v>
       </c>
       <c r="H203" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -8027,7 +8033,7 @@
         <v>0.2007309629135912</v>
       </c>
       <c r="H204" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -8053,7 +8059,7 @@
         <v>0.3622835247576352</v>
       </c>
       <c r="H205" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -8079,7 +8085,7 @@
         <v>0.2580942394651852</v>
       </c>
       <c r="H206" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -8105,7 +8111,7 @@
         <v>0.2272896410009056</v>
       </c>
       <c r="H207" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -8131,7 +8137,7 @@
         <v>0.02259656952943894</v>
       </c>
       <c r="H208" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -8157,7 +8163,7 @@
         <v>1</v>
       </c>
       <c r="H209" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -8183,7 +8189,7 @@
         <v>0.316699835553751</v>
       </c>
       <c r="H210" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -8209,7 +8215,7 @@
         <v>0.2917756618279652</v>
       </c>
       <c r="H211" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -8235,7 +8241,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -8261,7 +8267,7 @@
         <v>1</v>
       </c>
       <c r="H213" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -8287,7 +8293,7 @@
         <v>1</v>
       </c>
       <c r="H214" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -8313,7 +8319,7 @@
         <v>1</v>
       </c>
       <c r="H215" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -8339,7 +8345,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -8365,7 +8371,7 @@
         <v>1</v>
       </c>
       <c r="H217" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -8391,7 +8397,7 @@
         <v>1</v>
       </c>
       <c r="H218" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -8417,7 +8423,7 @@
         <v>0</v>
       </c>
       <c r="H219" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -8443,7 +8449,7 @@
         <v>1</v>
       </c>
       <c r="H220" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -8469,7 +8475,7 @@
         <v>0.0621306534788825</v>
       </c>
       <c r="H221" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -8495,7 +8501,7 @@
         <v>0.9197124253853388</v>
       </c>
       <c r="H222" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -8521,7 +8527,7 @@
         <v>0.1534574198678031</v>
       </c>
       <c r="H223" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -8547,7 +8553,7 @@
         <v>0.0432766620547291</v>
       </c>
       <c r="H224" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -8573,7 +8579,7 @@
         <v>0</v>
       </c>
       <c r="H225" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8599,7 +8605,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8625,7 +8631,7 @@
         <v>1</v>
       </c>
       <c r="H227" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8651,7 +8657,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8677,7 +8683,7 @@
         <v>1</v>
       </c>
       <c r="H229" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8703,7 +8709,7 @@
         <v>1</v>
       </c>
       <c r="H230" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8729,7 +8735,7 @@
         <v>1</v>
       </c>
       <c r="H231" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8755,7 +8761,7 @@
         <v>1</v>
       </c>
       <c r="H232" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8781,7 +8787,7 @@
         <v>0</v>
       </c>
       <c r="H233" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8807,7 +8813,7 @@
         <v>1</v>
       </c>
       <c r="H234" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8833,7 +8839,7 @@
         <v>1</v>
       </c>
       <c r="H235" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8859,7 +8865,7 @@
         <v>1</v>
       </c>
       <c r="H236" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8885,7 +8891,7 @@
         <v>0</v>
       </c>
       <c r="H237" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8911,7 +8917,7 @@
         <v>1</v>
       </c>
       <c r="H238" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8937,7 +8943,7 @@
         <v>0.8495492332177974</v>
       </c>
       <c r="H239" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8963,7 +8969,7 @@
         <v>0.6287165807955644</v>
       </c>
       <c r="H240" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8989,7 +8995,7 @@
         <v>0.6590199742859937</v>
       </c>
       <c r="H241" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -9015,7 +9021,7 @@
         <v>1</v>
       </c>
       <c r="H242" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -9041,7 +9047,7 @@
         <v>1</v>
       </c>
       <c r="H243" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -9067,7 +9073,7 @@
         <v>0</v>
       </c>
       <c r="H244" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -9093,7 +9099,7 @@
         <v>0</v>
       </c>
       <c r="H245" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -9119,7 +9125,7 @@
         <v>1</v>
       </c>
       <c r="H246" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -9145,7 +9151,7 @@
         <v>0.009874081767952174</v>
       </c>
       <c r="H247" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -9171,7 +9177,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -9197,7 +9203,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -9223,7 +9229,7 @@
         <v>0.7771680614627153</v>
       </c>
       <c r="H250" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -9249,7 +9255,7 @@
         <v>0.684092991361349</v>
       </c>
       <c r="H251" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -9275,7 +9281,7 @@
         <v>0.6190568656417142</v>
       </c>
       <c r="H252" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -9301,7 +9307,7 @@
         <v>0.6179968680850856</v>
       </c>
       <c r="H253" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -9327,7 +9333,7 @@
         <v>0.5456188990663409</v>
       </c>
       <c r="H254" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -9353,7 +9359,7 @@
         <v>1</v>
       </c>
       <c r="H255" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -9379,7 +9385,7 @@
         <v>0.5074108996205345</v>
       </c>
       <c r="H256" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -9405,7 +9411,7 @@
         <v>0.3570787145669819</v>
       </c>
       <c r="H257" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -9431,7 +9437,7 @@
         <v>0.3430474956288668</v>
       </c>
       <c r="H258" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -9457,7 +9463,7 @@
         <v>0.3780916182620047</v>
       </c>
       <c r="H259" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -9483,7 +9489,7 @@
         <v>1</v>
       </c>
       <c r="H260" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -9509,7 +9515,7 @@
         <v>1</v>
       </c>
       <c r="H261" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -9535,7 +9541,7 @@
         <v>0.2400217296095157</v>
       </c>
       <c r="H262" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -9561,7 +9567,7 @@
         <v>0.3026477102582492</v>
       </c>
       <c r="H263" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -9587,7 +9593,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9613,7 +9619,7 @@
         <v>0.5824288330939381</v>
       </c>
       <c r="H265" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9639,7 +9645,7 @@
         <v>1</v>
       </c>
       <c r="H266" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9665,7 +9671,7 @@
         <v>1</v>
       </c>
       <c r="H267" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9691,7 +9697,7 @@
         <v>1</v>
       </c>
       <c r="H268" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9717,7 +9723,7 @@
         <v>0.4860554446028704</v>
       </c>
       <c r="H269" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9743,7 +9749,7 @@
         <v>0.5485218530910564</v>
       </c>
       <c r="H270" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9769,7 +9775,7 @@
         <v>0.5687845911126622</v>
       </c>
       <c r="H271" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9795,7 +9801,7 @@
         <v>1</v>
       </c>
       <c r="H272" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9821,7 +9827,7 @@
         <v>1</v>
       </c>
       <c r="H273" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9847,7 +9853,7 @@
         <v>1</v>
       </c>
       <c r="H274" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9873,7 +9879,7 @@
         <v>1</v>
       </c>
       <c r="H275" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9899,7 +9905,7 @@
         <v>0.5347201194974325</v>
       </c>
       <c r="H276" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9925,7 +9931,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9951,7 +9957,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9977,7 +9983,7 @@
         <v>0</v>
       </c>
       <c r="H279" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -10003,7 +10009,7 @@
         <v>0</v>
       </c>
       <c r="H280" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -10029,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -10055,7 +10061,7 @@
         <v>0</v>
       </c>
       <c r="H282" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -10081,7 +10087,7 @@
         <v>0</v>
       </c>
       <c r="H283" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -10107,7 +10113,7 @@
         <v>1</v>
       </c>
       <c r="H284" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -10133,7 +10139,7 @@
         <v>1</v>
       </c>
       <c r="H285" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -10159,7 +10165,7 @@
         <v>0</v>
       </c>
       <c r="H286" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -10185,7 +10191,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -10211,7 +10217,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -10237,7 +10243,7 @@
         <v>0.1387512764613225</v>
       </c>
       <c r="H289" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -10263,7 +10269,7 @@
         <v>0.09876212659905496</v>
       </c>
       <c r="H290" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -10289,7 +10295,7 @@
         <v>0</v>
       </c>
       <c r="H291" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -10315,7 +10321,7 @@
         <v>0</v>
       </c>
       <c r="H292" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -10341,7 +10347,7 @@
         <v>0</v>
       </c>
       <c r="H293" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -10367,7 +10373,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -10393,7 +10399,7 @@
         <v>0</v>
       </c>
       <c r="H295" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -10419,7 +10425,7 @@
         <v>0</v>
       </c>
       <c r="H296" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -10445,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="H297" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -10471,7 +10477,7 @@
         <v>0</v>
       </c>
       <c r="H298" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -10497,7 +10503,7 @@
         <v>1</v>
       </c>
       <c r="H299" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -10523,7 +10529,7 @@
         <v>0.8392691107314288</v>
       </c>
       <c r="H300" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -10549,7 +10555,7 @@
         <v>1</v>
       </c>
       <c r="H301" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -10575,7 +10581,7 @@
         <v>0.5725104927894985</v>
       </c>
       <c r="H302" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -10601,7 +10607,7 @@
         <v>0.6452248196870423</v>
       </c>
       <c r="H303" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10627,7 +10633,7 @@
         <v>0</v>
       </c>
       <c r="H304" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10653,7 +10659,7 @@
         <v>1</v>
       </c>
       <c r="H305" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10679,7 +10685,7 @@
         <v>0.6176258382287111</v>
       </c>
       <c r="H306" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10705,7 +10711,7 @@
         <v>0.1402908509712884</v>
       </c>
       <c r="H307" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10731,7 +10737,7 @@
         <v>0.2470817519305337</v>
       </c>
       <c r="H308" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10757,7 +10763,7 @@
         <v>0</v>
       </c>
       <c r="H309" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10783,7 +10789,7 @@
         <v>0</v>
       </c>
       <c r="H310" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10809,7 +10815,7 @@
         <v>0</v>
       </c>
       <c r="H311" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10835,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="H312" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10861,7 +10867,7 @@
         <v>0</v>
       </c>
       <c r="H313" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10887,7 +10893,7 @@
         <v>0</v>
       </c>
       <c r="H314" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10913,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10939,7 +10945,7 @@
         <v>0</v>
       </c>
       <c r="H316" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10965,7 +10971,7 @@
         <v>0</v>
       </c>
       <c r="H317" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10991,7 +10997,7 @@
         <v>0.9408311744300493</v>
       </c>
       <c r="H318" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -11017,7 +11023,7 @@
         <v>0.2281076034476917</v>
       </c>
       <c r="H319" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -11043,7 +11049,7 @@
         <v>0.2584835532146987</v>
       </c>
       <c r="H320" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -11069,7 +11075,7 @@
         <v>0</v>
       </c>
       <c r="H321" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -11095,7 +11101,7 @@
         <v>0.49663247087312</v>
       </c>
       <c r="H322" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -11121,7 +11127,7 @@
         <v>0.7142898090287908</v>
       </c>
       <c r="H323" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -11147,7 +11153,7 @@
         <v>0.6838526371805752</v>
       </c>
       <c r="H324" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -11173,7 +11179,7 @@
         <v>1</v>
       </c>
       <c r="H325" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -11199,7 +11205,7 @@
         <v>0.8669334352785576</v>
       </c>
       <c r="H326" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -11225,7 +11231,7 @@
         <v>1</v>
       </c>
       <c r="H327" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -11251,7 +11257,7 @@
         <v>0.1987863872524352</v>
       </c>
       <c r="H328" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -11277,7 +11283,7 @@
         <v>0</v>
       </c>
       <c r="H329" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -11303,7 +11309,7 @@
         <v>0.2962742518059081</v>
       </c>
       <c r="H330" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -11329,7 +11335,7 @@
         <v>0.8764820442189873</v>
       </c>
       <c r="H331" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -11355,7 +11361,7 @@
         <v>1</v>
       </c>
       <c r="H332" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -11381,7 +11387,7 @@
         <v>1</v>
       </c>
       <c r="H333" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -11407,7 +11413,7 @@
         <v>0.1209662521283257</v>
       </c>
       <c r="H334" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -11433,7 +11439,7 @@
         <v>0.1691055214091461</v>
       </c>
       <c r="H335" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -11459,7 +11465,7 @@
         <v>1</v>
       </c>
       <c r="H336" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -11485,7 +11491,7 @@
         <v>0.2094118740417113</v>
       </c>
       <c r="H337" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -11511,7 +11517,7 @@
         <v>0</v>
       </c>
       <c r="H338" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -11537,7 +11543,7 @@
         <v>0.5156827272568333</v>
       </c>
       <c r="H339" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -11563,7 +11569,7 @@
         <v>0.9070222351886812</v>
       </c>
       <c r="H340" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -11589,7 +11595,7 @@
         <v>1</v>
       </c>
       <c r="H341" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -11615,7 +11621,7 @@
         <v>0</v>
       </c>
       <c r="H342" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11641,7 +11647,7 @@
         <v>1</v>
       </c>
       <c r="H343" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11667,7 +11673,7 @@
         <v>1</v>
       </c>
       <c r="H344" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11693,7 +11699,7 @@
         <v>0.3535956611716411</v>
       </c>
       <c r="H345" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11719,7 +11725,7 @@
         <v>0.3446389756593827</v>
       </c>
       <c r="H346" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11745,7 +11751,7 @@
         <v>1</v>
       </c>
       <c r="H347" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11771,7 +11777,7 @@
         <v>1</v>
       </c>
       <c r="H348" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11797,7 +11803,7 @@
         <v>0.5328032329248698</v>
       </c>
       <c r="H349" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11823,7 +11829,7 @@
         <v>0.4185556812752281</v>
       </c>
       <c r="H350" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11849,7 +11855,7 @@
         <v>1</v>
       </c>
       <c r="H351" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11875,7 +11881,7 @@
         <v>0</v>
       </c>
       <c r="H352" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11901,7 +11907,7 @@
         <v>0</v>
       </c>
       <c r="H353" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11927,7 +11933,7 @@
         <v>0</v>
       </c>
       <c r="H354" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11953,7 +11959,7 @@
         <v>1</v>
       </c>
       <c r="H355" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11979,7 +11985,7 @@
         <v>0.4671289773253784</v>
       </c>
       <c r="H356" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -12005,7 +12011,7 @@
         <v>0.620001927632466</v>
       </c>
       <c r="H357" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -12031,7 +12037,7 @@
         <v>0.6957105060667875</v>
       </c>
       <c r="H358" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -12057,7 +12063,7 @@
         <v>0</v>
       </c>
       <c r="H359" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -12083,7 +12089,7 @@
         <v>0.4905456411905179</v>
       </c>
       <c r="H360" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -12109,7 +12115,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -12135,7 +12141,7 @@
         <v>0</v>
       </c>
       <c r="H362" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -12161,7 +12167,7 @@
         <v>0</v>
       </c>
       <c r="H363" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -12187,7 +12193,7 @@
         <v>0</v>
       </c>
       <c r="H364" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -12213,7 +12219,7 @@
         <v>0</v>
       </c>
       <c r="H365" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -12239,7 +12245,7 @@
         <v>1</v>
       </c>
       <c r="H366" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -12265,7 +12271,7 @@
         <v>0</v>
       </c>
       <c r="H367" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -12291,7 +12297,7 @@
         <v>0</v>
       </c>
       <c r="H368" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -12317,7 +12323,7 @@
         <v>1</v>
       </c>
       <c r="H369" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -12343,7 +12349,7 @@
         <v>0.6127664785798932</v>
       </c>
       <c r="H370" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -12369,7 +12375,7 @@
         <v>1</v>
       </c>
       <c r="H371" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -12395,7 +12401,7 @@
         <v>1</v>
       </c>
       <c r="H372" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -12421,7 +12427,7 @@
         <v>0</v>
       </c>
       <c r="H373" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -12447,7 +12453,7 @@
         <v>1</v>
       </c>
       <c r="H374" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -12473,7 +12479,7 @@
         <v>0</v>
       </c>
       <c r="H375" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -12499,7 +12505,7 @@
         <v>1</v>
       </c>
       <c r="H376" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -12525,7 +12531,7 @@
         <v>0</v>
       </c>
       <c r="H377" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -12551,7 +12557,7 @@
         <v>0</v>
       </c>
       <c r="H378" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -12577,7 +12583,7 @@
         <v>0</v>
       </c>
       <c r="H379" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -12603,7 +12609,7 @@
         <v>0.2247282290278291</v>
       </c>
       <c r="H380" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -12629,7 +12635,7 @@
         <v>1</v>
       </c>
       <c r="H381" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12655,7 +12661,7 @@
         <v>1</v>
       </c>
       <c r="H382" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12681,7 +12687,7 @@
         <v>1</v>
       </c>
       <c r="H383" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12707,7 +12713,7 @@
         <v>1</v>
       </c>
       <c r="H384" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12733,7 +12739,7 @@
         <v>1</v>
       </c>
       <c r="H385" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12759,7 +12765,7 @@
         <v>0.5175780030761412</v>
       </c>
       <c r="H386" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12785,7 +12791,7 @@
         <v>0.407629165987654</v>
       </c>
       <c r="H387" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12811,7 +12817,7 @@
         <v>0.5917118171892221</v>
       </c>
       <c r="H388" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12837,7 +12843,7 @@
         <v>0</v>
       </c>
       <c r="H389" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12863,7 +12869,7 @@
         <v>0</v>
       </c>
       <c r="H390" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12889,7 +12895,7 @@
         <v>0.1210744071449007</v>
       </c>
       <c r="H391" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12915,7 +12921,7 @@
         <v>0</v>
       </c>
       <c r="H392" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12941,7 +12947,7 @@
         <v>0.4730991435488794</v>
       </c>
       <c r="H393" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12967,7 +12973,7 @@
         <v>1</v>
       </c>
       <c r="H394" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12993,7 +12999,7 @@
         <v>0</v>
       </c>
       <c r="H395" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -13019,7 +13025,7 @@
         <v>1</v>
       </c>
       <c r="H396" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -13045,7 +13051,7 @@
         <v>1</v>
       </c>
       <c r="H397" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -13071,7 +13077,7 @@
         <v>1</v>
       </c>
       <c r="H398" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -13097,7 +13103,7 @@
         <v>1</v>
       </c>
       <c r="H399" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -13123,7 +13129,7 @@
         <v>0</v>
       </c>
       <c r="H400" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -13149,7 +13155,7 @@
         <v>1</v>
       </c>
       <c r="H401" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -13175,7 +13181,7 @@
         <v>1</v>
       </c>
       <c r="H402" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -13201,7 +13207,7 @@
         <v>0</v>
       </c>
       <c r="H403" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -13227,7 +13233,7 @@
         <v>1</v>
       </c>
       <c r="H404" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -13253,7 +13259,7 @@
         <v>0</v>
       </c>
       <c r="H405" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -13279,7 +13285,7 @@
         <v>0.7209622620919816</v>
       </c>
       <c r="H406" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -13305,7 +13311,7 @@
         <v>1</v>
       </c>
       <c r="H407" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -13331,7 +13337,7 @@
         <v>1</v>
       </c>
       <c r="H408" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -13357,7 +13363,7 @@
         <v>1</v>
       </c>
       <c r="H409" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -13383,7 +13389,7 @@
         <v>1</v>
       </c>
       <c r="H410" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -13409,7 +13415,7 @@
         <v>0</v>
       </c>
       <c r="H411" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -13435,7 +13441,7 @@
         <v>1</v>
       </c>
       <c r="H412" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -13461,7 +13467,7 @@
         <v>0</v>
       </c>
       <c r="H413" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -13487,7 +13493,7 @@
         <v>1</v>
       </c>
       <c r="H414" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -13513,7 +13519,7 @@
         <v>1</v>
       </c>
       <c r="H415" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -13539,7 +13545,7 @@
         <v>1</v>
       </c>
       <c r="H416" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -13565,7 +13571,7 @@
         <v>0.7565382919417687</v>
       </c>
       <c r="H417" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -13591,7 +13597,7 @@
         <v>1</v>
       </c>
       <c r="H418" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -13617,7 +13623,7 @@
         <v>0.58958180434202</v>
       </c>
       <c r="H419" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13643,7 +13649,7 @@
         <v>0.4342165329712733</v>
       </c>
       <c r="H420" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13669,7 +13675,7 @@
         <v>1</v>
       </c>
       <c r="H421" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13695,7 +13701,7 @@
         <v>0.6575336465873136</v>
       </c>
       <c r="H422" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13721,7 +13727,7 @@
         <v>1</v>
       </c>
       <c r="H423" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13747,7 +13753,7 @@
         <v>1</v>
       </c>
       <c r="H424" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13773,7 +13779,7 @@
         <v>1</v>
       </c>
       <c r="H425" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13799,7 +13805,7 @@
         <v>1</v>
       </c>
       <c r="H426" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13825,7 +13831,7 @@
         <v>0.1931729729332681</v>
       </c>
       <c r="H427" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13851,7 +13857,7 @@
         <v>1</v>
       </c>
       <c r="H428" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13877,7 +13883,7 @@
         <v>0.838787845031057</v>
       </c>
       <c r="H429" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13903,7 +13909,7 @@
         <v>0</v>
       </c>
       <c r="H430" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13929,7 +13935,7 @@
         <v>0.1022396663436237</v>
       </c>
       <c r="H431" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13955,7 +13961,7 @@
         <v>0</v>
       </c>
       <c r="H432" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13981,7 +13987,7 @@
         <v>1</v>
       </c>
       <c r="H433" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -14007,7 +14013,7 @@
         <v>0.4540250855516209</v>
       </c>
       <c r="H434" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -14033,7 +14039,7 @@
         <v>0.2896165830953565</v>
       </c>
       <c r="H435" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -14059,7 +14065,7 @@
         <v>0.7917401509339994</v>
       </c>
       <c r="H436" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -14085,7 +14091,7 @@
         <v>0</v>
       </c>
       <c r="H437" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -14111,7 +14117,7 @@
         <v>1</v>
       </c>
       <c r="H438" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -14137,7 +14143,7 @@
         <v>0.7067178088732917</v>
       </c>
       <c r="H439" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -14163,7 +14169,7 @@
         <v>1</v>
       </c>
       <c r="H440" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -14189,7 +14195,7 @@
         <v>1</v>
       </c>
       <c r="H441" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -14215,7 +14221,7 @@
         <v>0</v>
       </c>
       <c r="H442" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -14241,7 +14247,7 @@
         <v>1</v>
       </c>
       <c r="H443" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -14267,7 +14273,7 @@
         <v>1</v>
       </c>
       <c r="H444" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -14293,7 +14299,7 @@
         <v>1</v>
       </c>
       <c r="H445" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -14319,7 +14325,7 @@
         <v>0.3206802237079347</v>
       </c>
       <c r="H446" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -14345,7 +14351,7 @@
         <v>0</v>
       </c>
       <c r="H447" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -14371,7 +14377,7 @@
         <v>0.2166572947957321</v>
       </c>
       <c r="H448" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -14397,7 +14403,7 @@
         <v>0.09220139004312224</v>
       </c>
       <c r="H449" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -14423,7 +14429,7 @@
         <v>0</v>
       </c>
       <c r="H450" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -14449,7 +14455,7 @@
         <v>0</v>
       </c>
       <c r="H451" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -14475,7 +14481,7 @@
         <v>1</v>
       </c>
       <c r="H452" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -14501,7 +14507,7 @@
         <v>1</v>
       </c>
       <c r="H453" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -14527,7 +14533,7 @@
         <v>1</v>
       </c>
       <c r="H454" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -14553,7 +14559,7 @@
         <v>1</v>
       </c>
       <c r="H455" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -14579,7 +14585,7 @@
         <v>1</v>
       </c>
       <c r="H456" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -14605,7 +14611,7 @@
         <v>0.5355349910433382</v>
       </c>
       <c r="H457" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14631,7 +14637,7 @@
         <v>1</v>
       </c>
       <c r="H458" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14657,7 +14663,7 @@
         <v>1</v>
       </c>
       <c r="H459" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14683,7 +14689,7 @@
         <v>0</v>
       </c>
       <c r="H460" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14709,7 +14715,7 @@
         <v>0.7362068598138494</v>
       </c>
       <c r="H461" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14735,7 +14741,7 @@
         <v>1</v>
       </c>
       <c r="H462" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14761,7 +14767,7 @@
         <v>1</v>
       </c>
       <c r="H463" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14787,7 +14793,7 @@
         <v>0.8290442293029383</v>
       </c>
       <c r="H464" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14813,7 +14819,7 @@
         <v>1</v>
       </c>
       <c r="H465" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14839,7 +14845,7 @@
         <v>1</v>
       </c>
       <c r="H466" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14865,7 +14871,7 @@
         <v>0.2972172914877398</v>
       </c>
       <c r="H467" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14891,7 +14897,7 @@
         <v>1</v>
       </c>
       <c r="H468" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14917,7 +14923,7 @@
         <v>0.3828030816675656</v>
       </c>
       <c r="H469" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14943,7 +14949,7 @@
         <v>1</v>
       </c>
       <c r="H470" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14969,7 +14975,7 @@
         <v>1</v>
       </c>
       <c r="H471" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14995,7 +15001,7 @@
         <v>0.7072751504056575</v>
       </c>
       <c r="H472" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -15021,7 +15027,7 @@
         <v>0.6887345743487142</v>
       </c>
       <c r="H473" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -15047,7 +15053,7 @@
         <v>0.1067305209771346</v>
       </c>
       <c r="H474" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -15073,7 +15079,7 @@
         <v>0</v>
       </c>
       <c r="H475" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -15099,7 +15105,7 @@
         <v>0.6057977033084144</v>
       </c>
       <c r="H476" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -15125,7 +15131,7 @@
         <v>0.6091777797350002</v>
       </c>
       <c r="H477" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -15151,7 +15157,7 @@
         <v>0.5694759431987656</v>
       </c>
       <c r="H478" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -15177,7 +15183,7 @@
         <v>0.6207146575699412</v>
       </c>
       <c r="H479" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -15203,7 +15209,7 @@
         <v>0.283376215899611</v>
       </c>
       <c r="H480" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -15229,7 +15235,7 @@
         <v>0.2427067649021355</v>
       </c>
       <c r="H481" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -15255,7 +15261,7 @@
         <v>1</v>
       </c>
       <c r="H482" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -15281,7 +15287,7 @@
         <v>0.5104176137220019</v>
       </c>
       <c r="H483" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -15307,7 +15313,7 @@
         <v>1</v>
       </c>
       <c r="H484" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -15333,7 +15339,7 @@
         <v>1</v>
       </c>
       <c r="H485" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -15359,7 +15365,7 @@
         <v>1</v>
       </c>
       <c r="H486" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -15385,7 +15391,7 @@
         <v>1</v>
       </c>
       <c r="H487" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -15411,7 +15417,7 @@
         <v>0.4677260579614761</v>
       </c>
       <c r="H488" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -15437,7 +15443,7 @@
         <v>1</v>
       </c>
       <c r="H489" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -15463,7 +15469,7 @@
         <v>0.476242461576072</v>
       </c>
       <c r="H490" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -15489,7 +15495,7 @@
         <v>1</v>
       </c>
       <c r="H491" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -15515,7 +15521,7 @@
         <v>0.4885601466764756</v>
       </c>
       <c r="H492" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -15541,7 +15547,7 @@
         <v>1</v>
       </c>
       <c r="H493" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -15567,7 +15573,7 @@
         <v>0.1892964267045682</v>
       </c>
       <c r="H494" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -15593,7 +15599,7 @@
         <v>1</v>
       </c>
       <c r="H495" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -15619,7 +15625,7 @@
         <v>1</v>
       </c>
       <c r="H496" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -15645,7 +15651,7 @@
         <v>0.562429454701116</v>
       </c>
       <c r="H497" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -15671,7 +15677,7 @@
         <v>0.5893467746014928</v>
       </c>
       <c r="H498" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -15697,7 +15703,7 @@
         <v>0.2453840526620205</v>
       </c>
       <c r="H499" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -15723,7 +15729,7 @@
         <v>1</v>
       </c>
       <c r="H500" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15749,7 +15755,7 @@
         <v>0.4919547742740523</v>
       </c>
       <c r="H501" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -15775,7 +15781,7 @@
         <v>1</v>
       </c>
       <c r="H502" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15801,7 +15807,7 @@
         <v>1</v>
       </c>
       <c r="H503" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -15827,7 +15833,7 @@
         <v>1</v>
       </c>
       <c r="H504" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -15853,7 +15859,7 @@
         <v>0.5332096778046151</v>
       </c>
       <c r="H505" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -15879,7 +15885,7 @@
         <v>1</v>
       </c>
       <c r="H506" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15905,7 +15911,7 @@
         <v>0.4095043245568133</v>
       </c>
       <c r="H507" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15931,7 +15937,7 @@
         <v>0.9563556993906542</v>
       </c>
       <c r="H508" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15957,7 +15963,7 @@
         <v>1</v>
       </c>
       <c r="H509" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15983,7 +15989,7 @@
         <v>0.3151420077674845</v>
       </c>
       <c r="H510" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -16009,7 +16015,7 @@
         <v>1</v>
       </c>
       <c r="H511" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -16035,7 +16041,7 @@
         <v>0</v>
       </c>
       <c r="H512" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -16061,7 +16067,7 @@
         <v>0.1226144815616208</v>
       </c>
       <c r="H513" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -16087,7 +16093,7 @@
         <v>0.348937876188559</v>
       </c>
       <c r="H514" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -16113,7 +16119,7 @@
         <v>1</v>
       </c>
       <c r="H515" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -16139,7 +16145,7 @@
         <v>1</v>
       </c>
       <c r="H516" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -16165,7 +16171,7 @@
         <v>1</v>
       </c>
       <c r="H517" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -16191,7 +16197,7 @@
         <v>0.8236312239487298</v>
       </c>
       <c r="H518" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -16217,7 +16223,7 @@
         <v>1</v>
       </c>
       <c r="H519" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -16243,7 +16249,7 @@
         <v>0.4553771692067081</v>
       </c>
       <c r="H520" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -16269,7 +16275,7 @@
         <v>1</v>
       </c>
       <c r="H521" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -16295,7 +16301,7 @@
         <v>0.7309927778789053</v>
       </c>
       <c r="H522" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -16321,7 +16327,7 @@
         <v>1</v>
       </c>
       <c r="H523" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -16347,7 +16353,7 @@
         <v>0.5966838048782487</v>
       </c>
       <c r="H524" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -16373,7 +16379,7 @@
         <v>1</v>
       </c>
       <c r="H525" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -16399,7 +16405,7 @@
         <v>0.5392000628733806</v>
       </c>
       <c r="H526" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -16425,7 +16431,7 @@
         <v>0.2752626559507874</v>
       </c>
       <c r="H527" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -16451,7 +16457,7 @@
         <v>0.6423944529437058</v>
       </c>
       <c r="H528" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -16477,7 +16483,7 @@
         <v>0.7096367257969294</v>
       </c>
       <c r="H529" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -16503,7 +16509,7 @@
         <v>0.266</v>
       </c>
       <c r="H530" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -16529,7 +16535,7 @@
         <v>0.2872</v>
       </c>
       <c r="H531" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -16555,7 +16561,7 @@
         <v>0.6227</v>
       </c>
       <c r="H532" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -16581,7 +16587,7 @@
         <v>1</v>
       </c>
       <c r="H533" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -16607,7 +16613,7 @@
         <v>0</v>
       </c>
       <c r="H534" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -16633,7 +16639,7 @@
         <v>1</v>
       </c>
       <c r="H535" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -16659,7 +16665,7 @@
         <v>1</v>
       </c>
       <c r="H536" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -16685,7 +16691,7 @@
         <v>0</v>
       </c>
       <c r="H537" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -16711,7 +16717,7 @@
         <v>0</v>
       </c>
       <c r="H538" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -16737,7 +16743,7 @@
         <v>0</v>
       </c>
       <c r="H539" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -16763,7 +16769,7 @@
         <v>0.6155</v>
       </c>
       <c r="H540" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -16789,7 +16795,7 @@
         <v>0.4573</v>
       </c>
       <c r="H541" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -16815,7 +16821,7 @@
         <v>1</v>
       </c>
       <c r="H542" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -16841,7 +16847,7 @@
         <v>0.835</v>
       </c>
       <c r="H543" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -16867,7 +16873,7 @@
         <v>0.7548999999999999</v>
       </c>
       <c r="H544" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -16893,7 +16899,7 @@
         <v>1</v>
       </c>
       <c r="H545" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -16919,7 +16925,7 @@
         <v>0</v>
       </c>
       <c r="H546" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -16945,7 +16951,7 @@
         <v>0</v>
       </c>
       <c r="H547" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -16971,7 +16977,7 @@
         <v>0.9719</v>
       </c>
       <c r="H548" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -16997,7 +17003,7 @@
         <v>0</v>
       </c>
       <c r="H549" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -17023,7 +17029,7 @@
         <v>0</v>
       </c>
       <c r="H550" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -17049,7 +17055,7 @@
         <v>0</v>
       </c>
       <c r="H551" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -17075,7 +17081,7 @@
         <v>0.2973</v>
       </c>
       <c r="H552" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -17101,7 +17107,7 @@
         <v>1</v>
       </c>
       <c r="H553" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -17127,7 +17133,7 @@
         <v>1</v>
       </c>
       <c r="H554" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -17153,7 +17159,7 @@
         <v>1</v>
       </c>
       <c r="H555" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -17179,7 +17185,7 @@
         <v>1</v>
       </c>
       <c r="H556" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -17205,7 +17211,7 @@
         <v>1</v>
       </c>
       <c r="H557" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -17231,7 +17237,7 @@
         <v>1</v>
       </c>
       <c r="H558" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -17257,7 +17263,7 @@
         <v>1</v>
       </c>
       <c r="H559" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -17283,7 +17289,7 @@
         <v>0</v>
       </c>
       <c r="H560" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -17309,7 +17315,7 @@
         <v>0</v>
       </c>
       <c r="H561" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -17335,7 +17341,7 @@
         <v>0</v>
       </c>
       <c r="H562" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -17361,7 +17367,7 @@
         <v>0</v>
       </c>
       <c r="H563" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -17387,7 +17393,7 @@
         <v>1</v>
       </c>
       <c r="H564" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -17413,7 +17419,7 @@
         <v>1</v>
       </c>
       <c r="H565" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -17439,7 +17445,7 @@
         <v>0.0266</v>
       </c>
       <c r="H566" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -17465,7 +17471,7 @@
         <v>0</v>
       </c>
       <c r="H567" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -17491,7 +17497,7 @@
         <v>1</v>
       </c>
       <c r="H568" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -17517,7 +17523,7 @@
         <v>1</v>
       </c>
       <c r="H569" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -17543,7 +17549,7 @@
         <v>1</v>
       </c>
       <c r="H570" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -17569,7 +17575,7 @@
         <v>0</v>
       </c>
       <c r="H571" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -17579,9 +17585,15 @@
       <c r="B572" t="s">
         <v>577</v>
       </c>
+      <c r="C572">
+        <v>1</v>
+      </c>
       <c r="D572">
         <v>0</v>
       </c>
+      <c r="E572">
+        <v>0</v>
+      </c>
       <c r="F572">
         <v>1</v>
       </c>
@@ -17589,7 +17601,53 @@
         <v>0</v>
       </c>
       <c r="H572" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="573" spans="1:8">
+      <c r="A573" s="1">
+        <v>571</v>
+      </c>
+      <c r="B573" t="s">
+        <v>578</v>
+      </c>
+      <c r="C573">
+        <v>0</v>
+      </c>
+      <c r="D573">
+        <v>1</v>
+      </c>
+      <c r="E573">
+        <v>0</v>
+      </c>
+      <c r="F573">
+        <v>0</v>
+      </c>
+      <c r="G573">
+        <v>1</v>
+      </c>
+      <c r="H573" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="574" spans="1:8">
+      <c r="A574" s="1">
+        <v>572</v>
+      </c>
+      <c r="B574" t="s">
         <v>579</v>
+      </c>
+      <c r="D574">
+        <v>1</v>
+      </c>
+      <c r="F574">
+        <v>0</v>
+      </c>
+      <c r="G574">
+        <v>1</v>
+      </c>
+      <c r="H574" t="s">
+        <v>581</v>
       </c>
     </row>
   </sheetData>
